--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Element</t>
   </si>
@@ -25,6 +25,24 @@
     <t>Biorefinery</t>
   </si>
   <si>
+    <t>Biofuel displacement</t>
+  </si>
+  <si>
+    <t>Ethanol displacement</t>
+  </si>
+  <si>
+    <t>Biodiesel displacement</t>
+  </si>
+  <si>
+    <t>Biofuel allocation</t>
+  </si>
+  <si>
+    <t>Ethanol allocation</t>
+  </si>
+  <si>
+    <t>Biodiesel allocation</t>
+  </si>
+  <si>
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
@@ -67,6 +85,15 @@
     <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
+    <t>GWP [kg*CO2*eq / GGE]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2*eq / (ethanol*gal)]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2*eq / (biodiesel*gal)]</t>
+  </si>
+  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -112,6 +139,9 @@
     <t>oilsorghum</t>
   </si>
   <si>
+    <t>Stream-oilcane</t>
+  </si>
+  <si>
     <t>Oil retention [%]</t>
   </si>
   <si>
@@ -172,16 +202,16 @@
     <t>Productivity [g/L]</t>
   </si>
   <si>
-    <t>Cane  PL content [% oil]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL content [% oil]</t>
-  </si>
-  <si>
-    <t>Cane  FFA content [% oil]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA content [% oil]</t>
+    <t>Cane PL content [% oil]</t>
+  </si>
+  <si>
+    <t>Sorghum PL content [% oil]</t>
+  </si>
+  <si>
+    <t>Cane FFA content [% oil]</t>
+  </si>
+  <si>
+    <t>Sorghum FFA content [% oil]</t>
   </si>
   <si>
     <t>Cane oil content [dry wt. %]</t>
@@ -190,7 +220,10 @@
     <t>Relative sorghum oil content [dry wt. %]</t>
   </si>
   <si>
-    <t>TAG to  FFA conversion [% oil]</t>
+    <t>TAG to FFA conversion [% oil]</t>
+  </si>
+  <si>
+    <t>GWP [kg*CO2-eq/kg]</t>
   </si>
 </sst>
 </file>
@@ -548,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,1360 +607,1998 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4">
-        <v>-0.1207240349089614</v>
+        <v>-0.306954695469547</v>
       </c>
       <c r="D4">
-        <v>-0.1353639366145575</v>
+        <v>-0.2128532853285328</v>
       </c>
       <c r="E4">
-        <v>0.001622180032887201</v>
+        <v>0.06343834383438343</v>
       </c>
       <c r="F4">
-        <v>0.02750092631603705</v>
+        <v>-0.02467446744674467</v>
       </c>
       <c r="H4">
-        <v>0.04017603818304152</v>
+        <v>-0.03177917791779178</v>
       </c>
       <c r="I4">
-        <v>0.01973776485351059</v>
+        <v>-0.03986798679867986</v>
       </c>
       <c r="J4">
-        <v>0.4389604772925654</v>
+        <v>0.4515465092924892</v>
       </c>
       <c r="K4">
-        <v>-0.08367915099516603</v>
+        <v>-0.09866186618661864</v>
       </c>
       <c r="L4">
-        <v>-0.7097035989801438</v>
+        <v>-0.716123612361236</v>
       </c>
       <c r="M4">
-        <v>0.01743464392938576</v>
+        <v>0.004056405640564056</v>
       </c>
       <c r="N4">
-        <v>0.274069651122786</v>
+        <v>0.315043504350435</v>
       </c>
       <c r="P4">
-        <v>0.1978189440407578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0.3118751875187519</v>
+      </c>
+      <c r="Q4">
+        <v>-0.04966096609660965</v>
+      </c>
+      <c r="R4">
+        <v>-0.04966096609660965</v>
+      </c>
+      <c r="S4">
+        <v>-0.04966096609660965</v>
+      </c>
+      <c r="T4">
+        <v>0.1281848184818482</v>
+      </c>
+      <c r="U4">
+        <v>0.1281848184818482</v>
+      </c>
+      <c r="V4">
+        <v>0.1281848184818482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>0.07530374970014997</v>
+        <v>-0.1308010801080108</v>
       </c>
       <c r="D5">
-        <v>0.1259096082683843</v>
+        <v>0.04416441644164416</v>
       </c>
       <c r="E5">
-        <v>-0.001781418791256751</v>
+        <v>0.08638463846384636</v>
       </c>
       <c r="F5">
-        <v>-0.07887519099500763</v>
+        <v>-0.1600600060006</v>
       </c>
       <c r="H5">
-        <v>-0.005059551658382065</v>
+        <v>-0.1643564356435643</v>
       </c>
       <c r="I5">
-        <v>0.02170276147611046</v>
+        <v>-0.1047704770477047</v>
       </c>
       <c r="J5">
-        <v>-0.01587937410036635</v>
+        <v>-0.07186340193072227</v>
       </c>
       <c r="K5">
-        <v>0.09729441307577651</v>
+        <v>0.05099309930993099</v>
       </c>
       <c r="L5">
-        <v>0.6532761309310451</v>
+        <v>0.6458445844584457</v>
       </c>
       <c r="M5">
-        <v>0.01720595080023803</v>
+        <v>0.1647524752475248</v>
       </c>
       <c r="N5">
-        <v>-0.3837798934951958</v>
+        <v>-0.4159135913591358</v>
       </c>
       <c r="P5">
-        <v>-0.08992376826895071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>-0.1342334233423342</v>
+      </c>
+      <c r="Q5">
+        <v>0.2225022502250225</v>
+      </c>
+      <c r="R5">
+        <v>0.2225022502250225</v>
+      </c>
+      <c r="S5">
+        <v>0.2225022502250225</v>
+      </c>
+      <c r="T5">
+        <v>-0.0909210921092109</v>
+      </c>
+      <c r="U5">
+        <v>-0.0909210921092109</v>
+      </c>
+      <c r="V5">
+        <v>-0.0909210921092109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C6">
-        <v>0.1789048738121949</v>
+        <v>0.2946174617461746</v>
       </c>
       <c r="D6">
-        <v>0.02208441045137641</v>
+        <v>0.06441044104410441</v>
       </c>
       <c r="E6">
-        <v>-0.02133625640545025</v>
+        <v>-0.07601560156015602</v>
       </c>
       <c r="F6">
-        <v>0.02678981713559268</v>
+        <v>0.0935133513351335</v>
       </c>
       <c r="H6">
-        <v>0.907232576257303</v>
+        <v>0.9037623762376237</v>
       </c>
       <c r="I6">
-        <v>0.9749377000535078</v>
+        <v>0.9740294029402939</v>
       </c>
       <c r="J6">
-        <v>-0.3841905968757665</v>
+        <v>-0.1626767557065699</v>
       </c>
       <c r="K6">
-        <v>0.02965578733023149</v>
+        <v>0.04706870687068707</v>
       </c>
       <c r="L6">
-        <v>0.003787004407480176</v>
+        <v>-0.0603060306030603</v>
       </c>
       <c r="M6">
-        <v>-0.02696584744663389</v>
+        <v>-0.1217281728172817</v>
       </c>
       <c r="N6">
-        <v>-0.04142063839282553</v>
+        <v>-0.01892589258925892</v>
       </c>
       <c r="P6">
-        <v>0.3740106502884259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>0.244068406840684</v>
+      </c>
+      <c r="Q6">
+        <v>-0.02713471347134713</v>
+      </c>
+      <c r="R6">
+        <v>-0.02713471347134713</v>
+      </c>
+      <c r="S6">
+        <v>-0.02713471347134713</v>
+      </c>
+      <c r="T6">
+        <v>0.2492049204920492</v>
+      </c>
+      <c r="U6">
+        <v>0.2492049204920492</v>
+      </c>
+      <c r="V6">
+        <v>0.2492049204920492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C7">
-        <v>0.4797457437018297</v>
+        <v>0.3525352535253525</v>
       </c>
       <c r="D7">
-        <v>-0.003509823404392936</v>
+        <v>-0.09114911491149114</v>
       </c>
       <c r="E7">
-        <v>0.007038167705526707</v>
+        <v>0.09077707770777077</v>
       </c>
       <c r="F7">
-        <v>-0.00765519477020779</v>
+        <v>-0.07158715871587158</v>
       </c>
       <c r="H7">
-        <v>-0.007496750507870019</v>
+        <v>-0.008832883288328831</v>
       </c>
       <c r="I7">
-        <v>0.0009380796855231872</v>
+        <v>0.009948994899489947</v>
       </c>
       <c r="J7">
-        <v>-0.01501715135529695</v>
+        <v>-0.1310955028373822</v>
       </c>
       <c r="K7">
-        <v>-0.6005088408203535</v>
+        <v>-0.6589138913891388</v>
       </c>
       <c r="L7">
-        <v>0.01291315635652625</v>
+        <v>-0.04458445844584458</v>
       </c>
       <c r="M7">
-        <v>0.02279328676773146</v>
+        <v>-0.01412541254125412</v>
       </c>
       <c r="N7">
-        <v>-0.002264591898583676</v>
+        <v>0.08458445844584457</v>
       </c>
       <c r="P7">
-        <v>0.01135485050219402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>0.08693669366936692</v>
+      </c>
+      <c r="Q7">
+        <v>0.07441944194419441</v>
+      </c>
+      <c r="R7">
+        <v>0.07441944194419441</v>
+      </c>
+      <c r="S7">
+        <v>0.07441944194419441</v>
+      </c>
+      <c r="T7">
+        <v>0.09543354335433543</v>
+      </c>
+      <c r="U7">
+        <v>0.09543354335433543</v>
+      </c>
+      <c r="V7">
+        <v>0.09543354335433543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>0.5209711169348445</v>
+        <v>0.4437923792379237</v>
       </c>
       <c r="D8">
-        <v>-0.00508519700340788</v>
+        <v>-0.03332733273327333</v>
       </c>
       <c r="E8">
-        <v>0.005594811487792458</v>
+        <v>0.04686468646864686</v>
       </c>
       <c r="F8">
-        <v>-0.004260535658421425</v>
+        <v>-0.053009300930093</v>
       </c>
       <c r="H8">
-        <v>0.01141644381665775</v>
+        <v>0.04783678367836783</v>
       </c>
       <c r="I8">
-        <v>0.01705751597830064</v>
+        <v>0.1034143414341434</v>
       </c>
       <c r="J8">
-        <v>-0.01379208915294479</v>
+        <v>-0.04401453349714828</v>
       </c>
       <c r="K8">
-        <v>0.7082850086514003</v>
+        <v>0.7714731473147313</v>
       </c>
       <c r="L8">
-        <v>-0.008756717918268715</v>
+        <v>0.01617761776177618</v>
       </c>
       <c r="M8">
-        <v>0.002732279533291181</v>
+        <v>-0.1501830183018302</v>
       </c>
       <c r="N8">
-        <v>0.01687639709105588</v>
+        <v>-0.009876987698769876</v>
       </c>
       <c r="P8">
-        <v>0.01120336931213477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>0.01612961296129613</v>
+      </c>
+      <c r="Q8">
+        <v>0.04879687968796879</v>
+      </c>
+      <c r="R8">
+        <v>0.04879687968796879</v>
+      </c>
+      <c r="S8">
+        <v>0.04879687968796879</v>
+      </c>
+      <c r="T8">
+        <v>0.05934593459345935</v>
+      </c>
+      <c r="U8">
+        <v>0.05934593459345935</v>
+      </c>
+      <c r="V8">
+        <v>0.05934593459345935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>-0.002180692983227719</v>
+        <v>0.1154995499549955</v>
       </c>
       <c r="D9">
-        <v>0.009990475215619007</v>
+        <v>0.1398979897989799</v>
       </c>
       <c r="E9">
-        <v>-0.01150037095601484</v>
+        <v>-0.112979297929793</v>
       </c>
       <c r="F9">
-        <v>0.0111030025561201</v>
+        <v>0.1030783078307831</v>
       </c>
       <c r="H9">
-        <v>-0.008287664875506594</v>
+        <v>-0.05772577257725772</v>
       </c>
       <c r="I9">
-        <v>-0.01634159412566376</v>
+        <v>-0.08783678367836784</v>
       </c>
       <c r="J9">
-        <v>0.005453311411752129</v>
+        <v>-0.05532569854719935</v>
       </c>
       <c r="K9">
-        <v>0.001306211860248474</v>
+        <v>0.009708970897089709</v>
       </c>
       <c r="L9">
-        <v>-0.01338967675958707</v>
+        <v>0.08158415841584157</v>
       </c>
       <c r="M9">
-        <v>0.004879723683188946</v>
+        <v>0.1138793879387939</v>
       </c>
       <c r="N9">
-        <v>0.001141002573640103</v>
+        <v>-0.1475307530753075</v>
       </c>
       <c r="P9">
-        <v>-0.01023615727344629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>-0.2422922292229223</v>
+      </c>
+      <c r="Q9">
+        <v>-0.1082628262826282</v>
+      </c>
+      <c r="R9">
+        <v>-0.1082628262826282</v>
+      </c>
+      <c r="S9">
+        <v>-0.1082628262826282</v>
+      </c>
+      <c r="T9">
+        <v>-0.1905790579057905</v>
+      </c>
+      <c r="U9">
+        <v>-0.1905790579057905</v>
+      </c>
+      <c r="V9">
+        <v>-0.1905790579057905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C10">
-        <v>0.08492792960511718</v>
+        <v>0.03425142514251425</v>
       </c>
       <c r="D10">
-        <v>-0.002994886295795451</v>
+        <v>-0.1646444644464446</v>
       </c>
       <c r="E10">
-        <v>0.003938151613526064</v>
+        <v>0.1452025202520252</v>
       </c>
       <c r="F10">
-        <v>-0.006212804408512175</v>
+        <v>-0.1315211521152115</v>
       </c>
       <c r="H10">
-        <v>0.01374942822997713</v>
+        <v>0.05058505850585057</v>
       </c>
       <c r="I10">
-        <v>0.01516995871879835</v>
+        <v>0.08636063606360635</v>
       </c>
       <c r="J10">
-        <v>0.005918173097894421</v>
+        <v>0.04561669852015287</v>
       </c>
       <c r="K10">
-        <v>0.08447655928306236</v>
+        <v>0.01534953495349535</v>
       </c>
       <c r="L10">
-        <v>0.006708811852352472</v>
+        <v>-0.1020582058205821</v>
       </c>
       <c r="M10">
-        <v>0.02119549707181988</v>
+        <v>0.04609660966096609</v>
       </c>
       <c r="N10">
-        <v>0.007912353148494125</v>
+        <v>0.1840624062406241</v>
       </c>
       <c r="P10">
-        <v>0.03017928571917143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0.1205400540054005</v>
+      </c>
+      <c r="Q10">
+        <v>0.1306090609060906</v>
+      </c>
+      <c r="R10">
+        <v>0.1306090609060906</v>
+      </c>
+      <c r="S10">
+        <v>0.1306090609060906</v>
+      </c>
+      <c r="T10">
+        <v>0.07098709870987098</v>
+      </c>
+      <c r="U10">
+        <v>0.07098709870987098</v>
+      </c>
+      <c r="V10">
+        <v>0.07098709870987098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C11">
-        <v>0.1070238140729526</v>
+        <v>0.2562616261626162</v>
       </c>
       <c r="D11">
-        <v>-0.01247928846717154</v>
+        <v>0.1482988298829883</v>
       </c>
       <c r="E11">
-        <v>0.01687706025908241</v>
+        <v>-0.1471467146714671</v>
       </c>
       <c r="F11">
-        <v>-0.01635475188619007</v>
+        <v>0.1311851185118512</v>
       </c>
       <c r="H11">
-        <v>0.0003334793413391736</v>
+        <v>0.03402340234023402</v>
       </c>
       <c r="I11">
-        <v>0.2239023292120931</v>
+        <v>0.1718931893189319</v>
       </c>
       <c r="J11">
-        <v>-0.01819829592282123</v>
+        <v>-0.02351642219159156</v>
       </c>
       <c r="K11">
-        <v>0.02290960104438404</v>
+        <v>0.1317011701170117</v>
       </c>
       <c r="L11">
-        <v>0.003984773823390952</v>
+        <v>0.07997599759975996</v>
       </c>
       <c r="M11">
-        <v>0.004543124725724988</v>
+        <v>-0.0372037203720372</v>
       </c>
       <c r="N11">
-        <v>0.01027513029900521</v>
+        <v>-0.1499429942994299</v>
       </c>
       <c r="P11">
-        <v>0.01011564558862582</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>-0.09767776777677767</v>
+      </c>
+      <c r="Q11">
+        <v>-0.1316891689168917</v>
+      </c>
+      <c r="R11">
+        <v>-0.1316891689168917</v>
+      </c>
+      <c r="S11">
+        <v>-0.1316891689168917</v>
+      </c>
+      <c r="T11">
+        <v>-0.1235403540354035</v>
+      </c>
+      <c r="U11">
+        <v>-0.1235403540354035</v>
+      </c>
+      <c r="V11">
+        <v>-0.1235403540354035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>-0.2002909106356364</v>
+        <v>-0.253093309330933</v>
       </c>
       <c r="D12">
-        <v>0.007185764447430578</v>
+        <v>-0.08490849084908489</v>
       </c>
       <c r="E12">
-        <v>-0.01019803615192144</v>
+        <v>0.07933993399339934</v>
       </c>
       <c r="F12">
-        <v>0.01240304824012193</v>
+        <v>-0.07607560756075607</v>
       </c>
       <c r="H12">
-        <v>0.01956238599849544</v>
+        <v>-0.03021902190219022</v>
       </c>
       <c r="I12">
-        <v>0.0174559776262391</v>
+        <v>0.03956795679567957</v>
       </c>
       <c r="J12">
-        <v>0.00220062207282003</v>
+        <v>-0.05131728568065606</v>
       </c>
       <c r="K12">
-        <v>-0.05237677793507111</v>
+        <v>-0.08588058805880587</v>
       </c>
       <c r="L12">
-        <v>-0.01144749616989985</v>
+        <v>-0.05189318931893189</v>
       </c>
       <c r="M12">
-        <v>-0.002231272025250881</v>
+        <v>0.03708370837083708</v>
       </c>
       <c r="N12">
-        <v>0.01347222591488904</v>
+        <v>0.01687368736873687</v>
       </c>
       <c r="P12">
-        <v>0.01274156489366259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>-0.04619261926192619</v>
+      </c>
+      <c r="Q12">
+        <v>0.0357035703570357</v>
+      </c>
+      <c r="R12">
+        <v>0.0357035703570357</v>
+      </c>
+      <c r="S12">
+        <v>0.0357035703570357</v>
+      </c>
+      <c r="T12">
+        <v>-0.08661266126612661</v>
+      </c>
+      <c r="U12">
+        <v>-0.08661266126612661</v>
+      </c>
+      <c r="V12">
+        <v>-0.08661266126612661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C13">
-        <v>0.03315997476639899</v>
+        <v>-0.09254125412541253</v>
       </c>
       <c r="D13">
-        <v>-0.005656162594246503</v>
+        <v>-0.0781158115811581</v>
       </c>
       <c r="E13">
-        <v>0.002406540096261604</v>
+        <v>0.06205820582058205</v>
       </c>
       <c r="F13">
-        <v>-0.002330751741230069</v>
+        <v>-0.04152415241524152</v>
       </c>
       <c r="H13">
-        <v>-0.003984678399387136</v>
+        <v>-0.01886588658865886</v>
       </c>
       <c r="I13">
-        <v>-0.004906292644251705</v>
+        <v>0.008544854485448544</v>
       </c>
       <c r="J13">
-        <v>0.01640617561345896</v>
+        <v>0.1533817983259178</v>
       </c>
       <c r="K13">
-        <v>0.02077501801500072</v>
+        <v>-0.170957095709571</v>
       </c>
       <c r="L13">
-        <v>-0.02000627686425107</v>
+        <v>-0.02605460546054605</v>
       </c>
       <c r="M13">
-        <v>-0.009945473293818929</v>
+        <v>-0.02294629462946294</v>
       </c>
       <c r="N13">
-        <v>0.01847951785918071</v>
+        <v>-0.02253825382538254</v>
       </c>
       <c r="P13">
-        <v>0.01595779359831174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>-0.04288028802880288</v>
+      </c>
+      <c r="Q13">
+        <v>0.02832283228322832</v>
+      </c>
+      <c r="R13">
+        <v>0.02832283228322832</v>
+      </c>
+      <c r="S13">
+        <v>0.02832283228322832</v>
+      </c>
+      <c r="T13">
+        <v>-0.06567056705670567</v>
+      </c>
+      <c r="U13">
+        <v>-0.06567056705670567</v>
+      </c>
+      <c r="V13">
+        <v>-0.06567056705670567</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14">
-        <v>-0.02987135889085435</v>
+        <v>-0.01896189618961896</v>
       </c>
       <c r="D14">
-        <v>0.008981766791270671</v>
+        <v>0.1727692769276927</v>
       </c>
       <c r="E14">
-        <v>-0.008742802333712092</v>
+        <v>-0.1882028202820282</v>
       </c>
       <c r="F14">
-        <v>0.008280619435224776</v>
+        <v>0.1885028502850285</v>
       </c>
       <c r="H14">
-        <v>0.004204814568192582</v>
+        <v>0.1881548154815481</v>
       </c>
       <c r="I14">
-        <v>-0.008075651459026058</v>
+        <v>0.1209000900090009</v>
       </c>
       <c r="J14">
-        <v>-0.008728296655746225</v>
+        <v>-0.04160828565360957</v>
       </c>
       <c r="K14">
-        <v>-0.04764936315397451</v>
+        <v>-0.1613201320132013</v>
       </c>
       <c r="L14">
-        <v>0.009144967853798713</v>
+        <v>-0.03537953795379538</v>
       </c>
       <c r="M14">
-        <v>0.001247707537908301</v>
+        <v>-0.2446444644464446</v>
       </c>
       <c r="N14">
-        <v>-0.004752631678105267</v>
+        <v>-0.1282568256825682</v>
       </c>
       <c r="P14">
-        <v>-0.01475000987000039</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>-0.1296249624962496</v>
+      </c>
+      <c r="Q14">
+        <v>-0.1413861386138614</v>
+      </c>
+      <c r="R14">
+        <v>-0.1413861386138614</v>
+      </c>
+      <c r="S14">
+        <v>-0.1413861386138614</v>
+      </c>
+      <c r="T14">
+        <v>0.1241404140414041</v>
+      </c>
+      <c r="U14">
+        <v>0.1241404140414041</v>
+      </c>
+      <c r="V14">
+        <v>0.1241404140414041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C15">
-        <v>-0.0112116799364672</v>
+        <v>-0.1251605160516051</v>
       </c>
       <c r="D15">
-        <v>-0.01238121611124864</v>
+        <v>-0.1882628262826282</v>
       </c>
       <c r="E15">
-        <v>0.0145272274610891</v>
+        <v>0.1804620462046204</v>
       </c>
       <c r="F15">
-        <v>-0.01524964428998577</v>
+        <v>-0.1821302130213021</v>
       </c>
       <c r="H15">
-        <v>-0.009192441391697654</v>
+        <v>-0.1376297629762976</v>
       </c>
       <c r="I15">
-        <v>-0.007918715740748627</v>
+        <v>-0.05232523252325232</v>
       </c>
       <c r="J15">
-        <v>-0.004243416778122427</v>
+        <v>0.03096918982669152</v>
       </c>
       <c r="K15">
-        <v>0.01827702533908101</v>
+        <v>-0.02546654665466546</v>
       </c>
       <c r="L15">
-        <v>0.01319193105567724</v>
+        <v>0.00252025202520252</v>
       </c>
       <c r="M15">
-        <v>-0.01267394681095787</v>
+        <v>0.08799279927992798</v>
       </c>
       <c r="N15">
-        <v>0.01327854801914192</v>
+        <v>0.2096009600960096</v>
       </c>
       <c r="P15">
-        <v>0.0009986580879463233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>0.1054545454545454</v>
+      </c>
+      <c r="Q15">
+        <v>0.1175397539753975</v>
+      </c>
+      <c r="R15">
+        <v>0.1175397539753975</v>
+      </c>
+      <c r="S15">
+        <v>0.1175397539753975</v>
+      </c>
+      <c r="T15">
+        <v>-0.1866786678667867</v>
+      </c>
+      <c r="U15">
+        <v>-0.1866786678667867</v>
+      </c>
+      <c r="V15">
+        <v>-0.1866786678667867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>-0.003294427139777085</v>
+        <v>0.1439183918391839</v>
       </c>
       <c r="D16">
-        <v>0.007992962143718484</v>
+        <v>-0.08714071407140712</v>
       </c>
       <c r="E16">
-        <v>-0.007344226853769073</v>
+        <v>0.1135073507350735</v>
       </c>
       <c r="F16">
-        <v>0.007385671591426863</v>
+        <v>-0.1040744074407441</v>
       </c>
       <c r="H16">
-        <v>0.009698426691937066</v>
+        <v>0.1444704470447045</v>
       </c>
       <c r="I16">
-        <v>0.007432359081294363</v>
+        <v>0.2276267626762676</v>
       </c>
       <c r="J16">
-        <v>-0.00226318925980023</v>
+        <v>-0.01071710386174599</v>
       </c>
       <c r="K16">
-        <v>-0.01335006427800257</v>
+        <v>0.1657725772577258</v>
       </c>
       <c r="L16">
-        <v>0.0003029169721166788</v>
+        <v>0.1330573057305731</v>
       </c>
       <c r="M16">
-        <v>-0.02294310792572431</v>
+        <v>-0.1561356135613561</v>
       </c>
       <c r="N16">
-        <v>-0.004465336402613455</v>
+        <v>0.04528052805280527</v>
       </c>
       <c r="P16">
-        <v>-0.005946324333852972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>0.136981698169817</v>
+      </c>
+      <c r="Q16">
+        <v>0.134005400540054</v>
+      </c>
+      <c r="R16">
+        <v>0.134005400540054</v>
+      </c>
+      <c r="S16">
+        <v>0.134005400540054</v>
+      </c>
+      <c r="T16">
+        <v>0.1198319831983198</v>
+      </c>
+      <c r="U16">
+        <v>0.1198319831983198</v>
+      </c>
+      <c r="V16">
+        <v>0.1198319831983198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C17">
-        <v>0.003281063939242557</v>
+        <v>-0.0369036903690369</v>
       </c>
       <c r="D17">
-        <v>-0.001212025296481012</v>
+        <v>0.08956495649564956</v>
       </c>
       <c r="E17">
-        <v>-0.003953656574146262</v>
+        <v>-0.1091509150915091</v>
       </c>
       <c r="F17">
-        <v>0.00624646575385863</v>
+        <v>0.1269606960696069</v>
       </c>
       <c r="H17">
-        <v>0.008487423027496921</v>
+        <v>0.1633123312331233</v>
       </c>
       <c r="I17">
-        <v>0.006111829300473172</v>
+        <v>0.1073507350735073</v>
       </c>
       <c r="J17">
-        <v>0.02110683710136086</v>
+        <v>0.08716497799312557</v>
       </c>
       <c r="K17">
-        <v>-0.004450918162036725</v>
+        <v>-0.332085208520852</v>
       </c>
       <c r="L17">
-        <v>-0.02176489200659568</v>
+        <v>-0.1055385538553855</v>
       </c>
       <c r="M17">
-        <v>-0.005090589035623561</v>
+        <v>-0.006192619261926192</v>
       </c>
       <c r="N17">
-        <v>0.02255588903023556</v>
+        <v>-0.02183018301830182</v>
       </c>
       <c r="P17">
-        <v>0.01441088428843537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>0.03977197719771978</v>
+      </c>
+      <c r="Q17">
+        <v>-0.1257965796579658</v>
+      </c>
+      <c r="R17">
+        <v>-0.1257965796579658</v>
+      </c>
+      <c r="S17">
+        <v>-0.1257965796579658</v>
+      </c>
+      <c r="T17">
+        <v>0.04176417641764176</v>
+      </c>
+      <c r="U17">
+        <v>0.04176417641764176</v>
+      </c>
+      <c r="V17">
+        <v>0.04176417641764176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>-0.0009461796858471872</v>
+        <v>-0.08033603360336032</v>
       </c>
       <c r="D18">
-        <v>-0.01731514859660594</v>
+        <v>-0.05569756975697569</v>
       </c>
       <c r="E18">
-        <v>0.01620014743200589</v>
+        <v>0.04213621362136213</v>
       </c>
       <c r="F18">
-        <v>-0.01445299805011992</v>
+        <v>-0.03925592559255925</v>
       </c>
       <c r="H18">
-        <v>-0.004756824286272971</v>
+        <v>-0.01308130813081308</v>
       </c>
       <c r="I18">
-        <v>-0.0001071055722842229</v>
+        <v>0.007992799279927992</v>
       </c>
       <c r="J18">
-        <v>-0.006268372378575113</v>
+        <v>0.03506161134612644</v>
       </c>
       <c r="K18">
-        <v>-0.006218052536722101</v>
+        <v>0.1696489648964896</v>
       </c>
       <c r="L18">
-        <v>-0.006491594275663771</v>
+        <v>-0.0797959795979598</v>
       </c>
       <c r="M18">
-        <v>0.01223666564146662</v>
+        <v>0.07303930393039303</v>
       </c>
       <c r="N18">
-        <v>0.008658296026331839</v>
+        <v>0.07782778277827782</v>
       </c>
       <c r="P18">
-        <v>0.01129544185981767</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>0.04397239723972397</v>
+      </c>
+      <c r="Q18">
+        <v>0.01850585058505851</v>
+      </c>
+      <c r="R18">
+        <v>0.01850585058505851</v>
+      </c>
+      <c r="S18">
+        <v>0.01850585058505851</v>
+      </c>
+      <c r="T18">
+        <v>-0.09045304530453044</v>
+      </c>
+      <c r="U18">
+        <v>-0.09045304530453044</v>
+      </c>
+      <c r="V18">
+        <v>-0.09045304530453044</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C19">
-        <v>0.0148548576181943</v>
+        <v>0.133045304530453</v>
       </c>
       <c r="D19">
-        <v>0.009071423882856955</v>
+        <v>0.1378697869786979</v>
       </c>
       <c r="E19">
-        <v>-0.008116150116646003</v>
+        <v>-0.1125232523252325</v>
       </c>
       <c r="F19">
-        <v>0.009500460764018429</v>
+        <v>0.1035703570357036</v>
       </c>
       <c r="H19">
-        <v>0.003241517313660692</v>
+        <v>0.007464746474647464</v>
       </c>
       <c r="I19">
-        <v>0.00219520875980835</v>
+        <v>0.005352535253525352</v>
       </c>
       <c r="J19">
-        <v>-0.01050377618031586</v>
+        <v>-0.008214846129188276</v>
       </c>
       <c r="K19">
-        <v>0.003249413697976548</v>
+        <v>0.1590639063906391</v>
       </c>
       <c r="L19">
-        <v>0.004996506823860272</v>
+        <v>0.1561476147614761</v>
       </c>
       <c r="M19">
-        <v>-0.01551725812469032</v>
+        <v>-0.1578637863786379</v>
       </c>
       <c r="N19">
-        <v>0.002352355582094223</v>
+        <v>-0.1554875487548755</v>
       </c>
       <c r="P19">
-        <v>0.001953662190146487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>-0.1095829582958296</v>
+      </c>
+      <c r="Q19">
+        <v>-0.09408940894089407</v>
+      </c>
+      <c r="R19">
+        <v>-0.09408940894089407</v>
+      </c>
+      <c r="S19">
+        <v>-0.09408940894089407</v>
+      </c>
+      <c r="T19">
+        <v>-0.0201020102010201</v>
+      </c>
+      <c r="U19">
+        <v>-0.0201020102010201</v>
+      </c>
+      <c r="V19">
+        <v>-0.0201020102010201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C20">
-        <v>0.002653704970148199</v>
+        <v>-0.05556555655565556</v>
       </c>
       <c r="D20">
-        <v>0.02562092828883713</v>
+        <v>0.06995499549954995</v>
       </c>
       <c r="E20">
-        <v>-0.02126471019458841</v>
+        <v>-0.05200120012001199</v>
       </c>
       <c r="F20">
-        <v>0.01802207870488315</v>
+        <v>0.04828082808280828</v>
       </c>
       <c r="H20">
-        <v>-0.0001719453188778127</v>
+        <v>0.05414941494149414</v>
       </c>
       <c r="I20">
-        <v>-0.002348816829952673</v>
+        <v>0.07345934593459345</v>
       </c>
       <c r="J20">
-        <v>0.015521813203335</v>
+        <v>-0.1379662105203045</v>
       </c>
       <c r="K20">
-        <v>0.00577126304685052</v>
+        <v>-0.108982898289829</v>
       </c>
       <c r="L20">
-        <v>0.02322260108890404</v>
+        <v>0.06520252025202519</v>
       </c>
       <c r="M20">
-        <v>-0.01118730716749229</v>
+        <v>0.05167716771677167</v>
       </c>
       <c r="N20">
-        <v>-0.01784286061771442</v>
+        <v>0.00618061806180618</v>
       </c>
       <c r="P20">
-        <v>-0.02258408480736339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>-0.05516951695169517</v>
+      </c>
+      <c r="Q20">
+        <v>-0.02135013501350135</v>
+      </c>
+      <c r="R20">
+        <v>-0.02135013501350135</v>
+      </c>
+      <c r="S20">
+        <v>-0.02135013501350135</v>
+      </c>
+      <c r="T20">
+        <v>0.06165016501650165</v>
+      </c>
+      <c r="U20">
+        <v>0.06165016501650165</v>
+      </c>
+      <c r="V20">
+        <v>0.06165016501650165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>-0.01984894159395766</v>
+        <v>0.0045004500450045</v>
       </c>
       <c r="D21">
-        <v>-0.0100759650430386</v>
+        <v>0.03554755475547554</v>
       </c>
       <c r="E21">
-        <v>0.006972169718886788</v>
+        <v>-0.03776777677767777</v>
       </c>
       <c r="F21">
-        <v>-0.005304877172195086</v>
+        <v>0.03281128112811281</v>
       </c>
       <c r="H21">
-        <v>0.001570578398823136</v>
+        <v>0.1416021602160216</v>
       </c>
       <c r="I21">
-        <v>0.003809771672390867</v>
+        <v>0.1541674167416742</v>
       </c>
       <c r="J21">
-        <v>0.003648696365794705</v>
+        <v>-0.01093312611203874</v>
       </c>
       <c r="K21">
-        <v>0.003834817113392684</v>
+        <v>0.06933093309330932</v>
       </c>
       <c r="L21">
-        <v>-0.01256213272648531</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="M21">
-        <v>-0.002949917589996703</v>
+        <v>0.08356435643564356</v>
       </c>
       <c r="N21">
-        <v>0.003180522079220883</v>
+        <v>0.03019501950195019</v>
       </c>
       <c r="P21">
-        <v>0.01149982029999281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>-0.127056705670567</v>
+      </c>
+      <c r="Q21">
+        <v>-0.0398079807980798</v>
+      </c>
+      <c r="R21">
+        <v>-0.0398079807980798</v>
+      </c>
+      <c r="S21">
+        <v>-0.0398079807980798</v>
+      </c>
+      <c r="T21">
+        <v>-0.02016201620162016</v>
+      </c>
+      <c r="U21">
+        <v>-0.02016201620162016</v>
+      </c>
+      <c r="V21">
+        <v>-0.02016201620162016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>-0.02698372533534901</v>
+        <v>-0.05377737773777377</v>
       </c>
       <c r="D22">
-        <v>-0.007453131082125243</v>
+        <v>0.01690969096909691</v>
       </c>
       <c r="E22">
-        <v>0.002078756819150273</v>
+        <v>-0.02313831383138314</v>
       </c>
       <c r="F22">
-        <v>-0.001172398318895933</v>
+        <v>0.01011701170117012</v>
       </c>
       <c r="H22">
-        <v>-0.01126286637051465</v>
+        <v>-0.04381638163816381</v>
       </c>
       <c r="I22">
-        <v>-0.01083790478551619</v>
+        <v>-0.02807080708070807</v>
       </c>
       <c r="J22">
-        <v>0.001972012365930893</v>
+        <v>-0.009612990138027478</v>
       </c>
       <c r="K22">
-        <v>-0.007251535586061423</v>
+        <v>-0.06405040504050405</v>
       </c>
       <c r="L22">
-        <v>-0.009172177902887116</v>
+        <v>0.05052505250525052</v>
       </c>
       <c r="M22">
-        <v>0.01012241358889654</v>
+        <v>-0.1060786078607861</v>
       </c>
       <c r="N22">
-        <v>-0.01192452134098085</v>
+        <v>-0.004032403240324032</v>
       </c>
       <c r="P22">
-        <v>-0.01195832275033291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>0.06299429942994299</v>
+      </c>
+      <c r="Q22">
+        <v>-0.03858385838583858</v>
+      </c>
+      <c r="R22">
+        <v>-0.03858385838583858</v>
+      </c>
+      <c r="S22">
+        <v>-0.03858385838583858</v>
+      </c>
+      <c r="T22">
+        <v>-0.1126312631263126</v>
+      </c>
+      <c r="U22">
+        <v>-0.1126312631263126</v>
+      </c>
+      <c r="V22">
+        <v>-0.1126312631263126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C23">
-        <v>-0.008338924365556975</v>
+        <v>-0.04067206720672066</v>
       </c>
       <c r="D23">
-        <v>0.001008615016344601</v>
+        <v>-0.1076627662766276</v>
       </c>
       <c r="E23">
-        <v>-0.00510741927629677</v>
+        <v>0.1123672367236723</v>
       </c>
       <c r="F23">
-        <v>0.007100927612037103</v>
+        <v>-0.1247764776477648</v>
       </c>
       <c r="H23">
-        <v>-0.008731895581275823</v>
+        <v>-0.0196099609960996</v>
       </c>
       <c r="I23">
-        <v>-0.01244732036989281</v>
+        <v>0.03531953195319532</v>
       </c>
       <c r="J23">
-        <v>0.01230467012209605</v>
+        <v>-0.01576962427137092</v>
       </c>
       <c r="K23">
-        <v>-0.01324198814567952</v>
+        <v>-0.0905130513051305</v>
       </c>
       <c r="L23">
-        <v>-0.02095956199038248</v>
+        <v>-0.006816681668166816</v>
       </c>
       <c r="M23">
-        <v>0.001302447700097908</v>
+        <v>-0.02333033303330333</v>
       </c>
       <c r="N23">
-        <v>0.007068925818757032</v>
+        <v>0.1034623462346234</v>
       </c>
       <c r="P23">
-        <v>-0.005947268109890724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>0.1445664566456645</v>
+      </c>
+      <c r="Q23">
+        <v>0.1432583258325832</v>
+      </c>
+      <c r="R23">
+        <v>0.1432583258325832</v>
+      </c>
+      <c r="S23">
+        <v>0.1432583258325832</v>
+      </c>
+      <c r="T23">
+        <v>0.1259405940594059</v>
+      </c>
+      <c r="U23">
+        <v>0.1259405940594059</v>
+      </c>
+      <c r="V23">
+        <v>0.1259405940594059</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C24">
-        <v>0.003948191581927663</v>
+        <v>-0.1811941194119412</v>
       </c>
       <c r="D24">
-        <v>0.007503440172137606</v>
+        <v>-0.155007500750075</v>
       </c>
       <c r="E24">
-        <v>-0.008441158417646335</v>
+        <v>0.1566156615661566</v>
       </c>
       <c r="F24">
-        <v>0.008653217914128715</v>
+        <v>-0.1357215721572157</v>
       </c>
       <c r="H24">
-        <v>0.01147148052285922</v>
+        <v>-0.1906630663066306</v>
       </c>
       <c r="I24">
-        <v>0.01228821898752876</v>
+        <v>-0.1686768676867687</v>
       </c>
       <c r="J24">
-        <v>0.005362500927426643</v>
+        <v>0.1034686572721647</v>
       </c>
       <c r="K24">
-        <v>0.01762537654501506</v>
+        <v>-0.03975997599759976</v>
       </c>
       <c r="L24">
-        <v>-0.001186401935456077</v>
+        <v>-0.06365436543654365</v>
       </c>
       <c r="M24">
-        <v>-0.01395000574200023</v>
+        <v>0.219069906990699</v>
       </c>
       <c r="N24">
-        <v>-0.005462050682482026</v>
+        <v>0.09767776777677767</v>
       </c>
       <c r="P24">
-        <v>-0.007272072386882894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>0.01567356735673567</v>
+      </c>
+      <c r="Q24">
+        <v>0.1363936393639364</v>
+      </c>
+      <c r="R24">
+        <v>0.1363936393639364</v>
+      </c>
+      <c r="S24">
+        <v>0.1363936393639364</v>
+      </c>
+      <c r="T24">
+        <v>0.02945094509450944</v>
+      </c>
+      <c r="U24">
+        <v>0.02945094509450944</v>
+      </c>
+      <c r="V24">
+        <v>0.02945094509450944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C25">
-        <v>-0.003421795144871806</v>
+        <v>-0.1025142514251425</v>
       </c>
       <c r="D25">
-        <v>-0.01692377107695084</v>
+        <v>-0.1755175517551755</v>
       </c>
       <c r="E25">
-        <v>0.01453882666155306</v>
+        <v>0.1274167416741674</v>
       </c>
       <c r="F25">
-        <v>-0.01335032645401306</v>
+        <v>-0.1132313231323132</v>
       </c>
       <c r="H25">
-        <v>0.009986026191441047</v>
+        <v>-0.06521452145214521</v>
       </c>
       <c r="I25">
-        <v>0.01928767584350703</v>
+        <v>-0.03782778277827783</v>
       </c>
       <c r="J25">
-        <v>-0.01364033493771643</v>
+        <v>0.03125121887568483</v>
       </c>
       <c r="K25">
-        <v>-0.01320291451211658</v>
+        <v>0.009864986498649865</v>
       </c>
       <c r="L25">
-        <v>-0.02187194573887782</v>
+        <v>-0.1927272727272727</v>
       </c>
       <c r="M25">
-        <v>-0.01432952572518103</v>
+        <v>0.02603060306030602</v>
       </c>
       <c r="N25">
-        <v>0.009807935720317429</v>
+        <v>0.2612781278127813</v>
       </c>
       <c r="P25">
-        <v>0.02352218215688728</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>0.1701530153015301</v>
+      </c>
+      <c r="Q25">
+        <v>0.08393639363936392</v>
+      </c>
+      <c r="R25">
+        <v>0.08393639363936392</v>
+      </c>
+      <c r="S25">
+        <v>0.08393639363936392</v>
+      </c>
+      <c r="T25">
+        <v>0.1049624962496249</v>
+      </c>
+      <c r="U25">
+        <v>0.1049624962496249</v>
+      </c>
+      <c r="V25">
+        <v>0.1049624962496249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C26">
-        <v>0.01297465050298602</v>
+        <v>0.1414701470147015</v>
       </c>
       <c r="D26">
-        <v>0.0005631094305243771</v>
+        <v>0.08652865286528652</v>
       </c>
       <c r="E26">
-        <v>0.002028959313158372</v>
+        <v>-0.05008100810081008</v>
       </c>
       <c r="F26">
-        <v>-0.00290724827628993</v>
+        <v>0.05242124212421241</v>
       </c>
       <c r="H26">
-        <v>0.00814771280590851</v>
+        <v>0.04056405640564056</v>
       </c>
       <c r="I26">
-        <v>0.01220206887208275</v>
+        <v>0.03353135313531352</v>
       </c>
       <c r="J26">
-        <v>-0.01335389271607262</v>
+        <v>0.04324045376693259</v>
       </c>
       <c r="K26">
-        <v>-0.02114616458984658</v>
+        <v>0.09050105010501049</v>
       </c>
       <c r="L26">
-        <v>0.01233595930943837</v>
+        <v>0.08982898289828982</v>
       </c>
       <c r="M26">
-        <v>-0.007042702073708082</v>
+        <v>0.005472547254725472</v>
       </c>
       <c r="N26">
-        <v>-0.009537240093489602</v>
+        <v>-0.06077407740774077</v>
       </c>
       <c r="P26">
-        <v>-0.004656738810269552</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>-0.009888988898889886</v>
+      </c>
+      <c r="Q26">
+        <v>-0.05447344734473446</v>
+      </c>
+      <c r="R26">
+        <v>-0.05447344734473446</v>
+      </c>
+      <c r="S26">
+        <v>-0.05447344734473446</v>
+      </c>
+      <c r="T26">
+        <v>-0.03456345634563456</v>
+      </c>
+      <c r="U26">
+        <v>-0.03456345634563456</v>
+      </c>
+      <c r="V26">
+        <v>-0.03456345634563456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>-0.01322980200119208</v>
+        <v>-0.1731173117311731</v>
       </c>
       <c r="D27">
-        <v>-0.04376736069469443</v>
+        <v>-0.05774977497749774</v>
       </c>
       <c r="E27">
-        <v>0.01183038479321539</v>
+        <v>0.03757575757575757</v>
       </c>
       <c r="F27">
-        <v>0.006148879061955161</v>
+        <v>-0.02409840984098409</v>
       </c>
       <c r="H27">
-        <v>-0.02393176626927065</v>
+        <v>-0.1326012601260126</v>
       </c>
       <c r="I27">
-        <v>-0.0227270801730832</v>
+        <v>-0.1563276327632763</v>
       </c>
       <c r="J27">
-        <v>0.02849310908518377</v>
+        <v>0.1626947575607609</v>
       </c>
       <c r="K27">
-        <v>-0.03985933657037346</v>
+        <v>-0.04037203720372036</v>
       </c>
       <c r="L27">
-        <v>-0.1947605303184212</v>
+        <v>-0.1214041404140414</v>
       </c>
       <c r="M27">
-        <v>0.948881352323254</v>
+        <v>0.9485148514851485</v>
       </c>
       <c r="N27">
-        <v>0.06513470545338822</v>
+        <v>-0.01174917491749175</v>
       </c>
       <c r="P27">
-        <v>-0.01050176902807076</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>-0.1357335733573357</v>
+      </c>
+      <c r="Q27">
+        <v>0.01054905490549055</v>
+      </c>
+      <c r="R27">
+        <v>0.01054905490549055</v>
+      </c>
+      <c r="S27">
+        <v>0.01054905490549055</v>
+      </c>
+      <c r="T27">
+        <v>0.02738673867386738</v>
+      </c>
+      <c r="U27">
+        <v>0.02738673867386738</v>
+      </c>
+      <c r="V27">
+        <v>0.02738673867386738</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C28">
-        <v>-0.01251737339669493</v>
+        <v>-0.02395439543954395</v>
       </c>
       <c r="D28">
-        <v>-0.002887368307494732</v>
+        <v>-0.04466846684668466</v>
       </c>
       <c r="E28">
-        <v>-0.003407809672312387</v>
+        <v>0.05299729972997299</v>
       </c>
       <c r="F28">
-        <v>0.007572299438891977</v>
+        <v>-0.05801380138013801</v>
       </c>
       <c r="H28">
-        <v>0.01707913700316548</v>
+        <v>0.07013501350135012</v>
       </c>
       <c r="I28">
-        <v>0.009357967286318691</v>
+        <v>0.07887188718871886</v>
       </c>
       <c r="J28">
-        <v>-0.01683805121803005</v>
+        <v>-0.01116114959845887</v>
       </c>
       <c r="K28">
-        <v>-0.006267067450682698</v>
+        <v>-0.2274707470747074</v>
       </c>
       <c r="L28">
-        <v>-0.0503241602849664</v>
+        <v>0.053009300930093</v>
       </c>
       <c r="M28">
-        <v>0.2939917880156715</v>
+        <v>0.2153975397539754</v>
       </c>
       <c r="N28">
-        <v>0.007731669621266783</v>
+        <v>0.02245424542454245</v>
       </c>
       <c r="P28">
-        <v>0.01004362600174504</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>0.1909390939093909</v>
+      </c>
+      <c r="Q28">
+        <v>0.06237023702370237</v>
+      </c>
+      <c r="R28">
+        <v>0.06237023702370237</v>
+      </c>
+      <c r="S28">
+        <v>0.06237023702370237</v>
+      </c>
+      <c r="T28">
+        <v>-0.003708370837083708</v>
+      </c>
+      <c r="U28">
+        <v>-0.003708370837083708</v>
+      </c>
+      <c r="V28">
+        <v>-0.003708370837083708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>-0.0007924907836996313</v>
+        <v>0.0483048304830483</v>
       </c>
       <c r="D29">
-        <v>0.006053020466120818</v>
+        <v>0.06348634863486348</v>
       </c>
       <c r="E29">
-        <v>0.000864885826595433</v>
+        <v>-0.0666186618661866</v>
       </c>
       <c r="F29">
-        <v>-0.001957546446301858</v>
+        <v>0.05933393339333932</v>
       </c>
       <c r="H29">
-        <v>-0.003447760937910437</v>
+        <v>-0.02408640864086408</v>
       </c>
       <c r="I29">
-        <v>-0.007644924113796963</v>
+        <v>-0.08954095409540953</v>
       </c>
       <c r="J29">
-        <v>-0.03461794892892214</v>
+        <v>-0.01776182946851519</v>
       </c>
       <c r="K29">
-        <v>-0.01499060843962433</v>
+        <v>0.0463006300630063</v>
       </c>
       <c r="L29">
-        <v>0.03006651134666045</v>
+        <v>0.0715031503150315</v>
       </c>
       <c r="M29">
-        <v>0.08553377468535098</v>
+        <v>0.2956255625562556</v>
       </c>
       <c r="N29">
-        <v>-0.009565168990606759</v>
+        <v>-0.06837083708370838</v>
       </c>
       <c r="P29">
-        <v>-0.001223838864953554</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>-0.1157635763576358</v>
+      </c>
+      <c r="Q29">
+        <v>-0.07689168916891688</v>
+      </c>
+      <c r="R29">
+        <v>-0.07689168916891688</v>
+      </c>
+      <c r="S29">
+        <v>-0.07689168916891688</v>
+      </c>
+      <c r="T29">
+        <v>-0.0285988598859886</v>
+      </c>
+      <c r="U29">
+        <v>-0.0285988598859886</v>
+      </c>
+      <c r="V29">
+        <v>-0.0285988598859886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C30">
-        <v>0.01099338639173545</v>
+        <v>0.05238523852385237</v>
       </c>
       <c r="D30">
-        <v>0.007675788403031535</v>
+        <v>-0.05716171617161715</v>
       </c>
       <c r="E30">
-        <v>-0.001480763963230558</v>
+        <v>0.09956195619561956</v>
       </c>
       <c r="F30">
-        <v>-0.001427356857094274</v>
+        <v>-0.1217401740174017</v>
       </c>
       <c r="H30">
-        <v>0.001948361741934469</v>
+        <v>0.02913891389138914</v>
       </c>
       <c r="I30">
-        <v>0.00283418699336748</v>
+        <v>0.04846084608460845</v>
       </c>
       <c r="J30">
-        <v>-0.07348140446006624</v>
+        <v>-0.02761484432909017</v>
       </c>
       <c r="K30">
-        <v>-0.004912304836492193</v>
+        <v>0.1379777977797779</v>
       </c>
       <c r="L30">
-        <v>0.03301694340067773</v>
+        <v>0.1213801380138014</v>
       </c>
       <c r="M30">
-        <v>0.0460977825799113</v>
+        <v>-0.03171917191719172</v>
       </c>
       <c r="N30">
-        <v>-0.006194752375790094</v>
+        <v>0.005268526852685268</v>
       </c>
       <c r="P30">
-        <v>0.002373972958958918</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>0.1393699369936993</v>
+      </c>
+      <c r="Q30">
+        <v>0.1371617161716172</v>
+      </c>
+      <c r="R30">
+        <v>0.1371617161716172</v>
+      </c>
+      <c r="S30">
+        <v>0.1371617161716172</v>
+      </c>
+      <c r="T30">
+        <v>0.04477647764776477</v>
+      </c>
+      <c r="U30">
+        <v>0.04477647764776477</v>
+      </c>
+      <c r="V30">
+        <v>0.04477647764776477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C31">
-        <v>0.5483522579020902</v>
+        <v>0.5769216921692168</v>
       </c>
       <c r="D31">
-        <v>0.9777534640701384</v>
+        <v>0.9743414341434142</v>
       </c>
       <c r="E31">
-        <v>-0.9975526806381071</v>
+        <v>-0.9976597659765976</v>
       </c>
       <c r="F31">
-        <v>0.9920093956163757</v>
+        <v>0.9906630663066305</v>
       </c>
       <c r="H31">
-        <v>0.4152234067209362</v>
+        <v>0.4727392739273927</v>
       </c>
       <c r="I31">
-        <v>0.01635513079820523</v>
+        <v>0.1103630363036304</v>
       </c>
       <c r="J31">
-        <v>0.2164459840217551</v>
+        <v>-0.06064824676969022</v>
       </c>
       <c r="K31">
-        <v>-0.1171996407199856</v>
+        <v>-0.08478847884788479</v>
       </c>
       <c r="L31">
-        <v>0.0007638616625544664</v>
+        <v>0.007908790879087909</v>
       </c>
       <c r="M31">
-        <v>-0.005173370318934812</v>
+        <v>-0.04541254125412541</v>
       </c>
       <c r="N31">
-        <v>-0.5502725940749037</v>
+        <v>-0.5851905190519051</v>
       </c>
       <c r="P31">
-        <v>-0.6547144286205772</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>-0.6744314431443144</v>
+      </c>
+      <c r="Q31">
+        <v>-0.9536153615361536</v>
+      </c>
+      <c r="R31">
+        <v>-0.9536153615361536</v>
+      </c>
+      <c r="S31">
+        <v>-0.9536153615361536</v>
+      </c>
+      <c r="T31">
+        <v>-0.2674107410741074</v>
+      </c>
+      <c r="U31">
+        <v>-0.2674107410741074</v>
+      </c>
+      <c r="V31">
+        <v>-0.2674107410741074</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C32">
-        <v>0.03418863775154551</v>
+        <v>0.1219201920192019</v>
       </c>
       <c r="D32">
-        <v>0.07381084135243364</v>
+        <v>0.1445064506450645</v>
       </c>
       <c r="E32">
-        <v>-0.07704823872992954</v>
+        <v>-0.1487308730873087</v>
       </c>
       <c r="F32">
-        <v>0.07613864838954593</v>
+        <v>0.1531833183318331</v>
       </c>
       <c r="H32">
-        <v>0.08007350864294033</v>
+        <v>0.1062466246624662</v>
       </c>
       <c r="I32">
-        <v>0.003259611874384474</v>
+        <v>0.03417941794179417</v>
       </c>
       <c r="J32">
-        <v>0.03310828151301366</v>
+        <v>-0.06336052613447699</v>
       </c>
       <c r="K32">
-        <v>-0.02078589222343569</v>
+        <v>0.07139513951395139</v>
       </c>
       <c r="L32">
-        <v>0.002475335043013402</v>
+        <v>0.06156615661566155</v>
       </c>
       <c r="M32">
-        <v>0.00387202825088113</v>
+        <v>0.06898289828982897</v>
       </c>
       <c r="N32">
-        <v>-0.05529588969983558</v>
+        <v>-0.165076507650765</v>
       </c>
       <c r="P32">
-        <v>-0.09226593162663725</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>-0.1058025802580258</v>
+      </c>
+      <c r="Q32">
+        <v>-0.1469066906690669</v>
+      </c>
+      <c r="R32">
+        <v>-0.1469066906690669</v>
+      </c>
+      <c r="S32">
+        <v>-0.1469066906690669</v>
+      </c>
+      <c r="T32">
+        <v>-0.1138073807380738</v>
+      </c>
+      <c r="U32">
+        <v>-0.1138073807380738</v>
+      </c>
+      <c r="V32">
+        <v>-0.1138073807380738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C33">
-        <v>-0.003824294360971774</v>
+        <v>-0.1334413441344134</v>
       </c>
       <c r="D33">
-        <v>-0.001321556788862272</v>
+        <v>-0.07759975997599761</v>
       </c>
       <c r="E33">
-        <v>-0.0009317891892715673</v>
+        <v>0.11002700270027</v>
       </c>
       <c r="F33">
-        <v>0.000436132625445305</v>
+        <v>-0.1154035403540354</v>
       </c>
       <c r="H33">
-        <v>-0.007473793738951748</v>
+        <v>-0.2671107110711071</v>
       </c>
       <c r="I33">
-        <v>-0.005348928885957155</v>
+        <v>-0.1965796579657966</v>
       </c>
       <c r="J33">
-        <v>-0.09430589637997844</v>
+        <v>-0.07126334012435352</v>
       </c>
       <c r="K33">
-        <v>-0.01031696479667859</v>
+        <v>-0.0153975397539754</v>
       </c>
       <c r="L33">
-        <v>-0.01826990789879631</v>
+        <v>0.1583678367836783</v>
       </c>
       <c r="M33">
-        <v>0.00980372554414902</v>
+        <v>0.1308850885088509</v>
       </c>
       <c r="N33">
-        <v>-0.000198093799923752</v>
+        <v>-0.04246024602460245</v>
       </c>
       <c r="P33">
-        <v>-0.01825594949823798</v>
+        <v>-0.04234023402340234</v>
+      </c>
+      <c r="Q33">
+        <v>0.09416141614161415</v>
+      </c>
+      <c r="R33">
+        <v>0.09416141614161415</v>
+      </c>
+      <c r="S33">
+        <v>0.09416141614161415</v>
+      </c>
+      <c r="T33">
+        <v>-0.1654605460546054</v>
+      </c>
+      <c r="U33">
+        <v>-0.1654605460546054</v>
+      </c>
+      <c r="V33">
+        <v>-0.1654605460546054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34">
+        <v>0.1682208220822082</v>
+      </c>
+      <c r="D34">
+        <v>0.09732973297329732</v>
+      </c>
+      <c r="E34">
+        <v>-0.1214761476147615</v>
+      </c>
+      <c r="F34">
+        <v>0.1272967296729673</v>
+      </c>
+      <c r="H34">
+        <v>0.2899369936993699</v>
+      </c>
+      <c r="I34">
+        <v>0.2484968496849685</v>
+      </c>
+      <c r="J34">
+        <v>0.1178641400069511</v>
+      </c>
+      <c r="K34">
+        <v>-0.03845184518451845</v>
+      </c>
+      <c r="L34">
+        <v>-0.1079387938793879</v>
+      </c>
+      <c r="M34">
+        <v>0.01894989498949895</v>
+      </c>
+      <c r="N34">
+        <v>-0.04718871887188719</v>
+      </c>
+      <c r="P34">
+        <v>0.04201620162016202</v>
+      </c>
+      <c r="Q34">
+        <v>0.04409240924092409</v>
+      </c>
+      <c r="R34">
+        <v>0.04409240924092409</v>
+      </c>
+      <c r="S34">
+        <v>0.04409240924092409</v>
+      </c>
+      <c r="T34">
+        <v>0.9124752475247524</v>
+      </c>
+      <c r="U34">
+        <v>0.9124752475247524</v>
+      </c>
+      <c r="V34">
+        <v>0.9124752475247524</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
@@ -624,12 +624,12 @@
       </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
-          <t>Crude glycerol GWP [kg*CO2*eq / gal]</t>
+          <t>Crude glycerol GWP [kg*CO2*eq / kg]</t>
         </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
       <c r="P2" s="1" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="Z2" s="1" t="inlineStr">
         <is>
-          <t>Electricity GWP derivative [kg*CO2*eq / kWhr]</t>
+          <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
       </c>
     </row>
@@ -712,76 +712,76 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2448244824482448</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05845784578457845</v>
+        <v>-0.7</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05453345334533453</v>
+        <v>0.7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06613861386138613</v>
+        <v>-0.7</v>
       </c>
       <c r="G4" t="n">
-        <v>0.173969396939694</v>
+        <v>-0.7</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1256405640564056</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07625562556255625</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4610861086108611</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="K4" t="n">
-        <v>0.263990399039904</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L4" t="n">
-        <v>0.263990399039904</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M4" t="n">
-        <v>0.263990399039904</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N4" t="n">
-        <v>0.263990399039904</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O4" t="n">
-        <v>0.263990399039904</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0182058205820582</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.634119411941194</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="R4" t="n">
-        <v>0.0489048904890489</v>
+        <v>0.6</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1223042304230423</v>
+        <v>0.7</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9951035103510349</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1203720372037204</v>
+        <v>0.6</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1301050105010501</v>
+        <v>-0.4</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1301050105010501</v>
+        <v>-0.4</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1301050105010501</v>
+        <v>-0.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1301050105010501</v>
+        <v>-0.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1301050105010501</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="5">
@@ -792,76 +792,76 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04902490249024902</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199039903990399</v>
+        <v>-0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0997059705970597</v>
+        <v>0.4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04144014401440144</v>
+        <v>-0.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1177437743774377</v>
+        <v>-0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07350735073507349</v>
+        <v>-0.7</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.1110951095109511</v>
+        <v>-0.2</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1134713471347135</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1895949594959496</v>
+        <v>0.3</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1895949594959496</v>
+        <v>0.3</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1895949594959496</v>
+        <v>0.3</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1895949594959496</v>
+        <v>0.3</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1895949594959496</v>
+        <v>0.3</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1625082508250825</v>
+        <v>0.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6067446744674467</v>
+        <v>0.3</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.0944134413441344</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.2463006300630063</v>
+        <v>0.4</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1377137713771377</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.1400780078007801</v>
+        <v>-0.3</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.03852385238523853</v>
+        <v>-0.7</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.03852385238523853</v>
+        <v>-0.7</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.03852385238523853</v>
+        <v>-0.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.03852385238523853</v>
+        <v>-0.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.03852385238523853</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="6">
@@ -872,76 +872,76 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1439783978397839</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05749774977497749</v>
+        <v>0.3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03636363636363636</v>
+        <v>-0.3</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02951095109510951</v>
+        <v>0.3</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.03192319231923192</v>
+        <v>0.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9087428742874286</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9742574257425741</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.3772937293729373</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1458385838583858</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1458385838583858</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1458385838583858</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1458385838583858</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1458385838583858</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.07854785478547853</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1734053405340534</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1623162316231623</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.1025862586258626</v>
+        <v>-0.3</v>
       </c>
       <c r="T6" t="n">
-        <v>0.09788178817881787</v>
+        <v>-0.2</v>
       </c>
       <c r="U6" t="n">
-        <v>0.448088808880888</v>
+        <v>0.6</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02899489948994899</v>
+        <v>0.4</v>
       </c>
       <c r="W6" t="n">
-        <v>0.02899489948994899</v>
+        <v>0.4</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02899489948994899</v>
+        <v>0.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.02899489948994899</v>
+        <v>0.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.02899489948994899</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -956,76 +956,76 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4979417941794179</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05092109210921092</v>
+        <v>0.3</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03277527752775277</v>
+        <v>-0.3</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02419441944194419</v>
+        <v>0.3</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002352235223522352</v>
+        <v>0.3</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02598259825982598</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00204020402040204</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1434383438343834</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.09137713771377137</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.09137713771377137</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.09137713771377137</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.09137713771377137</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.09137713771377137</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.506018601860186</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1488748874887489</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.003348334833483348</v>
+        <v>0.6</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08337233723372336</v>
+        <v>-0.3</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.1997359735973597</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.05762976297629763</v>
+        <v>-0.4</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.08518451845184517</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.08518451845184517</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.08518451845184517</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.08518451845184517</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.08518451845184517</v>
+        <v>0.09999999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -1040,76 +1040,76 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6101650165016501</v>
+        <v>0.7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07278727872787277</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.08889288928892888</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09281728172817282</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08182418241824181</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05798979897989798</v>
+        <v>-0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.005976597659765976</v>
+        <v>0.2</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.07899189918991897</v>
+        <v>-0.3</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.07924392439243924</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.07924392439243924</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.07924392439243924</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.07924392439243924</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.07924392439243924</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7178277827782777</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003348334833483348</v>
+        <v>0.3</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01063306330633063</v>
+        <v>0.3</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.02367836783678368</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.07696369636963696</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U8" t="n">
-        <v>0.006984698469846983</v>
+        <v>-0.3</v>
       </c>
       <c r="V8" t="n">
-        <v>0.03078307830783078</v>
+        <v>-0.2</v>
       </c>
       <c r="W8" t="n">
-        <v>0.03078307830783078</v>
+        <v>-0.2</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03078307830783078</v>
+        <v>-0.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03078307830783078</v>
+        <v>-0.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03078307830783078</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1124,76 +1124,76 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1562676267626762</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0027002700270027</v>
+        <v>-0.6</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01807380738073807</v>
+        <v>0.6</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03618361836183618</v>
+        <v>-0.6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0131053105310531</v>
+        <v>-0.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03617161716171617</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03785178517851785</v>
+        <v>-0.7</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02888688868886889</v>
+        <v>0.2</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04416441644164416</v>
+        <v>0.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04416441644164416</v>
+        <v>0.2</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04416441644164416</v>
+        <v>0.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04416441644164416</v>
+        <v>0.2</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04416441644164416</v>
+        <v>0.2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1047584758475847</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.000444044404440444</v>
+        <v>0.3</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0496129612961296</v>
+        <v>-0.7</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03515151515151515</v>
+        <v>0.6</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.1337053705370537</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04150015001500149</v>
+        <v>-0.2</v>
       </c>
       <c r="V9" t="n">
-        <v>0.05352535253525351</v>
+        <v>-0.7</v>
       </c>
       <c r="W9" t="n">
-        <v>0.05352535253525351</v>
+        <v>-0.7</v>
       </c>
       <c r="X9" t="n">
-        <v>0.05352535253525351</v>
+        <v>-0.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.05352535253525351</v>
+        <v>-0.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.05352535253525351</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="10">
@@ -1208,76 +1208,76 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.03085508550855085</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0912091209120912</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1037383738373837</v>
+        <v>-0.3</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1092229222922292</v>
+        <v>0.3</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07827182718271827</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1123312331233123</v>
+        <v>-0.6</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.04612061206120611</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1462586258625863</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1776537653765376</v>
+        <v>-0.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1776537653765376</v>
+        <v>-0.6</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1776537653765376</v>
+        <v>-0.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1776537653765376</v>
+        <v>-0.6</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1776537653765376</v>
+        <v>-0.6</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1942274227422742</v>
+        <v>0.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01042904290429043</v>
+        <v>0.6</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2841044104410441</v>
+        <v>-0.4</v>
       </c>
       <c r="S10" t="n">
-        <v>0.08426042604260425</v>
+        <v>-0.3</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1407860786078608</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08518451845184517</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.1905790579057905</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.1905790579057905</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.1905790579057905</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.1905790579057905</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.1905790579057905</v>
+        <v>0.09999999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.179009900990099</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1365856585658566</v>
+        <v>-0.3</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.115043504350435</v>
+        <v>0.3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1147314731473147</v>
+        <v>-0.3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08746474647464744</v>
+        <v>-0.3</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01802580258025802</v>
+        <v>-0.4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1783978397839784</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.07629162916291629</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.1577317731773177</v>
+        <v>0.4</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1577317731773177</v>
+        <v>0.4</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.1577317731773177</v>
+        <v>0.4</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.1577317731773177</v>
+        <v>0.4</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.1577317731773177</v>
+        <v>0.4</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.05066906690669067</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.007632763276327632</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07858385838583858</v>
+        <v>0.4</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.1296969696969697</v>
+        <v>0.3</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.1443024302430243</v>
+        <v>0.3</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.07943594359435945</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V11" t="n">
-        <v>0.08495649564956494</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="W11" t="n">
-        <v>0.08495649564956494</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>0.08495649564956494</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.08495649564956494</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.08495649564956494</v>
+        <v>-0.4999999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1368,76 +1368,76 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2551575157515751</v>
+        <v>-0.4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.138049804980498</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1466186618661866</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1463786378637864</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1558955895589559</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.02341434143414341</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1013261326132613</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.1046864686468647</v>
+        <v>0.4</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0963096309630963</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0963096309630963</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0963096309630963</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0963096309630963</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0963096309630963</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.194995499549955</v>
+        <v>-0.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.05776177617761775</v>
+        <v>-0.6</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.106018601860186</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.09735373537353735</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1043264326432643</v>
+        <v>0.7</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.1130753075307531</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1594719471947194</v>
+        <v>-0.6</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1594719471947194</v>
+        <v>-0.6</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1594719471947194</v>
+        <v>-0.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1594719471947194</v>
+        <v>-0.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.1594719471947194</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="13">
@@ -1452,76 +1452,76 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01849384938493849</v>
+        <v>-0.3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0499009900990099</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06609060906090608</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06198619861986198</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08068406840684068</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002604260426042604</v>
+        <v>-0.7</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01347734773477348</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0637023702370237</v>
+        <v>-0.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04812481248124811</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04812481248124811</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04812481248124811</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="N13" t="n">
-        <v>0.04812481248124811</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>0.04812481248124811</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>0.00246024602460246</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.08038403840384037</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1043984398439844</v>
+        <v>-0.7</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.07295529552955295</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1747974797479748</v>
+        <v>-0.6</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.03181518151815181</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="V13" t="n">
-        <v>0.164044404440444</v>
+        <v>-0.2</v>
       </c>
       <c r="W13" t="n">
-        <v>0.164044404440444</v>
+        <v>-0.2</v>
       </c>
       <c r="X13" t="n">
-        <v>0.164044404440444</v>
+        <v>-0.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.164044404440444</v>
+        <v>-0.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.164044404440444</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="14">
@@ -1536,76 +1536,76 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.02821482148214821</v>
+        <v>-0.2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02879087908790879</v>
+        <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01434143414341434</v>
+        <v>-0.6</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0126972697269727</v>
+        <v>0.6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02504650465046504</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05107710771077107</v>
+        <v>0.3</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0302070207020702</v>
+        <v>-0.3</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.07975997599759974</v>
+        <v>-0.2</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.00168016801680168</v>
+        <v>-0.7</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.00168016801680168</v>
+        <v>-0.7</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.00168016801680168</v>
+        <v>-0.7</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.00168016801680168</v>
+        <v>-0.7</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.00168016801680168</v>
+        <v>-0.7</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05496549654965496</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.02601860186018602</v>
+        <v>0.2</v>
       </c>
       <c r="R14" t="n">
-        <v>0.01426942694269427</v>
+        <v>-0.3</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03624362436243624</v>
+        <v>-0.6</v>
       </c>
       <c r="T14" t="n">
-        <v>0.04115211521152115</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04784878487848784</v>
+        <v>-0.3</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.008604860486048603</v>
+        <v>0.7</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.008604860486048603</v>
+        <v>0.7</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.008604860486048603</v>
+        <v>0.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.008604860486048603</v>
+        <v>0.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.008604860486048603</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15">
@@ -1620,76 +1620,76 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1567596759675967</v>
+        <v>0.2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05322532253225322</v>
+        <v>-0.4</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.05045304530453045</v>
+        <v>0.4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05603360336033603</v>
+        <v>-0.4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05204920492049204</v>
+        <v>-0.4</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.000468046804680468</v>
+        <v>-0.7</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04292829282928293</v>
+        <v>-0.2</v>
       </c>
       <c r="J15" t="n">
-        <v>0.03626762676267627</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.07385538553855385</v>
+        <v>0.3</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.07385538553855385</v>
+        <v>0.3</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.07385538553855385</v>
+        <v>0.3</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.07385538553855385</v>
+        <v>0.3</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.07385538553855385</v>
+        <v>0.3</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.05017701770177017</v>
+        <v>0.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.008532853285328532</v>
+        <v>0.3</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.05153315331533153</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.03554755475547554</v>
+        <v>0.4</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01618961896189619</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.07469546954695468</v>
+        <v>-0.3</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02155415541554155</v>
+        <v>-0.7</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02155415541554155</v>
+        <v>-0.7</v>
       </c>
       <c r="X15" t="n">
-        <v>0.02155415541554155</v>
+        <v>-0.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.02155415541554155</v>
+        <v>-0.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02155415541554155</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="16">
@@ -1704,76 +1704,76 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.02288628862886288</v>
+        <v>-0.2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04183618361836183</v>
+        <v>0.4</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.04139213921392138</v>
+        <v>-0.4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03455145514551455</v>
+        <v>0.4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04219621962196219</v>
+        <v>0.4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.05604560456045604</v>
+        <v>0.7</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04168016801680167</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.08942094209420941</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.02677467746774677</v>
+        <v>-0.3</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02677467746774677</v>
+        <v>-0.3</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02677467746774677</v>
+        <v>-0.3</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.02677467746774677</v>
+        <v>-0.3</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.02677467746774677</v>
+        <v>-0.3</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02935493549354935</v>
+        <v>-0.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.0266066606660666</v>
+        <v>-0.3</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1481788178817882</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.00354035403540354</v>
+        <v>-0.4</v>
       </c>
       <c r="T16" t="n">
-        <v>0.00564056405640564</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04679267926792679</v>
+        <v>0.3</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.01533753375337533</v>
+        <v>0.7</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.01533753375337533</v>
+        <v>0.7</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.01533753375337533</v>
+        <v>0.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.01533753375337533</v>
+        <v>0.7</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.01533753375337533</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17">
@@ -1784,76 +1784,76 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.001932193219321932</v>
+        <v>-0.4</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.008100810081008099</v>
+        <v>-0.2</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.001176117611761176</v>
+        <v>0.2</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.005988598859885987</v>
+        <v>-0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002916291629162916</v>
+        <v>-0.2</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.07623162316231623</v>
+        <v>-0.6</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.07153915391539153</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1277167716771677</v>
+        <v>0.6</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03762376237623762</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03762376237623762</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.03762376237623762</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.03762376237623762</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.03762376237623762</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.06335433543354334</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.07265526552655265</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.07531953195319531</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.06539453945394538</v>
+        <v>0.2</v>
       </c>
       <c r="T17" t="n">
-        <v>0.1025262526252625</v>
+        <v>0.2</v>
       </c>
       <c r="U17" t="n">
-        <v>0.004932493249324933</v>
+        <v>-0.4</v>
       </c>
       <c r="V17" t="n">
-        <v>0.01642964296429643</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01642964296429643</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>0.01642964296429643</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01642964296429643</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01642964296429643</v>
+        <v>-0.09999999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1868,76 +1868,76 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.005268526852685268</v>
+        <v>0.6</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01489348934893489</v>
+        <v>0.2</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01706570657065706</v>
+        <v>-0.2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01597359735973597</v>
+        <v>0.2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02353435343534353</v>
+        <v>0.2</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.001512151215121512</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.02761476147614761</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01252925292529253</v>
+        <v>-0.6</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.03596759675967597</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.03596759675967597</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.03596759675967597</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.03596759675967597</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.03596759675967597</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.02453045304530452</v>
+        <v>0.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04723672367236723</v>
+        <v>0.4</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.1828982898289829</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S18" t="n">
-        <v>0.08750075007500749</v>
+        <v>-0.2</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.007920792079207919</v>
+        <v>-0.3</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04026402640264026</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="V18" t="n">
-        <v>0.004908490849084907</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="W18" t="n">
-        <v>0.004908490849084907</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="X18" t="n">
-        <v>0.004908490849084907</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.004908490849084907</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.004908490849084907</v>
+        <v>-0.09999999999999999</v>
       </c>
     </row>
     <row r="19">
@@ -1952,76 +1952,76 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.1403420342034203</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05032103210321031</v>
+        <v>0.3</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05884188418841883</v>
+        <v>-0.3</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.05686168616861686</v>
+        <v>0.3</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.04816081608160815</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.04285628562856285</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002796279627962796</v>
+        <v>0.6</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1255685568556855</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03241524152415241</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03241524152415241</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03241524152415241</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03241524152415241</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>0.03241524152415241</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1425142514251425</v>
+        <v>-0.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0174017401740174</v>
+        <v>-0.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0.07793579357935793</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.02461446144614461</v>
+        <v>-0.3</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.05438943894389438</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03257125712571256</v>
+        <v>0.6</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.004056405640564056</v>
+        <v>0.6</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.004056405640564056</v>
+        <v>0.6</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.004056405640564056</v>
+        <v>0.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.004056405640564056</v>
+        <v>0.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.004056405640564056</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20">
@@ -2032,76 +2032,76 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.0336993699369937</v>
+        <v>0.2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0321032103210321</v>
+        <v>0.4</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.06264626462646264</v>
+        <v>-0.4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05749774977497749</v>
+        <v>0.4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07531953195319531</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0258025802580258</v>
+        <v>0.7</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01389738973897389</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1673807380738074</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.001752175217521752</v>
+        <v>-0.3</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.001752175217521752</v>
+        <v>-0.3</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.001752175217521752</v>
+        <v>-0.3</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.001752175217521752</v>
+        <v>-0.3</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.001752175217521752</v>
+        <v>-0.3</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.1022982298229823</v>
+        <v>0.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.06963096309630962</v>
+        <v>0.3</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.1614881488148814</v>
+        <v>-0.2</v>
       </c>
       <c r="S20" t="n">
-        <v>0.07419141914191418</v>
+        <v>-0.4</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1815541554155415</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.0282028202820282</v>
+        <v>0.3</v>
       </c>
       <c r="V20" t="n">
-        <v>0.02496249624962496</v>
+        <v>0.3</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02496249624962496</v>
+        <v>0.3</v>
       </c>
       <c r="X20" t="n">
-        <v>0.02496249624962496</v>
+        <v>0.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02496249624962496</v>
+        <v>0.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.02496249624962496</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21">
@@ -2112,76 +2112,76 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.05185718571857185</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1226522652265226</v>
+        <v>-0.7</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1337533753375338</v>
+        <v>0.7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1366456645664566</v>
+        <v>-0.7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1417581758175817</v>
+        <v>-0.7</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1031143114311431</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>0.117971797179718</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.049012901290129</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.1114191419141914</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.1114191419141914</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.1114191419141914</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.1114191419141914</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.1114191419141914</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.07797179717971796</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02923492349234923</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R21" t="n">
-        <v>0.02985898589858986</v>
+        <v>-0.6</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.1223882388238824</v>
+        <v>0.7</v>
       </c>
       <c r="T21" t="n">
-        <v>0.06283828382838283</v>
+        <v>0.2</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.05832583258325832</v>
+        <v>0.6</v>
       </c>
       <c r="V21" t="n">
-        <v>0.07067506750675066</v>
+        <v>-0.6</v>
       </c>
       <c r="W21" t="n">
-        <v>0.07067506750675066</v>
+        <v>-0.6</v>
       </c>
       <c r="X21" t="n">
-        <v>0.07067506750675066</v>
+        <v>-0.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.07067506750675066</v>
+        <v>-0.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.07067506750675066</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="22">
@@ -2192,76 +2192,76 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.009612961296129612</v>
+        <v>0.6</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0294029402940294</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01694569456945694</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.008808880888088809</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01774977497749775</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.1072427242724272</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.1066306630663066</v>
+        <v>0.6</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.1054425442544254</v>
+        <v>-0.4</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.05374137413741373</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.05374137413741373</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.05374137413741373</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.05374137413741373</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.05374137413741373</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.004608460846084608</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1441944194419442</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.04481248124812481</v>
+        <v>0.4</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.1217641764176418</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.2154575457545754</v>
+        <v>-0.3</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.08903690369036904</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0228022802280228</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="W22" t="n">
-        <v>0.0228022802280228</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="X22" t="n">
-        <v>0.0228022802280228</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0228022802280228</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0228022802280228</v>
+        <v>0.8999999999999998</v>
       </c>
     </row>
     <row r="23">
@@ -2276,76 +2276,76 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.2402520252025202</v>
+        <v>-0.3</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2206900690069007</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="E23" t="n">
-        <v>0.197059705970597</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.19007500750075</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1916591659165916</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1027542754275428</v>
+        <v>-0.2</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.07461146114611461</v>
+        <v>0.2</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1521152115211521</v>
+        <v>0.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2261266126612661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2261266126612661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2261266126612661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="N23" t="n">
-        <v>0.2261266126612661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2261266126612661</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0718031803180318</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.1434743474347435</v>
+        <v>-0.7</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.09246924692469245</v>
+        <v>0.3</v>
       </c>
       <c r="S23" t="n">
-        <v>0.2465406540654065</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="T23" t="n">
-        <v>0.09953795379537952</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1191239123912391</v>
+        <v>0.7</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.1116111611161116</v>
+        <v>-0.7</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.1116111611161116</v>
+        <v>-0.7</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.1116111611161116</v>
+        <v>-0.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.1116111611161116</v>
+        <v>-0.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.1116111611161116</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="24">
@@ -2356,76 +2356,76 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.008772877287728771</v>
+        <v>0.3</v>
       </c>
       <c r="D24" t="n">
-        <v>0.05507350735073507</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.02966696669666966</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02511851185118512</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01201320132013201</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.0859045904590459</v>
+        <v>-0.7</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.09278127812781277</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.008004800480048004</v>
+        <v>-0.3</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.08259225922592257</v>
+        <v>-0.3</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.08259225922592257</v>
+        <v>-0.3</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.08259225922592257</v>
+        <v>-0.3</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.08259225922592257</v>
+        <v>-0.3</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.08259225922592257</v>
+        <v>-0.3</v>
       </c>
       <c r="P24" t="n">
-        <v>0.04343234323432343</v>
+        <v>0.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1336813681368137</v>
+        <v>0.7</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1099309930993099</v>
+        <v>-0.2</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.0365076507650765</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.1494869486948695</v>
+        <v>-0.4</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.1001380138013801</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="V24" t="n">
-        <v>0.000288028802880288</v>
+        <v>-0.3</v>
       </c>
       <c r="W24" t="n">
-        <v>0.000288028802880288</v>
+        <v>-0.3</v>
       </c>
       <c r="X24" t="n">
-        <v>0.000288028802880288</v>
+        <v>-0.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.000288028802880288</v>
+        <v>-0.3</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.000288028802880288</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="25">
@@ -2440,76 +2440,76 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.09208520852085207</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.04332433243324332</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.07449144914491448</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08415241524152414</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08843684368436842</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2842364236423642</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2388598859885989</v>
+        <v>0.6</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.02913891389138914</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.03662766276627662</v>
+        <v>0.6</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.03662766276627662</v>
+        <v>0.6</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.03662766276627662</v>
+        <v>0.6</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.03662766276627662</v>
+        <v>0.6</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.03662766276627662</v>
+        <v>0.6</v>
       </c>
       <c r="P25" t="n">
-        <v>0.02635463546354635</v>
+        <v>0.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.08884488448844884</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.06767476747674767</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>0.02519051905190519</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="T25" t="n">
-        <v>0.07623162316231623</v>
+        <v>0.3</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1214401440144014</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="V25" t="n">
-        <v>0.02684668466846685</v>
+        <v>-0.6</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02684668466846685</v>
+        <v>-0.6</v>
       </c>
       <c r="X25" t="n">
-        <v>0.02684668466846685</v>
+        <v>-0.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.02684668466846685</v>
+        <v>-0.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02684668466846685</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="26">
@@ -2520,76 +2520,76 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.1288448844884488</v>
+        <v>-0.3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06003000300030003</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.02322232223222322</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.007392739273927392</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01474947494749475</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.02648664866486648</v>
+        <v>0.7</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.0586978697869787</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.05478547854785478</v>
+        <v>0.3</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.08079207920792078</v>
+        <v>0.3</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.08079207920792078</v>
+        <v>0.3</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.08079207920792078</v>
+        <v>0.3</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.08079207920792078</v>
+        <v>0.3</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.08079207920792078</v>
+        <v>0.3</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.03517551755175517</v>
+        <v>-0.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.1944314431443144</v>
+        <v>-0.7</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.008112811281128111</v>
+        <v>0.2</v>
       </c>
       <c r="S26" t="n">
-        <v>0.006492649264926492</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.06207020702070207</v>
+        <v>0.4</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.04948094809480948</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.05621362136213621</v>
+        <v>0.3</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.05621362136213621</v>
+        <v>0.3</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.05621362136213621</v>
+        <v>0.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.05621362136213621</v>
+        <v>0.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.05621362136213621</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27">
@@ -2604,76 +2604,76 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01159315931593159</v>
+        <v>0.3</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.03191119111911191</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01443744374437443</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00438043804380438</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.02767476747674767</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1120672067206721</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.13002100210021</v>
+        <v>0.3</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.2756435643564356</v>
+        <v>0.7</v>
       </c>
       <c r="K27" t="n">
-        <v>0.05736573657365736</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="L27" t="n">
-        <v>0.05736573657365736</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="M27" t="n">
-        <v>0.05736573657365736</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="N27" t="n">
-        <v>0.05736573657365736</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>0.05736573657365736</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02883888388838883</v>
+        <v>-0.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2181818181818181</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="R27" t="n">
-        <v>0.03216321632163216</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.1133153315331533</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.141950195019502</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09093309330933091</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="V27" t="n">
-        <v>0.1502310231023102</v>
+        <v>-0.3</v>
       </c>
       <c r="W27" t="n">
-        <v>0.1502310231023102</v>
+        <v>-0.3</v>
       </c>
       <c r="X27" t="n">
-        <v>0.1502310231023102</v>
+        <v>-0.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.1502310231023102</v>
+        <v>-0.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.1502310231023102</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="28">
@@ -2688,76 +2688,76 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.09135313531353134</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07867986798679868</v>
+        <v>-0.7</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.08523252325232522</v>
+        <v>0.7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09200120012001199</v>
+        <v>-0.7</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0702070207020702</v>
+        <v>-0.7</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.02649864986498649</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.05557755775577557</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>0.004452445244524452</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.06538253825382538</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.06538253825382538</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.06538253825382538</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.06538253825382538</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.06538253825382538</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="P28" t="n">
-        <v>0.007572757275727572</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.07705970597059707</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06999099909990998</v>
+        <v>0.6</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03834383438343834</v>
+        <v>0.7</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.03986798679867986</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.02057005700570057</v>
+        <v>0.6</v>
       </c>
       <c r="V28" t="n">
-        <v>0.05156915691569156</v>
+        <v>-0.4</v>
       </c>
       <c r="W28" t="n">
-        <v>0.05156915691569156</v>
+        <v>-0.4</v>
       </c>
       <c r="X28" t="n">
-        <v>0.05156915691569156</v>
+        <v>-0.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.05156915691569156</v>
+        <v>-0.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.05156915691569156</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="29">
@@ -2772,76 +2772,76 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.1123072307230723</v>
+        <v>-0.4</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002448244824482448</v>
+        <v>0.2</v>
       </c>
       <c r="E29" t="n">
-        <v>0.008088808880888088</v>
+        <v>-0.2</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.008808880888088809</v>
+        <v>0.2</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.008412841284128413</v>
+        <v>0.2</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.1000780078007801</v>
+        <v>-0.4</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.1531833183318331</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.06701470147014701</v>
+        <v>-0.6</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.06465046504650464</v>
+        <v>-0.6</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.06465046504650464</v>
+        <v>-0.6</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.06465046504650464</v>
+        <v>-0.6</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.06465046504650464</v>
+        <v>-0.6</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.06465046504650464</v>
+        <v>-0.6</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.08968496849684968</v>
+        <v>0.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.05888988898889888</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="R29" t="n">
-        <v>0.03151515151515151</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.02555055505550555</v>
+        <v>-0.2</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.0336993699369937</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.09851785178517851</v>
+        <v>-0.6</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.01794179417941794</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.01794179417941794</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.01794179417941794</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.01794179417941794</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.01794179417941794</v>
+        <v>-0.09999999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -2856,76 +2856,76 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1517311731173117</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.04384038403840383</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02571857185718571</v>
+        <v>-0.6</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.01896189618961896</v>
+        <v>0.6</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.03546354635463546</v>
+        <v>0.6</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01027302730273027</v>
+        <v>-0.2</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02935493549354935</v>
+        <v>-0.7</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.1634803480348035</v>
+        <v>-0.2</v>
       </c>
       <c r="K30" t="n">
-        <v>0.02575457545754575</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>0.02575457545754575</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>0.02575457545754575</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>0.02575457545754575</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="O30" t="n">
-        <v>0.02575457545754575</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.02649864986498649</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.07249924992499249</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.09470147014701469</v>
+        <v>-0.3</v>
       </c>
       <c r="S30" t="n">
-        <v>0.05233723372337233</v>
+        <v>-0.6</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.07278727872787277</v>
+        <v>-0.6</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.007464746474647464</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.02534653465346534</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.02534653465346534</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.02534653465346534</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.02534653465346534</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.02534653465346534</v>
+        <v>0.4999999999999999</v>
       </c>
     </row>
     <row r="31">
@@ -2940,76 +2940,76 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5221602160216021</v>
+        <v>0.6</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9822382238223822</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9975397539753975</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9928472847284726</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9865946594659465</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3588958895889588</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="I31" t="n">
-        <v>0.003516351635163516</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.2212661266126612</v>
+        <v>-0.6</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8882688268826882</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8882688268826882</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8882688268826882</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8882688268826882</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.8882688268826882</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.08476447644764476</v>
+        <v>0.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.04852085208520851</v>
+        <v>0.4</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.3041584158415841</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.6665226522652264</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="T31" t="n">
-        <v>0.1044104410441044</v>
+        <v>-0.7</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.708994899489949</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8529372937293728</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8529372937293728</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="X31" t="n">
-        <v>0.8529372937293728</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.8529372937293728</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.8529372937293728</v>
+        <v>0.8999999999999998</v>
       </c>
     </row>
     <row r="32">
@@ -3024,76 +3024,76 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.07503150315031502</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.08832883288328831</v>
+        <v>-0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0664026402640264</v>
+        <v>0.6</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.05285328532853285</v>
+        <v>-0.6</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.0344074407440744</v>
+        <v>-0.6</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.09072907290729072</v>
+        <v>-0.3</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.1543354335433543</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1284848484848485</v>
+        <v>-0.2</v>
       </c>
       <c r="K32" t="n">
-        <v>0.1158475847584758</v>
+        <v>0.3</v>
       </c>
       <c r="L32" t="n">
-        <v>0.1158475847584758</v>
+        <v>0.3</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1158475847584758</v>
+        <v>0.3</v>
       </c>
       <c r="N32" t="n">
-        <v>0.1158475847584758</v>
+        <v>0.3</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1158475847584758</v>
+        <v>0.3</v>
       </c>
       <c r="P32" t="n">
-        <v>0.05497749774977496</v>
+        <v>0.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.08786078607860785</v>
+        <v>0.3</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.1310771077107711</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>0.2463606360636063</v>
+        <v>0.6</v>
       </c>
       <c r="T32" t="n">
-        <v>0.2069006900690069</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.0324032403240324</v>
+        <v>0.3</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.08490849084908489</v>
+        <v>-0.7</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.08490849084908489</v>
+        <v>-0.7</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.08490849084908489</v>
+        <v>-0.7</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.08490849084908489</v>
+        <v>-0.7</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.08490849084908489</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="33">
@@ -3108,76 +3108,76 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.003432343234323432</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1326252625262526</v>
+        <v>0.4</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1546354635463546</v>
+        <v>-0.4</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1398499849984998</v>
+        <v>0.4</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1783978397839784</v>
+        <v>0.4</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.1142154215421542</v>
+        <v>-0.3</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.03878787878787878</v>
+        <v>-0.3</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.1210921092109211</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03491149114911491</v>
+        <v>-0.3</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03491149114911491</v>
+        <v>-0.3</v>
       </c>
       <c r="M33" t="n">
-        <v>0.03491149114911491</v>
+        <v>-0.3</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03491149114911491</v>
+        <v>-0.3</v>
       </c>
       <c r="O33" t="n">
-        <v>0.03491149114911491</v>
+        <v>-0.3</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.02475847584758476</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.102994299429943</v>
+        <v>0.2</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01587758775877588</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="S33" t="n">
-        <v>0.011005100510051</v>
+        <v>-0.4</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.2524932493249324</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U33" t="n">
-        <v>0.009300930093009299</v>
+        <v>-0.7</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.145046504650465</v>
+        <v>0.2</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.145046504650465</v>
+        <v>0.2</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.145046504650465</v>
+        <v>0.2</v>
       </c>
       <c r="Y33" t="n">
-        <v>-0.145046504650465</v>
+        <v>0.2</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.145046504650465</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
@@ -3192,76 +3192,76 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.08127212721272126</v>
+        <v>-0.3</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.005988598859885987</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.007236723672367236</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F34" t="n">
-        <v>0.01524152415241524</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01858985898589859</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.04064806480648065</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.08427242724272427</v>
+        <v>0.7</v>
       </c>
       <c r="J34" t="n">
-        <v>0.07342334233423342</v>
+        <v>-0.3</v>
       </c>
       <c r="K34" t="n">
-        <v>0.02189018901890189</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.02189018901890189</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.02189018901890189</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0.02189018901890189</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02189018901890189</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0.07827182718271827</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.11998799879988</v>
+        <v>-0.2</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.05346534653465346</v>
+        <v>-0.2</v>
       </c>
       <c r="S34" t="n">
-        <v>0.02189018901890189</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="T34" t="n">
-        <v>0.1074587458745875</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01064506450645064</v>
+        <v>0.7</v>
       </c>
       <c r="V34" t="n">
-        <v>0.04949294929492948</v>
+        <v>0.3</v>
       </c>
       <c r="W34" t="n">
-        <v>0.04949294929492948</v>
+        <v>0.3</v>
       </c>
       <c r="X34" t="n">
-        <v>0.04949294929492948</v>
+        <v>0.3</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.04949294929492948</v>
+        <v>0.3</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.04949294929492948</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="35">
@@ -3276,76 +3276,76 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0107050705070507</v>
+        <v>-0.7</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1295049504950495</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.102034203420342</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.08873687368736873</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.09304530453045304</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.04421242124212421</v>
+        <v>-0.3</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01275727572757276</v>
+        <v>-0.3</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02327032703270327</v>
+        <v>-0.4999999999999999</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1248844884488449</v>
+        <v>-0.3</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1248844884488449</v>
+        <v>-0.3</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1248844884488449</v>
+        <v>-0.3</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1248844884488449</v>
+        <v>-0.3</v>
       </c>
       <c r="O35" t="n">
-        <v>0.1248844884488449</v>
+        <v>-0.3</v>
       </c>
       <c r="P35" t="n">
-        <v>0.1397059705970597</v>
+        <v>0.6</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.1242844284428443</v>
+        <v>0.7</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.02568256825682568</v>
+        <v>-0.9999999999999999</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1992079207920792</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="T35" t="n">
-        <v>0.02989498949894989</v>
+        <v>-0.6</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07199519951995198</v>
+        <v>-0.2</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.1592559255925592</v>
+        <v>-0.3</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.1592559255925592</v>
+        <v>-0.3</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.1592559255925592</v>
+        <v>-0.3</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.1592559255925592</v>
+        <v>-0.3</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.1592559255925592</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="36">
@@ -3360,76 +3360,76 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.01738973897389739</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08446444644464446</v>
+        <v>-0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.08697269726972696</v>
+        <v>0.7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.08984098409840982</v>
+        <v>-0.7</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07609960996099609</v>
+        <v>-0.7</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.06336633663366335</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.07734773477347733</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001452145214521452</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>0.1303210321032103</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1303210321032103</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1303210321032103</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1303210321032103</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1303210321032103</v>
+        <v>0.8999999999999998</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.05299729972997299</v>
+        <v>-0.7999999999999999</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.01032103210321032</v>
+        <v>-0.8999999999999998</v>
       </c>
       <c r="R36" t="n">
-        <v>0.08318031803180316</v>
+        <v>0.6</v>
       </c>
       <c r="S36" t="n">
-        <v>0.005592559255925592</v>
+        <v>0.7</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.04548454845484548</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.04384038403840383</v>
+        <v>0.6</v>
       </c>
       <c r="V36" t="n">
-        <v>0.2057965796579657</v>
+        <v>-0.4</v>
       </c>
       <c r="W36" t="n">
-        <v>0.2057965796579657</v>
+        <v>-0.4</v>
       </c>
       <c r="X36" t="n">
-        <v>0.2057965796579657</v>
+        <v>-0.4</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.2057965796579657</v>
+        <v>-0.4</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.2057965796579657</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="37">
@@ -3444,76 +3444,76 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.07861986198619861</v>
+        <v>0.7</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06349834983498349</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0568136813681368</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>0.05644164416441644</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05548154815481547</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0.01736573657365736</v>
+        <v>0.3</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02844284428442844</v>
+        <v>0.3</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.04045604560456045</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.02948694869486948</v>
+        <v>0.3</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.02948694869486948</v>
+        <v>0.3</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.02948694869486948</v>
+        <v>0.3</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.02948694869486948</v>
+        <v>0.3</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.02948694869486948</v>
+        <v>0.3</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1663126312631263</v>
+        <v>-0.6</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.09322532253225321</v>
+        <v>-0.7</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.02138613861386138</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.05467746774677467</v>
+        <v>-0.09999999999999999</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.06163816381638163</v>
+        <v>0.6</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.06841884188418841</v>
+        <v>0.2</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01402940294029403</v>
+        <v>0.3</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01402940294029403</v>
+        <v>0.3</v>
       </c>
       <c r="X37" t="n">
-        <v>0.01402940294029403</v>
+        <v>0.3</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.01402940294029403</v>
+        <v>0.3</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01402940294029403</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
@@ -712,76 +712,76 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.1270094565043783</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7</v>
+        <v>-0.1350292605371704</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7</v>
+        <v>-0.001123106732924269</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.7</v>
+        <v>0.02647399238695969</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.7</v>
+        <v>0.1479755592630224</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01903705160948206</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.007427469321098772</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.4613736403274959</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.3132053820962152</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.3132053820962152</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.3132053820962152</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.3132053820962152</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.3132053820962152</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.08039743799989751</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.7076261076330442</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6</v>
+        <v>-0.00458258600730344</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7</v>
+        <v>0.2858963932918557</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9948630081145202</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6</v>
+        <v>0.1664685416987416</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.4</v>
+        <v>0.07298804672752186</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.4</v>
+        <v>0.07298804672752186</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.4</v>
+        <v>0.07298804672752186</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.4</v>
+        <v>0.07298804672752186</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.4</v>
+        <v>0.07298804672752186</v>
       </c>
     </row>
     <row r="5">
@@ -792,76 +792,76 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2</v>
+        <v>0.0828806353472254</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4</v>
+        <v>0.1198767829390713</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4</v>
+        <v>0.00635636454225458</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4</v>
+        <v>-0.08377222568688901</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4</v>
+        <v>-0.006454327074173082</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.7</v>
+        <v>-0.02715710287828411</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2</v>
+        <v>0.00101141024845641</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-0.01783006422680507</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3</v>
+        <v>-0.1296642958105718</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3</v>
+        <v>-0.1296642958105718</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3</v>
+        <v>-0.1296642958105718</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3</v>
+        <v>-0.1296642958105718</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3</v>
+        <v>-0.1296642958105718</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4</v>
+        <v>0.09367856649914266</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3</v>
+        <v>0.6568326797453071</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-0.0002091542483661699</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4</v>
+        <v>-0.3116191077927643</v>
       </c>
       <c r="T5" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.0002983377719335108</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.3</v>
+        <v>-0.08985083572203341</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.7</v>
+        <v>-0.08847759195510367</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.7</v>
+        <v>-0.08847759195510367</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.7</v>
+        <v>-0.08847759195510367</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.7</v>
+        <v>-0.08847759195510367</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.7</v>
+        <v>-0.08847759195510367</v>
       </c>
     </row>
     <row r="6">
@@ -872,76 +872,76 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.1357408167896327</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>-0.02019419024776761</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.3</v>
+        <v>0.02058419487136779</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3</v>
+        <v>-0.01328941665957666</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3</v>
+        <v>-0.02145742021829681</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.9061895994795838</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.974571654918866</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.3401210947048636</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.1165660335906413</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.1165660335906413</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.1165660335906413</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.1165660335906413</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.1165660335906413</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2</v>
+        <v>-0.0009196152367846093</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.001858167530326701</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.001987962031518481</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.3</v>
+        <v>-0.04893285507731419</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.2</v>
+        <v>-0.003074291930971677</v>
       </c>
       <c r="U6" t="n">
-        <v>0.6</v>
+        <v>0.3949636538465461</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4</v>
+        <v>-0.01655660792626432</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4</v>
+        <v>-0.01655660792626432</v>
       </c>
       <c r="X6" t="n">
-        <v>0.4</v>
+        <v>-0.01655660792626432</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4</v>
+        <v>-0.01655660792626432</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4</v>
+        <v>-0.01655660792626432</v>
       </c>
     </row>
     <row r="7">
@@ -956,76 +956,76 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.4796662488826499</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>0.02760801739232069</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3</v>
+        <v>-0.02440130776005231</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3</v>
+        <v>0.02346031639441265</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3</v>
+        <v>0.02158967817558712</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01466078199443128</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.002638555305542212</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01786333610027329</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0250877076915083</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0250877076915083</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0250877076915083</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0250877076915083</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0250877076915083</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2</v>
+        <v>-0.6007225173409007</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02207564027502561</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6</v>
+        <v>-0.007574011118960444</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.3</v>
+        <v>-0.02568855395554216</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-0.01970502088420083</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.4</v>
+        <v>-0.002571617958864718</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02559076057563042</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02559076057563042</v>
       </c>
       <c r="X7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02559076057563042</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02559076057563042</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02559076057563042</v>
       </c>
     </row>
     <row r="8">
@@ -1040,76 +1040,76 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7</v>
+        <v>0.5083169661886786</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01167315934692637</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01000828206433128</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.009487479355499174</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.0081965625038625</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.2</v>
+        <v>-0.00997532478301299</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2</v>
+        <v>-0.0102946025557841</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.3</v>
+        <v>-0.002446362203953071</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.006381730239269209</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.006381730239269209</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-0.006381730239269209</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-0.006381730239269209</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.006381730239269209</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.7077245674449826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3</v>
+        <v>0.004464970546598821</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3</v>
+        <v>0.0002897549875901995</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01062837392913496</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01309329959573198</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.3</v>
+        <v>-0.003825559065022363</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.2</v>
+        <v>0.0008798088351923533</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.2</v>
+        <v>0.0008798088351923533</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.2</v>
+        <v>0.0008798088351923533</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.2</v>
+        <v>0.0008798088351923533</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.2</v>
+        <v>0.0008798088351923533</v>
       </c>
     </row>
     <row r="9">
@@ -1124,76 +1124,76 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.0136350875214035</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6</v>
+        <v>-0.01155057713402308</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>0.01246005899440236</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6</v>
+        <v>-0.0106635225065409</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.6</v>
+        <v>-0.009684325827373034</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.02202900107316004</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7</v>
+        <v>0.02904841143393645</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2</v>
+        <v>0.00711276016987188</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2</v>
+        <v>0.01070169825206793</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2</v>
+        <v>0.01070169825206793</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2</v>
+        <v>0.01070169825206793</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2</v>
+        <v>0.01070169825206793</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2</v>
+        <v>0.01070169825206793</v>
       </c>
       <c r="P9" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.00224467276178691</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3</v>
+        <v>0.008835669569426781</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.7</v>
+        <v>-0.004431397041255882</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6</v>
+        <v>-0.008022430016897199</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.01025495522619821</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.2</v>
+        <v>0.009247912209916487</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.7</v>
+        <v>-0.003211790624471624</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.7</v>
+        <v>-0.003211790624471624</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.7</v>
+        <v>-0.003211790624471624</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.7</v>
+        <v>-0.003211790624471624</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.7</v>
+        <v>-0.003211790624471624</v>
       </c>
     </row>
     <row r="10">
@@ -1208,76 +1208,76 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.06661597994463918</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3</v>
+        <v>0.008429067601162703</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3</v>
+        <v>-0.009321957108878282</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3</v>
+        <v>0.01006895896275836</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>0.009802571336102852</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.6</v>
+        <v>0.004629623801184951</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.001164699886587995</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0004460189956819262</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.6</v>
+        <v>-0.009782474023298959</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.6</v>
+        <v>-0.009782474023298959</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.6</v>
+        <v>-0.009782474023298959</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.6</v>
+        <v>-0.009782474023298959</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.6</v>
+        <v>-0.009782474023298959</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2</v>
+        <v>0.06913179367727174</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6</v>
+        <v>-0.006507597572303902</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.4</v>
+        <v>-0.002494302723772109</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.3</v>
+        <v>0.001377273463090938</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.004953219270128771</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.003724481236979249</v>
       </c>
       <c r="V10" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.003559732078389282</v>
       </c>
       <c r="W10" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.003559732078389282</v>
       </c>
       <c r="X10" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.003559732078389282</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.003559732078389282</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.003559732078389282</v>
       </c>
     </row>
     <row r="11">
@@ -1288,76 +1288,76 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.09812576859703073</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3</v>
+        <v>0.0009461873658474946</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3</v>
+        <v>7.338998693559946e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3</v>
+        <v>0.001917866668714667</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.3</v>
+        <v>-0.001675530211021208</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.4</v>
+        <v>-0.00542589180103567</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.2132218491688739</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.001874255890707164</v>
       </c>
       <c r="K11" t="n">
-        <v>0.4</v>
+        <v>-0.0061774425190977</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4</v>
+        <v>-0.0061774425190977</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4</v>
+        <v>-0.0061774425190977</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4</v>
+        <v>-0.0061774425190977</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4</v>
+        <v>-0.0061774425190977</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2</v>
+        <v>0.02413937722157508</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-0.01378063274322531</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4</v>
+        <v>0.01584501279380051</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3</v>
+        <v>-0.01163451569738063</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3</v>
+        <v>-0.0008103860484154419</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.006599273735970948</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.008993363687734547</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.008993363687734547</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.008993363687734547</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.008993363687734547</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.008993363687734547</v>
       </c>
     </row>
     <row r="12">
@@ -1368,76 +1368,76 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.4</v>
+        <v>-0.2163465240138609</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.002550962406038496</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.001716283652651346</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.0001898261835930473</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.002826056849042274</v>
       </c>
       <c r="H12" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.00482894726515789</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.006233193849327753</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4</v>
+        <v>-0.01139744714294655</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.002385205343408213</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.002385205343408213</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.002385205343408213</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.002385205343408213</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.002385205343408213</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.3</v>
+        <v>-0.0350954326678173</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.6</v>
+        <v>0.002348800893952036</v>
       </c>
       <c r="R12" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.005895481771819269</v>
       </c>
       <c r="S12" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.02683466478538659</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7</v>
+        <v>0.01277615129504605</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01440498326419933</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.6</v>
+        <v>0.006395845791833831</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.6</v>
+        <v>0.006395845791833831</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.6</v>
+        <v>0.006395845791833831</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.6</v>
+        <v>0.006395845791833831</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.6</v>
+        <v>0.006395845791833831</v>
       </c>
     </row>
     <row r="13">
@@ -1452,76 +1452,76 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3</v>
+        <v>0.03173472030938881</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.0009933389197335565</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0006439274177570966</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09999999999999999</v>
+        <v>-5.606304224252168e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.0001853367434134697</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.7</v>
+        <v>0.01152584186903367</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.009781065223242607</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.3</v>
+        <v>-0.001364184588198737</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.003363795590551823</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.003363795590551823</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.003363795590551823</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.003363795590551823</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.003363795590551823</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.03712529966101198</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.01076300961452038</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.7</v>
+        <v>0.02266579914663197</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.001155919054236762</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.6</v>
+        <v>-0.001087712875508515</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.0008938324197532967</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.2</v>
+        <v>-0.008105127492205098</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.2</v>
+        <v>-0.008105127492205098</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.2</v>
+        <v>-0.008105127492205098</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.2</v>
+        <v>-0.008105127492205098</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.2</v>
+        <v>-0.008105127492205098</v>
       </c>
     </row>
     <row r="14">
@@ -1536,76 +1536,76 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.2</v>
+        <v>-0.02771111304444452</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6</v>
+        <v>0.008610236312409451</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6</v>
+        <v>-0.009330155125206203</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6</v>
+        <v>0.008896978243879127</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>0.009516590684663626</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3</v>
+        <v>-0.001284980787399231</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.3</v>
+        <v>-0.006288456731538269</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.2</v>
+        <v>0.007080481848447503</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.7</v>
+        <v>-0.009574247806969912</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.7</v>
+        <v>-0.009574247806969912</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.7</v>
+        <v>-0.009574247806969912</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.7</v>
+        <v>-0.009574247806969912</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.7</v>
+        <v>-0.009574247806969912</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.04086224093048963</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2</v>
+        <v>-0.01030470982018839</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.3</v>
+        <v>0.004577952471118098</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.6</v>
+        <v>-0.01010832626033305</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01182982338519293</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.3</v>
+        <v>-0.004891231875649275</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7</v>
+        <v>0.01116416444656658</v>
       </c>
       <c r="W14" t="n">
-        <v>0.7</v>
+        <v>0.01116416444656658</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7</v>
+        <v>0.01116416444656658</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.7</v>
+        <v>0.01116416444656658</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.7</v>
+        <v>0.01116416444656658</v>
       </c>
     </row>
     <row r="15">
@@ -1620,76 +1620,76 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2</v>
+        <v>-0.0004820284992811399</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4</v>
+        <v>0.01609035769961431</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4</v>
+        <v>-0.01733711627748465</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4</v>
+        <v>0.01595170403006816</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4</v>
+        <v>0.01738896952755878</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.7</v>
+        <v>-0.001468569178742767</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2</v>
+        <v>-0.01113809343752374</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-0.01748734421168152</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3</v>
+        <v>-0.01449599088383963</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3</v>
+        <v>-0.01449599088383963</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3</v>
+        <v>-0.01449599088383963</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3</v>
+        <v>-0.01449599088383963</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3</v>
+        <v>-0.01449599088383963</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4</v>
+        <v>-0.02208659214746368</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3</v>
+        <v>-0.0007927447997097918</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>-0.009365919734636789</v>
       </c>
       <c r="S15" t="n">
-        <v>0.4</v>
+        <v>-0.01049297398771896</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01008933793957352</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.3</v>
+        <v>-0.02338030499921219</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.7</v>
+        <v>0.0155130899965236</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.7</v>
+        <v>0.0155130899965236</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.7</v>
+        <v>0.0155130899965236</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.7</v>
+        <v>0.0155130899965236</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.7</v>
+        <v>0.0155130899965236</v>
       </c>
     </row>
     <row r="16">
@@ -1704,76 +1704,76 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.2</v>
+        <v>0.004379990479199619</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4</v>
+        <v>0.003106970524278821</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4</v>
+        <v>-0.008381775791271029</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4</v>
+        <v>0.01178183528727341</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4</v>
+        <v>0.01008236209929448</v>
       </c>
       <c r="H16" t="n">
-        <v>0.7</v>
+        <v>0.01388728778749151</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2</v>
+        <v>0.0114335949853438</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.01141691997580584</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.3</v>
+        <v>-0.006405987904239516</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3</v>
+        <v>-0.006405987904239516</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.3</v>
+        <v>-0.006405987904239516</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.3</v>
+        <v>-0.006405987904239516</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3</v>
+        <v>-0.006405987904239516</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.4</v>
+        <v>-0.03411760389270415</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.3</v>
+        <v>-0.02944305304972212</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-0.01316994023879761</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.4</v>
+        <v>0.01239810740792429</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.007739123349564933</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3</v>
+        <v>0.005712704868508194</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7</v>
+        <v>0.006090359379614374</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7</v>
+        <v>0.006090359379614374</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7</v>
+        <v>0.006090359379614374</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.7</v>
+        <v>0.006090359379614374</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.7</v>
+        <v>0.006090359379614374</v>
       </c>
     </row>
     <row r="17">
@@ -1784,76 +1784,76 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.4</v>
+        <v>0.015631100017244</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2</v>
+        <v>0.0151312125412485</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2</v>
+        <v>-0.01760215952008638</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2</v>
+        <v>0.01811326546053062</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2</v>
+        <v>0.01588377845935114</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.6</v>
+        <v>-0.0001334184053367362</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.006991911447676457</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6</v>
+        <v>-0.005657939049673534</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.0175620301744812</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0.0175620301744812</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-0.0175620301744812</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-0.0175620301744812</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-0.0175620301744812</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.0007864793594591742</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.00789675305187012</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.007089433339577332</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2</v>
+        <v>-0.01192342070093683</v>
       </c>
       <c r="T17" t="n">
-        <v>0.2</v>
+        <v>-0.002460319106412764</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.4</v>
+        <v>-0.03361888128075525</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009996546927861876</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009996546927861876</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009996546927861876</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009996546927861876</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009996546927861876</v>
       </c>
     </row>
     <row r="18">
@@ -1868,76 +1868,76 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6</v>
+        <v>-0.01502812476112499</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2</v>
+        <v>-0.007078236955129477</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2</v>
+        <v>0.003828282777131311</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2</v>
+        <v>-0.003115790716631628</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2</v>
+        <v>-0.00521497902459916</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.006237104697484187</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.005049995625999825</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.6</v>
+        <v>-0.009249804792175385</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.000584176151367046</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.000584176151367046</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.000584176151367046</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.000584176151367046</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.000584176151367046</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7</v>
+        <v>0.01439360227174409</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4</v>
+        <v>-0.01046474441858978</v>
       </c>
       <c r="R18" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.001461519802460792</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.2</v>
+        <v>0.02425832737033309</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.3</v>
+        <v>-0.004668036570721462</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0003933243037329721</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01458273178330927</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01458273178330927</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01458273178330927</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01458273178330927</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.01458273178330927</v>
       </c>
     </row>
     <row r="19">
@@ -1952,76 +1952,76 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.03977176747887069</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3</v>
+        <v>-0.01167842062713682</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3</v>
+        <v>0.01266829125873165</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3</v>
+        <v>-0.01279701919988077</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>-0.01502914850516594</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.0100735575549423</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6</v>
+        <v>-0.005374445494977819</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.001737315724664268</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.006161658870466354</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.006161658870466354</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.006161658870466354</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.006161658870466354</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.006161658870466354</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.3</v>
+        <v>-0.01555332331013293</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.4</v>
+        <v>0.005213385040535401</v>
       </c>
       <c r="R19" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002428607041144281</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.3</v>
+        <v>0.002239288217571528</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-0.01461695943267837</v>
       </c>
       <c r="U19" t="n">
-        <v>0.6</v>
+        <v>0.004394094127763765</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6</v>
+        <v>-0.004569682454787297</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6</v>
+        <v>-0.004569682454787297</v>
       </c>
       <c r="X19" t="n">
-        <v>0.6</v>
+        <v>-0.004569682454787297</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.6</v>
+        <v>-0.004569682454787297</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.6</v>
+        <v>-0.004569682454787297</v>
       </c>
     </row>
     <row r="20">
@@ -2032,76 +2032,76 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2</v>
+        <v>0.01762897424115897</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4</v>
+        <v>0.01067678577107143</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.4</v>
+        <v>-0.007814229144569165</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4</v>
+        <v>0.005648375841935032</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>0.005914362476574499</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7</v>
+        <v>-0.003461609322464373</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.006784460047378401</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.002322675558495026</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.3</v>
+        <v>-0.01450570896422836</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.3</v>
+        <v>-0.01450570896422836</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.3</v>
+        <v>-0.01450570896422836</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.3</v>
+        <v>-0.01450570896422836</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.3</v>
+        <v>-0.01450570896422836</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6</v>
+        <v>0.006727334765093389</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3</v>
+        <v>0.02157287423891497</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.2</v>
+        <v>-0.005637250401490016</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.4</v>
+        <v>-0.01617907677516307</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01417818037512721</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3</v>
+        <v>-0.01445208086608323</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3</v>
+        <v>0.003902577852103114</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3</v>
+        <v>0.003902577852103114</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3</v>
+        <v>0.003902577852103114</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3</v>
+        <v>0.003902577852103114</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.3</v>
+        <v>0.003902577852103114</v>
       </c>
     </row>
     <row r="21">
@@ -2112,76 +2112,76 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.008216736040669441</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7</v>
+        <v>0.01000785851231434</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7</v>
+        <v>-0.00695340200613608</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.7</v>
+        <v>0.004757207710288308</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7</v>
+        <v>0.003065165018606601</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0102091850163674</v>
       </c>
       <c r="I21" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.0100263775850551</v>
       </c>
       <c r="J21" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01445284455777512</v>
       </c>
       <c r="K21" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.008053171426126856</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.008053171426126856</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.008053171426126856</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.008053171426126856</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.008053171426126856</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>-0.005310538964421558</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0189144149645766</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.6</v>
+        <v>0.008985048263401929</v>
       </c>
       <c r="S21" t="n">
-        <v>0.7</v>
+        <v>-0.008390656271626249</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2</v>
+        <v>-0.01880189902407596</v>
       </c>
       <c r="U21" t="n">
-        <v>0.6</v>
+        <v>-0.01216895165475807</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.6</v>
+        <v>0.001927674797106992</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.6</v>
+        <v>0.001927674797106992</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.6</v>
+        <v>0.001927674797106992</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.6</v>
+        <v>0.001927674797106992</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.6</v>
+        <v>0.001927674797106992</v>
       </c>
     </row>
     <row r="22">
@@ -2192,76 +2192,76 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.6</v>
+        <v>-0.002606884328275372</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.02558280438331217</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.02646497174659887</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.02649874617994985</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.02414689498187579</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.02831469070058762</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6</v>
+        <v>-0.01796197329447893</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.4</v>
+        <v>0.02532988460575715</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02270525898821036</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02270525898821036</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02270525898821036</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02270525898821036</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02270525898821036</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.009925270093010802</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.002562783462511338</v>
       </c>
       <c r="R22" t="n">
-        <v>0.4</v>
+        <v>0.02060047042401881</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.03079798971191958</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.3</v>
+        <v>0.008549714933988596</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.0114744400109776</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.03612886214915449</v>
       </c>
       <c r="W22" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.03612886214915449</v>
       </c>
       <c r="X22" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.03612886214915449</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.03612886214915449</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.03612886214915449</v>
       </c>
     </row>
     <row r="23">
@@ -2276,76 +2276,76 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.3</v>
+        <v>-0.01356292892651716</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.01810789320431573</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01393835028553401</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.0118092125683685</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.01116572559862902</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.2</v>
+        <v>-0.01525497229019889</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2</v>
+        <v>-0.01193964566158582</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7</v>
+        <v>0.02127682577090376</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.02133686398947456</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.02133686398947456</v>
       </c>
       <c r="M23" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.02133686398947456</v>
       </c>
       <c r="N23" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.02133686398947456</v>
       </c>
       <c r="O23" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.02133686398947456</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.00737167104686684</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.7</v>
+        <v>-0.019781774999271</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3</v>
+        <v>0.02623833282553331</v>
       </c>
       <c r="S23" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01720279652811186</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01396158046246321</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7</v>
+        <v>0.01923194275327771</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.7</v>
+        <v>-0.02119559201582367</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.7</v>
+        <v>-0.02119559201582367</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.7</v>
+        <v>-0.02119559201582367</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.7</v>
+        <v>-0.02119559201582367</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.7</v>
+        <v>-0.02119559201582367</v>
       </c>
     </row>
     <row r="24">
@@ -2356,76 +2356,76 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3</v>
+        <v>0.01547382205895288</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.003213418976536759</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.001672150434886017</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002807270224290808</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.0009105361324214452</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.7</v>
+        <v>0.01860951453638058</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.02275960987038439</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.3</v>
+        <v>-0.001371055692501945</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.3</v>
+        <v>0.006762776910511075</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.3</v>
+        <v>0.006762776910511075</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.3</v>
+        <v>0.006762776910511075</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.3</v>
+        <v>0.006762776910511075</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.3</v>
+        <v>0.006762776910511075</v>
       </c>
       <c r="P24" t="n">
-        <v>0.6</v>
+        <v>0.02411334538053381</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7</v>
+        <v>-0.009323769684950788</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.2</v>
+        <v>-0.009574376350975052</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.004064975298599011</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.4</v>
+        <v>0.01675733212629328</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.01404501300980052</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.3</v>
+        <v>-0.00317333350293334</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.3</v>
+        <v>-0.00317333350293334</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.3</v>
+        <v>-0.00317333350293334</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.3</v>
+        <v>-0.00317333350293334</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.3</v>
+        <v>-0.00317333350293334</v>
       </c>
     </row>
     <row r="25">
@@ -2440,76 +2440,76 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.004221478152859125</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.009629464129178564</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.01066830887473235</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01089031291561252</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01075100894204036</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.01023752728950109</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6</v>
+        <v>0.01117785644711426</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.00423385765883167</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6</v>
+        <v>0.004479609971184398</v>
       </c>
       <c r="L25" t="n">
-        <v>0.6</v>
+        <v>0.004479609971184398</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6</v>
+        <v>0.004479609971184398</v>
       </c>
       <c r="N25" t="n">
-        <v>0.6</v>
+        <v>0.004479609971184398</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6</v>
+        <v>0.004479609971184398</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3</v>
+        <v>-0.0295137348765494</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009400425112017004</v>
       </c>
       <c r="R25" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01615204394208176</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.007804329336173173</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3</v>
+        <v>-0.003473912394956495</v>
       </c>
       <c r="U25" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.009682450275298011</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.6</v>
+        <v>-0.004978846471153858</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.6</v>
+        <v>-0.004978846471153858</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.6</v>
+        <v>-0.004978846471153858</v>
       </c>
       <c r="Y25" t="n">
-        <v>-0.6</v>
+        <v>-0.004978846471153858</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.6</v>
+        <v>-0.004978846471153858</v>
       </c>
     </row>
     <row r="26">
@@ -2520,76 +2520,76 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.3</v>
+        <v>-0.007866982874679315</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.0007707352628294104</v>
       </c>
       <c r="E26" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.0001736334789453391</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0005937996717519868</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.001485761627430465</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7</v>
+        <v>-0.004007357248294289</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.009274533202981328</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3</v>
+        <v>0.008156922215948662</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3</v>
+        <v>-0.003418351912734076</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3</v>
+        <v>-0.003418351912734076</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3</v>
+        <v>-0.003418351912734076</v>
       </c>
       <c r="N26" t="n">
-        <v>0.3</v>
+        <v>-0.003418351912734076</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3</v>
+        <v>-0.003418351912734076</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.6</v>
+        <v>0.001639094369563774</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.7</v>
+        <v>0.007105581692223266</v>
       </c>
       <c r="R26" t="n">
-        <v>0.2</v>
+        <v>0.01143917277756691</v>
       </c>
       <c r="S26" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002213816728552669</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4</v>
+        <v>-0.007737527829501113</v>
       </c>
       <c r="U26" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.005436502969460117</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3</v>
+        <v>-0.002844308657772346</v>
       </c>
       <c r="W26" t="n">
-        <v>0.3</v>
+        <v>-0.002844308657772346</v>
       </c>
       <c r="X26" t="n">
-        <v>0.3</v>
+        <v>-0.002844308657772346</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.3</v>
+        <v>-0.002844308657772346</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.3</v>
+        <v>-0.002844308657772346</v>
       </c>
     </row>
     <row r="27">
@@ -2604,76 +2604,76 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3</v>
+        <v>-0.0171962326238493</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.03291180285247211</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.001505646876225875</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01534139542965582</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.003604892784195711</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.02353402279736091</v>
       </c>
       <c r="I27" t="n">
-        <v>0.3</v>
+        <v>0.01994497692579908</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7</v>
+        <v>-0.006704863063872196</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.03354080178963207</v>
       </c>
       <c r="L27" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.03354080178963207</v>
       </c>
       <c r="M27" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.03354080178963207</v>
       </c>
       <c r="N27" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.03354080178963207</v>
       </c>
       <c r="O27" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.03354080178963207</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.6</v>
+        <v>-0.04484510867380435</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.1853001878600075</v>
       </c>
       <c r="R27" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.09275643990225758</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.03356360035054401</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.05138741543149661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.01907274700290987</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.3</v>
+        <v>0.01849767539590701</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.3</v>
+        <v>0.01849767539590701</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.3</v>
+        <v>0.01849767539590701</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.3</v>
+        <v>0.01849767539590701</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.3</v>
+        <v>0.01849767539590701</v>
       </c>
     </row>
     <row r="28">
@@ -2688,76 +2688,76 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.0153984601359384</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.7</v>
+        <v>-0.01478776955151078</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7</v>
+        <v>0.005390722103628884</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.7</v>
+        <v>0.0003020631480825259</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7</v>
+        <v>-0.002803458352138334</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.006787421263496849</v>
       </c>
       <c r="I28" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.008308641836345672</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01126242040098809</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01590499551619982</v>
       </c>
       <c r="L28" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01590499551619982</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01590499551619982</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01590499551619982</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.01590499551619982</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.017611975040479</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.06796487628659505</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6</v>
+        <v>0.03750532460421298</v>
       </c>
       <c r="S28" t="n">
-        <v>0.7</v>
+        <v>0.01275508361420334</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9999999999999999</v>
+        <v>-0.0062512475140499</v>
       </c>
       <c r="U28" t="n">
-        <v>0.6</v>
+        <v>0.02422201344888054</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.4</v>
+        <v>0.006987416919496676</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.4</v>
+        <v>0.006987416919496676</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.4</v>
+        <v>0.006987416919496676</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.4</v>
+        <v>0.006987416919496676</v>
       </c>
       <c r="Z28" t="n">
-        <v>-0.4</v>
+        <v>0.006987416919496676</v>
       </c>
     </row>
     <row r="29">
@@ -2772,76 +2772,76 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.4</v>
+        <v>0.008263623882544953</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2</v>
+        <v>0.02239501366380054</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.2</v>
+        <v>-0.02197463156698526</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2</v>
+        <v>0.02446026357041054</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2</v>
+        <v>0.02479663990386559</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.4</v>
+        <v>0.02614658485386339</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.4999999999999999</v>
+        <v>0.01698371127134845</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.6</v>
+        <v>-0.05526060051853977</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.6</v>
+        <v>-0.00759010177560407</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.6</v>
+        <v>-0.00759010177560407</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.6</v>
+        <v>-0.00759010177560407</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.6</v>
+        <v>-0.00759010177560407</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.6</v>
+        <v>-0.00759010177560407</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7</v>
+        <v>-0.0003047845561913822</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.003978747999149919</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.8999999999999998</v>
+        <v>0.007640945681637826</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.2</v>
+        <v>-0.008518407892736314</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.009971941934877677</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.6</v>
+        <v>0.001748670405946816</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02897604634304185</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02897604634304185</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02897604634304185</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02897604634304185</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.02897604634304185</v>
       </c>
     </row>
     <row r="30">
@@ -2856,76 +2856,76 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-0.004264415402576616</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>-0.005919608204784327</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.6</v>
+        <v>0.00270259950010398</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6</v>
+        <v>-0.001264874066594962</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6</v>
+        <v>-0.001232938897317556</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.2</v>
+        <v>-0.01747321135492845</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.7</v>
+        <v>-0.01571460946058437</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.2</v>
+        <v>-0.01425172651690019</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.007857940634317625</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.007857940634317625</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.007857940634317625</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.007857940634317625</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.007857940634317625</v>
       </c>
       <c r="P30" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01630971780438871</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01469700154788006</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.3</v>
+        <v>-0.0004159882726395308</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.6</v>
+        <v>0.02477704543908181</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.6</v>
+        <v>0.006046878097875123</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.001544601661784066</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01216805069472203</v>
       </c>
       <c r="W30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01216805069472203</v>
       </c>
       <c r="X30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01216805069472203</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01216805069472203</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.01216805069472203</v>
       </c>
     </row>
     <row r="31">
@@ -2940,76 +2940,76 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6</v>
+        <v>0.5767671188466847</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9770048025681921</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.9976652379546094</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9926672853706913</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9856019600320782</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.3777315586932623</v>
       </c>
       <c r="I31" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.02022070112882804</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.6</v>
+        <v>-0.2704860864320099</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.8880241182729647</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.8880241182729647</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.8880241182729647</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.8880241182729647</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.8880241182729647</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3</v>
+        <v>-0.1147106536124261</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4</v>
+        <v>-0.005187729135509165</v>
       </c>
       <c r="R31" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.2212779442751177</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.9999999999999999</v>
+        <v>-0.5135380964135238</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.7</v>
+        <v>0.06920249950409997</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.6613087050763481</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.8272130703045227</v>
       </c>
       <c r="W31" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.8272130703045227</v>
       </c>
       <c r="X31" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.8272130703045227</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.8272130703045227</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.8272130703045227</v>
       </c>
     </row>
     <row r="32">
@@ -3024,76 +3024,76 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.03203321225732848</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.6</v>
+        <v>0.09460861885634474</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6</v>
+        <v>-0.09429163385166535</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6</v>
+        <v>0.09326465144258603</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6</v>
+        <v>0.09421592661663707</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.3</v>
+        <v>0.08122736283309449</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.01066486276259451</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.2</v>
+        <v>-0.08117776063821221</v>
       </c>
       <c r="K32" t="n">
-        <v>0.3</v>
+        <v>-0.09152920321316811</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3</v>
+        <v>-0.09152920321316811</v>
       </c>
       <c r="M32" t="n">
-        <v>0.3</v>
+        <v>-0.09152920321316811</v>
       </c>
       <c r="N32" t="n">
-        <v>0.3</v>
+        <v>-0.09152920321316811</v>
       </c>
       <c r="O32" t="n">
-        <v>0.3</v>
+        <v>-0.09152920321316811</v>
       </c>
       <c r="P32" t="n">
-        <v>0.4</v>
+        <v>-0.01365110224204409</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.3</v>
+        <v>0.008343889965755597</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.7999999999999999</v>
+        <v>-0.178081275859251</v>
       </c>
       <c r="S32" t="n">
-        <v>0.6</v>
+        <v>0.03555737623829505</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.03579461115978445</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3</v>
+        <v>-0.1358373771454951</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.7</v>
+        <v>0.08703089608923584</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.7</v>
+        <v>0.08703089608923584</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.7</v>
+        <v>0.08703089608923584</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.7</v>
+        <v>0.08703089608923584</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.7</v>
+        <v>0.08703089608923584</v>
       </c>
     </row>
     <row r="33">
@@ -3108,76 +3108,76 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.7999999999999999</v>
+        <v>-0.02877299251091969</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4</v>
+        <v>0.02195765847830634</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.4</v>
+        <v>-0.02600000369600014</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4</v>
+        <v>0.02510077454003098</v>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>0.02553018063720722</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.3</v>
+        <v>0.0157236425809457</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3</v>
+        <v>-0.0002478960099158403</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>-0.08507301049010178</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.3</v>
+        <v>0.008421001296840052</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3</v>
+        <v>0.008421001296840052</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.3</v>
+        <v>0.008421001296840052</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.3</v>
+        <v>0.008421001296840052</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.3</v>
+        <v>0.008421001296840052</v>
       </c>
       <c r="P33" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01255638635825545</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.2</v>
+        <v>-0.01490271179610847</v>
       </c>
       <c r="R33" t="n">
-        <v>0.4999999999999999</v>
+        <v>0.00281191902447676</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.4</v>
+        <v>-0.004112151428486056</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.003338159173526366</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.7</v>
+        <v>-0.006727644365105774</v>
       </c>
       <c r="V33" t="n">
-        <v>0.2</v>
+        <v>0.03188370818734832</v>
       </c>
       <c r="W33" t="n">
-        <v>0.2</v>
+        <v>0.03188370818734832</v>
       </c>
       <c r="X33" t="n">
-        <v>0.2</v>
+        <v>0.03188370818734832</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.2</v>
+        <v>0.03188370818734832</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.2</v>
+        <v>0.03188370818734832</v>
       </c>
     </row>
     <row r="34">
@@ -3192,76 +3192,76 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.3</v>
+        <v>-0.005165823566632942</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.007770520726820829</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.004435410897416435</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.004395921007836839</v>
       </c>
       <c r="G34" t="n">
-        <v>0.09999999999999999</v>
+        <v>-7.068240282729611e-05</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7999999999999999</v>
+        <v>0.007825424953016998</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7</v>
+        <v>0.01112760610910424</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.3</v>
+        <v>0.02634225101843085</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.007677775603111022</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.007677775603111022</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.007677775603111022</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.007677775603111022</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.007677775603111022</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>0.004268091434723657</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.2</v>
+        <v>-0.0188478225459129</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.2</v>
+        <v>-0.02529282360371294</v>
       </c>
       <c r="S34" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01067501063500042</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.032666825146673</v>
       </c>
       <c r="U34" t="n">
-        <v>0.7</v>
+        <v>0.004926774437070977</v>
       </c>
       <c r="V34" t="n">
-        <v>0.3</v>
+        <v>-0.002161098326443933</v>
       </c>
       <c r="W34" t="n">
-        <v>0.3</v>
+        <v>-0.002161098326443933</v>
       </c>
       <c r="X34" t="n">
-        <v>0.3</v>
+        <v>-0.002161098326443933</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.3</v>
+        <v>-0.002161098326443933</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.3</v>
+        <v>-0.002161098326443933</v>
       </c>
     </row>
     <row r="35">
@@ -3276,76 +3276,76 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.7</v>
+        <v>0.02353130090925203</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.01523591446543658</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.01165272545810902</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009622582848903313</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.009407228344289132</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.3</v>
+        <v>0.0177880425995217</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.3</v>
+        <v>0.02121788081671523</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.4999999999999999</v>
+        <v>-0.01230348678292826</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.3</v>
+        <v>-0.004920475780819031</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.3</v>
+        <v>-0.004920475780819031</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.3</v>
+        <v>-0.004920475780819031</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.3</v>
+        <v>-0.004920475780819031</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.3</v>
+        <v>-0.004920475780819031</v>
       </c>
       <c r="P35" t="n">
-        <v>0.6</v>
+        <v>-0.008982358439294336</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7</v>
+        <v>0.01657134104685364</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.9999999999999999</v>
+        <v>0.0114002076240083</v>
       </c>
       <c r="S35" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.02614810050192402</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.6</v>
+        <v>-0.004995228967809158</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.2</v>
+        <v>-0.007761928534477141</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.3</v>
+        <v>0.011105050140202</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.3</v>
+        <v>0.011105050140202</v>
       </c>
       <c r="X35" t="n">
-        <v>-0.3</v>
+        <v>0.011105050140202</v>
       </c>
       <c r="Y35" t="n">
-        <v>-0.3</v>
+        <v>0.011105050140202</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.3</v>
+        <v>0.011105050140202</v>
       </c>
     </row>
     <row r="36">
@@ -3360,76 +3360,76 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.04472694870107794</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.7</v>
+        <v>0.02973296058131842</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7</v>
+        <v>-0.03001082136043285</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.7</v>
+        <v>0.02955215062208602</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.7</v>
+        <v>0.02870563151622526</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.09999999999999999</v>
+        <v>0.007568367662734705</v>
       </c>
       <c r="I36" t="n">
-        <v>0.09999999999999999</v>
+        <v>-0.002243779097751163</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8999999999999998</v>
+        <v>-0.01381011483341275</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.1938612899304516</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.1938612899304516</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.1938612899304516</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.1938612899304516</v>
       </c>
       <c r="O36" t="n">
-        <v>0.8999999999999998</v>
+        <v>0.1938612899304516</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.7999999999999999</v>
+        <v>0.001544775517791021</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.8999999999999998</v>
+        <v>-0.002589253159570126</v>
       </c>
       <c r="R36" t="n">
-        <v>0.6</v>
+        <v>-0.01980475960819038</v>
       </c>
       <c r="S36" t="n">
-        <v>0.7</v>
+        <v>-0.01949941287597651</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.003642480913699236</v>
       </c>
       <c r="U36" t="n">
-        <v>0.6</v>
+        <v>-0.02323913027356521</v>
       </c>
       <c r="V36" t="n">
-        <v>-0.4</v>
+        <v>0.1992259687690387</v>
       </c>
       <c r="W36" t="n">
-        <v>-0.4</v>
+        <v>0.1992259687690387</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.4</v>
+        <v>0.1992259687690387</v>
       </c>
       <c r="Y36" t="n">
-        <v>-0.4</v>
+        <v>0.1992259687690387</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.4</v>
+        <v>0.1992259687690387</v>
       </c>
     </row>
     <row r="37">
@@ -3444,76 +3444,76 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.7</v>
+        <v>0.01608104147524166</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.01806587870663514</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.02170827734833109</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02311154204446168</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09999999999999999</v>
+        <v>0.02421049200841967</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3</v>
+        <v>-0.0009327239413089575</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3</v>
+        <v>-0.01429813353192534</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4999999999999999</v>
+        <v>-0.009621610456582424</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3</v>
+        <v>-0.01178777931951117</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3</v>
+        <v>-0.01178777931951117</v>
       </c>
       <c r="M37" t="n">
-        <v>0.3</v>
+        <v>-0.01178777931951117</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3</v>
+        <v>-0.01178777931951117</v>
       </c>
       <c r="O37" t="n">
-        <v>0.3</v>
+        <v>-0.01178777931951117</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.6</v>
+        <v>-0.02975341741413669</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.7</v>
+        <v>-0.01496041432641657</v>
       </c>
       <c r="R37" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.002173558454942338</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.09999999999999999</v>
+        <v>-0.014579800135192</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6</v>
+        <v>0.01848897539555901</v>
       </c>
       <c r="U37" t="n">
-        <v>0.2</v>
+        <v>-0.01320715924828637</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3</v>
+        <v>0.03193795039751801</v>
       </c>
       <c r="W37" t="n">
-        <v>0.3</v>
+        <v>0.03193795039751801</v>
       </c>
       <c r="X37" t="n">
-        <v>0.3</v>
+        <v>0.03193795039751801</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.3</v>
+        <v>0.03193795039751801</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.3</v>
+        <v>0.03193795039751801</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,57 +505,54 @@
           <t>Economic allocation</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Ethanol</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Biodiesel</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Crude glycerol</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Electricity</t>
-        </is>
-      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Biorefinery</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="n"/>
+          <t>Displacement allocation</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Energy allocation</t>
+        </is>
+      </c>
       <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="n"/>
       <c r="T1" s="1" t="n"/>
-      <c r="U1" s="1" t="n"/>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Biorefinery</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Economic allocation</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Ethanol</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Biodiesel</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Crude glycerol</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Electricity</t>
         </is>
@@ -574,34 +571,34 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
+          <t>Feedstock consumption [ton/yr]</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
           <t>Biodiesel production [Gal/ton]</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Ethanol production [Gal/ton]</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Electricity production [kWhr/ton]</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Natural gas consumption [cf/ton]</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>TCI [10^6*USD]</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Feedstock consumption [ton/yr]</t>
-        </is>
-      </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Heat exchanger network error [%]</t>
@@ -634,55 +631,80 @@
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
+          <t>Ethanol GWP [kg*CO2*eq / ga;]</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Biofuel GWP [kg*CO2*eq / GGE]</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Ethanol GWP [kg*CO2*eq / gal]</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>Biodiesel GWP [kg*CO2*eq / gal]</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Crude-glycerol GWP [kg*CO2*eq / kg]</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
           <t>MFPP derivative [USD/ton]</t>
         </is>
       </c>
-      <c r="Q2" s="1" t="inlineStr">
+      <c r="V2" s="1" t="inlineStr">
         <is>
           <t>Biodiesel production derivative [Gal/ton]</t>
         </is>
       </c>
-      <c r="R2" s="1" t="inlineStr">
+      <c r="W2" s="1" t="inlineStr">
         <is>
           <t>Ethanol production derivative [Gal/ton]</t>
         </is>
       </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
         <is>
           <t>Electricity production derivative [kWhr/ton]</t>
         </is>
       </c>
-      <c r="T2" s="1" t="inlineStr">
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>Natural gas consumption derivative [cf/ton]</t>
         </is>
       </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>TCI derivative [10^6*USD]</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>GWP derivative [kg*CO2*eq / USD]</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="AB2" s="1" t="inlineStr">
         <is>
           <t>Ethanol GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
-      <c r="X2" s="1" t="inlineStr">
+      <c r="AC2" s="1" t="inlineStr">
         <is>
           <t>Biodiesel GWP derivative [kg*CO2*eq / gal]</t>
         </is>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="AD2" s="1" t="inlineStr">
         <is>
           <t>Crude glycerol GWP derivative [kg*CO2*eq / kg]</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AE2" s="1" t="inlineStr">
         <is>
           <t>Electricity GWP derivative [kg*CO2*eq / MWhr]</t>
         </is>
@@ -712,76 +734,91 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1235259580290383</v>
+        <v>-0.2403120312031203</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1350274724410989</v>
+        <v>0.07625562556255625</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.001016398216655929</v>
+        <v>-0.05845784578457845</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04450262011610479</v>
+        <v>-0.05453345334533453</v>
       </c>
       <c r="G4" t="n">
-        <v>0.150766974606679</v>
+        <v>0.07732373237323731</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02262087642483505</v>
+        <v>0.1754335433543354</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007431276873251074</v>
+        <v>0.1353855385538554</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2725221605020751</v>
+        <v>0.301974197419742</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3964376188015046</v>
+        <v>0.3518631863186318</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3964376188015046</v>
+        <v>0.3518631863186318</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3964376188015046</v>
+        <v>0.3518631863186318</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3964376188015046</v>
+        <v>0.3518631863186318</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3964376188015046</v>
+        <v>0.3518631863186318</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0924878557955142</v>
+        <v>-0.04703270327032703</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.7076798133951924</v>
+        <v>0.1230723072307231</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.02322750112110004</v>
+        <v>0.1230723072307231</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2472791100511644</v>
+        <v>0.1230723072307231</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9909306952212277</v>
+        <v>0.1230723072307231</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1402148395605936</v>
+        <v>-0.01360936093609361</v>
       </c>
       <c r="V4" t="n">
-        <v>0.09834816882992674</v>
+        <v>-0.634119411941194</v>
       </c>
       <c r="W4" t="n">
-        <v>0.09834816882992674</v>
+        <v>0.07446744674467447</v>
       </c>
       <c r="X4" t="n">
-        <v>0.09834816882992674</v>
+        <v>0.06547854785478546</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.09834816882992674</v>
+        <v>0.9918271827182717</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.09834816882992674</v>
+        <v>0.1212961296129613</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1858025802580258</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.1858025802580258</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.1858025802580258</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.1858025802580258</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.1858025802580258</v>
       </c>
     </row>
     <row r="5">
@@ -792,76 +829,91 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08529308971572357</v>
+        <v>0.05156915691569156</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1198752168910087</v>
+        <v>-0.1110951095109511</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006392458143698325</v>
+        <v>0.199039903990399</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08963082003323278</v>
+        <v>-0.0997059705970597</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.006421406464856258</v>
+        <v>0.04640864086408641</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.02699216546368662</v>
+        <v>0.1171797179717972</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001012130824485233</v>
+        <v>-0.06700270027002699</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004895243914153993</v>
+        <v>0.006324632463246324</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1731262154050486</v>
+        <v>-0.2414761476147614</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1731262154050486</v>
+        <v>-0.2414761476147614</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1731262154050486</v>
+        <v>-0.2414761476147614</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1731262154050486</v>
+        <v>-0.2414761476147614</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1731262154050486</v>
+        <v>-0.2414761476147614</v>
       </c>
       <c r="P5" t="n">
-        <v>0.09510275814011031</v>
+        <v>-0.08105610561056104</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6568023338560932</v>
+        <v>-0.1931233123312331</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.004135697829427912</v>
+        <v>-0.1931233123312331</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.19773050202122</v>
+        <v>-0.1931233123312331</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0004910228356409134</v>
+        <v>-0.1931233123312331</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.08754012609360504</v>
+        <v>0.1443504350435043</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.1038351559934062</v>
+        <v>0.6067446744674467</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.1038351559934062</v>
+        <v>-0.05944194419441943</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.1038351559934062</v>
+        <v>-0.2411521152115211</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.1038351559934062</v>
+        <v>0.1476987698769877</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1038351559934062</v>
+        <v>-0.1692049204920492</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.001488148814881488</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.001488148814881488</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.001488148814881488</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.001488148814881488</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.001488148814881488</v>
       </c>
     </row>
     <row r="6">
@@ -872,76 +924,91 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1715265425730617</v>
+        <v>0.1752895289528953</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02019472189578887</v>
+        <v>0.9742574257425741</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02066510981860439</v>
+        <v>-0.05749774977497749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.006097678611907143</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02125975870639035</v>
+        <v>-0.02429042904290429</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9070818866832753</v>
+        <v>-0.03301530153015301</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9745716285188649</v>
+        <v>0.9097029702970296</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1534906951225518</v>
+        <v>-0.2499729972997299</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.04331461603658464</v>
+        <v>0.03801980198019801</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.04331461603658464</v>
+        <v>0.03801980198019801</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.04331461603658464</v>
+        <v>0.03801980198019801</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.04331461603658464</v>
+        <v>0.03801980198019801</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.04331461603658464</v>
+        <v>0.03801980198019801</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0002520039460801578</v>
+        <v>0.02689468946894689</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001953023118120924</v>
+        <v>0.04175217521752175</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04376504469460178</v>
+        <v>0.04175217521752175</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.0247583025903321</v>
+        <v>0.04175217521752175</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.01976854955874198</v>
+        <v>0.04175217521752175</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3976538221141528</v>
+        <v>-0.06196219621962196</v>
       </c>
       <c r="V6" t="n">
-        <v>0.03070600807624032</v>
+        <v>-0.1734053405340534</v>
       </c>
       <c r="W6" t="n">
-        <v>0.03070600807624032</v>
+        <v>0.07463546354635463</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03070600807624032</v>
+        <v>-0.05983798379837983</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.03070600807624032</v>
+        <v>0.08228022802280227</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.03070600807624032</v>
+        <v>0.4288868886888689</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.09108910891089109</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.09108910891089109</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.09108910891089109</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.09108910891089109</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.09108910891089109</v>
       </c>
     </row>
     <row r="7">
@@ -956,76 +1023,91 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4889221493488859</v>
+        <v>0.5047824782478247</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0276087551523502</v>
+        <v>-0.00204020402040204</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02440423470416939</v>
+        <v>0.05092109210921092</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02439579630383185</v>
+        <v>-0.03277527752775277</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02157078585483143</v>
+        <v>0.005532553255325532</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01492145896485836</v>
+        <v>0.000288028802880288</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002638625577545023</v>
+        <v>0.01792979297929793</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01053136214690313</v>
+        <v>-0.233999399939994</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02885055062602202</v>
+        <v>-0.08218421842184218</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.02885055062602202</v>
+        <v>-0.08218421842184218</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.02885055062602202</v>
+        <v>-0.08218421842184218</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.02885055062602202</v>
+        <v>-0.08218421842184218</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.02885055062602202</v>
+        <v>-0.08218421842184218</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5843699180627966</v>
+        <v>-0.02418241824182418</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02209551880382075</v>
+        <v>-0.05489348934893489</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.002936673045466921</v>
+        <v>-0.05489348934893489</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.03027441164297646</v>
+        <v>-0.05489348934893489</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.02067095353083814</v>
+        <v>-0.05489348934893489</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.003416914888676595</v>
+        <v>-0.4894329432943294</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0253271351570854</v>
+        <v>0.1488748874887489</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0253271351570854</v>
+        <v>-0.02967896789678968</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0253271351570854</v>
+        <v>0.1831983198319832</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0253271351570854</v>
+        <v>-0.1979357935793579</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.0253271351570854</v>
+        <v>-0.02076207620762076</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.1555955595559556</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.1555955595559556</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.1555955595559556</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.1555955595559556</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.1555955595559556</v>
       </c>
     </row>
     <row r="8">
@@ -1040,76 +1122,91 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5178737672429506</v>
+        <v>0.6146654665466547</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01167169227486769</v>
+        <v>0.005976597659765976</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01006653179466127</v>
+        <v>0.07278727872787277</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00943402376936095</v>
+        <v>-0.08889288928892888</v>
       </c>
       <c r="G8" t="n">
-        <v>0.008157200678288026</v>
+        <v>0.08916891689168915</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.009842121417684856</v>
+        <v>0.08194419441944194</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01029282329171293</v>
+        <v>0.05827782778277827</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001969003809311982</v>
+        <v>-0.02007800780078008</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.006397982655919306</v>
+        <v>-0.09167716771677166</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.006397982655919306</v>
+        <v>-0.09167716771677166</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.006397982655919306</v>
+        <v>-0.09167716771677166</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.006397982655919306</v>
+        <v>-0.09167716771677166</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.006397982655919306</v>
+        <v>-0.09167716771677166</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6915432926537316</v>
+        <v>-0.09366936693669366</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004489632467585298</v>
+        <v>-0.07477947794779477</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002553436422137457</v>
+        <v>-0.07477947794779477</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01002162952086518</v>
+        <v>-0.07477947794779477</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0163538526541541</v>
+        <v>-0.07477947794779477</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.008058920866356832</v>
+        <v>0.7115391539153914</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.007710391508415659</v>
+        <v>0.003348334833483348</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.007710391508415659</v>
+        <v>-0.007560756075607559</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.007710391508415659</v>
+        <v>-0.07372337233723371</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.007710391508415659</v>
+        <v>-0.06197419741974197</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.007710391508415659</v>
+        <v>-0.009252925292529253</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.07788778877887786</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.07788778877887786</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.07788778877887786</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.07788778877887786</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.07788778877887786</v>
       </c>
     </row>
     <row r="9">
@@ -1124,76 +1221,91 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01486437294657491</v>
+        <v>0.1541554155415542</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01155187822207513</v>
+        <v>0.03785178517851785</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0124976626759065</v>
+        <v>0.0027002700270027</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01065129172205167</v>
+        <v>-0.01807380738073807</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.009593553695742147</v>
+        <v>0.03749174917491749</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02193513054140522</v>
+        <v>0.01364536453645364</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02904779904991196</v>
+        <v>0.03248724872487248</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01752451301169229</v>
+        <v>-0.0224062406240624</v>
       </c>
       <c r="K9" t="n">
-        <v>0.009701708548068341</v>
+        <v>0.007356735673567355</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009701708548068341</v>
+        <v>0.007356735673567355</v>
       </c>
       <c r="M9" t="n">
-        <v>0.009701708548068341</v>
+        <v>0.007356735673567355</v>
       </c>
       <c r="N9" t="n">
-        <v>0.009701708548068341</v>
+        <v>0.007356735673567355</v>
       </c>
       <c r="O9" t="n">
-        <v>0.009701708548068341</v>
+        <v>0.007356735673567355</v>
       </c>
       <c r="P9" t="n">
-        <v>0.003321549924861997</v>
+        <v>-0.03038703870387038</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.008886808771472351</v>
+        <v>0.0036003600360036</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01079615860784634</v>
+        <v>0.0036003600360036</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.002454424610176984</v>
+        <v>0.0036003600360036</v>
       </c>
       <c r="T9" t="n">
-        <v>0.007217641152705645</v>
+        <v>0.0036003600360036</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01219731418389257</v>
+        <v>0.07185118511851184</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.004559587670383506</v>
+        <v>0.000444044404440444</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.004559587670383506</v>
+        <v>-0.06063006300630062</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.004559587670383506</v>
+        <v>-0.04522052205220522</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.004559587670383506</v>
+        <v>-0.1211161116111611</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.004559587670383506</v>
+        <v>0.03405940594059405</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.1022382238223822</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.1022382238223822</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.1022382238223822</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.1022382238223822</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.1022382238223822</v>
       </c>
     </row>
     <row r="10">
@@ -1208,76 +1320,91 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.07038330886333236</v>
+        <v>-0.02477047704770477</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008427161041086441</v>
+        <v>-0.04612061206120611</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.009293855123754205</v>
+        <v>-0.0912091209120912</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008176625031064999</v>
+        <v>0.1037383738373837</v>
       </c>
       <c r="G10" t="n">
-        <v>0.009805499528219979</v>
+        <v>-0.1007740774077408</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004093624195744967</v>
+        <v>-0.07774377437743775</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.001163626606545064</v>
+        <v>-0.1097269726972697</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007777270497170163</v>
+        <v>0.03716771677167716</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.00491408275656331</v>
+        <v>0.1977317731773177</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.00491408275656331</v>
+        <v>0.1977317731773177</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.00491408275656331</v>
+        <v>0.1977317731773177</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.00491408275656331</v>
+        <v>0.1977317731773177</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.00491408275656331</v>
+        <v>0.1977317731773177</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06748940813957632</v>
+        <v>0.1096069606960696</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.006445805825832233</v>
+        <v>0.1208160816081608</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001906926892277075</v>
+        <v>0.1208160816081608</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01880584088023363</v>
+        <v>0.1208160816081608</v>
       </c>
       <c r="T10" t="n">
-        <v>0.005584754335390172</v>
+        <v>0.1208160816081608</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005545645853825833</v>
+        <v>0.1938553855385538</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.01524109577764383</v>
+        <v>0.01042904290429043</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01524109577764383</v>
+        <v>0.2852685268526853</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01524109577764383</v>
+        <v>0.125004500450045</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.01524109577764383</v>
+        <v>0.153987398739874</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01524109577764383</v>
+        <v>0.129036903690369</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.1563636363636363</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.1563636363636363</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.1563636363636363</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.1563636363636363</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.1563636363636363</v>
       </c>
     </row>
     <row r="11">
@@ -1288,76 +1415,91 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.09867837073113482</v>
+        <v>0.1755895589558956</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0009440970617638823</v>
+        <v>0.1783978397839784</v>
       </c>
       <c r="E11" t="n">
-        <v>7.112198684487947e-05</v>
+        <v>0.1365856585658566</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0007889897595595903</v>
+        <v>-0.115043504350435</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.001626509633060385</v>
+        <v>0.1182478247824782</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.00559070028762801</v>
+        <v>0.08816081608160815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2132219124328764</v>
+        <v>0.01513351335133513</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01092805547528498</v>
+        <v>-0.1087908790879088</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.004497430739897229</v>
+        <v>-0.1589078907890789</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.004497430739897229</v>
+        <v>-0.1589078907890789</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.004497430739897229</v>
+        <v>-0.1589078907890789</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.004497430739897229</v>
+        <v>-0.1589078907890789</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.004497430739897229</v>
+        <v>-0.1589078907890789</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02821370340054813</v>
+        <v>-0.1168556855685569</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.01377814154312566</v>
+        <v>-0.1374497449744974</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01510742201229688</v>
+        <v>-0.1374497449744974</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001641925985677039</v>
+        <v>-0.1374497449744974</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001110205868408234</v>
+        <v>-0.1374497449744974</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00572052627682105</v>
+        <v>-0.05868586858685867</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001496483291859331</v>
+        <v>0.007632763276327632</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001496483291859331</v>
+        <v>0.06439843984398438</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001496483291859331</v>
+        <v>-0.06745874587458746</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001496483291859331</v>
+        <v>-0.1467626762676267</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001496483291859331</v>
+        <v>-0.02689468946894689</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.05416141614161415</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.05416141614161415</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.05416141614161415</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.05416141614161415</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.05416141614161415</v>
       </c>
     </row>
     <row r="12">
@@ -1368,76 +1510,91 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2202759968430399</v>
+        <v>-0.2668946894689469</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002551013862040554</v>
+        <v>-0.1013261326132613</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.001707774692310988</v>
+        <v>0.138049804980498</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0001921499596859984</v>
+        <v>-0.1466186618661866</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002840652785626111</v>
+        <v>0.1582958295829583</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004626295193051807</v>
+        <v>0.155007500750075</v>
       </c>
       <c r="I12" t="n">
-        <v>0.006231959481278378</v>
+        <v>-0.02478247824782478</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.005548299637122582</v>
+        <v>-0.1798379837983798</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.003145649597825984</v>
+        <v>-0.06129012901290128</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.003145649597825984</v>
+        <v>-0.06129012901290128</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.003145649597825984</v>
+        <v>-0.06129012901290128</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.003145649597825984</v>
+        <v>-0.06129012901290128</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.003145649597825984</v>
+        <v>-0.06129012901290128</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.03422479548099181</v>
+        <v>-0.1534233423342334</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.002409023040360921</v>
+        <v>-0.1304290429042904</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01215916896636676</v>
+        <v>-0.1304290429042904</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.02213801397352056</v>
+        <v>-0.1304290429042904</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01021218645648746</v>
+        <v>-0.1304290429042904</v>
       </c>
       <c r="U12" t="n">
-        <v>0.006142172117686883</v>
+        <v>-0.2144374437443744</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01015156418206257</v>
+        <v>-0.05776177617761775</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01015156418206257</v>
+        <v>-0.1377257725772577</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01015156418206257</v>
+        <v>-0.125064506450645</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01015156418206257</v>
+        <v>0.07691569156915691</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01015156418206257</v>
+        <v>-0.1631083108310831</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.1805220522052205</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.1805220522052205</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.1805220522052205</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.1805220522052205</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1805220522052205</v>
       </c>
     </row>
     <row r="13">
@@ -1452,76 +1609,91 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.03256589861463594</v>
+        <v>0.01383738373837384</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0009915375756615029</v>
+        <v>-0.01347734773477348</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0006328027453121098</v>
+        <v>0.0499009900990099</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0001084922923396917</v>
+        <v>-0.06609060906090608</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002406713376268535</v>
+        <v>0.06268226822682268</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01123587126543485</v>
+        <v>0.08252025202520252</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009781467943258716</v>
+        <v>0.01114911491149115</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.00763745325939627</v>
+        <v>0.05966996699669967</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.005764199942567996</v>
+        <v>0.09810981098109808</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.005764199942567996</v>
+        <v>0.09810981098109808</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.005764199942567996</v>
+        <v>0.09810981098109808</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.005764199942567996</v>
+        <v>0.09810981098109808</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.005764199942567996</v>
+        <v>0.09810981098109808</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03388447796337912</v>
+        <v>-0.05519351935193519</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01084639665785587</v>
+        <v>-0.006000600060006</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03029609813984392</v>
+        <v>-0.006000600060006</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.008364348238573929</v>
+        <v>-0.006000600060006</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002698857803954312</v>
+        <v>-0.006000600060006</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00659653975186159</v>
+        <v>-0.004968496849684968</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.004120091876803674</v>
+        <v>-0.08038403840384037</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.004120091876803674</v>
+        <v>0.09044104410441044</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.004120091876803674</v>
+        <v>-0.06127812781278127</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.004120091876803674</v>
+        <v>0.1742094209420942</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.004120091876803674</v>
+        <v>0.02868286828682868</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.1407860786078608</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.1407860786078608</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.1407860786078608</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.1407860786078608</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.1407860786078608</v>
       </c>
     </row>
     <row r="14">
@@ -1536,76 +1708,91 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02854779733391189</v>
+        <v>0.02253825382538254</v>
       </c>
       <c r="D14" t="n">
-        <v>0.008612641112505643</v>
+        <v>0.0302070207020702</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.009374461046978441</v>
+        <v>0.02879087908790879</v>
       </c>
       <c r="F14" t="n">
-        <v>0.009495256795810271</v>
+        <v>-0.01434143414341434</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009491350075654001</v>
+        <v>0.01087308730873087</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.00116382551855302</v>
+        <v>0.02438643864386438</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.006288082331523293</v>
+        <v>0.04985298529852985</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.006163423454524734</v>
+        <v>-0.03493549354935493</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01030353151614126</v>
+        <v>0.02341434143414341</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.01030353151614126</v>
+        <v>0.02341434143414341</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.01030353151614126</v>
+        <v>0.02341434143414341</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.01030353151614126</v>
+        <v>0.02341434143414341</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.01030353151614126</v>
+        <v>0.02341434143414341</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.03947783860311353</v>
+        <v>-0.007272727272727272</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.01039351107174044</v>
+        <v>-0.02283828382838284</v>
       </c>
       <c r="R14" t="n">
-        <v>0.007762698742507949</v>
+        <v>-0.02283828382838284</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.009066429770657188</v>
+        <v>-0.02283828382838284</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01152645444505818</v>
+        <v>-0.02283828382838284</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001093429387737175</v>
+        <v>0.07245124512451245</v>
       </c>
       <c r="V14" t="n">
-        <v>0.009622948224917927</v>
+        <v>-0.02601860186018602</v>
       </c>
       <c r="W14" t="n">
-        <v>0.009622948224917927</v>
+        <v>-0.06547854785478546</v>
       </c>
       <c r="X14" t="n">
-        <v>0.009622948224917927</v>
+        <v>0.07204320432043203</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.009622948224917927</v>
+        <v>0.0451005100510051</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.009622948224917927</v>
+        <v>0.006216621662166216</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.04243624362436244</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>-0.04243624362436244</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-0.04243624362436244</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>-0.04243624362436244</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.04243624362436244</v>
       </c>
     </row>
     <row r="15">
@@ -1620,76 +1807,91 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.001073495562939822</v>
+        <v>-0.1571917191719172</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01609016934760677</v>
+        <v>-0.04292829282928293</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01729391637175665</v>
+        <v>0.05322532253225322</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01598856246354249</v>
+        <v>-0.05045304530453045</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0174095723763829</v>
+        <v>0.06552655265526552</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.001447939545917582</v>
+        <v>0.05364536453645364</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.01113828610953144</v>
+        <v>0.00426042604260426</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.001264496692218655</v>
+        <v>0.003732373237323732</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01004250625770025</v>
+        <v>-0.07483948394839483</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01004250625770025</v>
+        <v>-0.07483948394839483</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.01004250625770025</v>
+        <v>-0.07483948394839483</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.01004250625770025</v>
+        <v>-0.07483948394839483</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.01004250625770025</v>
+        <v>-0.07483948394839483</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.02365473608218944</v>
+        <v>-0.05818181818181817</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.0007701748148069924</v>
+        <v>-0.06489048904890488</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.02060866325634653</v>
+        <v>-0.06489048904890488</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.01488229048329162</v>
+        <v>-0.06489048904890488</v>
       </c>
       <c r="T15" t="n">
-        <v>0.009577123487084938</v>
+        <v>-0.06489048904890488</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.02241849152073965</v>
+        <v>-0.06607860786078606</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01749187586767503</v>
+        <v>0.008532853285328532</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01749187586767503</v>
+        <v>-0.1118031803180318</v>
       </c>
       <c r="X15" t="n">
-        <v>0.01749187586767503</v>
+        <v>-0.05328532853285328</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01749187586767503</v>
+        <v>0.002304230423042304</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01749187586767503</v>
+        <v>-0.1894629462946295</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.04573657365736573</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.04573657365736573</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.04573657365736573</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.04573657365736573</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.04573657365736573</v>
       </c>
     </row>
     <row r="16">
@@ -1704,76 +1906,91 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.004535706901428275</v>
+        <v>0.01873387338733873</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003108589084343563</v>
+        <v>0.04168016801680167</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.008421794064871762</v>
+        <v>0.04183618361836183</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0125728901029156</v>
+        <v>-0.04139213921392138</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01011664082066563</v>
+        <v>0.03629162916291628</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01396286350251454</v>
+        <v>0.04321632163216321</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01143321597732864</v>
+        <v>0.06000600060006001</v>
       </c>
       <c r="J16" t="n">
-        <v>0.006456511418628096</v>
+        <v>-0.04566456645664566</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.007391830471673218</v>
+        <v>-0.007920792079207919</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.007391830471673218</v>
+        <v>-0.007920792079207919</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.007391830471673218</v>
+        <v>-0.007920792079207919</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.007391830471673218</v>
+        <v>-0.007920792079207919</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.007391830471673218</v>
+        <v>-0.007920792079207919</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.03448688134747525</v>
+        <v>-0.03548754875487549</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.02954999858999994</v>
+        <v>-0.04622862286228623</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.01122561923302477</v>
+        <v>-0.04622862286228623</v>
       </c>
       <c r="S16" t="n">
-        <v>0.007985637919425515</v>
+        <v>-0.04622862286228623</v>
       </c>
       <c r="T16" t="n">
-        <v>0.007246835137873404</v>
+        <v>-0.04622862286228623</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.0004081714723268588</v>
+        <v>0.05574557455745574</v>
       </c>
       <c r="V16" t="n">
-        <v>0.004893846915753876</v>
+        <v>0.0266066606660666</v>
       </c>
       <c r="W16" t="n">
-        <v>0.004893846915753876</v>
+        <v>0.1092229222922292</v>
       </c>
       <c r="X16" t="n">
-        <v>0.004893846915753876</v>
+        <v>0.02579057905790579</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.004893846915753876</v>
+        <v>-0.00048004800480048</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.004893846915753876</v>
+        <v>-0.03619561956195619</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.01033303330333033</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-0.01033303330333033</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-0.01033303330333033</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-0.01033303330333033</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>-0.01033303330333033</v>
       </c>
     </row>
     <row r="17">
@@ -1784,76 +2001,91 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01574105938164237</v>
+        <v>-0.01279327932793279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0151320976612839</v>
+        <v>-0.07153915391539153</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01762317920092717</v>
+        <v>-0.008100810081008099</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01910038386801535</v>
+        <v>-0.001176117611761176</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01585566514622661</v>
+        <v>-0.009528952895289529</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003735196949407877</v>
+        <v>0.004800480048004799</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.006991719063668762</v>
+        <v>-0.07744374437443743</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008720715960130687</v>
+        <v>-0.08524452445244524</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.02063037317721492</v>
+        <v>0.08004800480048005</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02063037317721492</v>
+        <v>0.08004800480048005</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02063037317721492</v>
+        <v>0.08004800480048005</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.02063037317721492</v>
+        <v>0.08004800480048005</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.02063037317721492</v>
+        <v>0.08004800480048005</v>
       </c>
       <c r="P17" t="n">
-        <v>0.003088384155535366</v>
+        <v>0.007488748874887488</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.007889387259575489</v>
+        <v>0.02081008100810081</v>
       </c>
       <c r="R17" t="n">
-        <v>0.008017432736697307</v>
+        <v>0.02081008100810081</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.00373187899727516</v>
+        <v>0.02081008100810081</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.004577194551087782</v>
+        <v>0.02081008100810081</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.02602248123289925</v>
+        <v>0.0567056705670567</v>
       </c>
       <c r="V17" t="n">
-        <v>0.008621915480876619</v>
+        <v>-0.07265526552655265</v>
       </c>
       <c r="W17" t="n">
-        <v>0.008621915480876619</v>
+        <v>-0.07066306630663065</v>
       </c>
       <c r="X17" t="n">
-        <v>0.008621915480876619</v>
+        <v>-0.05992199219921992</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.008621915480876619</v>
+        <v>0.1026942694269427</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.008621915480876619</v>
+        <v>0.01482148214821482</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.04764476447644764</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.04764476447644764</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.04764476447644764</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.04764476447644764</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.04764476447644764</v>
       </c>
     </row>
     <row r="18">
@@ -1868,76 +2100,91 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01572104789284191</v>
+        <v>-0.006336633663366335</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.007076051131042045</v>
+        <v>-0.02761476147614761</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00379554226382169</v>
+        <v>0.01489348934893489</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.003761084214443368</v>
+        <v>-0.01706570657065706</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.005258565714342628</v>
+        <v>0.01568556855685568</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.006265217818608713</v>
+        <v>0.02285028502850285</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.005049915561996621</v>
+        <v>-0.00102010201020102</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007283890092795525</v>
+        <v>-0.08916891689168915</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005328225045129001</v>
+        <v>-0.05212121212121212</v>
       </c>
       <c r="L18" t="n">
-        <v>0.005328225045129001</v>
+        <v>-0.05212121212121212</v>
       </c>
       <c r="M18" t="n">
-        <v>0.005328225045129001</v>
+        <v>-0.05212121212121212</v>
       </c>
       <c r="N18" t="n">
-        <v>0.005328225045129001</v>
+        <v>-0.05212121212121212</v>
       </c>
       <c r="O18" t="n">
-        <v>0.005328225045129001</v>
+        <v>-0.05212121212121212</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01760546393621856</v>
+        <v>-0.01900990099009901</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.01060364346414574</v>
+        <v>-0.02613861386138614</v>
       </c>
       <c r="R18" t="n">
-        <v>0.005641618593664743</v>
+        <v>-0.02613861386138614</v>
       </c>
       <c r="S18" t="n">
-        <v>0.01722501284900051</v>
+        <v>-0.02613861386138614</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.004025612321024492</v>
+        <v>-0.02613861386138614</v>
       </c>
       <c r="U18" t="n">
-        <v>0.009545540445821616</v>
+        <v>-0.03473147314731473</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.01600280224011209</v>
+        <v>0.04723672367236723</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01600280224011209</v>
+        <v>-0.1215961596159616</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.01600280224011209</v>
+        <v>0.03095109510951094</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.01600280224011209</v>
+        <v>-0.006444644464446443</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.01600280224011209</v>
+        <v>-0.05126912691269127</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.004416441644164416</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.004416441644164416</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.004416441644164416</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.004416441644164416</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.004416441644164416</v>
       </c>
     </row>
     <row r="19">
@@ -1952,76 +2199,91 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.04011823792472951</v>
+        <v>-0.1461986198619862</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01167521672300867</v>
+        <v>0.002796279627962796</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0126624350664974</v>
+        <v>-0.05032103210321031</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01407762152310486</v>
+        <v>0.05884188418841883</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01508237724329509</v>
+        <v>-0.06819081908190817</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01049899539595981</v>
+        <v>-0.04764476447644764</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.005374745110989804</v>
+        <v>-0.04607260726072606</v>
       </c>
       <c r="J19" t="n">
-        <v>9.455016390454355e-05</v>
+        <v>-0.1415781578157815</v>
       </c>
       <c r="K19" t="n">
-        <v>0.006024579696983187</v>
+        <v>0.06473447344734473</v>
       </c>
       <c r="L19" t="n">
-        <v>0.006024579696983187</v>
+        <v>0.06473447344734473</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006024579696983187</v>
+        <v>0.06473447344734473</v>
       </c>
       <c r="N19" t="n">
-        <v>0.006024579696983187</v>
+        <v>0.06473447344734473</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006024579696983187</v>
+        <v>0.06473447344734473</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01439417663976707</v>
+        <v>0.06232223222322231</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.005116507884660315</v>
+        <v>0.04068406840684068</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0003211206848448274</v>
+        <v>0.04068406840684068</v>
       </c>
       <c r="S19" t="n">
-        <v>0.003338012197520487</v>
+        <v>0.04068406840684068</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01509144866765794</v>
+        <v>0.04068406840684068</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00687999425919977</v>
+        <v>0.1437743774377438</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.007972669662906787</v>
+        <v>0.0174017401740174</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.007972669662906787</v>
+        <v>0.06993099309930993</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.007972669662906787</v>
+        <v>-0.03363936393639363</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.007972669662906787</v>
+        <v>-0.0565136513651365</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.007972669662906787</v>
+        <v>0.007308730873087308</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.01032103210321032</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-0.01032103210321032</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-0.01032103210321032</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>-0.01032103210321032</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>-0.01032103210321032</v>
       </c>
     </row>
     <row r="20">
@@ -2032,76 +2294,91 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01756308521452341</v>
+        <v>-0.03777977797779777</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01067652551506102</v>
+        <v>0.01389738973897389</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.007834002169360086</v>
+        <v>0.0321032103210321</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005160265070410602</v>
+        <v>-0.06264626462646264</v>
       </c>
       <c r="G20" t="n">
-        <v>0.005892458155698325</v>
+        <v>0.0641104110411041</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.003835354425414177</v>
+        <v>0.07645964596459645</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.006784969327398773</v>
+        <v>0.02418241824182418</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.009800172740707934</v>
+        <v>0.1895229522952295</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01404654958586198</v>
+        <v>0.002436243624362436</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01404654958586198</v>
+        <v>0.002436243624362436</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01404654958586198</v>
+        <v>0.002436243624362436</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01404654958586198</v>
+        <v>0.002436243624362436</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01404654958586198</v>
+        <v>0.002436243624362436</v>
       </c>
       <c r="P20" t="n">
-        <v>0.006582057767282309</v>
+        <v>-0.05928592859285928</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.02154936239797449</v>
+        <v>-0.02087008700870087</v>
       </c>
       <c r="R20" t="n">
-        <v>0.005182986255319449</v>
+        <v>-0.02087008700870087</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01430480937219237</v>
+        <v>-0.02087008700870087</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01124654406586176</v>
+        <v>-0.02087008700870087</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.01826588837863553</v>
+        <v>-0.1254965496549655</v>
       </c>
       <c r="V20" t="n">
-        <v>0.001898455851938234</v>
+        <v>-0.06963096309630962</v>
       </c>
       <c r="W20" t="n">
-        <v>0.001898455851938234</v>
+        <v>-0.2004440444044404</v>
       </c>
       <c r="X20" t="n">
-        <v>0.001898455851938234</v>
+        <v>0.05221722172217221</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.001898455851938234</v>
+        <v>0.188058805880588</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.001898455851938234</v>
+        <v>-0.03491149114911491</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.05824182418241824</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.05824182418241824</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.05824182418241824</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.05824182418241824</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.05824182418241824</v>
       </c>
     </row>
     <row r="21">
@@ -2112,76 +2389,91 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.008853991266159648</v>
+        <v>0.04048004800480047</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01000694075227763</v>
+        <v>0.117971797179718</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.006909408372376334</v>
+        <v>0.1226522652265226</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004383782767351311</v>
+        <v>-0.1337533753375338</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00298891701555668</v>
+        <v>0.1277047704770477</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.009564140638565624</v>
+        <v>0.141062106210621</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01002578660903146</v>
+        <v>0.1013021302130213</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.001713059350742499</v>
+        <v>-0.08825682568256825</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.006483998563359942</v>
+        <v>-0.116015601560156</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.006483998563359942</v>
+        <v>-0.116015601560156</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.006483998563359942</v>
+        <v>-0.116015601560156</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.006483998563359942</v>
+        <v>-0.116015601560156</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.006483998563359942</v>
+        <v>-0.116015601560156</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.001821620616864824</v>
+        <v>-0.1309330933093309</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01887124395484975</v>
+        <v>-0.1123432343234323</v>
       </c>
       <c r="R21" t="n">
-        <v>0.007105433564217342</v>
+        <v>-0.1123432343234323</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.00184472551378902</v>
+        <v>-0.1123432343234323</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.01949365229974609</v>
+        <v>-0.1123432343234323</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.01222691319307653</v>
+        <v>-0.07368736873687368</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.003295368227814728</v>
+        <v>0.02923492349234923</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.003295368227814728</v>
+        <v>0.007368736873687368</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.003295368227814728</v>
+        <v>-0.06909090909090908</v>
       </c>
       <c r="Y21" t="n">
-        <v>-0.003295368227814728</v>
+        <v>0.04558055805580558</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.003295368227814728</v>
+        <v>0.02832283228322832</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.06484248424842484</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.06484248424842484</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.06484248424842484</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.06484248424842484</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.06484248424842484</v>
       </c>
     </row>
     <row r="22">
@@ -2192,76 +2484,91 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.002593545031741801</v>
+        <v>-0.01488148814881488</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.0255825775353031</v>
+        <v>-0.1066306630663066</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0265410825656433</v>
+        <v>0.0294029402940294</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.02677662807906512</v>
+        <v>-0.01694569456945694</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02406432873857315</v>
+        <v>-0.0105970597059706</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02845300309012012</v>
+        <v>-0.01645364536453645</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.01796194286247771</v>
+        <v>-0.1075187518751875</v>
       </c>
       <c r="J22" t="n">
-        <v>0.02552279495798934</v>
+        <v>-0.06286228622862286</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02475351439814057</v>
+        <v>-0.05441344134413441</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02475351439814057</v>
+        <v>-0.05441344134413441</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02475351439814057</v>
+        <v>-0.05441344134413441</v>
       </c>
       <c r="N22" t="n">
-        <v>0.02475351439814057</v>
+        <v>-0.05441344134413441</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02475351439814057</v>
+        <v>-0.05441344134413441</v>
       </c>
       <c r="P22" t="n">
-        <v>0.0103765400950616</v>
+        <v>-0.008676867686768676</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.002593134055725362</v>
+        <v>-0.03711971197119712</v>
       </c>
       <c r="R22" t="n">
-        <v>0.009066412202656486</v>
+        <v>-0.03711971197119712</v>
       </c>
       <c r="S22" t="n">
-        <v>0.02891625341265013</v>
+        <v>-0.03711971197119712</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01111137826845513</v>
+        <v>-0.03711971197119712</v>
       </c>
       <c r="U22" t="n">
-        <v>0.007828924441156977</v>
+        <v>0.005304530453045305</v>
       </c>
       <c r="V22" t="n">
-        <v>-0.03145637540225501</v>
+        <v>0.1441944194419442</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.03145637540225501</v>
+        <v>-0.04598859885988599</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.03145637540225501</v>
+        <v>-0.1154155415541554</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.03145637540225501</v>
+        <v>-0.2196219621962196</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.03145637540225501</v>
+        <v>-0.1372697269726973</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.02257425742574257</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.02257425742574257</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.02257425742574257</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.02257425742574257</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.02257425742574257</v>
       </c>
     </row>
     <row r="23">
@@ -2276,76 +2583,91 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01385376525815061</v>
+        <v>-0.2282268226822682</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01811002738040109</v>
+        <v>-0.07461146114611461</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01395041835001673</v>
+        <v>-0.2206900690069007</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01244469054578762</v>
+        <v>0.197059705970597</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.01107088441083537</v>
+        <v>-0.1749654965496549</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01506572873062915</v>
+        <v>-0.1917191719171917</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.01193949292557972</v>
+        <v>-0.09856585658565856</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01976081577604265</v>
+        <v>0.1342334233423342</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02702541708101668</v>
+        <v>0.1855145514551455</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02702541708101668</v>
+        <v>0.1855145514551455</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02702541708101668</v>
+        <v>0.1855145514551455</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02702541708101668</v>
+        <v>0.1855145514551455</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02702541708101668</v>
+        <v>0.1855145514551455</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.003490882219635289</v>
+        <v>0.1884068406840684</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01964305585772223</v>
+        <v>0.2123972397239724</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0116281875691275</v>
+        <v>0.2123972397239724</v>
       </c>
       <c r="S23" t="n">
-        <v>0.02852152299686092</v>
+        <v>0.2123972397239724</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01312685898907436</v>
+        <v>0.2123972397239724</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01040439708817588</v>
+        <v>-0.06178217821782177</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.02118816699152667</v>
+        <v>-0.1434743474347435</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.02118816699152667</v>
+        <v>-0.09660966096609659</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.02118816699152667</v>
+        <v>0.1948154815481548</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.02118816699152667</v>
+        <v>0.1205520552055206</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.02118816699152667</v>
+        <v>0.1217281728172817</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.08610861086108609</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.08610861086108609</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.08610861086108609</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.08610861086108609</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.08610861086108609</v>
       </c>
     </row>
     <row r="24">
@@ -2356,76 +2678,91 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01751330162853206</v>
+        <v>0.009948994899489947</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.003215636672625467</v>
+        <v>-0.09278127812781277</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001698027139921086</v>
+        <v>0.05507350735073507</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0006886833875473354</v>
+        <v>-0.02966696669666966</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.0008657398426295935</v>
+        <v>0.02107410741074107</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01930524240420969</v>
+        <v>0.01348934893489349</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02276022839840913</v>
+        <v>-0.08969696969696968</v>
       </c>
       <c r="J24" t="n">
-        <v>0.007717241310691196</v>
+        <v>-0.03914791479147915</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001370958870838355</v>
+        <v>-0.09586558655865586</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001370958870838355</v>
+        <v>-0.09586558655865586</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001370958870838355</v>
+        <v>-0.09586558655865586</v>
       </c>
       <c r="N24" t="n">
-        <v>0.001370958870838355</v>
+        <v>-0.09586558655865586</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001370958870838355</v>
+        <v>-0.09586558655865586</v>
       </c>
       <c r="P24" t="n">
-        <v>0.02105161783406471</v>
+        <v>-0.03162316231623162</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.009306502356260092</v>
+        <v>-0.06135013501350134</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.006819212336768492</v>
+        <v>-0.06135013501350134</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.01842285827291433</v>
+        <v>-0.06135013501350134</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01743350018534</v>
+        <v>-0.06135013501350134</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.001005100168204007</v>
+        <v>0.03612361236123612</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01386463533858541</v>
+        <v>0.1336813681368137</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01386463533858541</v>
+        <v>0.1222202220222022</v>
       </c>
       <c r="X24" t="n">
-        <v>0.01386463533858541</v>
+        <v>-0.0481008100810081</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01386463533858541</v>
+        <v>-0.1595319531953195</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01386463533858541</v>
+        <v>-0.1248724872487249</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.0155055505550555</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-0.0155055505550555</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-0.0155055505550555</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-0.0155055505550555</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-0.0155055505550555</v>
       </c>
     </row>
     <row r="25">
@@ -2440,76 +2777,91 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.002580569191222767</v>
+        <v>0.102994299429943</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.009629126209165046</v>
+        <v>0.2388598859885989</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0106878025395121</v>
+        <v>0.04332433243324332</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.009546402717856107</v>
+        <v>-0.07449144914491448</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01072964855718594</v>
+        <v>0.08900090009000899</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0108165074406603</v>
+        <v>0.08814881488148814</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01117698313507932</v>
+        <v>0.2832763276327632</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005498685635073722</v>
+        <v>-0.07746774677467745</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.002656629130265165</v>
+        <v>-0.07727572757275727</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.002656629130265165</v>
+        <v>-0.07727572757275727</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.002656629130265165</v>
+        <v>-0.07727572757275727</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.002656629130265165</v>
+        <v>-0.07727572757275727</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.002656629130265165</v>
+        <v>-0.07727572757275727</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.03138284679131386</v>
+        <v>-0.07747974797479748</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.009338830645553225</v>
+        <v>-0.06274227422742273</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.02220447352817894</v>
+        <v>-0.06274227422742273</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.001829425705177028</v>
+        <v>-0.06274227422742273</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.003930519037220761</v>
+        <v>-0.06274227422742273</v>
       </c>
       <c r="U25" t="n">
-        <v>0.002379514559180582</v>
+        <v>0.04178817881788179</v>
       </c>
       <c r="V25" t="n">
-        <v>0.004283552619342104</v>
+        <v>-0.08884488448844884</v>
       </c>
       <c r="W25" t="n">
-        <v>0.004283552619342104</v>
+        <v>-0.1205880588058806</v>
       </c>
       <c r="X25" t="n">
-        <v>0.004283552619342104</v>
+        <v>0.01282928292829283</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.004283552619342104</v>
+        <v>0.06541854185418541</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.004283552619342104</v>
+        <v>0.09792979297929794</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.04116411641164116</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.04116411641164116</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.04116411641164116</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.04116411641164116</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.04116411641164116</v>
       </c>
     </row>
     <row r="26">
@@ -2520,76 +2872,91 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.00902335380093415</v>
+        <v>-0.1364056405640564</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0007697734387909375</v>
+        <v>-0.0586978697869787</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0002154902486196099</v>
+        <v>0.06003000300030003</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.001583309343332374</v>
+        <v>-0.02322232223222322</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.001534223581368943</v>
+        <v>-0.003768376837683768</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.004203828168153127</v>
+        <v>0.01418541854185418</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.009274835410993417</v>
+        <v>-0.0252025202520252</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01613753130641549</v>
+        <v>-0.06010201020102009</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.001832646793305872</v>
+        <v>-0.1012061206120612</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.001832646793305872</v>
+        <v>-0.1012061206120612</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.001832646793305872</v>
+        <v>-0.1012061206120612</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.001832646793305872</v>
+        <v>-0.1012061206120612</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.001832646793305872</v>
+        <v>-0.1012061206120612</v>
       </c>
       <c r="P26" t="n">
-        <v>0.002787424431496977</v>
+        <v>-0.02481848184818481</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.007086558235462328</v>
+        <v>-0.07537953795379537</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.002054042770161711</v>
+        <v>-0.07537953795379537</v>
       </c>
       <c r="S26" t="n">
-        <v>0.002568901734756069</v>
+        <v>-0.07537953795379537</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.006634313065372522</v>
+        <v>-0.07537953795379537</v>
       </c>
       <c r="U26" t="n">
-        <v>0.007613734192549367</v>
+        <v>-0.04223222322232223</v>
       </c>
       <c r="V26" t="n">
-        <v>-0.002798187567927502</v>
+        <v>0.1944314431443144</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.002798187567927502</v>
+        <v>0.05406540654065406</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.002798187567927502</v>
+        <v>-0.0651065106510651</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.002798187567927502</v>
+        <v>-0.06897089708970895</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.002798187567927502</v>
+        <v>-0.08914491449144914</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.0219021902190219</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>-0.0219021902190219</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-0.0219021902190219</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>-0.0219021902190219</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>-0.0219021902190219</v>
       </c>
     </row>
     <row r="27">
@@ -2604,76 +2971,91 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.016419124976765</v>
+        <v>0.01332133213321332</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.03291468102858724</v>
+        <v>0.13002100210021</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001535737597429504</v>
+        <v>-0.03191119111911191</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01799636625585465</v>
+        <v>0.01443744374437443</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.003336046789441871</v>
+        <v>-0.00204020402040204</v>
       </c>
       <c r="H27" t="n">
-        <v>0.02342635226505409</v>
+        <v>-0.02869486948694869</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01994369522974781</v>
+        <v>0.109054905490549</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.02476560668672049</v>
+        <v>-0.1368016801680168</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03652945365317814</v>
+        <v>0.05941794179417942</v>
       </c>
       <c r="L27" t="n">
-        <v>0.03652945365317814</v>
+        <v>0.05941794179417942</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03652945365317814</v>
+        <v>0.05941794179417942</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03652945365317814</v>
+        <v>0.05941794179417942</v>
       </c>
       <c r="O27" t="n">
-        <v>0.03652945365317814</v>
+        <v>0.05941794179417942</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.04049909893196395</v>
+        <v>0.006492649264926492</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.185147952493918</v>
+        <v>0.02847884788478848</v>
       </c>
       <c r="R27" t="n">
-        <v>0.07816007957440317</v>
+        <v>0.02847884788478848</v>
       </c>
       <c r="S27" t="n">
-        <v>0.03190901638036065</v>
+        <v>0.02847884788478848</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.04714768210990728</v>
+        <v>0.02847884788478848</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01746347522653901</v>
+        <v>0.04579657965796579</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0198449350337974</v>
+        <v>-0.2181818181818181</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0198449350337974</v>
+        <v>-0.01371737173717372</v>
       </c>
       <c r="X27" t="n">
-        <v>0.0198449350337974</v>
+        <v>-0.1006420642064206</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.0198449350337974</v>
+        <v>-0.1473267326732673</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.0198449350337974</v>
+        <v>0.1198199819981998</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.1357815781578158</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.1357815781578158</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.1357815781578158</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.1357815781578158</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.1357815781578158</v>
       </c>
     </row>
     <row r="28">
@@ -2688,76 +3070,91 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.01608197641927905</v>
+        <v>-0.09843384338433843</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.01478633915145357</v>
+        <v>-0.05557755775577557</v>
       </c>
       <c r="E28" t="n">
-        <v>0.005415562584622503</v>
+        <v>0.07867986798679868</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0008721374748854988</v>
+        <v>-0.08523252325232522</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.002653293610131744</v>
+        <v>0.1028022802280228</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.006671471690858867</v>
+        <v>0.06849084908490849</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.008307586988303478</v>
+        <v>-0.02616261626162616</v>
       </c>
       <c r="J28" t="n">
-        <v>0.00146364466844267</v>
+        <v>0.06784278427842784</v>
       </c>
       <c r="K28" t="n">
-        <v>0.01923510211340408</v>
+        <v>-0.08148814881488146</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01923510211340408</v>
+        <v>-0.08148814881488146</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01923510211340408</v>
+        <v>-0.08148814881488146</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01923510211340408</v>
+        <v>-0.08148814881488146</v>
       </c>
       <c r="O28" t="n">
-        <v>0.01923510211340408</v>
+        <v>-0.08148814881488146</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.01559143809565752</v>
+        <v>-0.09692169216921691</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.06802445849697833</v>
+        <v>-0.08474047404740473</v>
       </c>
       <c r="R28" t="n">
-        <v>0.02938142171925686</v>
+        <v>-0.08474047404740473</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01763335721733429</v>
+        <v>-0.08474047404740473</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.00747646925905877</v>
+        <v>-0.08474047404740473</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03354239711769588</v>
+        <v>0.001284128412841284</v>
       </c>
       <c r="V28" t="n">
-        <v>0.00274976900599076</v>
+        <v>-0.07705970597059707</v>
       </c>
       <c r="W28" t="n">
-        <v>0.00274976900599076</v>
+        <v>0.1193639363936394</v>
       </c>
       <c r="X28" t="n">
-        <v>0.00274976900599076</v>
+        <v>0.03137113711371137</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.00274976900599076</v>
+        <v>-0.05626162616261626</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.00274976900599076</v>
+        <v>-0.03133513351335133</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.007608760876087609</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.007608760876087609</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.007608760876087609</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.007608760876087609</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.007608760876087609</v>
       </c>
     </row>
     <row r="29">
@@ -2772,76 +3169,91 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.008173006694920267</v>
+        <v>-0.1144794479447945</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02239729587189183</v>
+        <v>-0.1531833183318331</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02201443614457744</v>
+        <v>0.002448244824482448</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02482742096109684</v>
+        <v>0.008088808880888088</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0248330401293216</v>
+        <v>0.001608160816081608</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02609635717185429</v>
+        <v>-0.006996699669966995</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01698249917529997</v>
+        <v>-0.09621362136213621</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0410254166541856</v>
+        <v>-0.08708070807080708</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.006440705249628209</v>
+        <v>-0.05954995499549954</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.006440705249628209</v>
+        <v>-0.05954995499549954</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.006440705249628209</v>
+        <v>-0.05954995499549954</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.006440705249628209</v>
+        <v>-0.05954995499549954</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.006440705249628209</v>
+        <v>-0.05954995499549954</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.003093487803739512</v>
+        <v>0.01082508250825082</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.003947791357911653</v>
+        <v>-0.02390639063906391</v>
       </c>
       <c r="R29" t="n">
-        <v>0.01781657053666282</v>
+        <v>-0.02390639063906391</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.02016275389451016</v>
+        <v>-0.02390639063906391</v>
       </c>
       <c r="T29" t="n">
-        <v>0.01003568152142726</v>
+        <v>-0.02390639063906391</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0006638304265532169</v>
+        <v>-0.06603060306030602</v>
       </c>
       <c r="V29" t="n">
-        <v>0.03333690133347604</v>
+        <v>0.05888988898889888</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03333690133347604</v>
+        <v>0.02168616861686168</v>
       </c>
       <c r="X29" t="n">
-        <v>0.03333690133347604</v>
+        <v>0.0293069306930693</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.03333690133347604</v>
+        <v>-0.03139513951395139</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.03333690133347604</v>
+        <v>-0.06263426342634262</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.06419441944194419</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>-0.06419441944194419</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.06419441944194419</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>-0.06419441944194419</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>-0.06419441944194419</v>
       </c>
     </row>
     <row r="30">
@@ -2856,76 +3268,91 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.005263209042528361</v>
+        <v>0.1467866786678668</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.00591957777278311</v>
+        <v>0.02935493549354935</v>
       </c>
       <c r="E30" t="n">
-        <v>0.002673805354952214</v>
+        <v>-0.04384038403840383</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.002053323154132926</v>
+        <v>0.02571857185718571</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.001178002415120097</v>
+        <v>-0.02744674467446745</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.01753039030121561</v>
+        <v>-0.0365076507650765</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.01571447026057881</v>
+        <v>-0.003012301230123012</v>
       </c>
       <c r="J30" t="n">
-        <v>0.006591719456211648</v>
+        <v>-0.03765976597659765</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01200954460838178</v>
+        <v>0.03683168316831683</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01200954460838178</v>
+        <v>0.03683168316831683</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01200954460838178</v>
+        <v>0.03683168316831683</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01200954460838178</v>
+        <v>0.03683168316831683</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01200954460838178</v>
+        <v>0.03683168316831683</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01947206170688246</v>
+        <v>0.02766276627662766</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.01467381850695274</v>
+        <v>0.04278427842784278</v>
       </c>
       <c r="R30" t="n">
-        <v>0.007059558330382332</v>
+        <v>0.04278427842784278</v>
       </c>
       <c r="S30" t="n">
-        <v>0.02173540579741623</v>
+        <v>0.04278427842784278</v>
       </c>
       <c r="T30" t="n">
-        <v>0.008072258818890352</v>
+        <v>0.04278427842784278</v>
       </c>
       <c r="U30" t="n">
-        <v>0.007333505861340233</v>
+        <v>-0.02358235823582358</v>
       </c>
       <c r="V30" t="n">
-        <v>-0.01500996165639847</v>
+        <v>-0.07249924992499249</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.01500996165639847</v>
+        <v>-0.0756075607560756</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.01500996165639847</v>
+        <v>0.03119111911191119</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.01500996165639847</v>
+        <v>-0.07462346234623461</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.01500996165639847</v>
+        <v>-0.07035103510351035</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-4.8004800480048e-05</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>-4.8004800480048e-05</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-4.8004800480048e-05</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-4.8004800480048e-05</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-4.8004800480048e-05</v>
       </c>
     </row>
     <row r="31">
@@ -2940,76 +3367,91 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5432996892839874</v>
+        <v>0.4956615661566157</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9770052165202086</v>
+        <v>0.003516351635163516</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9976740984669638</v>
+        <v>0.9822382238223822</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9888436152977444</v>
+        <v>-0.9975397539753975</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9851355826054232</v>
+        <v>0.9909150915091508</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3765879021035161</v>
+        <v>0.9864626462646264</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0202225101529004</v>
+        <v>0.3578997899789979</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.4055847129090263</v>
+        <v>-0.3848184818481848</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.8115835634073425</v>
+        <v>-0.8104290429042904</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.8115835634073425</v>
+        <v>-0.8104290429042904</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8115835634073425</v>
+        <v>-0.8104290429042904</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.8115835634073425</v>
+        <v>-0.8104290429042904</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.8115835634073425</v>
+        <v>-0.8104290429042904</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.1184618665304746</v>
+        <v>-0.9962196219621962</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.005161912430476497</v>
+        <v>-0.9654005400540053</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.1718212940728517</v>
+        <v>-0.9654005400540053</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.5400961489958459</v>
+        <v>-0.9654005400540053</v>
       </c>
       <c r="T31" t="n">
-        <v>0.004837185217487408</v>
+        <v>-0.9654005400540053</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.6595110021884399</v>
+        <v>-0.1136393639363936</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6957988239279529</v>
+        <v>0.04852085208520851</v>
       </c>
       <c r="W31" t="n">
-        <v>0.6957988239279529</v>
+        <v>-0.2651425142514252</v>
       </c>
       <c r="X31" t="n">
-        <v>0.6957988239279529</v>
+        <v>-0.6666066606660664</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.6957988239279529</v>
+        <v>0.05777377737773777</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.6957988239279529</v>
+        <v>-0.6454485448544854</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.7787578757875786</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.7787578757875786</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.7787578757875786</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.7787578757875786</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.7787578757875786</v>
       </c>
     </row>
     <row r="32">
@@ -3024,76 +3466,91 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02870098617203944</v>
+        <v>-0.06421842184218421</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09460652096826082</v>
+        <v>-0.1543354335433543</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.09413324162132965</v>
+        <v>-0.08832883288328831</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09083443486537739</v>
+        <v>0.0664026402640264</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09415544056621762</v>
+        <v>-0.05257725772577258</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07825577141823085</v>
+        <v>-0.03537953795379538</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.01066571389862856</v>
+        <v>-0.09275727572757274</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1742580283641595</v>
+        <v>-0.1002340234023402</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.08350090942003636</v>
+        <v>0.1385778577857786</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.08350090942003636</v>
+        <v>0.1385778577857786</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.08350090942003636</v>
+        <v>0.1385778577857786</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.08350090942003636</v>
+        <v>0.1385778577857786</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.08350090942003636</v>
+        <v>0.1385778577857786</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.01575212981408519</v>
+        <v>0.06324632463246324</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.008337196653487864</v>
+        <v>0.09590159015901589</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.1440854093794164</v>
+        <v>0.09590159015901589</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.002725887373035494</v>
+        <v>0.09590159015901589</v>
       </c>
       <c r="T32" t="n">
-        <v>0.03447660790706431</v>
+        <v>0.09590159015901589</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1051500627660025</v>
+        <v>0.02513051305130512</v>
       </c>
       <c r="V32" t="n">
-        <v>0.07338568987942759</v>
+        <v>-0.08786078607860785</v>
       </c>
       <c r="W32" t="n">
-        <v>0.07338568987942759</v>
+        <v>-0.1497749774977498</v>
       </c>
       <c r="X32" t="n">
-        <v>0.07338568987942759</v>
+        <v>0.1651725172517251</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.07338568987942759</v>
+        <v>0.2068646864686468</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.07338568987942759</v>
+        <v>0.004596459645964596</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-0.0501050105010501</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-0.0501050105010501</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-0.0501050105010501</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-0.0501050105010501</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>-0.0501050105010501</v>
       </c>
     </row>
     <row r="33">
@@ -3108,76 +3565,91 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.02894763168590526</v>
+        <v>-0.009228922892289227</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02195824321432973</v>
+        <v>-0.03878787878787878</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.02605616427424656</v>
+        <v>-0.1326252625262526</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0277360525014421</v>
+        <v>0.1546354635463546</v>
       </c>
       <c r="G33" t="n">
-        <v>0.025456875034275</v>
+        <v>-0.1366936693669367</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01620108880804355</v>
+        <v>-0.1797659765976597</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.000247945449917818</v>
+        <v>-0.1162676267626763</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.04166618634464683</v>
+        <v>0.1145274527452745</v>
       </c>
       <c r="K33" t="n">
-        <v>0.009300346548013861</v>
+        <v>-0.002616261626162616</v>
       </c>
       <c r="L33" t="n">
-        <v>0.009300346548013861</v>
+        <v>-0.002616261626162616</v>
       </c>
       <c r="M33" t="n">
-        <v>0.009300346548013861</v>
+        <v>-0.002616261626162616</v>
       </c>
       <c r="N33" t="n">
-        <v>0.009300346548013861</v>
+        <v>-0.002616261626162616</v>
       </c>
       <c r="O33" t="n">
-        <v>0.009300346548013861</v>
+        <v>-0.002616261626162616</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.01377311690292467</v>
+        <v>0.1466786678667867</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01492833947713358</v>
+        <v>0.1141314131413141</v>
       </c>
       <c r="R33" t="n">
-        <v>0.01479437636777505</v>
+        <v>0.1141314131413141</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.01429001653960066</v>
+        <v>0.1141314131413141</v>
       </c>
       <c r="T33" t="n">
-        <v>0.005537357021494279</v>
+        <v>0.1141314131413141</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.008155693094227723</v>
+        <v>0.006552655265526551</v>
       </c>
       <c r="V33" t="n">
-        <v>0.03372393936495757</v>
+        <v>0.102994299429943</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03372393936495757</v>
+        <v>-0.01161716171617162</v>
       </c>
       <c r="X33" t="n">
-        <v>0.03372393936495757</v>
+        <v>0.09026102610261026</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.03372393936495757</v>
+        <v>-0.2508130813081308</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.03372393936495757</v>
+        <v>0.04114011401140114</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-0.1605520552055205</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>-0.1605520552055205</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-0.1605520552055205</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-0.1605520552055205</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>-0.1605520552055205</v>
       </c>
     </row>
     <row r="34">
@@ -3192,76 +3664,91 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.004895466531818661</v>
+        <v>-0.0899009900990099</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.007773014326920572</v>
+        <v>-0.08427242724272427</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004475646035025841</v>
+        <v>-0.005988598859885987</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.004455436114217444</v>
+        <v>-0.007236723672367236</v>
       </c>
       <c r="G34" t="n">
-        <v>2.217705688708227e-05</v>
+        <v>0.004644464446444644</v>
       </c>
       <c r="H34" t="n">
-        <v>0.007639166033566641</v>
+        <v>0.01663366336633663</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01112676850907074</v>
+        <v>-0.03935193519351935</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01526585981441895</v>
+        <v>0.1246204620462046</v>
       </c>
       <c r="K34" t="n">
-        <v>0.008019975776799032</v>
+        <v>0.05609360936093609</v>
       </c>
       <c r="L34" t="n">
-        <v>0.008019975776799032</v>
+        <v>0.05609360936093609</v>
       </c>
       <c r="M34" t="n">
-        <v>0.008019975776799032</v>
+        <v>0.05609360936093609</v>
       </c>
       <c r="N34" t="n">
-        <v>0.008019975776799032</v>
+        <v>0.05609360936093609</v>
       </c>
       <c r="O34" t="n">
-        <v>0.008019975776799032</v>
+        <v>0.05609360936093609</v>
       </c>
       <c r="P34" t="n">
-        <v>0.001701537956061518</v>
+        <v>-0.008772877287728771</v>
       </c>
       <c r="Q34" t="n">
-        <v>-0.01879003457560138</v>
+        <v>0.01519351935193519</v>
       </c>
       <c r="R34" t="n">
-        <v>-0.0259779926231197</v>
+        <v>0.01519351935193519</v>
       </c>
       <c r="S34" t="n">
-        <v>0.006996384471855379</v>
+        <v>0.01519351935193519</v>
       </c>
       <c r="T34" t="n">
-        <v>0.03266842201073687</v>
+        <v>0.01519351935193519</v>
       </c>
       <c r="U34" t="n">
-        <v>0.008250431178017246</v>
+        <v>0.08949294929492949</v>
       </c>
       <c r="V34" t="n">
-        <v>0.001047024713880989</v>
+        <v>-0.11998799879988</v>
       </c>
       <c r="W34" t="n">
-        <v>0.001047024713880989</v>
+        <v>-0.0004320432043204319</v>
       </c>
       <c r="X34" t="n">
-        <v>0.001047024713880989</v>
+        <v>0.01594959495949595</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.001047024713880989</v>
+        <v>0.1116231623162316</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.001047024713880989</v>
+        <v>0.03086708670867086</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.009048904890489047</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.009048904890489047</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.009048904890489047</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.009048904890489047</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.009048904890489047</v>
       </c>
     </row>
     <row r="35">
@@ -3276,76 +3763,91 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.02330822973232919</v>
+        <v>0.0009960996099609958</v>
       </c>
       <c r="D35" t="n">
-        <v>0.01523657139346285</v>
+        <v>0.01275727572757276</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.01165660894626436</v>
+        <v>-0.1295049504950495</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0091874825114993</v>
+        <v>0.102034203420342</v>
       </c>
       <c r="G35" t="n">
-        <v>0.009336628981465159</v>
+        <v>-0.09605760576057605</v>
       </c>
       <c r="H35" t="n">
-        <v>0.01755591161423646</v>
+        <v>-0.09088508850885087</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02121766404870656</v>
+        <v>-0.05148514851485148</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.01557700681926807</v>
+        <v>-0.05004500450045003</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.01211134061245362</v>
+        <v>0.1379777977797779</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.01211134061245362</v>
+        <v>0.1379777977797779</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.01211134061245362</v>
+        <v>0.1379777977797779</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.01211134061245362</v>
+        <v>0.1379777977797779</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.01211134061245362</v>
+        <v>0.1379777977797779</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.00486065453042618</v>
+        <v>0.102010201020102</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01658113400724536</v>
+        <v>0.1336453645364536</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01684921305796852</v>
+        <v>0.1336453645364536</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.01486823944272958</v>
+        <v>0.1336453645364536</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.002567792934711717</v>
+        <v>0.1336453645364536</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.006084816243392649</v>
+        <v>0.127032703270327</v>
       </c>
       <c r="V35" t="n">
-        <v>0.007110517724420708</v>
+        <v>-0.1242844284428443</v>
       </c>
       <c r="W35" t="n">
-        <v>0.007110517724420708</v>
+        <v>-0.05174917491749174</v>
       </c>
       <c r="X35" t="n">
-        <v>0.007110517724420708</v>
+        <v>0.1925712571257125</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.007110517724420708</v>
+        <v>0.04283228322832282</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.007110517724420708</v>
+        <v>0.0311071107110711</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.1257605760576057</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-0.1257605760576057</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-0.1257605760576057</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>-0.1257605760576057</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>-0.1257605760576057</v>
       </c>
     </row>
     <row r="36">
@@ -3360,76 +3862,91 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.04404176537767061</v>
+        <v>-0.02711071107110711</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02973186790927471</v>
+        <v>-0.07734773477347733</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.03001192430447697</v>
+        <v>0.08446444644464446</v>
       </c>
       <c r="F36" t="n">
-        <v>0.02983087904923516</v>
+        <v>-0.08697269726972696</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02863955644158225</v>
+        <v>0.09342934293429342</v>
       </c>
       <c r="H36" t="n">
-        <v>0.007582184079287362</v>
+        <v>0.07836783678367835</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.00224300975372039</v>
+        <v>-0.06443444344434443</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.01822240577651247</v>
+        <v>-0.06073807380738073</v>
       </c>
       <c r="K36" t="n">
-        <v>0.23843300019332</v>
+        <v>0.1797539753975397</v>
       </c>
       <c r="L36" t="n">
-        <v>0.23843300019332</v>
+        <v>0.1797539753975397</v>
       </c>
       <c r="M36" t="n">
-        <v>0.23843300019332</v>
+        <v>0.1797539753975397</v>
       </c>
       <c r="N36" t="n">
-        <v>0.23843300019332</v>
+        <v>0.1797539753975397</v>
       </c>
       <c r="O36" t="n">
-        <v>0.23843300019332</v>
+        <v>0.1797539753975397</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.001714951844598073</v>
+        <v>-0.07456345634563456</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.002613571304542852</v>
+        <v>-0.006216621662166216</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.0188622401144896</v>
+        <v>-0.006216621662166216</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.02399571734382869</v>
+        <v>-0.006216621662166216</v>
       </c>
       <c r="T36" t="n">
-        <v>0.001297225779889031</v>
+        <v>-0.006216621662166216</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.02368811326752453</v>
+        <v>-0.08450045004500449</v>
       </c>
       <c r="V36" t="n">
-        <v>0.1859982897119316</v>
+        <v>-0.01032103210321032</v>
       </c>
       <c r="W36" t="n">
-        <v>0.1859982897119316</v>
+        <v>0.02309030903090309</v>
       </c>
       <c r="X36" t="n">
-        <v>0.1859982897119316</v>
+        <v>-0.08193219321932191</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.1859982897119316</v>
+        <v>-0.05489348934893489</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.1859982897119316</v>
+        <v>-0.06216621662166216</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.2628862886288628</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.2628862886288628</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.2628862886288628</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.2628862886288628</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.2628862886288628</v>
       </c>
     </row>
     <row r="37">
@@ -3444,82 +3961,99 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01556883345475334</v>
+        <v>0.0754155415541554</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01806795240271809</v>
+        <v>0.02844284428442844</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.02169727881989115</v>
+        <v>0.06349834983498349</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02375674155826966</v>
+        <v>-0.0568136813681368</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02423465050538602</v>
+        <v>0.05189318931893189</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.0005945581677823266</v>
+        <v>0.05371737173717371</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.01429702482788099</v>
+        <v>0.01663366336633663</v>
       </c>
       <c r="J37" t="n">
-        <v>0.009297581567952929</v>
+        <v>-0.07642364236423642</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.006159397494375898</v>
+        <v>-0.04547254725472546</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.006159397494375898</v>
+        <v>-0.04547254725472546</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.006159397494375898</v>
+        <v>-0.04547254725472546</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.006159397494375898</v>
+        <v>-0.04547254725472546</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.006159397494375898</v>
+        <v>-0.04547254725472546</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.03094351448574057</v>
+        <v>-0.0566096609660966</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.01491155646846226</v>
+        <v>-0.06205820582058205</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.0003442390217695609</v>
+        <v>-0.06205820582058205</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.01793624682944987</v>
+        <v>-0.06205820582058205</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01713213294128531</v>
+        <v>-0.06205820582058205</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.01479356727974269</v>
+        <v>0.1548994899489949</v>
       </c>
       <c r="V37" t="n">
-        <v>0.03310424426816977</v>
+        <v>0.09322532253225321</v>
       </c>
       <c r="W37" t="n">
-        <v>0.03310424426816977</v>
+        <v>-0.007392739273927392</v>
       </c>
       <c r="X37" t="n">
-        <v>0.03310424426816977</v>
+        <v>-0.07720372037203718</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.03310424426816977</v>
+        <v>-0.04751275127512751</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.03310424426816977</v>
+        <v>-0.07512751275127512</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.03176717671767176</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.03176717671767176</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.03176717671767176</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.03176717671767176</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.03176717671767176</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A16:A17"/>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1167077425563097</v>
+        <v>-0.1099265105090604</v>
       </c>
       <c r="D4" t="n">
         <v>0.001852952042118082</v>
@@ -745,76 +745,80 @@
       <c r="F4" t="n">
         <v>0.007374677766987111</v>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.03030128742005149</v>
+      </c>
       <c r="H4" t="n">
         <v>0.1400489308179572</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02752246919689876</v>
+        <v>0.0275039051961562</v>
       </c>
       <c r="J4" t="n">
-        <v>0.329368961823908</v>
+        <v>0.3293659413831154</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4177895232075808</v>
+        <v>0.3224409837456393</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4177895232075808</v>
+        <v>0.3224409837456393</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4177895232075808</v>
+        <v>0.3224409837456393</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4177895232075808</v>
+        <v>0.3224409837456393</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4177895232075808</v>
+        <v>0.3224409837456393</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1028262028650481</v>
+        <v>0.01396013297440532</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2878013028400521</v>
+        <v>0.2272035276161411</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2878013028400521</v>
+        <v>0.2272035276161411</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2878013028400521</v>
+        <v>0.2272035276161411</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2878013028400521</v>
+        <v>0.2272035276161411</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.09860175927207035</v>
+        <v>-0.08508861009154439</v>
       </c>
       <c r="V4" t="n">
         <v>-0.7040191237767649</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01676128175845127</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
+        <v>0.01675916275036651</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.1840597828503913</v>
+      </c>
       <c r="Y4" t="n">
         <v>0.9987704645908184</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1131076897083076</v>
+        <v>0.1145262382770495</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.76022275024891</v>
+        <v>0.06965924342636973</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.76022275024891</v>
+        <v>0.06965924342636973</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.76022275024891</v>
+        <v>0.06965924342636973</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.76022275024891</v>
+        <v>0.06965924342636973</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.76022275024891</v>
+        <v>0.06965924342636973</v>
       </c>
     </row>
     <row r="5">
@@ -825,7 +829,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.06318479484739177</v>
+        <v>0.05649527198781087</v>
       </c>
       <c r="D5" t="n">
         <v>-0.01802875377715015</v>
@@ -836,76 +840,80 @@
       <c r="F5" t="n">
         <v>0.01288248838729954</v>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>-0.09620850384834015</v>
+      </c>
       <c r="H5" t="n">
         <v>-0.01072920897316836</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.05335289800611591</v>
+        <v>-0.05340846213633848</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01431955634152644</v>
+        <v>0.01432417269612554</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.3073312681012507</v>
+        <v>-0.1048135137285405</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3073312681012507</v>
+        <v>-0.1048135137285405</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.3073312681012507</v>
+        <v>-0.1048135137285405</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.3073312681012507</v>
+        <v>-0.1048135137285405</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.3073312681012507</v>
+        <v>-0.1048135137285405</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.07986307903452315</v>
+        <v>0.03639301883172075</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2175924619836984</v>
+        <v>-0.003412648456505938</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.2175924619836984</v>
+        <v>-0.003412648456505938</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.2175924619836984</v>
+        <v>-0.003412648456505938</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.2175924619836984</v>
+        <v>-0.003412648456505938</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1058620101224804</v>
+        <v>0.09323828744153148</v>
       </c>
       <c r="V5" t="n">
         <v>0.6503405311656212</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01458450960738038</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
+        <v>0.01458595239143809</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.1170156234006249</v>
+      </c>
       <c r="Y5" t="n">
         <v>0.01269385625175425</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.07011860949274437</v>
+        <v>-0.07035676150227045</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.5817821433032857</v>
+        <v>-0.0850054902162196</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.5817821433032857</v>
+        <v>-0.0850054902162196</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.5817821433032857</v>
+        <v>-0.0850054902162196</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.5817821433032857</v>
+        <v>-0.0850054902162196</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.5817821433032857</v>
+        <v>-0.0850054902162196</v>
       </c>
     </row>
     <row r="6">
@@ -916,7 +924,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1688607453464298</v>
+        <v>0.1784088425603537</v>
       </c>
       <c r="D6" t="n">
         <v>0.9745858367114333</v>
@@ -927,76 +935,80 @@
       <c r="F6" t="n">
         <v>0.02482472777698911</v>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>-0.006313555356542213</v>
+      </c>
       <c r="H6" t="n">
         <v>-0.02358092772723711</v>
       </c>
       <c r="I6" t="n">
-        <v>0.910417627328705</v>
+        <v>0.9103364045094561</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1953667172562623</v>
+        <v>-0.1953885038179967</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.02298933106357324</v>
+        <v>-0.01959654491186179</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.02298933106357324</v>
+        <v>-0.01959654491186179</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.02298933106357324</v>
+        <v>-0.01959654491186179</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.02298933106357324</v>
+        <v>-0.01959654491186179</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.02298933106357324</v>
+        <v>-0.01959654491186179</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0272009024960361</v>
+        <v>0.01442418624096745</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.02536533605461344</v>
+        <v>-0.0213273276370931</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.02536533605461344</v>
+        <v>-0.0213273276370931</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.02536533605461344</v>
+        <v>-0.0213273276370931</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.02536533605461344</v>
+        <v>-0.0213273276370931</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.03030726601229063</v>
+        <v>-0.03002721230508849</v>
       </c>
       <c r="V6" t="n">
         <v>-0.01643389822535593</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0129098650923946</v>
-      </c>
-      <c r="X6" t="inlineStr"/>
+        <v>0.01291154173246167</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.05868019866720794</v>
+      </c>
       <c r="Y6" t="n">
         <v>-0.0006293089211723568</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2786927980917119</v>
+        <v>0.2791360713894428</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.01461016954440678</v>
+        <v>0.07681276905651076</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01461016954440678</v>
+        <v>0.07681276905651076</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.01461016954440678</v>
+        <v>0.07681276905651076</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01461016954440678</v>
+        <v>0.07681276905651076</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.01461016954440678</v>
+        <v>0.07681276905651076</v>
       </c>
     </row>
     <row r="7">
@@ -1011,7 +1023,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4594962003318479</v>
+        <v>0.4826351256094049</v>
       </c>
       <c r="D7" t="n">
         <v>0.02393805868552234</v>
@@ -1022,76 +1034,80 @@
       <c r="F7" t="n">
         <v>0.001654823202192928</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>0.0002809677232387089</v>
+      </c>
       <c r="H7" t="n">
         <v>-0.001114993772599751</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02145403564216142</v>
+        <v>0.02144228572169142</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.006233837636125576</v>
+        <v>-0.006210705044203698</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00891270602050824</v>
+        <v>0.01169578232383129</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00891270602050824</v>
+        <v>0.01169578232383129</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00891270602050824</v>
+        <v>0.01169578232383129</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00891270602050824</v>
+        <v>0.01169578232383129</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00891270602050824</v>
+        <v>0.01169578232383129</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0004964292678571706</v>
+        <v>0.001185977231439089</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.004709396540375861</v>
+        <v>0.009125308877012352</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004709396540375861</v>
+        <v>0.009125308877012352</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004709396540375861</v>
+        <v>0.009125308877012352</v>
       </c>
       <c r="T7" t="n">
-        <v>0.004709396540375861</v>
+        <v>0.009125308877012352</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.5862043696561747</v>
+        <v>-0.5879723680308946</v>
       </c>
       <c r="V7" t="n">
         <v>-0.002708697900347916</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.001106969804278792</v>
-      </c>
-      <c r="X7" t="inlineStr"/>
+        <v>-0.001108140044325602</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.0100902799876112</v>
+      </c>
       <c r="Y7" t="n">
         <v>0.0008809805152392206</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.004593886167755447</v>
+        <v>-0.004465836562633462</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.003012477816499112</v>
+        <v>0.01371307581252303</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.003012477816499112</v>
+        <v>0.01371307581252303</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.003012477816499112</v>
+        <v>0.01371307581252303</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.003012477816499112</v>
+        <v>0.01371307581252303</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.003012477816499112</v>
+        <v>0.01371307581252303</v>
       </c>
     </row>
     <row r="8">
@@ -1106,7 +1122,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.5200134304005372</v>
+        <v>0.5452894347075773</v>
       </c>
       <c r="D8" t="n">
         <v>-0.01610414560416582</v>
@@ -1117,76 +1133,80 @@
       <c r="F8" t="n">
         <v>-0.000260882602435304</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>-0.0005424386136975445</v>
+      </c>
       <c r="H8" t="n">
         <v>-0.002629481385179255</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01162245934489837</v>
+        <v>-0.01159437771177511</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.005106114837067959</v>
+        <v>-0.005058114115914749</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01816678104667124</v>
+        <v>-0.01279085667163427</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01816678104667124</v>
+        <v>-0.01279085667163427</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.01816678104667124</v>
+        <v>-0.01279085667163427</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.01816678104667124</v>
+        <v>-0.01279085667163427</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.01816678104667124</v>
+        <v>-0.01279085667163427</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.004255245482209819</v>
+        <v>-0.0007145547165821885</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.01173650792546032</v>
+        <v>-0.008354648974185957</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01173650792546032</v>
+        <v>-0.008354648974185957</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.01173650792546032</v>
+        <v>-0.008354648974185957</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.01173650792546032</v>
+        <v>-0.008354648974185957</v>
       </c>
       <c r="U8" t="n">
-        <v>0.6706036874321474</v>
+        <v>0.6721665289986611</v>
       </c>
       <c r="V8" t="n">
         <v>0.02114699018987961</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001104535340181413</v>
-      </c>
-      <c r="X8" t="inlineStr"/>
+        <v>0.001104566156182646</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.01089421617976864</v>
+      </c>
       <c r="Y8" t="n">
         <v>-0.02245813078632523</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.0123535049421402</v>
+        <v>-0.01235635220625409</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.01941748868069955</v>
+        <v>0.006953721974148877</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.01941748868069955</v>
+        <v>0.006953721974148877</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.01941748868069955</v>
+        <v>0.006953721974148877</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.01941748868069955</v>
+        <v>0.006953721974148877</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.01941748868069955</v>
+        <v>0.006953721974148877</v>
       </c>
     </row>
     <row r="9">
@@ -1201,7 +1221,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.006841659921666396</v>
+        <v>0.007374921318996852</v>
       </c>
       <c r="D9" t="n">
         <v>0.01773055731722229</v>
@@ -1212,76 +1232,80 @@
       <c r="F9" t="n">
         <v>0.007987497439499896</v>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>-0.007234618849384753</v>
+      </c>
       <c r="H9" t="n">
         <v>-0.006861397618455904</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01578138821525553</v>
+        <v>0.01576577986263119</v>
       </c>
       <c r="J9" t="n">
-        <v>0.008146747395947474</v>
+        <v>0.00815465770164754</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01554100958164038</v>
+        <v>-0.006063252050530081</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01554100958164038</v>
+        <v>-0.006063252050530081</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01554100958164038</v>
+        <v>-0.006063252050530081</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01554100958164038</v>
+        <v>-0.006063252050530081</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.01554100958164038</v>
+        <v>-0.006063252050530081</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.01231587198063488</v>
+        <v>0.006730298093211923</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01453107965324318</v>
+        <v>-0.003826709049068361</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01453107965324318</v>
+        <v>-0.003826709049068361</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01453107965324318</v>
+        <v>-0.003826709049068361</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01453107965324318</v>
+        <v>-0.003826709049068361</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01845629661025186</v>
+        <v>0.0185800201672008</v>
       </c>
       <c r="V9" t="n">
         <v>0.00776521576660863</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.0004252016810080672</v>
-      </c>
-      <c r="X9" t="inlineStr"/>
+        <v>-0.0004241937769677511</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.02199049969561999</v>
+      </c>
       <c r="Y9" t="n">
         <v>0.001505355900214236</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01901570879262835</v>
+        <v>0.01873902190156087</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.004689985339599414</v>
+        <v>-0.01241396785655871</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.004689985339599414</v>
+        <v>-0.01241396785655871</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.004689985339599414</v>
+        <v>-0.01241396785655871</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.004689985339599414</v>
+        <v>-0.01241396785655871</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.004689985339599414</v>
+        <v>-0.01241396785655871</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1320,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.09417996616719863</v>
+        <v>0.099171775710871</v>
       </c>
       <c r="D10" t="n">
         <v>-0.001247748721909949</v>
@@ -1307,76 +1331,80 @@
       <c r="F10" t="n">
         <v>0.01352078233283129</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>-0.0163802275992091</v>
+      </c>
       <c r="H10" t="n">
         <v>-0.01559466619178665</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002938492917539716</v>
+        <v>-0.002925009237000369</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.002602886412613244</v>
+        <v>-0.002580111420096348</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.01720236164809447</v>
+        <v>0.003455457930218317</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.01720236164809447</v>
+        <v>0.003455457930218317</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.01720236164809447</v>
+        <v>0.003455457930218317</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.01720236164809447</v>
+        <v>0.003455457930218317</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.01720236164809447</v>
+        <v>0.003455457930218317</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.01639422862376914</v>
+        <v>0.01435798367831935</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0180345677293827</v>
+        <v>0.008414786832591472</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0180345677293827</v>
+        <v>0.008414786832591472</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.0180345677293827</v>
+        <v>0.008414786832591472</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.0180345677293827</v>
+        <v>0.008414786832591472</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08687040520281621</v>
+        <v>0.08664172800966911</v>
       </c>
       <c r="V10" t="n">
         <v>0.03348970905158836</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.006317203452688137</v>
-      </c>
-      <c r="X10" t="inlineStr"/>
+        <v>-0.006316768380670735</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.01155522727820909</v>
+      </c>
       <c r="Y10" t="n">
         <v>-0.01910730854029234</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.008658073690322945</v>
+        <v>-0.008260570698422827</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.0373236449809458</v>
+        <v>-0.005201833936073356</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.0373236449809458</v>
+        <v>-0.005201833936073356</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.0373236449809458</v>
+        <v>-0.005201833936073356</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.0373236449809458</v>
+        <v>-0.005201833936073356</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.0373236449809458</v>
+        <v>-0.005201833936073356</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1415,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.07916362569454502</v>
+        <v>0.08207015397080615</v>
       </c>
       <c r="D11" t="n">
         <v>0.204425199857008</v>
@@ -1398,76 +1426,80 @@
       <c r="F11" t="n">
         <v>-0.002971260790850431</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0.003784122583364903</v>
+      </c>
       <c r="H11" t="n">
         <v>0.005483034651321385</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.009217885616715424</v>
+        <v>-0.009187015567480621</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01505448830819369</v>
+        <v>0.01502384525343902</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003782611447304457</v>
+        <v>-0.008070404866816193</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003782611447304457</v>
+        <v>-0.008070404866816193</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003782611447304457</v>
+        <v>-0.008070404866816193</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003782611447304457</v>
+        <v>-0.008070404866816193</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003782611447304457</v>
+        <v>-0.008070404866816193</v>
       </c>
       <c r="P11" t="n">
-        <v>0.00264800727392029</v>
+        <v>-0.003330218149208725</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004968644070745762</v>
+        <v>-0.009600837792033511</v>
       </c>
       <c r="R11" t="n">
-        <v>0.004968644070745762</v>
+        <v>-0.009600837792033511</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004968644070745762</v>
+        <v>-0.009600837792033511</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004968644070745762</v>
+        <v>-0.009600837792033511</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.008663372506534898</v>
+        <v>-0.008353537870141514</v>
       </c>
       <c r="V11" t="n">
         <v>-0.0193166075566643</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.006262313146492525</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
+        <v>-0.006264335098573403</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.004909072132362885</v>
+      </c>
       <c r="Y11" t="n">
         <v>0.0144392925135717</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.002245396601815864</v>
+        <v>-0.002264127162565086</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.02055355656614226</v>
+        <v>0.004264499402579975</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.02055355656614226</v>
+        <v>0.004264499402579975</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.02055355656614226</v>
+        <v>0.004264499402579975</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.02055355656614226</v>
+        <v>0.004264499402579975</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.02055355656614226</v>
+        <v>0.004264499402579975</v>
       </c>
     </row>
     <row r="12">
@@ -1478,7 +1510,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2445031278601251</v>
+        <v>-0.2548329025133161</v>
       </c>
       <c r="D12" t="n">
         <v>-5.44318101772724e-05</v>
@@ -1489,76 +1521,80 @@
       <c r="F12" t="n">
         <v>0.008990885639635425</v>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>-0.009209791280391649</v>
+      </c>
       <c r="H12" t="n">
         <v>-0.009463314234532569</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.007109336924373475</v>
+        <v>-0.007110487484419499</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01022017473046745</v>
+        <v>0.01021715711605801</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.004622423224896929</v>
+        <v>0.01410970376438815</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.004622423224896929</v>
+        <v>0.01410970376438815</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.004622423224896929</v>
+        <v>0.01410970376438815</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.004622423224896929</v>
+        <v>0.01410970376438815</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.004622423224896929</v>
+        <v>0.01410970376438815</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.006912648948505956</v>
+        <v>0.009436567289462692</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.005740587685623506</v>
+        <v>0.01532880051715202</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.005740587685623506</v>
+        <v>0.01532880051715202</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.005740587685623506</v>
+        <v>0.01532880051715202</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.005740587685623506</v>
+        <v>0.01532880051715202</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.04692573346102934</v>
+        <v>-0.0470424328896973</v>
       </c>
       <c r="V12" t="n">
         <v>0.009351514166060566</v>
       </c>
       <c r="W12" t="n">
-        <v>0.00290853026034121</v>
-      </c>
-      <c r="X12" t="inlineStr"/>
+        <v>0.002909875124395005</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.006481340899253635</v>
+      </c>
       <c r="Y12" t="n">
         <v>-0.007099361371974454</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.001508634396345376</v>
+        <v>0.001608010816320432</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.008609206616368263</v>
+        <v>-0.01135352234214089</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.008609206616368263</v>
+        <v>-0.01135352234214089</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.008609206616368263</v>
+        <v>-0.01135352234214089</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.008609206616368263</v>
+        <v>-0.01135352234214089</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.008609206616368263</v>
+        <v>-0.01135352234214089</v>
       </c>
     </row>
     <row r="13">
@@ -1573,7 +1609,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.004828196161127845</v>
+        <v>-0.004652246394089855</v>
       </c>
       <c r="D13" t="n">
         <v>-0.01226342717853708</v>
@@ -1584,76 +1620,80 @@
       <c r="F13" t="n">
         <v>0.005140697101627883</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>-0.004432407921296315</v>
+      </c>
       <c r="H13" t="n">
         <v>-0.004140668709626747</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.01151036244441449</v>
+        <v>-0.0114795950191838</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.006284284582230626</v>
+        <v>-0.006301359624001763</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.003419262376770494</v>
+        <v>0.004154084902163395</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.003419262376770494</v>
+        <v>0.004154084902163395</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.003419262376770494</v>
+        <v>0.004154084902163395</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.003419262376770494</v>
+        <v>0.004154084902163395</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.003419262376770494</v>
+        <v>0.004154084902163395</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.005507871196314846</v>
+        <v>0.004892410083696402</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.005310947828437913</v>
+        <v>0.003175841407033656</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.005310947828437913</v>
+        <v>0.003175841407033656</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.005310947828437913</v>
+        <v>0.003175841407033656</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.005310947828437913</v>
+        <v>0.003175841407033656</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02606233121849325</v>
+        <v>0.02630145436405817</v>
       </c>
       <c r="V13" t="n">
         <v>-0.007478313995132558</v>
       </c>
       <c r="W13" t="n">
-        <v>0.005962250446490017</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
+        <v>0.005961421678456867</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.02280064593602583</v>
+      </c>
       <c r="Y13" t="n">
         <v>0.002759438126377525</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.003894644219785768</v>
+        <v>0.003128745341149813</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.003841046553641862</v>
+        <v>-0.02040448872017955</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.003841046553641862</v>
+        <v>-0.02040448872017955</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.003841046553641862</v>
+        <v>-0.02040448872017955</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.003841046553641862</v>
+        <v>-0.02040448872017955</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.003841046553641862</v>
+        <v>-0.02040448872017955</v>
       </c>
     </row>
     <row r="14">
@@ -1668,7 +1708,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.02246326918653076</v>
+        <v>-0.02349906122796245</v>
       </c>
       <c r="D14" t="n">
         <v>-0.001213954320558173</v>
@@ -1679,76 +1719,80 @@
       <c r="F14" t="n">
         <v>0.003149361725974469</v>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>-0.003257843554313742</v>
+      </c>
       <c r="H14" t="n">
         <v>-0.002292788539711541</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.004793220863728834</v>
+        <v>-0.004772334718893389</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.01009708496533116</v>
+        <v>-0.01005737264536368</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.004609522840380913</v>
+        <v>0.003365542982621719</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.004609522840380913</v>
+        <v>0.003365542982621719</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.004609522840380913</v>
+        <v>0.003365542982621719</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.004609522840380913</v>
+        <v>0.003365542982621719</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.004609522840380913</v>
+        <v>0.003365542982621719</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.003084753243390129</v>
+        <v>0.003251312866052514</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.004068995586759824</v>
+        <v>0.003397894215915768</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.004068995586759824</v>
+        <v>0.003397894215915768</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.004068995586759824</v>
+        <v>0.003397894215915768</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.004068995586759824</v>
+        <v>0.003397894215915768</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.05613711354148453</v>
+        <v>-0.05635540391821615</v>
       </c>
       <c r="V14" t="n">
         <v>-0.001092127147685086</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.01006206203448248</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
+        <v>-0.01006395121855805</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-0.01928749833949993</v>
+      </c>
       <c r="Y14" t="n">
         <v>0.00614271576570863</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.003978637119145484</v>
+        <v>-0.003902179164087166</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.00320198201607928</v>
+        <v>0.02128182977927319</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.00320198201607928</v>
+        <v>0.02128182977927319</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.00320198201607928</v>
+        <v>0.02128182977927319</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.00320198201607928</v>
+        <v>0.02128182977927319</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.00320198201607928</v>
+        <v>0.02128182977927319</v>
       </c>
     </row>
     <row r="15">
@@ -1763,7 +1807,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.004855730978229239</v>
+        <v>0.004114966340598653</v>
       </c>
       <c r="D15" t="n">
         <v>-0.009827577321103093</v>
@@ -1774,76 +1818,80 @@
       <c r="F15" t="n">
         <v>-0.01615121584604863</v>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>0.01458427325537093</v>
+      </c>
       <c r="H15" t="n">
         <v>0.0181693275427731</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0003538805901552236</v>
+        <v>0.0003586632143465285</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01849892179592301</v>
+        <v>-0.01847313912595063</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01037839625513585</v>
+        <v>-0.01252552139702085</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01037839625513585</v>
+        <v>-0.01252552139702085</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01037839625513585</v>
+        <v>-0.01252552139702085</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01037839625513585</v>
+        <v>-0.01252552139702085</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01037839625513585</v>
+        <v>-0.01252552139702085</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01357177916687116</v>
+        <v>-0.0157114675724587</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01252401669296067</v>
+        <v>-0.01315803739032149</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01252401669296067</v>
+        <v>-0.01315803739032149</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01252401669296067</v>
+        <v>-0.01315803739032149</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01252401669296067</v>
+        <v>-0.01315803739032149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02426605546664222</v>
+        <v>0.0247985350399414</v>
       </c>
       <c r="V15" t="n">
         <v>-0.01114070444562818</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.02863474280938971</v>
-      </c>
-      <c r="X15" t="inlineStr"/>
+        <v>-0.02863653743346149</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.01514076780563071</v>
+      </c>
       <c r="Y15" t="n">
         <v>0.02111758721270348</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.002273221050928842</v>
+        <v>-0.002865632082625283</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.008603118968124759</v>
+        <v>-0.005294671795786871</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.008603118968124759</v>
+        <v>-0.005294671795786871</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.008603118968124759</v>
+        <v>-0.005294671795786871</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.008603118968124759</v>
+        <v>-0.005294671795786871</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.008603118968124759</v>
+        <v>-0.005294671795786871</v>
       </c>
     </row>
     <row r="16">
@@ -1858,7 +1906,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.004376935087077404</v>
+        <v>0.004959023430360937</v>
       </c>
       <c r="D16" t="n">
         <v>0.0003126309245052369</v>
@@ -1869,76 +1917,80 @@
       <c r="F16" t="n">
         <v>0.004543837333753493</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>-0.00535239525409581</v>
+      </c>
       <c r="H16" t="n">
         <v>-0.003326319301052772</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.002406015072240603</v>
+        <v>-0.002398193375927735</v>
       </c>
       <c r="J16" t="n">
-        <v>0.007918523514424149</v>
+        <v>0.007916445787667412</v>
       </c>
       <c r="K16" t="n">
-        <v>0.004287444363497774</v>
+        <v>0.01120077116803085</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004287444363497774</v>
+        <v>0.01120077116803085</v>
       </c>
       <c r="M16" t="n">
-        <v>0.004287444363497774</v>
+        <v>0.01120077116803085</v>
       </c>
       <c r="N16" t="n">
-        <v>0.004287444363497774</v>
+        <v>0.01120077116803085</v>
       </c>
       <c r="O16" t="n">
-        <v>0.004287444363497774</v>
+        <v>0.01120077116803085</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.001309901716396068</v>
+        <v>0.005239289297571571</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.003674202002968079</v>
+        <v>0.01190644396425776</v>
       </c>
       <c r="R16" t="n">
-        <v>0.003674202002968079</v>
+        <v>0.01190644396425776</v>
       </c>
       <c r="S16" t="n">
-        <v>0.003674202002968079</v>
+        <v>0.01190644396425776</v>
       </c>
       <c r="T16" t="n">
-        <v>0.003674202002968079</v>
+        <v>0.01190644396425776</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.00554214425368577</v>
+        <v>-0.005654841154193646</v>
       </c>
       <c r="V16" t="n">
         <v>0.004680161179206447</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.001057182474287299</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
+        <v>-0.001056367050254682</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.004446444561857782</v>
+      </c>
       <c r="Y16" t="n">
         <v>0.001175659151026366</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.01482579668903187</v>
+        <v>-0.01524626105785044</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.001709702948388118</v>
+        <v>-0.008950933318037332</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.001709702948388118</v>
+        <v>-0.008950933318037332</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.001709702948388118</v>
+        <v>-0.008950933318037332</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.001709702948388118</v>
+        <v>-0.008950933318037332</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.001709702948388118</v>
+        <v>-0.008950933318037332</v>
       </c>
     </row>
     <row r="17">
@@ -1949,7 +2001,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.007827129625085185</v>
+        <v>-0.005687267939490716</v>
       </c>
       <c r="D17" t="n">
         <v>0.02873018217320728</v>
@@ -1960,76 +2012,80 @@
       <c r="F17" t="n">
         <v>0.02968352470734099</v>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>-0.02928565393942615</v>
+      </c>
       <c r="H17" t="n">
         <v>-0.03002434545697381</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0137264576370583</v>
+        <v>0.0137064525802581</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01343321158454105</v>
+        <v>0.01340163372947484</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01065981393039256</v>
+        <v>0.02842902920116117</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01065981393039256</v>
+        <v>0.02842902920116117</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01065981393039256</v>
+        <v>0.02842902920116117</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01065981393039256</v>
+        <v>0.02842902920116117</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01065981393039256</v>
+        <v>0.02842902920116117</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.02490525411621016</v>
+        <v>0.03000702888028115</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.02072462079698483</v>
+        <v>0.03005373643414945</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.02072462079698483</v>
+        <v>0.03005373643414945</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.02072462079698483</v>
+        <v>0.03005373643414945</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.02072462079698483</v>
+        <v>0.03005373643414945</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.005782013799280551</v>
+        <v>-0.005682061667282466</v>
       </c>
       <c r="V17" t="n">
         <v>0.0008763400670536026</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.006025879441035177</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
+        <v>-0.006027297169091885</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.01618079152723166</v>
+      </c>
       <c r="Y17" t="n">
         <v>-0.001065813642632546</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.02447291349091654</v>
+        <v>0.02496724631068985</v>
       </c>
       <c r="AA17" t="n">
-        <v>-9.627955585118221e-05</v>
+        <v>-0.02440954936038197</v>
       </c>
       <c r="AB17" t="n">
-        <v>-9.627955585118221e-05</v>
+        <v>-0.02440954936038197</v>
       </c>
       <c r="AC17" t="n">
-        <v>-9.627955585118221e-05</v>
+        <v>-0.02440954936038197</v>
       </c>
       <c r="AD17" t="n">
-        <v>-9.627955585118221e-05</v>
+        <v>-0.02440954936038197</v>
       </c>
       <c r="AE17" t="n">
-        <v>-9.627955585118221e-05</v>
+        <v>-0.02440954936038197</v>
       </c>
     </row>
     <row r="18">
@@ -2044,7 +2100,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.003496990795879631</v>
+        <v>0.005204579632183185</v>
       </c>
       <c r="D18" t="n">
         <v>0.004774460542978422</v>
@@ -2055,76 +2111,80 @@
       <c r="F18" t="n">
         <v>0.01602006697680267</v>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>-0.01702691703307668</v>
+      </c>
       <c r="H18" t="n">
         <v>-0.01601740633669625</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001683194275327771</v>
+        <v>-0.001683633283345331</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001206821138358232</v>
+        <v>0.001199310626246318</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.005885318059412722</v>
+        <v>0.0223398825895953</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.005885318059412722</v>
+        <v>0.0223398825895953</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.005885318059412722</v>
+        <v>0.0223398825895953</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.005885318059412722</v>
+        <v>0.0223398825895953</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.005885318059412722</v>
+        <v>0.0223398825895953</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01455079786203191</v>
+        <v>0.016897775139911</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.01045511427420457</v>
+        <v>0.02475728767829151</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.01045511427420457</v>
+        <v>0.02475728767829151</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.01045511427420457</v>
+        <v>0.02475728767829151</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.01045511427420457</v>
+        <v>0.02475728767829151</v>
       </c>
       <c r="U18" t="n">
-        <v>0.00089709449988378</v>
+        <v>0.0006653406986136278</v>
       </c>
       <c r="V18" t="n">
         <v>0.01050449418017976</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.008557206006288239</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
+        <v>-0.008558018838320752</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.01642619489704779</v>
+      </c>
       <c r="Y18" t="n">
         <v>0.0009482539579301582</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02020930804037232</v>
+        <v>0.02027597245903889</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.008924261444970457</v>
+        <v>-0.02169162038766482</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.008924261444970457</v>
+        <v>-0.02169162038766482</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.008924261444970457</v>
+        <v>-0.02169162038766482</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.008924261444970457</v>
+        <v>-0.02169162038766482</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.008924261444970457</v>
+        <v>-0.02169162038766482</v>
       </c>
     </row>
     <row r="19">
@@ -2139,7 +2199,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.009232979985319198</v>
+        <v>-0.009737525573501021</v>
       </c>
       <c r="D19" t="n">
         <v>0.003085432347417293</v>
@@ -2150,76 +2210,80 @@
       <c r="F19" t="n">
         <v>0.001897816491912659</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>-0.003689985171599406</v>
+      </c>
       <c r="H19" t="n">
         <v>-0.003105217372208694</v>
       </c>
       <c r="I19" t="n">
-        <v>0.003704039668161586</v>
+        <v>0.003734106101364243</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.009072859914592297</v>
+        <v>-0.009108269181600044</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0006505870340234813</v>
+        <v>0.004726295325051813</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006505870340234813</v>
+        <v>0.004726295325051813</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0006505870340234813</v>
+        <v>0.004726295325051813</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0006505870340234813</v>
+        <v>0.004726295325051813</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0006505870340234813</v>
+        <v>0.004726295325051813</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.00217080527083221</v>
+        <v>0.002816226736649069</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.001659181314367252</v>
+        <v>0.005560628958425157</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.001659181314367252</v>
+        <v>0.005560628958425157</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.001659181314367252</v>
+        <v>0.005560628958425157</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.001659181314367252</v>
+        <v>0.005560628958425157</v>
       </c>
       <c r="U19" t="n">
-        <v>0.001010062120402485</v>
+        <v>0.0007455519658220785</v>
       </c>
       <c r="V19" t="n">
         <v>0.006204071672162866</v>
       </c>
       <c r="W19" t="n">
-        <v>0.003783106327324253</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
+        <v>0.003782498359299934</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.01030295388411815</v>
+      </c>
       <c r="Y19" t="n">
         <v>-0.008029781025191239</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0214998951319958</v>
+        <v>0.02198142817525713</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.008481737619269505</v>
+        <v>-0.01342594853703794</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.008481737619269505</v>
+        <v>-0.01342594853703794</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.008481737619269505</v>
+        <v>-0.01342594853703794</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.008481737619269505</v>
+        <v>-0.01342594853703794</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.008481737619269505</v>
+        <v>-0.01342594853703794</v>
       </c>
     </row>
     <row r="20">
@@ -2230,7 +2294,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0003499617739984709</v>
+        <v>0.0007838696953547877</v>
       </c>
       <c r="D20" t="n">
         <v>0.0005019740360789613</v>
@@ -2241,76 +2305,80 @@
       <c r="F20" t="n">
         <v>0.009992013423680536</v>
       </c>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>-0.009732345509293817</v>
+      </c>
       <c r="H20" t="n">
         <v>-0.009456119130244764</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.001660611042424441</v>
+        <v>-0.001671870402874816</v>
       </c>
       <c r="J20" t="n">
-        <v>0.009604557184778961</v>
+        <v>0.009601334754257521</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.00213433602137344</v>
+        <v>0.0103243374049735</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.00213433602137344</v>
+        <v>0.0103243374049735</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.00213433602137344</v>
+        <v>0.0103243374049735</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.00213433602137344</v>
+        <v>0.0103243374049735</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.00213433602137344</v>
+        <v>0.0103243374049735</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.009824765864990632</v>
+        <v>0.0100331926253277</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.005953592110143684</v>
+        <v>0.01054108928564357</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.005953592110143684</v>
+        <v>0.01054108928564357</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.005953592110143684</v>
+        <v>0.01054108928564357</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.005953592110143684</v>
+        <v>0.01054108928564357</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01717415415896616</v>
+        <v>0.01738662578346503</v>
       </c>
       <c r="V20" t="n">
         <v>-0.002170281878811275</v>
       </c>
       <c r="W20" t="n">
-        <v>0.0301038802121552</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
+        <v>0.0301047676361907</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.005081143307245731</v>
+      </c>
       <c r="Y20" t="n">
         <v>0.001532535805301432</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.02063390396135616</v>
+        <v>0.02131576962063078</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.003561783502471339</v>
+        <v>-0.003248702721948109</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.003561783502471339</v>
+        <v>-0.003248702721948109</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.003561783502471339</v>
+        <v>-0.003248702721948109</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.003561783502471339</v>
+        <v>-0.003248702721948109</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.003561783502471339</v>
+        <v>-0.003248702721948109</v>
       </c>
     </row>
     <row r="21">
@@ -2321,7 +2389,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01257411640696465</v>
+        <v>0.01399742791989711</v>
       </c>
       <c r="D21" t="n">
         <v>-0.002844156401766256</v>
@@ -2332,76 +2400,80 @@
       <c r="F21" t="n">
         <v>0.006340258621610344</v>
       </c>
-      <c r="G21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>-0.004569477302779091</v>
+      </c>
       <c r="H21" t="n">
         <v>-0.003993071295722852</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.004373367726934708</v>
+        <v>-0.004386918799476751</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01412138295725707</v>
+        <v>0.01410789294306428</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01224087120963485</v>
+        <v>0.02154858815794352</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01224087120963485</v>
+        <v>0.02154858815794352</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01224087120963485</v>
+        <v>0.02154858815794352</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01224087120963485</v>
+        <v>0.02154858815794352</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01224087120963485</v>
+        <v>0.02154858815794352</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.001885488459419538</v>
+        <v>0.006471525570861022</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.006590680487627219</v>
+        <v>0.02085308089812324</v>
       </c>
       <c r="R21" t="n">
-        <v>0.006590680487627219</v>
+        <v>0.02085308089812324</v>
       </c>
       <c r="S21" t="n">
-        <v>0.006590680487627219</v>
+        <v>0.02085308089812324</v>
       </c>
       <c r="T21" t="n">
-        <v>0.006590680487627219</v>
+        <v>0.02085308089812324</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.02312515081300603</v>
+        <v>-0.02342196112887844</v>
       </c>
       <c r="V21" t="n">
         <v>-0.001741686021667441</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.01859445827977833</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
+        <v>-0.01859377965575118</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-0.007588736943549477</v>
+      </c>
       <c r="Y21" t="n">
         <v>0.01550031738801269</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.00943800056952002</v>
+        <v>-0.008740455325618212</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.007461213226448528</v>
+        <v>0.004611616984464679</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.007461213226448528</v>
+        <v>0.004611616984464679</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.007461213226448528</v>
+        <v>0.004611616984464679</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.007461213226448528</v>
+        <v>0.004611616984464679</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.007461213226448528</v>
+        <v>0.004611616984464679</v>
       </c>
     </row>
     <row r="22">
@@ -2412,7 +2484,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.001398023095920924</v>
+        <v>0.00110963150038526</v>
       </c>
       <c r="D22" t="n">
         <v>0.01360946550437862</v>
@@ -2423,76 +2495,80 @@
       <c r="F22" t="n">
         <v>0.0260947051077882</v>
       </c>
-      <c r="G22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>-0.02736654954266198</v>
+      </c>
       <c r="H22" t="n">
         <v>-0.02588649809145992</v>
       </c>
       <c r="I22" t="n">
-        <v>0.004774544734981788</v>
+        <v>0.004778792639151705</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01072912811170506</v>
+        <v>-0.01068308449557851</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0294369174974767</v>
+        <v>0.008775563583022542</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0294369174974767</v>
+        <v>0.008775563583022542</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0294369174974767</v>
+        <v>0.008775563583022542</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0294369174974767</v>
+        <v>0.008775563583022542</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.0294369174974767</v>
+        <v>0.008775563583022542</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.02828506999540279</v>
+        <v>0.02608767435550697</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.03239091057563642</v>
+        <v>0.01067152804286112</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.03239091057563642</v>
+        <v>0.01067152804286112</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.03239091057563642</v>
+        <v>0.01067152804286112</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.03239091057563642</v>
+        <v>0.01067152804286112</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.01272817711712708</v>
+        <v>-0.01259083442363338</v>
       </c>
       <c r="V22" t="n">
         <v>0.001729002789160111</v>
       </c>
       <c r="W22" t="n">
-        <v>0.01109358293974332</v>
-      </c>
-      <c r="X22" t="inlineStr"/>
+        <v>0.0110934075477363</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.001610687488427499</v>
+      </c>
       <c r="Y22" t="n">
         <v>-0.0008672117146884683</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.01176299279051971</v>
+        <v>0.01154686270187451</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.002367036094681444</v>
+        <v>-0.009095342379813694</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.002367036094681444</v>
+        <v>-0.009095342379813694</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.002367036094681444</v>
+        <v>-0.009095342379813694</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.002367036094681444</v>
+        <v>-0.009095342379813694</v>
       </c>
       <c r="AE22" t="n">
-        <v>-0.002367036094681444</v>
+        <v>-0.009095342379813694</v>
       </c>
     </row>
     <row r="23">
@@ -2507,7 +2583,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.003322228836889153</v>
+        <v>0.003176192479047699</v>
       </c>
       <c r="D23" t="n">
         <v>-0.003054536282181451</v>
@@ -2518,76 +2594,80 @@
       <c r="F23" t="n">
         <v>-0.002113285236531409</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>-0.0005470167578806702</v>
+      </c>
       <c r="H23" t="n">
         <v>0.001608360352334414</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.002057891986315679</v>
+        <v>-0.00207215201888608</v>
       </c>
       <c r="J23" t="n">
-        <v>0.008137746147571869</v>
+        <v>0.008104137123530929</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.02455186955807478</v>
+        <v>-0.02816863667874546</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.02455186955807478</v>
+        <v>-0.02816863667874546</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.02455186955807478</v>
+        <v>-0.02816863667874546</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.02455186955807478</v>
+        <v>-0.02816863667874546</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.02455186955807478</v>
+        <v>-0.02816863667874546</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.007858843706353747</v>
+        <v>-0.002442719233708769</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.01656429205457168</v>
+        <v>-0.02489197040367882</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.01656429205457168</v>
+        <v>-0.02489197040367882</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.01656429205457168</v>
+        <v>-0.02489197040367882</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.01656429205457168</v>
+        <v>-0.02489197040367882</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01668928559557142</v>
+        <v>0.01639495851179834</v>
       </c>
       <c r="V23" t="n">
         <v>0.01266801794672072</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.0003677154387086175</v>
-      </c>
-      <c r="X23" t="inlineStr"/>
+        <v>-0.0003672625106905004</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.002905544468221779</v>
+      </c>
       <c r="Y23" t="n">
         <v>-0.000955964678238587</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.01257662479106499</v>
+        <v>-0.01158756775950271</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.009730446629217864</v>
+        <v>-0.001188111023524441</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.009730446629217864</v>
+        <v>-0.001188111023524441</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.009730446629217864</v>
+        <v>-0.001188111023524441</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.009730446629217864</v>
+        <v>-0.001188111023524441</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.009730446629217864</v>
+        <v>-0.001188111023524441</v>
       </c>
     </row>
     <row r="24">
@@ -2598,7 +2678,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.008019725696789026</v>
+        <v>0.007828803001152119</v>
       </c>
       <c r="D24" t="n">
         <v>-0.002413117152524686</v>
@@ -2609,76 +2689,80 @@
       <c r="F24" t="n">
         <v>-0.00788874300354972</v>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>0.003774910422996416</v>
+      </c>
       <c r="H24" t="n">
         <v>0.006189226903569075</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.005227628945105157</v>
+        <v>-0.00523256852930274</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.01398229397545316</v>
+        <v>-0.01398648048997759</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.01254335877373435</v>
+        <v>-0.01940230608809224</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.01254335877373435</v>
+        <v>-0.01940230608809224</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.01254335877373435</v>
+        <v>-0.01940230608809224</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.01254335877373435</v>
+        <v>-0.01940230608809224</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.01254335877373435</v>
+        <v>-0.01940230608809224</v>
       </c>
       <c r="P24" t="n">
-        <v>0.001150324654012986</v>
+        <v>-0.007344094949763797</v>
       </c>
       <c r="Q24" t="n">
-        <v>-0.006825592497023699</v>
+        <v>-0.01716801054272042</v>
       </c>
       <c r="R24" t="n">
-        <v>-0.006825592497023699</v>
+        <v>-0.01716801054272042</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.006825592497023699</v>
+        <v>-0.01716801054272042</v>
       </c>
       <c r="T24" t="n">
-        <v>-0.006825592497023699</v>
+        <v>-0.01716801054272042</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01084377672175107</v>
+        <v>0.01065447047417882</v>
       </c>
       <c r="V24" t="n">
         <v>-3.570892942835717e-05</v>
       </c>
       <c r="W24" t="n">
-        <v>0.004753488958139557</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
+        <v>0.004752263326090533</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.008765418686616747</v>
+      </c>
       <c r="Y24" t="n">
         <v>-0.001973063886922556</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.01434947865397915</v>
+        <v>0.01439863142394526</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.003633725905349035</v>
+        <v>-0.009309115188364607</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.003633725905349035</v>
+        <v>-0.009309115188364607</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.003633725905349035</v>
+        <v>-0.009309115188364607</v>
       </c>
       <c r="AD24" t="n">
-        <v>-0.003633725905349035</v>
+        <v>-0.009309115188364607</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.003633725905349035</v>
+        <v>-0.009309115188364607</v>
       </c>
     </row>
     <row r="25">
@@ -2693,7 +2777,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01387886637915465</v>
+        <v>0.01396104372644175</v>
       </c>
       <c r="D25" t="n">
         <v>0.01544696836187873</v>
@@ -2704,76 +2788,80 @@
       <c r="F25" t="n">
         <v>-0.007183291199331647</v>
       </c>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>0.008841352385654096</v>
+      </c>
       <c r="H25" t="n">
         <v>0.004153979206159167</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01596665027066601</v>
+        <v>0.01597428342297133</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.004588136543453761</v>
+        <v>-0.004571371535522182</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01267302876292115</v>
+        <v>-0.02722523878500955</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.01267302876292115</v>
+        <v>-0.02722523878500955</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01267302876292115</v>
+        <v>-0.02722523878500955</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.01267302876292115</v>
+        <v>-0.02722523878500955</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.01267302876292115</v>
+        <v>-0.02722523878500955</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.0001919686156787446</v>
+        <v>-0.009256506898260275</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.006602131176085246</v>
+        <v>-0.02827177975487119</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.006602131176085246</v>
+        <v>-0.02827177975487119</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.006602131176085246</v>
+        <v>-0.02827177975487119</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.006602131176085246</v>
+        <v>-0.02827177975487119</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.01880703022428121</v>
+        <v>-0.01870264615610584</v>
       </c>
       <c r="V25" t="n">
         <v>0.002602811336112453</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02643814982552599</v>
-      </c>
-      <c r="X25" t="inlineStr"/>
+        <v>0.02643816220952649</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-0.01613175702927028</v>
+      </c>
       <c r="Y25" t="n">
         <v>-0.02327521043500841</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.02121263134450525</v>
+        <v>-0.02112415313296612</v>
       </c>
       <c r="AA25" t="n">
-        <v>-0.006378468831138752</v>
+        <v>0.01806757243470289</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.006378468831138752</v>
+        <v>0.01806757243470289</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.006378468831138752</v>
+        <v>0.01806757243470289</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.006378468831138752</v>
+        <v>0.01806757243470289</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.006378468831138752</v>
+        <v>0.01806757243470289</v>
       </c>
     </row>
     <row r="26">
@@ -2784,7 +2872,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01200709708828388</v>
+        <v>0.01197449817497992</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01184227429769097</v>
@@ -2795,76 +2883,80 @@
       <c r="F26" t="n">
         <v>0.0004917789316711572</v>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>-0.00133309800532392</v>
+      </c>
       <c r="H26" t="n">
         <v>-0.00049400325176013</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.01978361800734472</v>
+        <v>-0.01980482335219293</v>
       </c>
       <c r="J26" t="n">
-        <v>0.004115157099717275</v>
+        <v>0.004107294364079205</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01668199468327979</v>
+        <v>0.01532729274109171</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01668199468327979</v>
+        <v>0.01532729274109171</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01668199468327979</v>
+        <v>0.01532729274109171</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01668199468327979</v>
+        <v>0.01532729274109171</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01668199468327979</v>
+        <v>0.01532729274109171</v>
       </c>
       <c r="P26" t="n">
-        <v>0.003997408767896351</v>
+        <v>0.001857279818291192</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01143188061727522</v>
+        <v>0.01473275396531016</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01143188061727522</v>
+        <v>0.01473275396531016</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01143188061727522</v>
+        <v>0.01473275396531016</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01143188061727522</v>
+        <v>0.01473275396531016</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02221853589674143</v>
+        <v>0.02228610031544401</v>
       </c>
       <c r="V26" t="n">
         <v>-0.001655089314203573</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.004492423187696927</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
+        <v>-0.004490907635636305</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.01586973807478952</v>
+      </c>
       <c r="Y26" t="n">
         <v>-0.003762285462491418</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.001569658622786345</v>
+        <v>0.00171375050055002</v>
       </c>
       <c r="AA26" t="n">
-        <v>-0.002401025088041003</v>
+        <v>-0.01986811941872477</v>
       </c>
       <c r="AB26" t="n">
-        <v>-0.002401025088041003</v>
+        <v>-0.01986811941872477</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.002401025088041003</v>
+        <v>-0.01986811941872477</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.002401025088041003</v>
+        <v>-0.01986811941872477</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.002401025088041003</v>
+        <v>-0.01986811941872477</v>
       </c>
     </row>
     <row r="27">
@@ -2879,7 +2971,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.03463433034537321</v>
+        <v>-0.03153200890928035</v>
       </c>
       <c r="D27" t="n">
         <v>0.007680210739208429</v>
@@ -2890,76 +2982,80 @@
       <c r="F27" t="n">
         <v>0.01787902084316083</v>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>-0.0006116638324665532</v>
+      </c>
       <c r="H27" t="n">
         <v>-0.01845805648232226</v>
       </c>
       <c r="I27" t="n">
-        <v>0.003842946681717866</v>
+        <v>0.003829025625161024</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01362952328873275</v>
+        <v>0.01364289724358282</v>
       </c>
       <c r="K27" t="n">
-        <v>0.07321489483259579</v>
+        <v>0.05582094300083772</v>
       </c>
       <c r="L27" t="n">
-        <v>0.07321489483259579</v>
+        <v>0.05582094300083772</v>
       </c>
       <c r="M27" t="n">
-        <v>0.07321489483259579</v>
+        <v>0.05582094300083772</v>
       </c>
       <c r="N27" t="n">
-        <v>0.07321489483259579</v>
+        <v>0.05582094300083772</v>
       </c>
       <c r="O27" t="n">
-        <v>0.07321489483259579</v>
+        <v>0.05582094300083772</v>
       </c>
       <c r="P27" t="n">
-        <v>0.005473250234930008</v>
+        <v>0.01428704409148176</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0442492327139693</v>
+        <v>0.03211914358876574</v>
       </c>
       <c r="R27" t="n">
-        <v>0.0442492327139693</v>
+        <v>0.03211914358876574</v>
       </c>
       <c r="S27" t="n">
-        <v>0.0442492327139693</v>
+        <v>0.03211914358876574</v>
       </c>
       <c r="T27" t="n">
-        <v>0.0442492327139693</v>
+        <v>0.03211914358876574</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.01164161806566472</v>
+        <v>-0.008103192036127681</v>
       </c>
       <c r="V27" t="n">
         <v>-0.1841193820527753</v>
       </c>
       <c r="W27" t="n">
-        <v>0.9497295882931833</v>
-      </c>
-      <c r="X27" t="inlineStr"/>
+        <v>0.949730279205211</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.040118650148746</v>
+      </c>
       <c r="Y27" t="n">
         <v>-0.04329464889978595</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.005791393095655722</v>
+        <v>0.005989524431580977</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.134787675759507</v>
+        <v>-0.007409875016395</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.134787675759507</v>
+        <v>-0.007409875016395</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.134787675759507</v>
+        <v>-0.007409875016395</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.134787675759507</v>
+        <v>-0.007409875016395</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.134787675759507</v>
+        <v>-0.007409875016395</v>
       </c>
     </row>
     <row r="28">
@@ -2974,7 +3070,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.00807878029115121</v>
+        <v>-0.007892345499693818</v>
       </c>
       <c r="D28" t="n">
         <v>0.02252746592509864</v>
@@ -2985,76 +3081,80 @@
       <c r="F28" t="n">
         <v>-0.003174799422991976</v>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>0.0109455475738219</v>
+      </c>
       <c r="H28" t="n">
         <v>0.007168282174731287</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03420670274426811</v>
+        <v>0.03419940146397605</v>
       </c>
       <c r="J28" t="n">
-        <v>0.006058585548812657</v>
+        <v>0.006081635342796194</v>
       </c>
       <c r="K28" t="n">
-        <v>0.04333850822954032</v>
+        <v>0.02054402357376094</v>
       </c>
       <c r="L28" t="n">
-        <v>0.04333850822954032</v>
+        <v>0.02054402357376094</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04333850822954032</v>
+        <v>0.02054402357376094</v>
       </c>
       <c r="N28" t="n">
-        <v>0.04333850822954032</v>
+        <v>0.02054402357376094</v>
       </c>
       <c r="O28" t="n">
-        <v>0.04333850822954032</v>
+        <v>0.02054402357376094</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01419790472791619</v>
+        <v>-0.004264330826573233</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03277604742304189</v>
+        <v>0.008857963650318544</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03277604742304189</v>
+        <v>0.008857963650318544</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03277604742304189</v>
+        <v>0.008857963650318544</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03277604742304189</v>
+        <v>0.008857963650318544</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.01688419670736786</v>
+        <v>-0.01546282132251285</v>
       </c>
       <c r="V28" t="n">
         <v>-0.08338872314354892</v>
       </c>
       <c r="W28" t="n">
-        <v>0.2563587214863488</v>
-      </c>
-      <c r="X28" t="inlineStr"/>
+        <v>0.2563573402382936</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.003656216786248671</v>
+      </c>
       <c r="Y28" t="n">
         <v>0.01390965108438604</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.0200451400658056</v>
+        <v>0.01992460034898401</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.06801300800052031</v>
+        <v>0.02035956705438268</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.06801300800052031</v>
+        <v>0.02035956705438268</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.06801300800052031</v>
+        <v>0.02035956705438268</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.06801300800052031</v>
+        <v>0.02035956705438268</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.06801300800052031</v>
+        <v>0.02035956705438268</v>
       </c>
     </row>
     <row r="29">
@@ -3069,7 +3169,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.002028098865123955</v>
+        <v>0.002020439120817564</v>
       </c>
       <c r="D29" t="n">
         <v>0.01502535189701407</v>
@@ -3080,76 +3180,80 @@
       <c r="F29" t="n">
         <v>0.01262838981713559</v>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>-0.01280495724819829</v>
+      </c>
       <c r="H29" t="n">
         <v>-0.01454325302973012</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01104821372192855</v>
+        <v>0.01102954421718177</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.005605017689886177</v>
+        <v>-0.005568678041305336</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0280164026566561</v>
+        <v>0.0005681783267271329</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0280164026566561</v>
+        <v>0.0005681783267271329</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0280164026566561</v>
+        <v>0.0005681783267271329</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0280164026566561</v>
+        <v>0.0005681783267271329</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.0280164026566561</v>
+        <v>0.0005681783267271329</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.01464174951366998</v>
+        <v>0.01181340623253625</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.02281397390455896</v>
+        <v>0.006117314644692585</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.02281397390455896</v>
+        <v>0.006117314644692585</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.02281397390455896</v>
+        <v>0.006117314644692585</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.02281397390455896</v>
+        <v>0.006117314644692585</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01248322609932904</v>
+        <v>0.01150882644435306</v>
       </c>
       <c r="V29" t="n">
         <v>0.03657570155902806</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1006793603471744</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
+        <v>0.1006775081231003</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-0.02338743319149732</v>
+      </c>
       <c r="Y29" t="n">
         <v>-0.01958309684732387</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.008807232832289314</v>
+        <v>0.009446295929851835</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.02274347793373912</v>
+        <v>0.009887294987491798</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.02274347793373912</v>
+        <v>0.009887294987491798</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.02274347793373912</v>
+        <v>0.009887294987491798</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.02274347793373912</v>
+        <v>0.009887294987491798</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.02274347793373912</v>
+        <v>0.009887294987491798</v>
       </c>
     </row>
     <row r="30">
@@ -3164,7 +3268,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.02330226026009041</v>
+        <v>-0.02353269770930791</v>
       </c>
       <c r="D30" t="n">
         <v>-0.03485036933001476</v>
@@ -3175,76 +3279,80 @@
       <c r="F30" t="n">
         <v>0.0141953550638142</v>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>-0.01389157687566307</v>
+      </c>
       <c r="H30" t="n">
         <v>-0.01237835387113415</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.04077448972697958</v>
+        <v>-0.04076833238273329</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.01417880900765334</v>
+        <v>-0.01422840635611331</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0243087600123504</v>
+        <v>-0.005331190485247618</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0243087600123504</v>
+        <v>-0.005331190485247618</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0243087600123504</v>
+        <v>-0.005331190485247618</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.0243087600123504</v>
+        <v>-0.005331190485247618</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.0243087600123504</v>
+        <v>-0.005331190485247618</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.0176230524809221</v>
+        <v>0.01301032640841305</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.02116887223875489</v>
+        <v>-0.003665142290605692</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.02116887223875489</v>
+        <v>-0.003665142290605692</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.02116887223875489</v>
+        <v>-0.003665142290605692</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.02116887223875489</v>
+        <v>-0.003665142290605692</v>
       </c>
       <c r="U30" t="n">
-        <v>-0.04112917940516717</v>
+        <v>-0.04127533278701331</v>
       </c>
       <c r="V30" t="n">
         <v>0.01399917415996696</v>
       </c>
       <c r="W30" t="n">
-        <v>0.02413683187747327</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
+        <v>0.02413686893347475</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-0.01600457689618308</v>
+      </c>
       <c r="Y30" t="n">
         <v>0.01072735041309402</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.01814433835777353</v>
+        <v>-0.01757945081517803</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.002195674839826993</v>
+        <v>0.01578576130343045</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.002195674839826993</v>
+        <v>0.01578576130343045</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.002195674839826993</v>
+        <v>0.01578576130343045</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.002195674839826993</v>
+        <v>0.01578576130343045</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.002195674839826993</v>
+        <v>0.01578576130343045</v>
       </c>
     </row>
     <row r="31">
@@ -3259,7 +3367,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5374255963130238</v>
+        <v>0.4757106445644257</v>
       </c>
       <c r="D31" t="n">
         <v>-0.02383454149738166</v>
@@ -3270,76 +3378,80 @@
       <c r="F31" t="n">
         <v>-0.9975408914536354</v>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="n">
+        <v>0.9898947319157891</v>
+      </c>
       <c r="H31" t="n">
         <v>0.9854497157379886</v>
       </c>
       <c r="I31" t="n">
-        <v>0.365942300685692</v>
+        <v>0.3660794934271797</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.4052080014845195</v>
+        <v>-0.4051800486554233</v>
       </c>
       <c r="K31" t="n">
-        <v>0.6165901630956064</v>
+        <v>-0.6255938181757525</v>
       </c>
       <c r="L31" t="n">
-        <v>0.6165901630956064</v>
+        <v>-0.6255938181757525</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6165901630956064</v>
+        <v>-0.6255938181757525</v>
       </c>
       <c r="N31" t="n">
-        <v>0.6165901630956064</v>
+        <v>-0.6255938181757525</v>
       </c>
       <c r="O31" t="n">
-        <v>0.6165901630956064</v>
+        <v>-0.6255938181757525</v>
       </c>
       <c r="P31" t="n">
-        <v>0.9650339802333592</v>
+        <v>-0.9958489368899573</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.8209333713653347</v>
+        <v>-0.7073182540527301</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8209333713653347</v>
+        <v>-0.7073182540527301</v>
       </c>
       <c r="S31" t="n">
-        <v>0.8209333713653347</v>
+        <v>-0.7073182540527301</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8209333713653347</v>
+        <v>-0.7073182540527301</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.142993099927724</v>
+        <v>-0.1432500592980024</v>
       </c>
       <c r="V31" t="n">
         <v>0.001723597796943912</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.01234754766190191</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
+        <v>-0.01234547166181887</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4494396560895861</v>
+      </c>
       <c r="Y31" t="n">
         <v>-0.003053551322142053</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.4953866655754666</v>
+        <v>-0.5044576593783062</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.09176616011864638</v>
+        <v>0.5792622527384901</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.09176616011864638</v>
+        <v>0.5792622527384901</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.09176616011864638</v>
+        <v>0.5792622527384901</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.09176616011864638</v>
+        <v>0.5792622527384901</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.09176616011864638</v>
+        <v>0.5792622527384901</v>
       </c>
     </row>
     <row r="32">
@@ -3354,7 +3466,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.02046353640254145</v>
+        <v>0.01583285976931439</v>
       </c>
       <c r="D32" t="n">
         <v>-0.003733192661327706</v>
@@ -3365,76 +3477,80 @@
       <c r="F32" t="n">
         <v>-0.06987112983484518</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0.07251255986050238</v>
+      </c>
       <c r="H32" t="n">
         <v>0.06837807307112291</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06843518836940753</v>
+        <v>0.06845936577837462</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.1306131417382252</v>
+        <v>-0.1306327551849899</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05761408569656342</v>
+        <v>-0.03688720947548838</v>
       </c>
       <c r="L32" t="n">
-        <v>0.05761408569656342</v>
+        <v>-0.03688720947548838</v>
       </c>
       <c r="M32" t="n">
-        <v>0.05761408569656342</v>
+        <v>-0.03688720947548838</v>
       </c>
       <c r="N32" t="n">
-        <v>0.05761408569656342</v>
+        <v>-0.03688720947548838</v>
       </c>
       <c r="O32" t="n">
-        <v>0.05761408569656342</v>
+        <v>-0.03688720947548838</v>
       </c>
       <c r="P32" t="n">
-        <v>0.06947815794712631</v>
+        <v>-0.07061077952843117</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.0661907425516297</v>
+        <v>-0.04584372615374904</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0661907425516297</v>
+        <v>-0.04584372615374904</v>
       </c>
       <c r="S32" t="n">
-        <v>0.0661907425516297</v>
+        <v>-0.04584372615374904</v>
       </c>
       <c r="T32" t="n">
-        <v>0.0661907425516297</v>
+        <v>-0.04584372615374904</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.02766201105848044</v>
+        <v>-0.02771626968465078</v>
       </c>
       <c r="V32" t="n">
         <v>-0.01631007569240303</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.007072616154904645</v>
-      </c>
-      <c r="X32" t="inlineStr"/>
+        <v>-0.007074312186972486</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-0.03292790666111627</v>
+      </c>
       <c r="Y32" t="n">
         <v>-0.001187211215488448</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.06943890623355624</v>
+        <v>-0.0684153300966132</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.01165758325030333</v>
+        <v>0.05292574896502995</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.01165758325030333</v>
+        <v>0.05292574896502995</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.01165758325030333</v>
+        <v>0.05292574896502995</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.01165758325030333</v>
+        <v>0.05292574896502995</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.01165758325030333</v>
+        <v>0.05292574896502995</v>
       </c>
     </row>
     <row r="33">
@@ -3449,7 +3565,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01082758305710332</v>
+        <v>0.01430468591618743</v>
       </c>
       <c r="D33" t="n">
         <v>0.01683506400140256</v>
@@ -3460,76 +3576,80 @@
       <c r="F33" t="n">
         <v>0.025939100045564</v>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>-0.0249475727419029</v>
+      </c>
       <c r="H33" t="n">
         <v>-0.02577073389482935</v>
       </c>
       <c r="I33" t="n">
-        <v>0.006503432900137314</v>
+        <v>0.006500830052033202</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.03189809494704371</v>
+        <v>-0.03196394471516143</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0006879123155164925</v>
+        <v>0.03243717614548704</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0006879123155164925</v>
+        <v>0.03243717614548704</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0006879123155164925</v>
+        <v>0.03243717614548704</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0006879123155164925</v>
+        <v>0.03243717614548704</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.0006879123155164925</v>
+        <v>0.03243717614548704</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.01797188049487522</v>
+        <v>0.02678802577552103</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.007681665139266605</v>
+        <v>0.03279534083181363</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.007681665139266605</v>
+        <v>0.03279534083181363</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.007681665139266605</v>
+        <v>0.03279534083181363</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.007681665139266605</v>
+        <v>0.03279534083181363</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01249966206798648</v>
+        <v>0.01262299586491983</v>
       </c>
       <c r="V33" t="n">
         <v>-0.01059188365567535</v>
       </c>
       <c r="W33" t="n">
-        <v>0.003509106380364255</v>
-      </c>
-      <c r="X33" t="inlineStr"/>
+        <v>0.003509849420393976</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.001727473413098936</v>
+      </c>
       <c r="Y33" t="n">
         <v>0.00216421026256841</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.0150843849873754</v>
+        <v>0.01526321619452865</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.03786570209062808</v>
+        <v>0.01239426423977057</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.03786570209062808</v>
+        <v>0.01239426423977057</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.03786570209062808</v>
+        <v>0.01239426423977057</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.03786570209062808</v>
+        <v>0.01239426423977057</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.03786570209062808</v>
+        <v>0.01239426423977057</v>
       </c>
     </row>
     <row r="34">
@@ -3544,7 +3664,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.01386648017065921</v>
+        <v>-0.01288302061132082</v>
       </c>
       <c r="D34" t="n">
         <v>-0.01617811696712467</v>
@@ -3555,76 +3675,80 @@
       <c r="F34" t="n">
         <v>0.01770368960414758</v>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="n">
+        <v>-0.01814483170179327</v>
+      </c>
       <c r="H34" t="n">
         <v>-0.01584592584983703</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.02008845286753811</v>
+        <v>-0.02008201165128046</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.004797789992202181</v>
+        <v>-0.004789396760656566</v>
       </c>
       <c r="K34" t="n">
-        <v>0.5119349165093966</v>
+        <v>0.6715322089732882</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5119349165093966</v>
+        <v>0.6715322089732882</v>
       </c>
       <c r="M34" t="n">
-        <v>0.5119349165093966</v>
+        <v>0.6715322089732882</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5119349165093966</v>
+        <v>0.6715322089732882</v>
       </c>
       <c r="O34" t="n">
-        <v>0.5119349165093966</v>
+        <v>0.6715322089732882</v>
       </c>
       <c r="P34" t="n">
-        <v>0.1826826306353052</v>
+        <v>0.05527399113895964</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.3729930161677206</v>
+        <v>0.6417260921650436</v>
       </c>
       <c r="R34" t="n">
-        <v>0.3729930161677206</v>
+        <v>0.6417260921650436</v>
       </c>
       <c r="S34" t="n">
-        <v>0.3729930161677206</v>
+        <v>0.6417260921650436</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3729930161677206</v>
+        <v>0.6417260921650436</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01113987068559483</v>
+        <v>-0.01133140960525638</v>
       </c>
       <c r="V34" t="n">
         <v>0.004822118496884739</v>
       </c>
       <c r="W34" t="n">
-        <v>0.01361480656059226</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
+        <v>0.01361586976063479</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.006001781904071276</v>
+      </c>
       <c r="Y34" t="n">
         <v>0.01379536653581466</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.01319659060786362</v>
+        <v>0.0135289651811586</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.04452701074108043</v>
+        <v>-0.1377166684206667</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.04452701074108043</v>
+        <v>-0.1377166684206667</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.04452701074108043</v>
+        <v>-0.1377166684206667</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.04452701074108043</v>
+        <v>-0.1377166684206667</v>
       </c>
       <c r="AE34" t="n">
-        <v>-0.04452701074108043</v>
+        <v>-0.1377166684206667</v>
       </c>
     </row>
     <row r="35">
@@ -3639,7 +3763,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.007545579373823174</v>
+        <v>0.004954375782175031</v>
       </c>
       <c r="D35" t="n">
         <v>0.01409742545989702</v>
@@ -3650,76 +3774,80 @@
       <c r="F35" t="n">
         <v>-0.02822631559305262</v>
       </c>
-      <c r="G35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>0.02848134190725367</v>
+      </c>
       <c r="H35" t="n">
         <v>0.02721119216044768</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02347149924285996</v>
+        <v>0.02346493629859745</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.004340543701122207</v>
+        <v>-0.004380310119517472</v>
       </c>
       <c r="K35" t="n">
-        <v>0.006262999930519996</v>
+        <v>-0.02484977945799118</v>
       </c>
       <c r="L35" t="n">
-        <v>0.006262999930519996</v>
+        <v>-0.02484977945799118</v>
       </c>
       <c r="M35" t="n">
-        <v>0.006262999930519996</v>
+        <v>-0.02484977945799118</v>
       </c>
       <c r="N35" t="n">
-        <v>0.006262999930519996</v>
+        <v>-0.02484977945799118</v>
       </c>
       <c r="O35" t="n">
-        <v>0.006262999930519996</v>
+        <v>-0.02484977945799118</v>
       </c>
       <c r="P35" t="n">
-        <v>0.02487107446684297</v>
+        <v>-0.0290637124905485</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01569612456384498</v>
+        <v>-0.02613500024540001</v>
       </c>
       <c r="R35" t="n">
-        <v>0.01569612456384498</v>
+        <v>-0.02613500024540001</v>
       </c>
       <c r="S35" t="n">
-        <v>0.01569612456384498</v>
+        <v>-0.02613500024540001</v>
       </c>
       <c r="T35" t="n">
-        <v>0.01569612456384498</v>
+        <v>-0.02613500024540001</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.03494683051787321</v>
+        <v>-0.03509578757983149</v>
       </c>
       <c r="V35" t="n">
         <v>0.003658155026326201</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.02402339692893588</v>
-      </c>
-      <c r="X35" t="inlineStr"/>
+        <v>-0.02402346192093847</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-0.02261046138441846</v>
+      </c>
       <c r="Y35" t="n">
         <v>-0.004857837122313485</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.003405448552217942</v>
+        <v>-0.003274314178972567</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.000244448649777946</v>
+        <v>0.0273733952069358</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.000244448649777946</v>
+        <v>0.0273733952069358</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.000244448649777946</v>
+        <v>0.0273733952069358</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.000244448649777946</v>
+        <v>0.0273733952069358</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.000244448649777946</v>
+        <v>0.0273733952069358</v>
       </c>
     </row>
     <row r="36">
@@ -3734,7 +3862,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02224587055383482</v>
+        <v>0.02216737730269509</v>
       </c>
       <c r="D36" t="n">
         <v>-0.01006508315460332</v>
@@ -3745,76 +3873,80 @@
       <c r="F36" t="n">
         <v>-0.009956564750262589</v>
       </c>
-      <c r="G36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>0.0110099674163987</v>
+      </c>
       <c r="H36" t="n">
         <v>0.007956348126253922</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01034360057374402</v>
+        <v>-0.0103476825899073</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0009156962782101742</v>
+        <v>0.0009108187101596607</v>
       </c>
       <c r="K36" t="n">
-        <v>0.05805643115425724</v>
+        <v>0.06075828665433146</v>
       </c>
       <c r="L36" t="n">
-        <v>0.05805643115425724</v>
+        <v>0.06075828665433146</v>
       </c>
       <c r="M36" t="n">
-        <v>0.05805643115425724</v>
+        <v>0.06075828665433146</v>
       </c>
       <c r="N36" t="n">
-        <v>0.05805643115425724</v>
+        <v>0.06075828665433146</v>
       </c>
       <c r="O36" t="n">
-        <v>0.05805643115425724</v>
+        <v>0.06075828665433146</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02881492156859685</v>
+        <v>-0.006074513330980532</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.04872601087704043</v>
+        <v>0.05875978055839121</v>
       </c>
       <c r="R36" t="n">
-        <v>0.04872601087704043</v>
+        <v>0.05875978055839121</v>
       </c>
       <c r="S36" t="n">
-        <v>0.04872601087704043</v>
+        <v>0.05875978055839121</v>
       </c>
       <c r="T36" t="n">
-        <v>0.04872601087704043</v>
+        <v>0.05875978055839121</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01174591621383665</v>
+        <v>0.01127888781115551</v>
       </c>
       <c r="V36" t="n">
         <v>0.02569418617976744</v>
       </c>
       <c r="W36" t="n">
-        <v>0.007017252856690113</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
+        <v>0.007017564376702574</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-0.000464173650566946</v>
+      </c>
       <c r="Y36" t="n">
         <v>-0.02036712148668486</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.004443437745737509</v>
+        <v>-0.004251568682062747</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.07477837047913481</v>
+        <v>0.05323442555337702</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.07477837047913481</v>
+        <v>0.05323442555337702</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.07477837047913481</v>
+        <v>0.05323442555337702</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.07477837047913481</v>
+        <v>0.05323442555337702</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.07477837047913481</v>
+        <v>0.05323442555337702</v>
       </c>
     </row>
     <row r="37">
@@ -3829,7 +3961,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.0101329151253166</v>
+        <v>-0.01051132285245291</v>
       </c>
       <c r="D37" t="n">
         <v>0.01336814357472574</v>
@@ -3840,76 +3972,80 @@
       <c r="F37" t="n">
         <v>-0.003308617860344714</v>
       </c>
-      <c r="G37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>0.005100054828002192</v>
+      </c>
       <c r="H37" t="n">
         <v>0.003510166700406667</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01289772070790883</v>
+        <v>0.0129031050601242</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.007771594692293104</v>
+        <v>-0.007791571862435695</v>
       </c>
       <c r="K37" t="n">
-        <v>0.003514345964573838</v>
+        <v>-0.004973702502948099</v>
       </c>
       <c r="L37" t="n">
-        <v>0.003514345964573838</v>
+        <v>-0.004973702502948099</v>
       </c>
       <c r="M37" t="n">
-        <v>0.003514345964573838</v>
+        <v>-0.004973702502948099</v>
       </c>
       <c r="N37" t="n">
-        <v>0.003514345964573838</v>
+        <v>-0.004973702502948099</v>
       </c>
       <c r="O37" t="n">
-        <v>0.003514345964573838</v>
+        <v>-0.004973702502948099</v>
       </c>
       <c r="P37" t="n">
-        <v>0.002265536154621446</v>
+        <v>-0.003682448403297936</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.002511761188470447</v>
+        <v>-0.00710208575608343</v>
       </c>
       <c r="R37" t="n">
-        <v>0.002511761188470447</v>
+        <v>-0.00710208575608343</v>
       </c>
       <c r="S37" t="n">
-        <v>0.002511761188470447</v>
+        <v>-0.00710208575608343</v>
       </c>
       <c r="T37" t="n">
-        <v>0.002511761188470447</v>
+        <v>-0.00710208575608343</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01402314430492577</v>
+        <v>0.01405121365004854</v>
       </c>
       <c r="V37" t="n">
         <v>-0.01300854532034181</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.005908896716355868</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
+        <v>-0.00590775278031011</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-0.0003194971327798853</v>
+      </c>
       <c r="Y37" t="n">
         <v>0.002897012275880491</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.01176801071072043</v>
+        <v>-0.01150167617206705</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.01272462156498486</v>
+        <v>0.003911909724476388</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.01272462156498486</v>
+        <v>0.003911909724476388</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.01272462156498486</v>
+        <v>0.003911909724476388</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.01272462156498486</v>
+        <v>0.003911909724476388</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.01272462156498486</v>
+        <v>0.003911909724476388</v>
       </c>
     </row>
     <row r="38">
@@ -3924,7 +4060,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.02292460555698422</v>
+        <v>-0.02358830119953204</v>
       </c>
       <c r="D38" t="n">
         <v>-0.02239686339187453</v>
@@ -3935,76 +4071,80 @@
       <c r="F38" t="n">
         <v>0.0002890917235636688</v>
       </c>
-      <c r="G38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>0.001985118703404748</v>
+      </c>
       <c r="H38" t="n">
         <v>0.001681608451264338</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.01369893827595753</v>
+        <v>-0.01373081334923253</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.00241773773288736</v>
+        <v>-0.002396530132405027</v>
       </c>
       <c r="K38" t="n">
-        <v>0.05729091205163647</v>
+        <v>0.06483580953743237</v>
       </c>
       <c r="L38" t="n">
-        <v>0.05729091205163647</v>
+        <v>0.06483580953743237</v>
       </c>
       <c r="M38" t="n">
-        <v>0.05729091205163647</v>
+        <v>0.06483580953743237</v>
       </c>
       <c r="N38" t="n">
-        <v>0.05729091205163647</v>
+        <v>0.06483580953743237</v>
       </c>
       <c r="O38" t="n">
-        <v>0.05729091205163647</v>
+        <v>0.06483580953743237</v>
       </c>
       <c r="P38" t="n">
-        <v>0.02000435907217436</v>
+        <v>0.003040181305607252</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04181910397676415</v>
+        <v>0.0574650929226037</v>
       </c>
       <c r="R38" t="n">
-        <v>0.04181910397676415</v>
+        <v>0.0574650929226037</v>
       </c>
       <c r="S38" t="n">
-        <v>0.04181910397676415</v>
+        <v>0.0574650929226037</v>
       </c>
       <c r="T38" t="n">
-        <v>0.04181910397676415</v>
+        <v>0.0574650929226037</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.005467225850689033</v>
+        <v>-0.004917603172704127</v>
       </c>
       <c r="V38" t="n">
         <v>-0.03043000393720015</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0180216425768657</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
+        <v>0.0180208800488352</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-0.002085847475433898</v>
+      </c>
       <c r="Y38" t="n">
         <v>0.01105403852216154</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.008361703246468127</v>
+        <v>-0.008671132474845297</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.04662895972115839</v>
+        <v>0.009911866860474674</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.04662895972115839</v>
+        <v>0.009911866860474674</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.04662895972115839</v>
+        <v>0.009911866860474674</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.04662895972115839</v>
+        <v>0.009911866860474674</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.04662895972115839</v>
+        <v>0.009911866860474674</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
@@ -730,190 +730,182 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Oil retention [%]</t>
+          <t>Oil recovery [%]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.08546984473079378</v>
+        <v>0.2834565124902604</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1118589970183599</v>
+        <v>0.3894885155795406</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02443552619342104</v>
+        <v>-0.02443374212934968</v>
       </c>
       <c r="G4" t="n">
-        <v>0.07435667663826705</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1715037139641485</v>
-      </c>
+        <v>-0.2345208942448357</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.03714919780596791</v>
+        <v>-0.07538483687139347</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3419594532826667</v>
+        <v>-0.2468955881667688</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3110417136576685</v>
+        <v>-0.2402624595944984</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3110417136576685</v>
+        <v>-0.2402624595944984</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3110417136576685</v>
+        <v>-0.2402624595944984</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3110417136576685</v>
+        <v>-0.2402624595944984</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3110417136576685</v>
+        <v>-0.2402624595944984</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001713408548536342</v>
+        <v>-0.06137587954303517</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2109046887241875</v>
+        <v>-0.03218478608739143</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2109046887241875</v>
+        <v>-0.03218478608739143</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2109046887241875</v>
+        <v>-0.03218478608739143</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2109046887241875</v>
+        <v>-0.03218478608739143</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.09208201846728072</v>
+        <v>0.3082922290036891</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.7101919715436787</v>
+        <v>0.9952059361602373</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02521316462452658</v>
+        <v>0.01989645986785839</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2181738386789535</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.9987155877246233</v>
-      </c>
+        <v>-0.5881654837506193</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>0.1574448547777942</v>
+        <v>-0.3712271450570858</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1156969616838785</v>
+        <v>-0.1153303294132132</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1156969616838785</v>
+        <v>-0.1153303294132132</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.1156969616838785</v>
+        <v>-0.1153303294132132</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1156969616838785</v>
+        <v>-0.1153303294132132</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1156969616838785</v>
+        <v>-0.1153303294132132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Bagasse oil extraction efficiency [%]</t>
+          <t>Saccharification oil recovery [%]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1101718471588739</v>
+        <v>0.02119503329580133</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1381237087249483</v>
+        <v>0.002624473640978945</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0102517974980719</v>
+        <v>-0.01025176773807071</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07731146690045866</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.007981209151248366</v>
-      </c>
+        <v>0.01116659545466382</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.02127766549110662</v>
+        <v>0.004226381449055257</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02695158195745339</v>
+        <v>-0.004895228216626034</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1679039798361592</v>
+        <v>-0.02002169398486776</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.1679039798361592</v>
+        <v>-0.02002169398486776</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.1679039798361592</v>
+        <v>-0.02002169398486776</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1679039798361592</v>
+        <v>-0.02002169398486776</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1679039798361592</v>
+        <v>-0.02002169398486776</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01913599478143979</v>
+        <v>-0.01026182306647292</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.05998361203134447</v>
+        <v>-0.02347253335490133</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.05998361203134447</v>
+        <v>-0.02347253335490133</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.05998361203134447</v>
+        <v>-0.02347253335490133</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.05998361203134447</v>
+        <v>-0.02347253335490133</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1089390150135606</v>
+        <v>-0.008724218748968749</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6612281496491259</v>
+        <v>-0.01185721151428846</v>
       </c>
       <c r="W5" t="n">
-        <v>0.006746878445875137</v>
+        <v>0.00600627604825104</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2366303672252147</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>-0.01187702063508082</v>
-      </c>
+        <v>0.00240839673633587</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>-0.118993699543748</v>
+        <v>-0.0005149685965987438</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.09052383818095353</v>
+        <v>0.01731752776470111</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.09052383818095353</v>
+        <v>0.01731752776470111</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.09052383818095353</v>
+        <v>0.01731752776470111</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.09052383818095353</v>
+        <v>0.01731752776470111</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.09052383818095353</v>
+        <v>0.01731752776470111</v>
       </c>
     </row>
     <row r="6">
@@ -924,91 +916,87 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.19247425077097</v>
+        <v>0.1613553322782133</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006030796369231854</v>
+        <v>0.0009811942472477697</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007289800227592008</v>
+        <v>0.00728951126758045</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02687491653099666</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.01109533369181335</v>
-      </c>
+        <v>-0.01959801044792042</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4565827445993098</v>
+        <v>-0.4557365899094635</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1846455281241074</v>
+        <v>0.1382931095558048</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01393849054153962</v>
+        <v>0.01157844094313764</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01393849054153962</v>
+        <v>0.01157844094313764</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01393849054153962</v>
+        <v>0.01157844094313764</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01393849054153962</v>
+        <v>0.01157844094313764</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01393849054153962</v>
+        <v>0.01157844094313764</v>
       </c>
       <c r="P6" t="n">
-        <v>0.009627081121083243</v>
+        <v>0.008059443874377755</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03118347878333915</v>
+        <v>0.02006580829063233</v>
       </c>
       <c r="R6" t="n">
-        <v>0.03118347878333915</v>
+        <v>0.02006580829063233</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03118347878333915</v>
+        <v>0.02006580829063233</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03118347878333915</v>
+        <v>0.02006580829063233</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04299077202363088</v>
+        <v>0.03923907987356318</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01792785028511401</v>
+        <v>-0.001128343917133757</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01985794389831775</v>
+        <v>-0.02266518321060733</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01725022024200881</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>-0.001613903488556139</v>
-      </c>
+        <v>0.03455806563832262</v>
+      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>-0.2176614583384583</v>
+        <v>-0.1685632107105284</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.02731910595676423</v>
+        <v>-0.02967472928298917</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.02731910595676423</v>
+        <v>-0.02967472928298917</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02731910595676423</v>
+        <v>-0.02967472928298917</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.02731910595676423</v>
+        <v>-0.02967472928298917</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.02731910595676423</v>
+        <v>-0.02967472928298917</v>
       </c>
     </row>
     <row r="7">
@@ -1019,91 +1007,87 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.08712208591688343</v>
+        <v>0.06501364301654572</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.006146545205861807</v>
+        <v>-0.009482488795299549</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.009730558085222323</v>
+        <v>-0.009730009733200387</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003019377816775113</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.01315844606233784</v>
-      </c>
+        <v>0.01044245984169839</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.2295397733415909</v>
+        <v>-0.2297506383100255</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08294711976897641</v>
+        <v>0.05819927960123927</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03195309555012382</v>
+        <v>0.0157644451745778</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03195309555012382</v>
+        <v>0.0157644451745778</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03195309555012382</v>
+        <v>0.0157644451745778</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03195309555012382</v>
+        <v>0.0157644451745778</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03195309555012382</v>
+        <v>0.0157644451745778</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.003064767386590695</v>
+        <v>-0.003506625548265022</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02547793445911738</v>
+        <v>0.006797821711912867</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02547793445911738</v>
+        <v>0.006797821711912867</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02547793445911738</v>
+        <v>0.006797821711912867</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02547793445911738</v>
+        <v>0.006797821711912867</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04160283958411358</v>
+        <v>0.02655735063029402</v>
       </c>
       <c r="V7" t="n">
-        <v>0.007837629049505161</v>
+        <v>-0.01135713155828526</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02133390459735618</v>
+        <v>0.02133579042143161</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001817869704714788</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>-0.01070522126020885</v>
-      </c>
+        <v>0.01345846738633869</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>-0.1223042394201696</v>
+        <v>-0.08069267381970695</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.02435419105416764</v>
+        <v>-0.01213107898124316</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.02435419105416764</v>
+        <v>-0.01213107898124316</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.02435419105416764</v>
+        <v>-0.01213107898124316</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.02435419105416764</v>
+        <v>-0.01213107898124316</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.02435419105416764</v>
+        <v>-0.01213107898124316</v>
       </c>
     </row>
     <row r="8">
@@ -1114,91 +1098,87 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2451303384132135</v>
+        <v>0.2166247924089917</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.001474990810999632</v>
+        <v>-0.00270772676430907</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001713386852535474</v>
+        <v>0.001711909412476376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.023379075047163</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.001938281933531277</v>
-      </c>
+        <v>0.01247868654714746</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.7780141213605647</v>
+        <v>0.7784168697926748</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.2802395478367053</v>
+        <v>-0.1980987183908778</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0343263076130523</v>
+        <v>-0.008042129985685199</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0343263076130523</v>
+        <v>-0.008042129985685199</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0343263076130523</v>
+        <v>-0.008042129985685199</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0343263076130523</v>
+        <v>-0.008042129985685199</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.0343263076130523</v>
+        <v>-0.008042129985685199</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.006788758351550334</v>
+        <v>-0.003074250458970018</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.04354736910189476</v>
+        <v>-0.01130260538010422</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.04354736910189476</v>
+        <v>-0.01130260538010422</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.04354736910189476</v>
+        <v>-0.01130260538010422</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.04354736910189476</v>
+        <v>-0.01130260538010422</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01565382206615288</v>
+        <v>0.01585472194618888</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.002892397075695883</v>
+        <v>0.002316572156662886</v>
       </c>
       <c r="W8" t="n">
-        <v>0.00197623351904934</v>
+        <v>0.006062264114490565</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.03422270479290819</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.003222578048903121</v>
-      </c>
+        <v>-0.02505022708200908</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>0.3294213218168529</v>
+        <v>0.2559802422392097</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.04740876055235041</v>
+        <v>0.0213227826129113</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.04740876055235041</v>
+        <v>0.0213227826129113</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.04740876055235041</v>
+        <v>0.0213227826129113</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.04740876055235041</v>
+        <v>0.0213227826129113</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.04740876055235041</v>
+        <v>0.0213227826129113</v>
       </c>
     </row>
     <row r="9">
@@ -1213,91 +1193,87 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4735267825250712</v>
+        <v>0.481105576172223</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003187948735517949</v>
+        <v>-0.001798060391922415</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.00133313899732556</v>
+        <v>-0.001332931349317254</v>
       </c>
       <c r="G9" t="n">
-        <v>8.10189152407566e-05</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.0002985925559437022</v>
-      </c>
+        <v>0.004988680615547224</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.01288594371543775</v>
+        <v>0.01296407197456288</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.008655577278581007</v>
+        <v>-0.007177240950152043</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01647475630699025</v>
+        <v>-0.01302349290493971</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01647475630699025</v>
+        <v>-0.01302349290493971</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01647475630699025</v>
+        <v>-0.01302349290493971</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01647475630699025</v>
+        <v>-0.01302349290493971</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.01647475630699025</v>
+        <v>-0.01302349290493971</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.002069569234782769</v>
+        <v>-0.001878288363131534</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01424442162577686</v>
+        <v>-0.01410588027623521</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01424442162577686</v>
+        <v>-0.01410588027623521</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01424442162577686</v>
+        <v>-0.01410588027623521</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01424442162577686</v>
+        <v>-0.01410588027623521</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.5999558623662344</v>
+        <v>-0.581403376248135</v>
       </c>
       <c r="V9" t="n">
-        <v>0.003348017701920707</v>
+        <v>-0.003613349904533996</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0130866149234646</v>
+        <v>0.01231673991666959</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.006821283440851336</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>-0.002565424230616969</v>
-      </c>
+        <v>-0.008380975631239025</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>-0.001608453472338139</v>
+        <v>0.002151539222061569</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.003979847391193895</v>
+        <v>0.01663227839329113</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.003979847391193895</v>
+        <v>0.01663227839329113</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.003979847391193895</v>
+        <v>0.01663227839329113</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.003979847391193895</v>
+        <v>0.01663227839329113</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.003979847391193895</v>
+        <v>0.01663227839329113</v>
       </c>
     </row>
     <row r="10">
@@ -1312,91 +1288,87 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5229085033803401</v>
+        <v>0.5243734755349391</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02962458214498328</v>
+        <v>0.03168269953930797</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03040801312032052</v>
+        <v>-0.03040799027231961</v>
       </c>
       <c r="G10" t="n">
-        <v>0.029640275169611</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0317513726620549</v>
-      </c>
+        <v>0.02368629224345169</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.004638256601530263</v>
+        <v>-0.006569208454768338</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.002588228317616645</v>
+        <v>-0.02411866073247919</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02675076183803047</v>
+        <v>-0.02998998561559942</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02675076183803047</v>
+        <v>-0.02998998561559942</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.02675076183803047</v>
+        <v>-0.02998998561559942</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02675076183803047</v>
+        <v>-0.02998998561559942</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.02675076183803047</v>
+        <v>-0.02998998561559942</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.03047408176296327</v>
+        <v>-0.03076312049452481</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02934790658191626</v>
+        <v>-0.02975140179805607</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02934790658191626</v>
+        <v>-0.02975140179805607</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.02934790658191626</v>
+        <v>-0.02975140179805607</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02934790658191626</v>
+        <v>-0.02975140179805607</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7011779411671176</v>
+        <v>0.6629640386145614</v>
       </c>
       <c r="V10" t="n">
-        <v>0.004511642004465679</v>
+        <v>0.004843583905743356</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.0004465615858624634</v>
+        <v>-0.001621308928852357</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01049571958782878</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.005274474546978982</v>
-      </c>
+        <v>-0.03018436872737475</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>-0.02326042816241712</v>
+        <v>-0.02477025017481</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0179428701577148</v>
+        <v>0.02432012612480504</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0179428701577148</v>
+        <v>0.02432012612480504</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0179428701577148</v>
+        <v>0.02432012612480504</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0179428701577148</v>
+        <v>0.02432012612480504</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0179428701577148</v>
+        <v>0.02432012612480504</v>
       </c>
     </row>
     <row r="11">
@@ -1411,91 +1383,87 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.0003972541598901663</v>
+        <v>-0.007177574207102968</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002704206636168265</v>
+        <v>-0.006624545160981806</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.001761498694459947</v>
+        <v>-0.001761446374457855</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003709469908378796</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.001377069079082763</v>
-      </c>
+        <v>0.007617392368695693</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.006788589007543559</v>
+        <v>0.006847238673889546</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.01679799445542866</v>
+        <v>0.002452431412510449</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0005021327240853089</v>
+        <v>0.005588892319555692</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0005021327240853089</v>
+        <v>0.005588892319555692</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0005021327240853089</v>
+        <v>0.005588892319555692</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0005021327240853089</v>
+        <v>0.005588892319555692</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0005021327240853089</v>
+        <v>0.005588892319555692</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001711561988462479</v>
+        <v>-0.0008960206438408256</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0004494366899774676</v>
+        <v>0.00232072175682887</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0004494366899774676</v>
+        <v>0.00232072175682887</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0004494366899774676</v>
+        <v>0.00232072175682887</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0004494366899774676</v>
+        <v>0.00232072175682887</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01662218524088741</v>
+        <v>-0.02038836206353448</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.001108369772334791</v>
+        <v>-0.01398212571128503</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01548892458755698</v>
+        <v>0.01569153528366141</v>
       </c>
       <c r="X11" t="n">
-        <v>0.003435881609435264</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>-0.01390989790039592</v>
-      </c>
+        <v>0.01528477078739083</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>0.01815553579822143</v>
+        <v>0.0221731699429268</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0009467328378693133</v>
+        <v>0.009603693696147747</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.0009467328378693133</v>
+        <v>0.009603693696147747</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0009467328378693133</v>
+        <v>0.009603693696147747</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0009467328378693133</v>
+        <v>0.009603693696147747</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0009467328378693133</v>
+        <v>0.009603693696147747</v>
       </c>
     </row>
     <row r="12">
@@ -1510,91 +1478,87 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.07714135402965415</v>
+        <v>0.06571927098077082</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.007830566617222664</v>
+        <v>0.01256828459873138</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01071565665262626</v>
+        <v>-0.01071551735662069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01082973403318936</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.01199703935988157</v>
-      </c>
+        <v>0.007053892410155696</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.002000583152023326</v>
+        <v>0.001692857059714282</v>
       </c>
       <c r="J12" t="n">
-        <v>8.808168373043545e-05</v>
+        <v>-0.006319883635014111</v>
       </c>
       <c r="K12" t="n">
-        <v>0.005632332225293289</v>
+        <v>-0.001193207567728302</v>
       </c>
       <c r="L12" t="n">
-        <v>0.005632332225293289</v>
+        <v>-0.001193207567728302</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005632332225293289</v>
+        <v>-0.001193207567728302</v>
       </c>
       <c r="N12" t="n">
-        <v>0.005632332225293289</v>
+        <v>-0.001193207567728302</v>
       </c>
       <c r="O12" t="n">
-        <v>0.005632332225293289</v>
+        <v>-0.001193207567728302</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.0101244325649773</v>
+        <v>-0.01083129057725162</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.003588349103533963</v>
+        <v>0.0006514692740587709</v>
       </c>
       <c r="R12" t="n">
-        <v>0.003588349103533963</v>
+        <v>0.0006514692740587709</v>
       </c>
       <c r="S12" t="n">
-        <v>0.003588349103533963</v>
+        <v>0.0006514692740587709</v>
       </c>
       <c r="T12" t="n">
-        <v>0.003588349103533963</v>
+        <v>0.0006514692740587709</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07449995453199817</v>
+        <v>0.06300645679225826</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.0124109899364396</v>
+        <v>0.009890467115618683</v>
       </c>
       <c r="W12" t="n">
-        <v>0.02358398177535927</v>
+        <v>0.0226326601373064</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.0009017498280699931</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.01140956272838251</v>
-      </c>
+        <v>-0.01344158175366327</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>-0.00395213276608531</v>
+        <v>-0.01299935111197404</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.004342186733687469</v>
+        <v>0.006433740353349613</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.004342186733687469</v>
+        <v>0.006433740353349613</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.004342186733687469</v>
+        <v>0.006433740353349613</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.004342186733687469</v>
+        <v>0.006433740353349613</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.004342186733687469</v>
+        <v>0.006433740353349613</v>
       </c>
     </row>
     <row r="13">
@@ -1605,91 +1569,87 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2887304068132162</v>
+        <v>-0.2413273915730957</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01156320036652801</v>
+        <v>0.01927834713913389</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01637213940688557</v>
+        <v>-0.01637232132689285</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01858586810343472</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.01859209965568399</v>
-      </c>
+        <v>0.01058218458328738</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.0003795331351813253</v>
+        <v>-0.002878490803139632</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0119759209232042</v>
+        <v>-0.009711391406011665</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00752886452515458</v>
+        <v>-0.006556745926269836</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00752886452515458</v>
+        <v>-0.006556745926269836</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00752886452515458</v>
+        <v>-0.006556745926269836</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00752886452515458</v>
+        <v>-0.006556745926269836</v>
       </c>
       <c r="O13" t="n">
-        <v>0.00752886452515458</v>
+        <v>-0.006556745926269836</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01566695784267831</v>
+        <v>-0.01648183678727347</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.002531079077243163</v>
+        <v>-0.003326187973047519</v>
       </c>
       <c r="R13" t="n">
-        <v>0.002531079077243163</v>
+        <v>-0.003326187973047519</v>
       </c>
       <c r="S13" t="n">
-        <v>0.002531079077243163</v>
+        <v>-0.003326187973047519</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002531079077243163</v>
+        <v>-0.003326187973047519</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.07305821553032861</v>
+        <v>-0.05210747094829883</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.01717011687880467</v>
+        <v>0.01207735267509411</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.0006678924747156989</v>
+        <v>-0.000641913625676545</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.0160791651551666</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.01232511159700446</v>
-      </c>
+        <v>-0.01968761445150457</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>-0.005817051592682062</v>
+        <v>-0.02032785930911437</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.02449792945991717</v>
+        <v>0.006370028414801135</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02449792945991717</v>
+        <v>0.006370028414801135</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.02449792945991717</v>
+        <v>0.006370028414801135</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.02449792945991717</v>
+        <v>0.006370028414801135</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.02449792945991717</v>
+        <v>0.006370028414801135</v>
       </c>
     </row>
     <row r="14">
@@ -1704,91 +1664,87 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.005428553977142158</v>
+        <v>0.009953392430135696</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005059333546373341</v>
+        <v>0.005974191886967675</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.008207765992310639</v>
+        <v>-0.00820764224830569</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009245323377812933</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.008575326103013044</v>
-      </c>
+        <v>0.006118467220738688</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.02367481457899258</v>
+        <v>-0.02489184675567387</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01473252993595211</v>
+        <v>0.003232089444463954</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.008018149760725991</v>
+        <v>-0.006089630547585221</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.008018149760725991</v>
+        <v>-0.006089630547585221</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.008018149760725991</v>
+        <v>-0.006089630547585221</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.008018149760725991</v>
+        <v>-0.006089630547585221</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.008018149760725991</v>
+        <v>-0.006089630547585221</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.008112053124482124</v>
+        <v>-0.007567419182696766</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.009513387548535502</v>
+        <v>-0.006978885591155422</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.009513387548535502</v>
+        <v>-0.006978885591155422</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.009513387548535502</v>
+        <v>-0.006978885591155422</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.009513387548535502</v>
+        <v>-0.006978885591155422</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01363681849747274</v>
+        <v>0.01846745613069824</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.007690147315605891</v>
+        <v>-0.004485764819430592</v>
       </c>
       <c r="W14" t="n">
-        <v>0.007291350819654032</v>
+        <v>0.007139252157570085</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.003820673432826937</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>-0.004028183681127346</v>
-      </c>
+        <v>0.003692320467692819</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>0.0008020343360813733</v>
+        <v>0.01050353677214147</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.01125474649818986</v>
+        <v>-0.001059672522386901</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.01125474649818986</v>
+        <v>-0.001059672522386901</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01125474649818986</v>
+        <v>-0.001059672522386901</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.01125474649818986</v>
+        <v>-0.001059672522386901</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.01125474649818986</v>
+        <v>-0.001059672522386901</v>
       </c>
     </row>
     <row r="15">
@@ -1803,91 +1759,87 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.03053299744531989</v>
+        <v>-0.0285097601163904</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006036017329440692</v>
+        <v>0.002404687584187503</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.006816124688644986</v>
+        <v>-0.006815456816618272</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007153318174132726</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.006093399507735979</v>
-      </c>
+        <v>0.005106825036273001</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.007165188286607531</v>
+        <v>0.006966072950642917</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.01286771660897353</v>
+        <v>0.0007897743203681107</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002889690067587602</v>
+        <v>0.001922861164914446</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002889690067587602</v>
+        <v>0.001922861164914446</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002889690067587602</v>
+        <v>0.001922861164914446</v>
       </c>
       <c r="N15" t="n">
-        <v>0.002889690067587602</v>
+        <v>0.001922861164914446</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002889690067587602</v>
+        <v>0.001922861164914446</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.006938884885555395</v>
+        <v>-0.006708935692357427</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001846573225862929</v>
+        <v>0.001588555647542226</v>
       </c>
       <c r="R15" t="n">
-        <v>0.001846573225862929</v>
+        <v>0.001588555647542226</v>
       </c>
       <c r="S15" t="n">
-        <v>0.001846573225862929</v>
+        <v>0.001588555647542226</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001846573225862929</v>
+        <v>0.001588555647542226</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.05396999457479978</v>
+        <v>-0.05279717567988702</v>
       </c>
       <c r="V15" t="n">
-        <v>0.002207879800315192</v>
+        <v>0.001143773613750944</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002564491974579679</v>
+        <v>0.001611766432470657</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.01084718644988746</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.001532284669291386</v>
-      </c>
+        <v>4.934937797397511e-05</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>-0.001966912974676519</v>
+        <v>0.01243784392151375</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.007545369517814779</v>
+        <v>0.004969835910793435</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.007545369517814779</v>
+        <v>0.004969835910793435</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.007545369517814779</v>
+        <v>0.004969835910793435</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.007545369517814779</v>
+        <v>0.004969835910793435</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.007545369517814779</v>
+        <v>0.004969835910793435</v>
       </c>
     </row>
     <row r="16">
@@ -1902,91 +1854,87 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.009230626161225044</v>
+        <v>0.008396965391878614</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003301508100060324</v>
+        <v>0.004970853702834148</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.001877174379086975</v>
+        <v>-0.001877724651108986</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002998030775921231</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.003388796103551844</v>
-      </c>
+        <v>0.002086753619470145</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.0132363101294524</v>
+        <v>-0.0134443299457732</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01288941424189247</v>
+        <v>-0.009461304099762086</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02434582743783309</v>
+        <v>0.02566743875469755</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02434582743783309</v>
+        <v>0.02566743875469755</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02434582743783309</v>
+        <v>0.02566743875469755</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02434582743783309</v>
+        <v>0.02566743875469755</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02434582743783309</v>
+        <v>0.02566743875469755</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.0008788736991549478</v>
+        <v>-0.001084973227398929</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02439500199980008</v>
+        <v>0.02703579717743188</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02439500199980008</v>
+        <v>0.02703579717743188</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02439500199980008</v>
+        <v>0.02703579717743188</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02439500199980008</v>
+        <v>0.02703579717743188</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01132399139695965</v>
+        <v>0.01180016485600659</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0003869492314779693</v>
+        <v>0.00151760175670407</v>
       </c>
       <c r="W16" t="n">
-        <v>0.01572929986117199</v>
+        <v>0.01470007124400285</v>
       </c>
       <c r="X16" t="n">
-        <v>0.01012046670881867</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.001375879063035162</v>
-      </c>
+        <v>-0.005007965096318603</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>0.005325889653035585</v>
+        <v>0.001631243393249735</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.01324902072196083</v>
+        <v>-0.01017162040686482</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.01324902072196083</v>
+        <v>-0.01017162040686482</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.01324902072196083</v>
+        <v>-0.01017162040686482</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.01324902072196083</v>
+        <v>-0.01017162040686482</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.01324902072196083</v>
+        <v>-0.01017162040686482</v>
       </c>
     </row>
     <row r="17">
@@ -2001,91 +1949,87 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.02065237839409513</v>
+        <v>-0.01621097709643908</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003950488574019542</v>
+        <v>0.008310399692415985</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.005185542159421686</v>
+        <v>-0.005185817199432687</v>
       </c>
       <c r="G17" t="n">
-        <v>0.004905543940221757</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.007099297915971916</v>
-      </c>
+        <v>-0.0006197940727917629</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.004805078112203123</v>
+        <v>-0.007148426109937043</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0199900051986167</v>
+        <v>-0.01420653255024053</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.003436535849461434</v>
+        <v>-0.01281506105660244</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.003436535849461434</v>
+        <v>-0.01281506105660244</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.003436535849461434</v>
+        <v>-0.01281506105660244</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.003436535849461434</v>
+        <v>-0.01281506105660244</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.003436535849461434</v>
+        <v>-0.01281506105660244</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.005341014069640562</v>
+        <v>-0.00599985652799426</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.004678806235152249</v>
+        <v>-0.009217137392685494</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.004678806235152249</v>
+        <v>-0.009217137392685494</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.004678806235152249</v>
+        <v>-0.009217137392685494</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.004678806235152249</v>
+        <v>-0.009217137392685494</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.0161195675247827</v>
+        <v>-0.01473880983755239</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.0058489325219573</v>
+        <v>0.01137066957482678</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01251119541244782</v>
+        <v>0.01226000804240032</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.689827467593099e-05</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.01228293149931726</v>
-      </c>
+        <v>-0.009813368072534721</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>-0.004120404644816185</v>
+        <v>-0.004315334476613379</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.005765236262609449</v>
+        <v>0.008392173839686953</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.005765236262609449</v>
+        <v>0.008392173839686953</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.005765236262609449</v>
+        <v>0.008392173839686953</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.005765236262609449</v>
+        <v>0.008392173839686953</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.005765236262609449</v>
+        <v>0.008392173839686953</v>
       </c>
     </row>
     <row r="18">
@@ -2096,91 +2040,87 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.01296055847042234</v>
+        <v>0.002642357577694303</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00187546049101842</v>
+        <v>0.02319320367972814</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01084503057780122</v>
+        <v>-0.0108452300658092</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01575743976629759</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.01649066398762656</v>
-      </c>
+        <v>-0.001727692965107718</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.004476183731047348</v>
+        <v>-0.009134375885375036</v>
       </c>
       <c r="J18" t="n">
-        <v>0.004334546871576728</v>
+        <v>-0.008446281034162381</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01112279775691191</v>
+        <v>-0.01197343343893734</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01112279775691191</v>
+        <v>-0.01197343343893734</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01112279775691191</v>
+        <v>-0.01197343343893734</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01112279775691191</v>
+        <v>-0.01197343343893734</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01112279775691191</v>
+        <v>-0.01197343343893734</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.009915462156618485</v>
+        <v>-0.0120142925765717</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.004403491088139643</v>
+        <v>-0.003905800380232015</v>
       </c>
       <c r="R18" t="n">
-        <v>0.004403491088139643</v>
+        <v>-0.003905800380232015</v>
       </c>
       <c r="S18" t="n">
-        <v>0.004403491088139643</v>
+        <v>-0.003905800380232015</v>
       </c>
       <c r="T18" t="n">
-        <v>0.004403491088139643</v>
+        <v>-0.003905800380232015</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.01438629206345168</v>
+        <v>0.005123624076944963</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.04265385137015405</v>
+        <v>0.03952501607700064</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.01035908691036347</v>
+        <v>-0.01109554700382188</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.007365429702617187</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.03956358715054348</v>
-      </c>
+        <v>-0.0234865651954626</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
-        <v>0.004043734049749362</v>
+        <v>-0.03847008297880332</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02490163050006521</v>
+        <v>0.00337981626319265</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.02490163050006521</v>
+        <v>0.00337981626319265</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.02490163050006521</v>
+        <v>0.00337981626319265</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.02490163050006521</v>
+        <v>0.00337981626319265</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.02490163050006521</v>
+        <v>0.00337981626319265</v>
       </c>
     </row>
     <row r="19">
@@ -2195,91 +2135,87 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01933108723724349</v>
+        <v>0.02008218397128736</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01828554860342194</v>
+        <v>0.01211851680474067</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01669315065172602</v>
+        <v>-0.01669260373970415</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01550506036420241</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.01549524935580997</v>
-      </c>
+        <v>0.01647132891485316</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.01536717152668686</v>
+        <v>0.01602847465713898</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01383636298599764</v>
+        <v>-0.01892599407166294</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02936271679050867</v>
+        <v>-0.02210905211636208</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.02936271679050867</v>
+        <v>-0.02210905211636208</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.02936271679050867</v>
+        <v>-0.02210905211636208</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.02936271679050867</v>
+        <v>-0.02210905211636208</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.02936271679050867</v>
+        <v>-0.02210905211636208</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01739878936795157</v>
+        <v>-0.01650444152417766</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02822340026493601</v>
+        <v>-0.02496933287077331</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.02822340026493601</v>
+        <v>-0.02496933287077331</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.02822340026493601</v>
+        <v>-0.02496933287077331</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.02822340026493601</v>
+        <v>-0.02496933287077331</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.0067949825117993</v>
+        <v>-0.01316378779055151</v>
       </c>
       <c r="V19" t="n">
-        <v>0.01817314037492561</v>
+        <v>-0.008003583200143327</v>
       </c>
       <c r="W19" t="n">
-        <v>-3.227798529111941e-05</v>
+        <v>0.001386207895448316</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.02093875936555037</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>-0.007961647806465912</v>
-      </c>
+        <v>-0.01365387232215489</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>-0.01910257478010299</v>
+        <v>-0.009820804808832191</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01655017381400695</v>
+        <v>0.02809453725178149</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01655017381400695</v>
+        <v>0.02809453725178149</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01655017381400695</v>
+        <v>0.02809453725178149</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01655017381400695</v>
+        <v>0.02809453725178149</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01655017381400695</v>
+        <v>0.02809453725178149</v>
       </c>
     </row>
     <row r="20">
@@ -2294,91 +2230,87 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01284267084970683</v>
+        <v>-0.01034932380597295</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01046156825846273</v>
+        <v>0.01650827221233089</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01328087352323494</v>
+        <v>-0.01327992782719711</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01330693694827748</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.01484667640186705</v>
-      </c>
+        <v>0.009141779693671187</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.00584793824991753</v>
+        <v>0.003589943471597739</v>
       </c>
       <c r="J20" t="n">
-        <v>0.004872873518375938</v>
+        <v>-0.007886612819224939</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01141825063273002</v>
+        <v>-0.01986136889045475</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01141825063273002</v>
+        <v>-0.01986136889045475</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01141825063273002</v>
+        <v>-0.01986136889045475</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01141825063273002</v>
+        <v>-0.01986136889045475</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01141825063273002</v>
+        <v>-0.01986136889045475</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.01301292215251688</v>
+        <v>-0.01410627147625086</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01332518078900723</v>
+        <v>-0.01804331400173256</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01332518078900723</v>
+        <v>-0.01804331400173256</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01332518078900723</v>
+        <v>-0.01804331400173256</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01332518078900723</v>
+        <v>-0.01804331400173256</v>
       </c>
       <c r="U20" t="n">
-        <v>0.004370256942810277</v>
+        <v>0.007008293560331742</v>
       </c>
       <c r="V20" t="n">
-        <v>-0.009665453282618131</v>
+        <v>0.01393498231739929</v>
       </c>
       <c r="W20" t="n">
-        <v>0.009425633273025329</v>
+        <v>0.009529090269163609</v>
       </c>
       <c r="X20" t="n">
-        <v>0.009241543665661746</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.01454765578190623</v>
-      </c>
+        <v>-0.01110892969235719</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>0.002780832495233299</v>
+        <v>-0.008929581573183262</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.003567602542704101</v>
+        <v>0.01090327070813083</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.003567602542704101</v>
+        <v>0.01090327070813083</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.003567602542704101</v>
+        <v>0.01090327070813083</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.003567602542704101</v>
+        <v>0.01090327070813083</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.003567602542704101</v>
+        <v>0.01090327070813083</v>
       </c>
     </row>
     <row r="21">
@@ -2389,91 +2321,87 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.006732041357281652</v>
+        <v>-0.008520406612816262</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01770774454830978</v>
+        <v>0.01562068939282757</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01716120059044802</v>
+        <v>-0.01715999435039977</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01592774559710982</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.0175347126053885</v>
-      </c>
+        <v>0.01403713140948525</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.01725194565007782</v>
+        <v>0.01729806347592254</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.02540237805184151</v>
+        <v>-0.0181368629993212</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.00657786352711454</v>
+        <v>-0.01091042482041699</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.00657786352711454</v>
+        <v>-0.01091042482041699</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.00657786352711454</v>
+        <v>-0.01091042482041699</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.00657786352711454</v>
+        <v>-0.01091042482041699</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.00657786352711454</v>
+        <v>-0.01091042482041699</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01717680654307226</v>
+        <v>-0.01761651190466047</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.0072640025305601</v>
+        <v>-0.009863433514537339</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.0072640025305601</v>
+        <v>-0.009863433514537339</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.0072640025305601</v>
+        <v>-0.009863433514537339</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.0072640025305601</v>
+        <v>-0.009863433514537339</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.005615137856605512</v>
+        <v>0.006665787242631488</v>
       </c>
       <c r="V21" t="n">
-        <v>0.0005343151893726075</v>
+        <v>0.00978642403945696</v>
       </c>
       <c r="W21" t="n">
-        <v>0.002204571640182865</v>
+        <v>0.002250042426001697</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.01824551573782063</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.01060465732018629</v>
-      </c>
+        <v>-0.004871431682857267</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
-        <v>0.005223247792929911</v>
+        <v>0.0124414024496561</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01536371053454842</v>
+        <v>0.01340005397600216</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01536371053454842</v>
+        <v>0.01340005397600216</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01536371053454842</v>
+        <v>0.01340005397600216</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.01536371053454842</v>
+        <v>0.01340005397600216</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01536371053454842</v>
+        <v>0.01340005397600216</v>
       </c>
     </row>
     <row r="22">
@@ -2484,91 +2412,87 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03167591454703658</v>
+        <v>-0.03009606965184278</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.004482375347295013</v>
+        <v>-0.003316021284640851</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003496795051871802</v>
+        <v>0.003497282731891308</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0007025113241004527</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.003886972955478918</v>
-      </c>
+        <v>-0.00264693399387736</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.003960455966418238</v>
+        <v>-0.005480717787228711</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0101509137099115</v>
+        <v>-0.0001328195574434767</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03197258633490345</v>
+        <v>-0.03082160609686424</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03197258633490345</v>
+        <v>-0.03082160609686424</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03197258633490345</v>
+        <v>-0.03082160609686424</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.03197258633490345</v>
+        <v>-0.03082160609686424</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.03197258633490345</v>
+        <v>-0.03082160609686424</v>
       </c>
       <c r="P22" t="n">
-        <v>0.001876318059052722</v>
+        <v>0.002462176226487049</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.0322341648413666</v>
+        <v>-0.03082260728090429</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.0322341648413666</v>
+        <v>-0.03082260728090429</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.0322341648413666</v>
+        <v>-0.03082260728090429</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.0322341648413666</v>
+        <v>-0.03082260728090429</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00865114373804575</v>
+        <v>0.01031141042845642</v>
       </c>
       <c r="V22" t="n">
-        <v>0.002312300828492033</v>
+        <v>-0.002066042866641714</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.001017710824708433</v>
+        <v>-0.0009004116840164673</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.009770104422804175</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>-0.002180489463219578</v>
-      </c>
+        <v>0.003819032696761307</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>-0.01585865794634632</v>
+        <v>0.01733767134950685</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.01300100672804027</v>
+        <v>0.001485960059438402</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.01300100672804027</v>
+        <v>0.001485960059438402</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.01300100672804027</v>
+        <v>0.001485960059438402</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.01300100672804027</v>
+        <v>0.001485960059438402</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.01300100672804027</v>
+        <v>0.001485960059438402</v>
       </c>
     </row>
     <row r="23">
@@ -2579,91 +2503,87 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01120289094411564</v>
+        <v>-0.01506454697058188</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.008059053346362133</v>
+        <v>-0.01236353454254138</v>
       </c>
       <c r="F23" t="n">
-        <v>0.009249729489989178</v>
+        <v>0.009249475185979007</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.009230521905220874</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.01033146934125877</v>
-      </c>
+        <v>-0.007148104797924191</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.004250262794010511</v>
+        <v>-0.004939791557591661</v>
       </c>
       <c r="J23" t="n">
-        <v>0.004427292907504709</v>
+        <v>0.01531973520386403</v>
       </c>
       <c r="K23" t="n">
-        <v>0.006393159039726361</v>
+        <v>0.006290231867609274</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006393159039726361</v>
+        <v>0.006290231867609274</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006393159039726361</v>
+        <v>0.006290231867609274</v>
       </c>
       <c r="N23" t="n">
-        <v>0.006393159039726361</v>
+        <v>0.006290231867609274</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006393159039726361</v>
+        <v>0.006290231867609274</v>
       </c>
       <c r="P23" t="n">
-        <v>0.00878194979127799</v>
+        <v>0.009108356716334268</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.006643582345743294</v>
+        <v>0.005397405431896217</v>
       </c>
       <c r="R23" t="n">
-        <v>0.006643582345743294</v>
+        <v>0.005397405431896217</v>
       </c>
       <c r="S23" t="n">
-        <v>0.006643582345743294</v>
+        <v>0.005397405431896217</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006643582345743294</v>
+        <v>0.005397405431896217</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.008689588475583536</v>
+        <v>-0.01325355931414237</v>
       </c>
       <c r="V23" t="n">
-        <v>0.008570343126813726</v>
+        <v>-0.006987037143481484</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.003642394705695787</v>
+        <v>-0.004115624708624988</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01009364795574592</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>-0.007326131045045241</v>
-      </c>
+        <v>0.01051195606847824</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>0.01553166849326674</v>
+        <v>0.02343055581722223</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.01580575791223032</v>
+        <v>-0.0003103623484144939</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.01580575791223032</v>
+        <v>-0.0003103623484144939</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.01580575791223032</v>
+        <v>-0.0003103623484144939</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.01580575791223032</v>
+        <v>-0.0003103623484144939</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.01580575791223032</v>
+        <v>-0.0003103623484144939</v>
       </c>
     </row>
     <row r="24">
@@ -2678,91 +2598,87 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01480680328027213</v>
+        <v>-0.01063309021732361</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="n">
-        <v>0.006319548636781944</v>
+        <v>0.01005844571433783</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.007763359318534371</v>
+        <v>-0.007763174902526995</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008326154733046189</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.00797400905496036</v>
-      </c>
+        <v>0.007800970488038819</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0.01596930351877214</v>
+        <v>0.01530248038809921</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.01584733204716621</v>
+        <v>-0.02067878993549953</v>
       </c>
       <c r="K24" t="n">
-        <v>0.009587001311480051</v>
+        <v>0.005003528360141133</v>
       </c>
       <c r="L24" t="n">
-        <v>0.009587001311480051</v>
+        <v>0.005003528360141133</v>
       </c>
       <c r="M24" t="n">
-        <v>0.009587001311480051</v>
+        <v>0.005003528360141133</v>
       </c>
       <c r="N24" t="n">
-        <v>0.009587001311480051</v>
+        <v>0.005003528360141133</v>
       </c>
       <c r="O24" t="n">
-        <v>0.009587001311480051</v>
+        <v>0.005003528360141133</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.0072009950400398</v>
+        <v>-0.007609927888397114</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.007441880361675213</v>
+        <v>0.006058196498327859</v>
       </c>
       <c r="R24" t="n">
-        <v>0.007441880361675213</v>
+        <v>0.006058196498327859</v>
       </c>
       <c r="S24" t="n">
-        <v>0.007441880361675213</v>
+        <v>0.006058196498327859</v>
       </c>
       <c r="T24" t="n">
-        <v>0.007441880361675213</v>
+        <v>0.006058196498327859</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01880839169633567</v>
+        <v>0.01609941933197677</v>
       </c>
       <c r="V24" t="n">
-        <v>-0.01247980840319233</v>
+        <v>0.009947720269908809</v>
       </c>
       <c r="W24" t="n">
-        <v>0.005423256216930248</v>
+        <v>0.005642873217714927</v>
       </c>
       <c r="X24" t="n">
-        <v>0.009855940138237602</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.01088566709142668</v>
-      </c>
+        <v>-0.006433242305329691</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
-        <v>-0.0008443652497746099</v>
+        <v>-0.01261824386472975</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.0006040566961622678</v>
+        <v>0.001099681387987255</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.0006040566961622678</v>
+        <v>0.001099681387987255</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.0006040566961622678</v>
+        <v>0.001099681387987255</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.0006040566961622678</v>
+        <v>0.001099681387987255</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0006040566961622678</v>
+        <v>0.001099681387987255</v>
       </c>
     </row>
     <row r="25">
@@ -2773,91 +2689,87 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.005921282924851316</v>
+        <v>-0.001260636434425457</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01523066134522645</v>
+        <v>0.02259639344785574</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.02070024687600987</v>
+        <v>-0.02070032924401317</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02267163882686555</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.02288095925123837</v>
-      </c>
+        <v>0.01567179633887185</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.01067171082686843</v>
+        <v>-0.01241558315262332</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0006721510364669406</v>
+        <v>-0.01243461713362035</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.002845060721802429</v>
+        <v>-0.01584510149780406</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.002845060721802429</v>
+        <v>-0.01584510149780406</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.002845060721802429</v>
+        <v>-0.01584510149780406</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.002845060721802429</v>
+        <v>-0.01584510149780406</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.002845060721802429</v>
+        <v>-0.01584510149780406</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.01992366338894653</v>
+        <v>-0.02069568591582743</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.008416497360659895</v>
+        <v>-0.01316956382278255</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.008416497360659895</v>
+        <v>-0.01316956382278255</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.008416497360659895</v>
+        <v>-0.01316956382278255</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.008416497360659895</v>
+        <v>-0.01316956382278255</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.01214234054969362</v>
+        <v>-0.004865742242629689</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.02014374099774964</v>
+        <v>0.01351359913254396</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02588244084329763</v>
+        <v>0.02529070833962833</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01361576108863044</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.01490923845236953</v>
-      </c>
+        <v>-0.01960891172835647</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
-        <v>-0.01203759398550376</v>
+        <v>-0.0201459850938394</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02549390981975639</v>
+        <v>0.01652203390888135</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02549390981975639</v>
+        <v>0.01652203390888135</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.02549390981975639</v>
+        <v>0.01652203390888135</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02549390981975639</v>
+        <v>0.01652203390888135</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.02549390981975639</v>
+        <v>0.01652203390888135</v>
       </c>
     </row>
     <row r="26">
@@ -2872,91 +2784,87 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02649537974781518</v>
+        <v>0.03512446681297866</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01768932435557297</v>
+        <v>0.02432428398097135</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01846152429046097</v>
+        <v>-0.01845986051439442</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01702435988097439</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.02133484894939396</v>
-      </c>
+        <v>0.01004425681777027</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.008906202212248089</v>
+        <v>-0.01166485861059434</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01855249768173538</v>
+        <v>-0.02297919074977915</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.01838790591951623</v>
+        <v>-0.02499380989575239</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.01838790591951623</v>
+        <v>-0.02499380989575239</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.01838790591951623</v>
+        <v>-0.02499380989575239</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.01838790591951623</v>
+        <v>-0.02499380989575239</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.01838790591951623</v>
+        <v>-0.02499380989575239</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01832415394896615</v>
+        <v>-0.01878871572754863</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.01971338181253527</v>
+        <v>-0.02229317119572684</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.01971338181253527</v>
+        <v>-0.02229317119572684</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.01971338181253527</v>
+        <v>-0.02229317119572684</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.01971338181253527</v>
+        <v>-0.02229317119572684</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.004683235291329411</v>
+        <v>4.916006596640263e-05</v>
       </c>
       <c r="V26" t="n">
-        <v>0.004212015720480629</v>
+        <v>0.01827502537100101</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.01401859140874366</v>
+        <v>-0.01479399150375966</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.002985720791428831</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.01747091522683661</v>
-      </c>
+        <v>-0.02680206894408275</v>
+      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
-        <v>-0.00596583028663321</v>
+        <v>-0.02498409738336389</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01085233838609354</v>
+        <v>0.0122564200422568</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01085233838609354</v>
+        <v>0.0122564200422568</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01085233838609354</v>
+        <v>0.0122564200422568</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01085233838609354</v>
+        <v>0.0122564200422568</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01085233838609354</v>
+        <v>0.0122564200422568</v>
       </c>
     </row>
     <row r="27">
@@ -2967,91 +2875,87 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.003647049361881973</v>
+        <v>-0.002755012142200485</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.01107445906697836</v>
+        <v>-0.01392228890889156</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01202824598512984</v>
+        <v>0.01202815411312616</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01014287234171489</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.01315308791812351</v>
-      </c>
+        <v>-0.007883927067357082</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.01788153114726124</v>
+        <v>0.01877126023885041</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.006105933138598479</v>
+        <v>-0.01019704424191566</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01472360276494411</v>
+        <v>0.01876008209440328</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01472360276494411</v>
+        <v>0.01876008209440328</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01472360276494411</v>
+        <v>0.01876008209440328</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01472360276494411</v>
+        <v>0.01876008209440328</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01472360276494411</v>
+        <v>0.01876008209440328</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01185955074638203</v>
+        <v>0.01271606902064276</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01374953027798121</v>
+        <v>0.01849946944397878</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01374953027798121</v>
+        <v>0.01849946944397878</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01374953027798121</v>
+        <v>0.01849946944397878</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01374953027798121</v>
+        <v>0.01849946944397878</v>
       </c>
       <c r="U27" t="n">
-        <v>0.000632729977309199</v>
+        <v>-0.002526440357057614</v>
       </c>
       <c r="V27" t="n">
-        <v>0.001827909481116379</v>
+        <v>-0.01073611598144464</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01003248155329926</v>
+        <v>0.01023514476140579</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.01466738833069553</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>-0.01010918795636752</v>
-      </c>
+        <v>0.008660068762402749</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>0.002786023599440944</v>
+        <v>0.02753757873350315</v>
       </c>
       <c r="AA27" t="n">
-        <v>-7.887475515499019e-05</v>
+        <v>-0.01619302039172081</v>
       </c>
       <c r="AB27" t="n">
-        <v>-7.887475515499019e-05</v>
+        <v>-0.01619302039172081</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.887475515499019e-05</v>
+        <v>-0.01619302039172081</v>
       </c>
       <c r="AD27" t="n">
-        <v>-7.887475515499019e-05</v>
+        <v>-0.01619302039172081</v>
       </c>
       <c r="AE27" t="n">
-        <v>-7.887475515499019e-05</v>
+        <v>-0.01619302039172081</v>
       </c>
     </row>
     <row r="28">
@@ -3066,91 +2970,87 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.01888519592340783</v>
+        <v>-0.008691847931673914</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.0610767650350706</v>
+        <v>-0.04446012245040489</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02522873880114955</v>
+        <v>0.02522738164909526</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.003298869059954762</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-0.02234893327795733</v>
-      </c>
+        <v>-0.009387663159506525</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.01197505151900206</v>
+        <v>0.01031003330840133</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01462513871540387</v>
+        <v>0.008258665202473132</v>
       </c>
       <c r="K28" t="n">
-        <v>0.05945276417011056</v>
+        <v>0.02814836195793448</v>
       </c>
       <c r="L28" t="n">
-        <v>0.05945276417011056</v>
+        <v>0.02814836195793448</v>
       </c>
       <c r="M28" t="n">
-        <v>0.05945276417011056</v>
+        <v>0.02814836195793448</v>
       </c>
       <c r="N28" t="n">
-        <v>0.05945276417011056</v>
+        <v>0.02814836195793448</v>
       </c>
       <c r="O28" t="n">
-        <v>0.05945276417011056</v>
+        <v>0.02814836195793448</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02850002331600093</v>
+        <v>0.02733644422945777</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.03440149875205995</v>
+        <v>0.01737668815106752</v>
       </c>
       <c r="R28" t="n">
-        <v>0.03440149875205995</v>
+        <v>0.01737668815106752</v>
       </c>
       <c r="S28" t="n">
-        <v>0.03440149875205995</v>
+        <v>0.01737668815106752</v>
       </c>
       <c r="T28" t="n">
-        <v>0.03440149875205995</v>
+        <v>0.01737668815106752</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.03298490330339613</v>
+        <v>-0.01842268153690726</v>
       </c>
       <c r="V28" t="n">
-        <v>-0.2046138821045553</v>
+        <v>-0.06864858668194346</v>
       </c>
       <c r="W28" t="n">
-        <v>0.9502538213701527</v>
+        <v>0.9510138684725546</v>
       </c>
       <c r="X28" t="n">
-        <v>0.05133147978125918</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>-0.02525353166614127</v>
-      </c>
+        <v>0.02895142800605712</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
-        <v>0.02794182428567297</v>
+        <v>0.01858241277529651</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.01631996647679866</v>
+        <v>-0.005575194943007797</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.01631996647679866</v>
+        <v>-0.005575194943007797</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.01631996647679866</v>
+        <v>-0.005575194943007797</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.01631996647679866</v>
+        <v>-0.005575194943007797</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.01631996647679866</v>
+        <v>-0.005575194943007797</v>
       </c>
     </row>
     <row r="29">
@@ -3165,91 +3065,87 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.02529282830771313</v>
+        <v>-0.02618722962348918</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.02513536314941452</v>
+        <v>-0.02320331593613264</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01880174292806971</v>
+        <v>0.01880236145609445</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01551445310057812</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-0.01816776917471077</v>
-      </c>
+        <v>-0.01185599212223968</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.02034330321373213</v>
+        <v>-0.01897796984711879</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02518236524252353</v>
+        <v>0.01244130094189428</v>
       </c>
       <c r="K29" t="n">
-        <v>0.009012979944519196</v>
+        <v>0.0002842451633698065</v>
       </c>
       <c r="L29" t="n">
-        <v>0.009012979944519196</v>
+        <v>0.0002842451633698065</v>
       </c>
       <c r="M29" t="n">
-        <v>0.009012979944519196</v>
+        <v>0.0002842451633698065</v>
       </c>
       <c r="N29" t="n">
-        <v>0.009012979944519196</v>
+        <v>0.0002842451633698065</v>
       </c>
       <c r="O29" t="n">
-        <v>0.009012979944519196</v>
+        <v>0.0002842451633698065</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01934891309395652</v>
+        <v>0.01903047061721882</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.004361424462456978</v>
+        <v>-0.002580178855207154</v>
       </c>
       <c r="R29" t="n">
-        <v>0.004361424462456978</v>
+        <v>-0.002580178855207154</v>
       </c>
       <c r="S29" t="n">
-        <v>0.004361424462456978</v>
+        <v>-0.002580178855207154</v>
       </c>
       <c r="T29" t="n">
-        <v>0.004361424462456978</v>
+        <v>-0.002580178855207154</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.03469751725990068</v>
+        <v>-0.03894670475786819</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.05360413990416558</v>
+        <v>-0.02638072070322882</v>
       </c>
       <c r="W29" t="n">
-        <v>0.2877399150615965</v>
+        <v>0.2890567070822683</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0187944051677762</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>-0.01249237153969486</v>
-      </c>
+        <v>0.01493637832545513</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
-        <v>0.02494755478990219</v>
+        <v>0.02738022176720887</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.0002134696405387856</v>
+        <v>0.002757820718312829</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.0002134696405387856</v>
+        <v>0.002757820718312829</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.0002134696405387856</v>
+        <v>0.002757820718312829</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.0002134696405387856</v>
+        <v>0.002757820718312829</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.0002134696405387856</v>
+        <v>0.002757820718312829</v>
       </c>
     </row>
     <row r="30">
@@ -3264,91 +3160,87 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01170543637221745</v>
+        <v>-0.01965811729832469</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.00325087625803505</v>
+        <v>-0.01445076931403077</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01507339193093568</v>
+        <v>0.01507304796292191</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01870446689217867</v>
-      </c>
-      <c r="H30" t="n">
-        <v>-0.01805087198603487</v>
-      </c>
+        <v>-0.01261347679253907</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.02448750155550006</v>
+        <v>-0.02161388592055543</v>
       </c>
       <c r="J30" t="n">
-        <v>0.003503501188380282</v>
+        <v>0.01691516147725098</v>
       </c>
       <c r="K30" t="n">
-        <v>0.01652700219708008</v>
+        <v>0.03341289704851588</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01652700219708008</v>
+        <v>0.03341289704851588</v>
       </c>
       <c r="M30" t="n">
-        <v>0.01652700219708008</v>
+        <v>0.03341289704851588</v>
       </c>
       <c r="N30" t="n">
-        <v>0.01652700219708008</v>
+        <v>0.03341289704851588</v>
       </c>
       <c r="O30" t="n">
-        <v>0.01652700219708008</v>
+        <v>0.03341289704851588</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01407627397105096</v>
+        <v>0.01564223534568941</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.02644660598586424</v>
+        <v>0.03456125840645033</v>
       </c>
       <c r="R30" t="n">
-        <v>0.02644660598586424</v>
+        <v>0.03456125840645033</v>
       </c>
       <c r="S30" t="n">
-        <v>0.02644660598586424</v>
+        <v>0.03456125840645033</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02644660598586424</v>
+        <v>0.03456125840645033</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01815592143023686</v>
+        <v>0.00683081652923266</v>
       </c>
       <c r="V30" t="n">
-        <v>0.04985714100228563</v>
+        <v>-0.004516398036655921</v>
       </c>
       <c r="W30" t="n">
-        <v>0.09683039897721595</v>
+        <v>0.09809151704366068</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.0009093870123754804</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>-0.02581083156043326</v>
-      </c>
+        <v>0.02042478120099125</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
-        <v>-0.01685582659423306</v>
+        <v>0.01030869449234778</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.01438105699124228</v>
+        <v>-0.009685956771438268</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.01438105699124228</v>
+        <v>-0.009685956771438268</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.01438105699124228</v>
+        <v>-0.009685956771438268</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.01438105699124228</v>
+        <v>-0.009685956771438268</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.01438105699124228</v>
+        <v>-0.009685956771438268</v>
       </c>
     </row>
     <row r="31">
@@ -3363,91 +3255,87 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.001147187277887491</v>
+        <v>-0.000472133202885328</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.00026308225052329</v>
+        <v>-0.001224557040982282</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0004724787068991482</v>
+        <v>0.0004720592828823713</v>
       </c>
       <c r="G31" t="n">
-        <v>0.002426095777043831</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-0.001787555399502216</v>
-      </c>
+        <v>0.005655381442215257</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.01373333536533341</v>
+        <v>0.01420360328814413</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.09645583166909738</v>
+        <v>-0.04905553492249204</v>
       </c>
       <c r="K31" t="n">
-        <v>0.007275547395021896</v>
+        <v>0.00999154676766187</v>
       </c>
       <c r="L31" t="n">
-        <v>0.007275547395021896</v>
+        <v>0.00999154676766187</v>
       </c>
       <c r="M31" t="n">
-        <v>0.007275547395021896</v>
+        <v>0.00999154676766187</v>
       </c>
       <c r="N31" t="n">
-        <v>0.007275547395021896</v>
+        <v>0.00999154676766187</v>
       </c>
       <c r="O31" t="n">
-        <v>0.007275547395021896</v>
+        <v>0.00999154676766187</v>
       </c>
       <c r="P31" t="n">
-        <v>0.000492964051718562</v>
+        <v>0.0007575031983001279</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.004287065739482629</v>
+        <v>0.008398951151958045</v>
       </c>
       <c r="R31" t="n">
-        <v>0.004287065739482629</v>
+        <v>0.008398951151958045</v>
       </c>
       <c r="S31" t="n">
-        <v>0.004287065739482629</v>
+        <v>0.008398951151958045</v>
       </c>
       <c r="T31" t="n">
-        <v>0.004287065739482629</v>
+        <v>0.008398951151958045</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.006255242938209717</v>
+        <v>-0.01127007433880297</v>
       </c>
       <c r="V31" t="n">
-        <v>0.003373596806943872</v>
+        <v>-0.004339129325565172</v>
       </c>
       <c r="W31" t="n">
-        <v>0.04546054482642179</v>
+        <v>0.04481532073661283</v>
       </c>
       <c r="X31" t="n">
-        <v>0.001704795332191813</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>-0.01064946205797848</v>
-      </c>
+        <v>-0.004162965478518618</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
-        <v>0.01638696372747855</v>
+        <v>0.00488698627547945</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.0001612991104519644</v>
+        <v>0.008153336486133459</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.0001612991104519644</v>
+        <v>0.008153336486133459</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.0001612991104519644</v>
+        <v>0.008153336486133459</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.0001612991104519644</v>
+        <v>0.008153336486133459</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.0001612991104519644</v>
+        <v>0.008153336486133459</v>
       </c>
     </row>
     <row r="32">
@@ -3462,91 +3350,87 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.47910275266811</v>
+        <v>0.4568038410561536</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9772219082088761</v>
+        <v>0.9197108397324335</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.9975769910070795</v>
+        <v>-0.9975769163190765</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9894869584594782</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.9854757307790291</v>
-      </c>
+        <v>0.9527866853754674</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.308763025790521</v>
+        <v>0.2987423873736955</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.6147441493636442</v>
+        <v>-0.7575798199606513</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.5454142103285684</v>
+        <v>-0.5472119371204774</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.5454142103285684</v>
+        <v>-0.5472119371204774</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.5454142103285684</v>
+        <v>-0.5472119371204774</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.5454142103285684</v>
+        <v>-0.5472119371204774</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.5454142103285684</v>
+        <v>-0.5472119371204774</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9967063280922529</v>
+        <v>-0.9963673623506943</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.6195477251659089</v>
+        <v>-0.5804300466092017</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.6195477251659089</v>
+        <v>-0.5804300466092017</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.6195477251659089</v>
+        <v>-0.5804300466092017</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.6195477251659089</v>
+        <v>-0.5804300466092017</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1454147347765894</v>
+        <v>-0.1594166575126663</v>
       </c>
       <c r="V32" t="n">
-        <v>-0.005533025981321039</v>
+        <v>0.02573346794133871</v>
       </c>
       <c r="W32" t="n">
-        <v>-0.02470033394801335</v>
+        <v>-0.02645860387434415</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.6770930989557239</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0.02862444469697778</v>
-      </c>
+        <v>-0.6561215328368613</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>-0.5913023240040929</v>
+        <v>-0.5307880210715208</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.8170832190193286</v>
+        <v>0.8494561277702449</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.8170832190193286</v>
+        <v>0.8494561277702449</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.8170832190193286</v>
+        <v>0.8494561277702449</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.8170832190193286</v>
+        <v>0.8494561277702449</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.8170832190193286</v>
+        <v>0.8494561277702449</v>
       </c>
     </row>
     <row r="33">
@@ -3561,91 +3445,87 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.007617415120696604</v>
+        <v>0.01892291029291641</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05051656877266274</v>
+        <v>0.05558100414324017</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.05812163522086541</v>
+        <v>-0.05812276024491041</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05924812624192505</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.05857129050285161</v>
-      </c>
+        <v>0.05100811768832471</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>0.06484164268966569</v>
+        <v>0.05610701082028042</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.1642471761561964</v>
+        <v>-0.1388720118035305</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.02733803379752135</v>
+        <v>-0.03879638190385527</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.02733803379752135</v>
+        <v>-0.03879638190385527</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.02733803379752135</v>
+        <v>-0.03879638190385527</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.02733803379752135</v>
+        <v>-0.03879638190385527</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.02733803379752135</v>
+        <v>-0.03879638190385527</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.05780656042426242</v>
+        <v>-0.05913958076558323</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.03450589424423577</v>
+        <v>-0.03788385597935423</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.03450589424423577</v>
+        <v>-0.03788385597935423</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.03450589424423577</v>
+        <v>-0.03788385597935423</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.03450589424423577</v>
+        <v>-0.03788385597935423</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.002302366076094642</v>
+        <v>-0.003895682939827317</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.0269790675111627</v>
+        <v>0.01995167839806714</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01250782677231307</v>
+        <v>0.01106739481069579</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.009619126656765065</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0.02101182544847302</v>
-      </c>
+        <v>-0.08024073181762927</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
-        <v>-0.04628833961153358</v>
+        <v>-0.02122001480080059</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.04108439991537599</v>
+        <v>0.0732690425787617</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.04108439991537599</v>
+        <v>0.0732690425787617</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.04108439991537599</v>
+        <v>0.0732690425787617</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.04108439991537599</v>
+        <v>0.0732690425787617</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.04108439991537599</v>
+        <v>0.0732690425787617</v>
       </c>
     </row>
     <row r="34">
@@ -3660,91 +3540,87 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.003808266872330674</v>
+        <v>-0.001553703326148133</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="n">
-        <v>0.001653927138157085</v>
+        <v>0.00173700400548016</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.003658753106350124</v>
+        <v>-0.003659285042371401</v>
       </c>
       <c r="G34" t="n">
-        <v>0.002790539823621592</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.003165956094638244</v>
-      </c>
+        <v>0.00108048925921957</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>0.009452161242086449</v>
+        <v>0.01035195651007826</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.08958650088216748</v>
+        <v>-0.06430344829941251</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03176084536643381</v>
+        <v>0.04761053940842157</v>
       </c>
       <c r="L34" t="n">
-        <v>0.03176084536643381</v>
+        <v>0.04761053940842157</v>
       </c>
       <c r="M34" t="n">
-        <v>0.03176084536643381</v>
+        <v>0.04761053940842157</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03176084536643381</v>
+        <v>0.04761053940842157</v>
       </c>
       <c r="O34" t="n">
-        <v>0.03176084536643381</v>
+        <v>0.04761053940842157</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.001956408366256334</v>
+        <v>-0.001632886625315465</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.02971693693267747</v>
+        <v>0.04781547839261913</v>
       </c>
       <c r="R34" t="n">
-        <v>0.02971693693267747</v>
+        <v>0.04781547839261913</v>
       </c>
       <c r="S34" t="n">
-        <v>0.02971693693267747</v>
+        <v>0.04781547839261913</v>
       </c>
       <c r="T34" t="n">
-        <v>0.02971693693267747</v>
+        <v>0.04781547839261913</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.01078703966348159</v>
+        <v>-0.002368383742735349</v>
       </c>
       <c r="V34" t="n">
-        <v>-0.007640994833639793</v>
+        <v>0.0005478026139121044</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.00688027477121099</v>
+        <v>-0.008905602404224095</v>
       </c>
       <c r="X34" t="n">
-        <v>0.003831835641273425</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.0001273590770943631</v>
-      </c>
+        <v>0.006819154736766189</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
-        <v>0.006467631714705268</v>
+        <v>-0.01000323678412947</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.01328442657937706</v>
+        <v>0.04405457437018297</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.01328442657937706</v>
+        <v>0.04405457437018297</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.01328442657937706</v>
+        <v>0.04405457437018297</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.01328442657937706</v>
+        <v>0.04405457437018297</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.01328442657937706</v>
+        <v>0.04405457437018297</v>
       </c>
     </row>
     <row r="35">
@@ -3759,91 +3635,87 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.037305225172209</v>
+        <v>-0.02976176077447043</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.0325537349341494</v>
+        <v>-0.0188940626757625</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02753344526133781</v>
+        <v>0.02753409479736379</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02398442457537698</v>
-      </c>
-      <c r="H35" t="n">
-        <v>-0.02521633540865341</v>
-      </c>
+        <v>-0.03221141984845679</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>-0.005563971966558877</v>
+        <v>-0.00734972150998886</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01772983539089399</v>
+        <v>0.03281359948883256</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7351484383979374</v>
+        <v>0.7882344642653785</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7351484383979374</v>
+        <v>0.7882344642653785</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7351484383979374</v>
+        <v>0.7882344642653785</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7351484383979374</v>
+        <v>0.7882344642653785</v>
       </c>
       <c r="O35" t="n">
-        <v>0.7351484383979374</v>
+        <v>0.7882344642653785</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05227691162707645</v>
+        <v>0.05114554198182167</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.7265617309184692</v>
+        <v>0.798683401803336</v>
       </c>
       <c r="R35" t="n">
-        <v>0.7265617309184692</v>
+        <v>0.798683401803336</v>
       </c>
       <c r="S35" t="n">
-        <v>0.7265617309184692</v>
+        <v>0.798683401803336</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7265617309184692</v>
+        <v>0.798683401803336</v>
       </c>
       <c r="U35" t="n">
-        <v>0.001785607079424283</v>
+        <v>0.01456349079053963</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.02044104600164184</v>
+        <v>0.01378995655159826</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.005471038586841542</v>
+        <v>-0.005007773864310954</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02166580896263236</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.01251044805241792</v>
-      </c>
+        <v>0.02160596832023873</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>0.0202404652256186</v>
+        <v>0.02067594927503797</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.1805966521198661</v>
+        <v>-0.2822659810186392</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.1805966521198661</v>
+        <v>-0.2822659810186392</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.1805966521198661</v>
+        <v>-0.2822659810186392</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.1805966521198661</v>
+        <v>-0.2822659810186392</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.1805966521198661</v>
+        <v>-0.2822659810186392</v>
       </c>
     </row>
     <row r="36">
@@ -3858,91 +3730,87 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.005494109691764387</v>
+        <v>-0.001659626178385047</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01457558650302346</v>
+        <v>0.01649728491589139</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.01471963374078535</v>
+        <v>-0.01472126602885064</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01280073833602953</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.01583977176959087</v>
-      </c>
+        <v>0.009769324134772963</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.004661275386451015</v>
+        <v>0.002287365883494635</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.00396936060011036</v>
+        <v>-0.01089043599833363</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.004626484409059375</v>
+        <v>-0.01081805400072216</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.004626484409059375</v>
+        <v>-0.01081805400072216</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.004626484409059375</v>
+        <v>-0.01081805400072216</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.004626484409059375</v>
+        <v>-0.01081805400072216</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.004626484409059375</v>
+        <v>-0.01081805400072216</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01455969658238786</v>
+        <v>-0.01510961801238472</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.003718921684756867</v>
+        <v>-0.007435324041412961</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.003718921684756867</v>
+        <v>-0.007435324041412961</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.003718921684756867</v>
+        <v>-0.007435324041412961</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.003718921684756867</v>
+        <v>-0.007435324041412961</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02150852322834092</v>
+        <v>0.02676228433449137</v>
       </c>
       <c r="V36" t="n">
-        <v>0.004940468837618752</v>
+        <v>0.01069336055573442</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01324649476985979</v>
+        <v>0.01287686365107455</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.0116071050082842</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.0109863373994535</v>
-      </c>
+        <v>-0.01742936930517477</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
-        <v>-0.01831431846057274</v>
+        <v>-0.01599703100788124</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.01278828924753157</v>
+        <v>0.01303976989759079</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01278828924753157</v>
+        <v>0.01303976989759079</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.01278828924753157</v>
+        <v>0.01303976989759079</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.01278828924753157</v>
+        <v>0.01303976989759079</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.01278828924753157</v>
+        <v>0.01303976989759079</v>
       </c>
     </row>
     <row r="37">
@@ -3957,91 +3825,87 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.003719198356767934</v>
+        <v>0.003027264409090576</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="n">
-        <v>0.001946349389853975</v>
+        <v>-0.005769725894789035</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.001633289537331581</v>
+        <v>-0.001633238945329558</v>
       </c>
       <c r="G37" t="n">
-        <v>0.002657175082287003</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-0.000297531851901274</v>
-      </c>
+        <v>0.002073099634923985</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.01722484187299367</v>
+        <v>0.01947150625086025</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.008570198858965062</v>
+        <v>0.008540666654030681</v>
       </c>
       <c r="K37" t="n">
-        <v>0.08503020676120826</v>
+        <v>0.1039977679999107</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08503020676120826</v>
+        <v>0.1039977679999107</v>
       </c>
       <c r="M37" t="n">
-        <v>0.08503020676120826</v>
+        <v>0.1039977679999107</v>
       </c>
       <c r="N37" t="n">
-        <v>0.08503020676120826</v>
+        <v>0.1039977679999107</v>
       </c>
       <c r="O37" t="n">
-        <v>0.08503020676120826</v>
+        <v>0.1039977679999107</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0007152655966106237</v>
+        <v>0.001981981615279264</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.08552903698916146</v>
+        <v>0.1046184454647378</v>
       </c>
       <c r="R37" t="n">
-        <v>0.08552903698916146</v>
+        <v>0.1046184454647378</v>
       </c>
       <c r="S37" t="n">
-        <v>0.08552903698916146</v>
+        <v>0.1046184454647378</v>
       </c>
       <c r="T37" t="n">
-        <v>0.08552903698916146</v>
+        <v>0.1046184454647378</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.008408797488351898</v>
+        <v>-0.01149986407599456</v>
       </c>
       <c r="V37" t="n">
-        <v>0.005831978345279133</v>
+        <v>-0.0163076175163047</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.003869834938793397</v>
+        <v>-0.002299128667965146</v>
       </c>
       <c r="X37" t="n">
-        <v>0.006398661759946469</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>-0.01645167233806689</v>
-      </c>
+        <v>0.008202689224107568</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
-        <v>0.02693678622947144</v>
+        <v>0.01687903632316145</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.06390579874823195</v>
+        <v>0.1347843095193724</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.06390579874823195</v>
+        <v>0.1347843095193724</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.06390579874823195</v>
+        <v>0.1347843095193724</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.06390579874823195</v>
+        <v>0.1347843095193724</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.06390579874823195</v>
+        <v>0.1347843095193724</v>
       </c>
     </row>
     <row r="38">
@@ -4056,91 +3920,87 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.004314030412561216</v>
+        <v>0.001151951566078062</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.01823771564150862</v>
+        <v>-0.01653143202125728</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0166430150337206</v>
+        <v>0.01664394133775765</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01461337488853499</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0.01686248870649954</v>
-      </c>
+        <v>-0.01380962292038492</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>-0.001139773389590935</v>
+        <v>-5.61257302450292e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>0.004521010415473833</v>
+        <v>0.0231358068361979</v>
       </c>
       <c r="K38" t="n">
-        <v>0.02156989593479584</v>
+        <v>0.01865530442621217</v>
       </c>
       <c r="L38" t="n">
-        <v>0.02156989593479584</v>
+        <v>0.01865530442621217</v>
       </c>
       <c r="M38" t="n">
-        <v>0.02156989593479584</v>
+        <v>0.01865530442621217</v>
       </c>
       <c r="N38" t="n">
-        <v>0.02156989593479584</v>
+        <v>0.01865530442621217</v>
       </c>
       <c r="O38" t="n">
-        <v>0.02156989593479584</v>
+        <v>0.01865530442621217</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01686539193861568</v>
+        <v>0.01701224295248972</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.02161723545668941</v>
+        <v>0.01939212451968498</v>
       </c>
       <c r="R38" t="n">
-        <v>0.02161723545668941</v>
+        <v>0.01939212451968498</v>
       </c>
       <c r="S38" t="n">
-        <v>0.02161723545668941</v>
+        <v>0.01939212451968498</v>
       </c>
       <c r="T38" t="n">
-        <v>0.02161723545668941</v>
+        <v>0.01939212451968498</v>
       </c>
       <c r="U38" t="n">
-        <v>0.002978078327123133</v>
+        <v>-0.001027205129088205</v>
       </c>
       <c r="V38" t="n">
-        <v>-0.006451307106052283</v>
+        <v>-0.00867801557912062</v>
       </c>
       <c r="W38" t="n">
-        <v>0.006013231440529256</v>
+        <v>0.006436027073441083</v>
       </c>
       <c r="X38" t="n">
-        <v>0.001111165772446631</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>-0.008478057651122306</v>
-      </c>
+        <v>0.01220072765602911</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
-        <v>0.0130573051622922</v>
+        <v>0.01594047279761891</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.001695235075809403</v>
+        <v>-0.01772730618109224</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.001695235075809403</v>
+        <v>-0.01772730618109224</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.001695235075809403</v>
+        <v>-0.01772730618109224</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.001695235075809403</v>
+        <v>-0.01772730618109224</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.001695235075809403</v>
+        <v>-0.01772730618109224</v>
       </c>
     </row>
     <row r="39">
@@ -4155,91 +4015,87 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01383611479344459</v>
+        <v>0.0007370988774839549</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="n">
-        <v>0.002934458805378352</v>
+        <v>-0.009878908907156354</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0005079012683160506</v>
+        <v>-0.0005090221643608865</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0006890630675625226</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-0.004003643296145732</v>
-      </c>
+        <v>0.004366962798678512</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.00333535626141425</v>
+        <v>0.005160058478402339</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.006386881038497185</v>
+        <v>-0.001387965992884398</v>
       </c>
       <c r="K39" t="n">
-        <v>0.04441356340854253</v>
+        <v>-0.002512404292496172</v>
       </c>
       <c r="L39" t="n">
-        <v>0.04441356340854253</v>
+        <v>-0.002512404292496172</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04441356340854253</v>
+        <v>-0.002512404292496172</v>
       </c>
       <c r="N39" t="n">
-        <v>0.04441356340854253</v>
+        <v>-0.002512404292496172</v>
       </c>
       <c r="O39" t="n">
-        <v>0.04441356340854253</v>
+        <v>-0.002512404292496172</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0003974843678993747</v>
+        <v>9.738288389531534e-05</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.04653889395755575</v>
+        <v>-0.008555158518206339</v>
       </c>
       <c r="R39" t="n">
-        <v>0.04653889395755575</v>
+        <v>-0.008555158518206339</v>
       </c>
       <c r="S39" t="n">
-        <v>0.04653889395755575</v>
+        <v>-0.008555158518206339</v>
       </c>
       <c r="T39" t="n">
-        <v>0.04653889395755575</v>
+        <v>-0.008555158518206339</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01381188352847534</v>
+        <v>-0.0009881632715265307</v>
       </c>
       <c r="V39" t="n">
-        <v>0.01854462630978505</v>
+        <v>-0.02661931364077254</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01032551302102052</v>
+        <v>0.01110758540430341</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.0003906136476245459</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>-0.02665180964207238</v>
-      </c>
+        <v>0.007452434794097392</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
-        <v>0.01438956815958272</v>
+        <v>0.01859534858381394</v>
       </c>
       <c r="AA39" t="n">
-        <v>-0.004247382697895307</v>
+        <v>0.009840073833602952</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.004247382697895307</v>
+        <v>0.009840073833602952</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.004247382697895307</v>
+        <v>0.009840073833602952</v>
       </c>
       <c r="AD39" t="n">
-        <v>-0.004247382697895307</v>
+        <v>0.009840073833602952</v>
       </c>
       <c r="AE39" t="n">
-        <v>-0.004247382697895307</v>
+        <v>0.009840073833602952</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2834565124902604</v>
+        <v>0.2833957562958302</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
@@ -746,47 +746,47 @@
         <v>-0.02443374212934968</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2345208942448357</v>
+        <v>-0.2345555626302225</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.07538483687139347</v>
+        <v>-0.07526459897858395</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2468955881667688</v>
+        <v>-0.2476848158151145</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2402624595944984</v>
+        <v>-0.2402445853537834</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2402624595944984</v>
+        <v>-0.2402445853537834</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.2402624595944984</v>
+        <v>-0.2402445853537834</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2402624595944984</v>
+        <v>-0.2402445853537834</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.2402624595944984</v>
+        <v>-0.2402445853537834</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.06137587954303517</v>
+        <v>-0.06137042069481682</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.03218478608739143</v>
+        <v>-0.0321471700218868</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.03218478608739143</v>
+        <v>-0.0321471700218868</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.03218478608739143</v>
+        <v>-0.0321471700218868</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.03218478608739143</v>
+        <v>-0.0321471700218868</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3082922290036891</v>
+        <v>0.3082506537060261</v>
       </c>
       <c r="V4" t="n">
         <v>0.9952059361602373</v>
@@ -795,26 +795,26 @@
         <v>0.01989645986785839</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.5881654837506193</v>
+        <v>-0.5882147986645919</v>
       </c>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>-0.3712271450570858</v>
+        <v>-0.3713720475588818</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.1153303294132132</v>
+        <v>-0.1155287940611518</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.1153303294132132</v>
+        <v>-0.1155287940611518</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.1153303294132132</v>
+        <v>-0.1155287940611518</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1153303294132132</v>
+        <v>-0.1155287940611518</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.1153303294132132</v>
+        <v>-0.1155287940611518</v>
       </c>
     </row>
     <row r="5">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.02119503329580133</v>
+        <v>0.02119960452798418</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
@@ -837,47 +837,47 @@
         <v>-0.01025176773807071</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01116659545466382</v>
+        <v>0.01116024678240987</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.004226381449055257</v>
+        <v>0.004223844456953777</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.004895228216626034</v>
+        <v>-0.004785812692141747</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02002169398486776</v>
+        <v>-0.02001917782476711</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.02002169398486776</v>
+        <v>-0.02001917782476711</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.02002169398486776</v>
+        <v>-0.02001917782476711</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.02002169398486776</v>
+        <v>-0.02001917782476711</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.02002169398486776</v>
+        <v>-0.02001917782476711</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.01026182306647292</v>
+        <v>-0.01025896956235878</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.02347253335490133</v>
+        <v>-0.02346632397865296</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.02347253335490133</v>
+        <v>-0.02346632397865296</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.02347253335490133</v>
+        <v>-0.02346632397865296</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.02347253335490133</v>
+        <v>-0.02346632397865296</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.008724218748968749</v>
+        <v>-0.008762023838480952</v>
       </c>
       <c r="V5" t="n">
         <v>-0.01185721151428846</v>
@@ -886,26 +886,26 @@
         <v>0.00600627604825104</v>
       </c>
       <c r="X5" t="n">
-        <v>0.00240839673633587</v>
+        <v>0.002249194649967786</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>-0.0005149685965987438</v>
+        <v>-0.0003996602079864083</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.01731752776470111</v>
+        <v>0.01739200091968003</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01731752776470111</v>
+        <v>0.01739200091968003</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01731752776470111</v>
+        <v>0.01739200091968003</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01731752776470111</v>
+        <v>0.01739200091968003</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01731752776470111</v>
+        <v>0.01739200091968003</v>
       </c>
     </row>
     <row r="6">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1613553322782133</v>
+        <v>0.1613548118621924</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
@@ -928,47 +928,47 @@
         <v>0.00728951126758045</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01959801044792042</v>
+        <v>-0.01960446625617865</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.4557365899094635</v>
+        <v>-0.4557398490135939</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1382931095558048</v>
+        <v>0.1385922493120647</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01157844094313764</v>
+        <v>0.01157988420719537</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01157844094313764</v>
+        <v>0.01157988420719537</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01157844094313764</v>
+        <v>0.01157988420719537</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01157844094313764</v>
+        <v>0.01157988420719537</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01157844094313764</v>
+        <v>0.01157988420719537</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008059443874377755</v>
+        <v>0.008060208226408327</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02006580829063233</v>
+        <v>0.02006736032269441</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02006580829063233</v>
+        <v>0.02006736032269441</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02006580829063233</v>
+        <v>0.02006736032269441</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02006580829063233</v>
+        <v>0.02006736032269441</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03923907987356318</v>
+        <v>0.03920634915225397</v>
       </c>
       <c r="V6" t="n">
         <v>-0.001128343917133757</v>
@@ -977,26 +977,26 @@
         <v>-0.02266518321060733</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03455806563832262</v>
+        <v>0.03447027229081089</v>
       </c>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>-0.1685632107105284</v>
+        <v>-0.1684302177772087</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.02967472928298917</v>
+        <v>-0.0297259675570387</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.02967472928298917</v>
+        <v>-0.0297259675570387</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.02967472928298917</v>
+        <v>-0.0297259675570387</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.02967472928298917</v>
+        <v>-0.0297259675570387</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.02967472928298917</v>
+        <v>-0.0297259675570387</v>
       </c>
     </row>
     <row r="7">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06501364301654572</v>
+        <v>0.06501497856859914</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
@@ -1019,47 +1019,47 @@
         <v>-0.009730009733200387</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01044245984169839</v>
+        <v>0.01043952771358111</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.2297506383100255</v>
+        <v>-0.2297704389828175</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05819927960123927</v>
+        <v>0.05825789624364161</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0157644451745778</v>
+        <v>0.0157694324707773</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0157644451745778</v>
+        <v>0.0157694324707773</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0157644451745778</v>
+        <v>0.0157694324707773</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0157644451745778</v>
+        <v>0.0157694324707773</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0157644451745778</v>
+        <v>0.0157694324707773</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.003506625548265022</v>
+        <v>-0.003504076652163066</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.006797821711912867</v>
+        <v>0.006799723375988934</v>
       </c>
       <c r="R7" t="n">
-        <v>0.006797821711912867</v>
+        <v>0.006799723375988934</v>
       </c>
       <c r="S7" t="n">
-        <v>0.006797821711912867</v>
+        <v>0.006799723375988934</v>
       </c>
       <c r="T7" t="n">
-        <v>0.006797821711912867</v>
+        <v>0.006799723375988934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02655735063029402</v>
+        <v>0.0266123550804942</v>
       </c>
       <c r="V7" t="n">
         <v>-0.01135713155828526</v>
@@ -1068,26 +1068,26 @@
         <v>0.02133579042143161</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01345846738633869</v>
+        <v>0.01376407408656296</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>-0.08069267381970695</v>
+        <v>-0.08057342741493707</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.01213107898124316</v>
+        <v>-0.01239491963179678</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.01213107898124316</v>
+        <v>-0.01239491963179678</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.01213107898124316</v>
+        <v>-0.01239491963179678</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01213107898124316</v>
+        <v>-0.01239491963179678</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.01213107898124316</v>
+        <v>-0.01239491963179678</v>
       </c>
     </row>
     <row r="8">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2166247924089917</v>
+        <v>0.2166421212736848</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
@@ -1110,47 +1110,47 @@
         <v>0.001711909412476376</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01247868654714746</v>
+        <v>0.0125129550925182</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.7784168697926748</v>
+        <v>0.7784229522569179</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1980987183908778</v>
+        <v>-0.1977751012256147</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.008042129985685199</v>
+        <v>-0.008064368770574749</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.008042129985685199</v>
+        <v>-0.008064368770574749</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.008042129985685199</v>
+        <v>-0.008064368770574749</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.008042129985685199</v>
+        <v>-0.008064368770574749</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.008042129985685199</v>
+        <v>-0.008064368770574749</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.003074250458970018</v>
+        <v>-0.003079258107170324</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.01130260538010422</v>
+        <v>-0.01133795661351826</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.01130260538010422</v>
+        <v>-0.01133795661351826</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.01130260538010422</v>
+        <v>-0.01133795661351826</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.01130260538010422</v>
+        <v>-0.01133795661351826</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01585472194618888</v>
+        <v>0.01588041471521659</v>
       </c>
       <c r="V8" t="n">
         <v>0.002316572156662886</v>
@@ -1159,26 +1159,26 @@
         <v>0.006062264114490565</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.02505022708200908</v>
+        <v>-0.02514796948591877</v>
       </c>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>0.2559802422392097</v>
+        <v>0.2558901356756054</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0213227826129113</v>
+        <v>0.0214119826484793</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0213227826129113</v>
+        <v>0.0214119826484793</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0213227826129113</v>
+        <v>0.0214119826484793</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0213227826129113</v>
+        <v>0.0214119826484793</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0213227826129113</v>
+        <v>0.0214119826484793</v>
       </c>
     </row>
     <row r="9">
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.481105576172223</v>
+        <v>0.4811187040767481</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
@@ -1205,47 +1205,47 @@
         <v>-0.001332931349317254</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004988680615547224</v>
+        <v>0.005022153800886151</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.01296407197456288</v>
+        <v>0.01295839568633583</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.007177240950152043</v>
+        <v>-0.006731911811900674</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.01302349290493971</v>
+        <v>-0.01304262455370498</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.01302349290493971</v>
+        <v>-0.01304262455370498</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.01302349290493971</v>
+        <v>-0.01304262455370498</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.01302349290493971</v>
+        <v>-0.01304262455370498</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.01302349290493971</v>
+        <v>-0.01304262455370498</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.001878288363131534</v>
+        <v>-0.001884281451371258</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.01410588027623521</v>
+        <v>-0.01414141669365667</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.01410588027623521</v>
+        <v>-0.01414141669365667</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.01410588027623521</v>
+        <v>-0.01414141669365667</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.01410588027623521</v>
+        <v>-0.01414141669365667</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.581403376248135</v>
+        <v>-0.5814193591927743</v>
       </c>
       <c r="V9" t="n">
         <v>-0.003613349904533996</v>
@@ -1254,26 +1254,26 @@
         <v>0.01231673991666959</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.008380975631239025</v>
+        <v>-0.008587131799485271</v>
       </c>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>0.002151539222061569</v>
+        <v>0.001949359565974382</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.01663227839329113</v>
+        <v>0.01694505533380221</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01663227839329113</v>
+        <v>0.01694505533380221</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.01663227839329113</v>
+        <v>0.01694505533380221</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.01663227839329113</v>
+        <v>0.01694505533380221</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.01663227839329113</v>
+        <v>0.01694505533380221</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.5243734755349391</v>
+        <v>0.5243694517907781</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
@@ -1300,47 +1300,47 @@
         <v>-0.03040799027231961</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02368629224345169</v>
+        <v>0.02364400001776</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.006569208454768338</v>
+        <v>-0.006557369830294792</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.02411866073247919</v>
+        <v>-0.02447027994688995</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02998998561559942</v>
+        <v>-0.02996478283059131</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02998998561559942</v>
+        <v>-0.02996478283059131</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.02998998561559942</v>
+        <v>-0.02996478283059131</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.02998998561559942</v>
+        <v>-0.02996478283059131</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.02998998561559942</v>
+        <v>-0.02996478283059131</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.03076312049452481</v>
+        <v>-0.03075495329419813</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.02975140179805607</v>
+        <v>-0.02970745318829812</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.02975140179805607</v>
+        <v>-0.02970745318829812</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.02975140179805607</v>
+        <v>-0.02970745318829812</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.02975140179805607</v>
+        <v>-0.02970745318829812</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6629640386145614</v>
+        <v>0.6629741651749665</v>
       </c>
       <c r="V10" t="n">
         <v>0.004843583905743356</v>
@@ -1349,26 +1349,26 @@
         <v>-0.001621308928852357</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.03018436872737475</v>
+        <v>-0.03003372292934891</v>
       </c>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>-0.02477025017481</v>
+        <v>-0.02460696463227858</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02432012612480504</v>
+        <v>0.02406468201858728</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02432012612480504</v>
+        <v>0.02406468201858728</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.02432012612480504</v>
+        <v>0.02406468201858728</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.02432012612480504</v>
+        <v>0.02406468201858728</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.02432012612480504</v>
+        <v>0.02406468201858728</v>
       </c>
     </row>
     <row r="11">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.007177574207102968</v>
+        <v>-0.007157588158303526</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
@@ -1395,47 +1395,47 @@
         <v>-0.001761446374457855</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007617392368695693</v>
+        <v>0.007614386224575448</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.006847238673889546</v>
+        <v>0.006818196080727842</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002452431412510449</v>
+        <v>0.002679305725808666</v>
       </c>
       <c r="K11" t="n">
-        <v>0.005588892319555692</v>
+        <v>0.005583491071339642</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005588892319555692</v>
+        <v>0.005583491071339642</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005588892319555692</v>
+        <v>0.005583491071339642</v>
       </c>
       <c r="N11" t="n">
-        <v>0.005588892319555692</v>
+        <v>0.005583491071339642</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005588892319555692</v>
+        <v>0.005583491071339642</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0008960206438408256</v>
+        <v>-0.0008952387238095488</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.00232072175682887</v>
+        <v>0.002321585276863411</v>
       </c>
       <c r="R11" t="n">
-        <v>0.00232072175682887</v>
+        <v>0.002321585276863411</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00232072175682887</v>
+        <v>0.002321585276863411</v>
       </c>
       <c r="T11" t="n">
-        <v>0.00232072175682887</v>
+        <v>0.002321585276863411</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.02038836206353448</v>
+        <v>-0.02039265460770618</v>
       </c>
       <c r="V11" t="n">
         <v>-0.01398212571128503</v>
@@ -1444,26 +1444,26 @@
         <v>0.01569153528366141</v>
       </c>
       <c r="X11" t="n">
-        <v>0.01528477078739083</v>
+        <v>0.01519932425597297</v>
       </c>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>0.0221731699429268</v>
+        <v>0.0223152450526098</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.009603693696147747</v>
+        <v>0.00958381929535277</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.009603693696147747</v>
+        <v>0.00958381929535277</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.009603693696147747</v>
+        <v>0.00958381929535277</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.009603693696147747</v>
+        <v>0.00958381929535277</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.009603693696147747</v>
+        <v>0.00958381929535277</v>
       </c>
     </row>
     <row r="12">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.06571927098077082</v>
+        <v>0.06571099606843984</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
@@ -1490,47 +1490,47 @@
         <v>-0.01071551735662069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007053892410155696</v>
+        <v>0.007028568377142734</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.001692857059714282</v>
+        <v>0.001682485891299435</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.006319883635014111</v>
+        <v>-0.006838479976268263</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.001193207567728302</v>
+        <v>-0.001175699567027982</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.001193207567728302</v>
+        <v>-0.001175699567027982</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.001193207567728302</v>
+        <v>-0.001175699567027982</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.001193207567728302</v>
+        <v>-0.001175699567027982</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.001193207567728302</v>
+        <v>-0.001175699567027982</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01083129057725162</v>
+        <v>-0.01082728536109141</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0006514692740587709</v>
+        <v>0.0006767113230684529</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0006514692740587709</v>
+        <v>0.0006767113230684529</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0006514692740587709</v>
+        <v>0.0006767113230684529</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0006514692740587709</v>
+        <v>0.0006767113230684529</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06300645679225826</v>
+        <v>0.06301321960852878</v>
       </c>
       <c r="V12" t="n">
         <v>0.009890467115618683</v>
@@ -1539,26 +1539,26 @@
         <v>0.0226326601373064</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.01344158175366327</v>
+        <v>-0.01332809659712386</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>-0.01299935111197404</v>
+        <v>-0.01302791370511655</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.006433740353349613</v>
+        <v>0.006337987645519506</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.006433740353349613</v>
+        <v>0.006337987645519506</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.006433740353349613</v>
+        <v>0.006337987645519506</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.006433740353349613</v>
+        <v>0.006337987645519506</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.006433740353349613</v>
+        <v>0.006337987645519506</v>
       </c>
     </row>
     <row r="13">
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2413273915730957</v>
+        <v>-0.241343574677743</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
@@ -1581,47 +1581,47 @@
         <v>-0.01637232132689285</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01058218458328738</v>
+        <v>0.01061292359251694</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>-0.002878490803139632</v>
+        <v>-0.002858171634326865</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009711391406011665</v>
+        <v>-0.009563919175967663</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.006556745926269836</v>
+        <v>-0.006566880166675206</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.006556745926269836</v>
+        <v>-0.006566880166675206</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.006556745926269836</v>
+        <v>-0.006566880166675206</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.006556745926269836</v>
+        <v>-0.006566880166675206</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.006556745926269836</v>
+        <v>-0.006566880166675206</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01648183678727347</v>
+        <v>-0.01648559777942391</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.003326187973047519</v>
+        <v>-0.003354739238189569</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.003326187973047519</v>
+        <v>-0.003354739238189569</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.003326187973047519</v>
+        <v>-0.003354739238189569</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.003326187973047519</v>
+        <v>-0.003354739238189569</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.05210747094829883</v>
+        <v>-0.05210150013206</v>
       </c>
       <c r="V13" t="n">
         <v>0.01207735267509411</v>
@@ -1630,26 +1630,26 @@
         <v>-0.000641913625676545</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.01968761445150457</v>
+        <v>-0.01970114248404569</v>
       </c>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>-0.02032785930911437</v>
+        <v>-0.02043432542537301</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.006370028414801135</v>
+        <v>0.006549297669971907</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.006370028414801135</v>
+        <v>0.006549297669971907</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.006370028414801135</v>
+        <v>0.006549297669971907</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.006370028414801135</v>
+        <v>0.006549297669971907</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.006370028414801135</v>
+        <v>0.006549297669971907</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.009953392430135696</v>
+        <v>0.00995412577416503</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
@@ -1676,47 +1676,47 @@
         <v>-0.00820764224830569</v>
       </c>
       <c r="G14" t="n">
-        <v>0.006118467220738688</v>
+        <v>0.006115009876600394</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.02489184675567387</v>
+        <v>-0.02491263296450532</v>
       </c>
       <c r="J14" t="n">
-        <v>0.003232089444463954</v>
+        <v>0.003509082479816236</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.006089630547585221</v>
+        <v>-0.006080319315212772</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.006089630547585221</v>
+        <v>-0.006080319315212772</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.006089630547585221</v>
+        <v>-0.006080319315212772</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.006089630547585221</v>
+        <v>-0.006080319315212772</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.006089630547585221</v>
+        <v>-0.006080319315212772</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.007567419182696766</v>
+        <v>-0.007566342158653685</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.006978885591155422</v>
+        <v>-0.006976480215059208</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.006978885591155422</v>
+        <v>-0.006976480215059208</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.006978885591155422</v>
+        <v>-0.006976480215059208</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.006978885591155422</v>
+        <v>-0.006976480215059208</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01846745613069824</v>
+        <v>0.0185187775407511</v>
       </c>
       <c r="V14" t="n">
         <v>-0.004485764819430592</v>
@@ -1725,26 +1725,26 @@
         <v>0.007139252157570085</v>
       </c>
       <c r="X14" t="n">
-        <v>0.003692320467692819</v>
+        <v>0.003925121437004858</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>0.01050353677214147</v>
+        <v>0.01066783953071358</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.001059672522386901</v>
+        <v>-0.00136319026252761</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.001059672522386901</v>
+        <v>-0.00136319026252761</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.001059672522386901</v>
+        <v>-0.00136319026252761</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.001059672522386901</v>
+        <v>-0.00136319026252761</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.001059672522386901</v>
+        <v>-0.00136319026252761</v>
       </c>
     </row>
     <row r="15">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.0285097601163904</v>
+        <v>-0.02852555614902224</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
@@ -1771,47 +1771,47 @@
         <v>-0.006815456816618272</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005106825036273001</v>
+        <v>0.005096414507856579</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.006966072950642917</v>
+        <v>0.006987265719490628</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0007897743203681107</v>
+        <v>0.0005202849333233576</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001922861164914446</v>
+        <v>0.001931634989265399</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001922861164914446</v>
+        <v>0.001931634989265399</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001922861164914446</v>
+        <v>0.001931634989265399</v>
       </c>
       <c r="N15" t="n">
-        <v>0.001922861164914446</v>
+        <v>0.001931634989265399</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001922861164914446</v>
+        <v>0.001931634989265399</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.006708935692357427</v>
+        <v>-0.006708231148329246</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.001588555647542226</v>
+        <v>0.001599975135999005</v>
       </c>
       <c r="R15" t="n">
-        <v>0.001588555647542226</v>
+        <v>0.001599975135999005</v>
       </c>
       <c r="S15" t="n">
-        <v>0.001588555647542226</v>
+        <v>0.001599975135999005</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001588555647542226</v>
+        <v>0.001599975135999005</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.05279717567988702</v>
+        <v>-0.0527649024945961</v>
       </c>
       <c r="V15" t="n">
         <v>0.001143773613750944</v>
@@ -1820,26 +1820,26 @@
         <v>0.001611766432470657</v>
       </c>
       <c r="X15" t="n">
-        <v>4.934937797397511e-05</v>
+        <v>0.0003017208120688324</v>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>0.01243784392151375</v>
+        <v>0.01247191365087654</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.004969835910793435</v>
+        <v>0.004823734176949366</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.004969835910793435</v>
+        <v>0.004823734176949366</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.004969835910793435</v>
+        <v>0.004823734176949366</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.004969835910793435</v>
+        <v>0.004823734176949366</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.004969835910793435</v>
+        <v>0.004823734176949366</v>
       </c>
     </row>
     <row r="16">
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.008396965391878614</v>
+        <v>0.008408770416350816</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
@@ -1866,47 +1866,47 @@
         <v>-0.001877724651108986</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002086753619470145</v>
+        <v>0.00210423051616922</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.0134443299457732</v>
+        <v>-0.01345522796220912</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.009461304099762086</v>
+        <v>-0.009299575773133811</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02566743875469755</v>
+        <v>0.02566577785863111</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02566743875469755</v>
+        <v>0.02566577785863111</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02566743875469755</v>
+        <v>0.02566577785863111</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02566743875469755</v>
+        <v>0.02566577785863111</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02566743875469755</v>
+        <v>0.02566577785863111</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.001084973227398929</v>
+        <v>-0.0010871650034866</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02703579717743188</v>
+        <v>0.02701812866472514</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02703579717743188</v>
+        <v>0.02701812866472514</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02703579717743188</v>
+        <v>0.02701812866472514</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02703579717743188</v>
+        <v>0.02701812866472514</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01180016485600659</v>
+        <v>0.01178291855131674</v>
       </c>
       <c r="V16" t="n">
         <v>0.00151760175670407</v>
@@ -1915,26 +1915,26 @@
         <v>0.01470007124400285</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.005007965096318603</v>
+        <v>-0.005058713482348539</v>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>0.001631243393249735</v>
+        <v>0.001370037558801502</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.01017162040686482</v>
+        <v>-0.01006631541065262</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.01017162040686482</v>
+        <v>-0.01006631541065262</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.01017162040686482</v>
+        <v>-0.01006631541065262</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.01017162040686482</v>
+        <v>-0.01006631541065262</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.01017162040686482</v>
+        <v>-0.01006631541065262</v>
       </c>
     </row>
     <row r="17">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.01621097709643908</v>
+        <v>-0.01621071482442859</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
@@ -1961,47 +1961,47 @@
         <v>-0.005185817199432687</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0006197940727917629</v>
+        <v>-0.0005993541359741654</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.007148426109937043</v>
+        <v>-0.007140565725622628</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01420653255024053</v>
+        <v>-0.01458367000569713</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01281506105660244</v>
+        <v>-0.01283472089738883</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.01281506105660244</v>
+        <v>-0.01283472089738883</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.01281506105660244</v>
+        <v>-0.01283472089738883</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.01281506105660244</v>
+        <v>-0.01283472089738883</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01281506105660244</v>
+        <v>-0.01283472089738883</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.00599985652799426</v>
+        <v>-0.006004026288161051</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.009217137392685494</v>
+        <v>-0.009233149137325964</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.009217137392685494</v>
+        <v>-0.009233149137325964</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.009217137392685494</v>
+        <v>-0.009233149137325964</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.009217137392685494</v>
+        <v>-0.009233149137325964</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.01473880983755239</v>
+        <v>-0.01469842033193681</v>
       </c>
       <c r="V17" t="n">
         <v>0.01137066957482678</v>
@@ -2010,26 +2010,26 @@
         <v>0.01226000804240032</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.009813368072534721</v>
+        <v>-0.009750955782038231</v>
       </c>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>-0.004315334476613379</v>
+        <v>-0.004272780842911232</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.008392173839686953</v>
+        <v>0.008485503315420131</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.008392173839686953</v>
+        <v>0.008485503315420131</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.008392173839686953</v>
+        <v>0.008485503315420131</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.008392173839686953</v>
+        <v>0.008485503315420131</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.008392173839686953</v>
+        <v>0.008485503315420131</v>
       </c>
     </row>
     <row r="18">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.002642357577694303</v>
+        <v>0.002628155145126206</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
@@ -2052,47 +2052,47 @@
         <v>-0.0108452300658092</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.001727692965107718</v>
+        <v>-0.001761113638444545</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.009134375885375036</v>
+        <v>-0.009122832652913304</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.008446281034162381</v>
+        <v>-0.00876971551141802</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.01197343343893734</v>
+        <v>-0.01195876204635048</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01197343343893734</v>
+        <v>-0.01195876204635048</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.01197343343893734</v>
+        <v>-0.01195876204635048</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.01197343343893734</v>
+        <v>-0.01195876204635048</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.01197343343893734</v>
+        <v>-0.01195876204635048</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.0120142925765717</v>
+        <v>-0.01201007587240303</v>
       </c>
       <c r="Q18" t="n">
-        <v>-0.003905800380232015</v>
+        <v>-0.003872667898906715</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.003905800380232015</v>
+        <v>-0.003872667898906715</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.003905800380232015</v>
+        <v>-0.003872667898906715</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.003905800380232015</v>
+        <v>-0.003872667898906715</v>
       </c>
       <c r="U18" t="n">
-        <v>0.005123624076944963</v>
+        <v>0.005118718380748735</v>
       </c>
       <c r="V18" t="n">
         <v>0.03952501607700064</v>
@@ -2101,26 +2101,26 @@
         <v>-0.01109554700382188</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.0234865651954626</v>
+        <v>-0.02339411440776457</v>
       </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
-        <v>-0.03847008297880332</v>
+        <v>-0.03821417173656687</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.00337981626319265</v>
+        <v>0.003223547168941886</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.00337981626319265</v>
+        <v>0.003223547168941886</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.00337981626319265</v>
+        <v>0.003223547168941886</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.00337981626319265</v>
+        <v>0.003223547168941886</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.00337981626319265</v>
+        <v>0.003223547168941886</v>
       </c>
     </row>
     <row r="19">
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02008218397128736</v>
+        <v>0.02007601577904063</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
@@ -2147,47 +2147,47 @@
         <v>-0.01669260373970415</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01647132891485316</v>
+        <v>0.01647495473899819</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.01602847465713898</v>
+        <v>0.01603845366553814</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01892599407166294</v>
+        <v>-0.01939386746683826</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.02210905211636208</v>
+        <v>-0.02210625842025033</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.02210905211636208</v>
+        <v>-0.02210625842025033</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.02210905211636208</v>
+        <v>-0.02210625842025033</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.02210905211636208</v>
+        <v>-0.02210625842025033</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.02210905211636208</v>
+        <v>-0.02210625842025033</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01650444152417766</v>
+        <v>-0.0165065451722618</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02496933287077331</v>
+        <v>-0.02497155949486238</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.02496933287077331</v>
+        <v>-0.02497155949486238</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.02496933287077331</v>
+        <v>-0.02497155949486238</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.02496933287077331</v>
+        <v>-0.02497155949486238</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.01316378779055151</v>
+        <v>-0.01318692859147714</v>
       </c>
       <c r="V19" t="n">
         <v>-0.008003583200143327</v>
@@ -2196,26 +2196,26 @@
         <v>0.001386207895448316</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.01365387232215489</v>
+        <v>-0.01370294848411794</v>
       </c>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>-0.009820804808832191</v>
+        <v>-0.009915201228608048</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02809453725178149</v>
+        <v>0.02835397649415906</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.02809453725178149</v>
+        <v>0.02835397649415906</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.02809453725178149</v>
+        <v>0.02835397649415906</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.02809453725178149</v>
+        <v>0.02835397649415906</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.02809453725178149</v>
+        <v>0.02835397649415906</v>
       </c>
     </row>
     <row r="20">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01034932380597295</v>
+        <v>-0.01035673663826947</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
@@ -2242,47 +2242,47 @@
         <v>-0.01327992782719711</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009141779693671187</v>
+        <v>0.009137258957490358</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.003589943471597739</v>
+        <v>0.003600245328009813</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.007886612819224939</v>
+        <v>-0.008579153871608042</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.01986136889045475</v>
+        <v>-0.01986351458654058</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01986136889045475</v>
+        <v>-0.01986351458654058</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.01986136889045475</v>
+        <v>-0.01986351458654058</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.01986136889045475</v>
+        <v>-0.01986351458654058</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.01986136889045475</v>
+        <v>-0.01986351458654058</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.01410627147625086</v>
+        <v>-0.0141050001482</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.01804331400173256</v>
+        <v>-0.01803572366542894</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.01804331400173256</v>
+        <v>-0.01803572366542894</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.01804331400173256</v>
+        <v>-0.01803572366542894</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.01804331400173256</v>
+        <v>-0.01803572366542894</v>
       </c>
       <c r="U20" t="n">
-        <v>0.007008293560331742</v>
+        <v>0.00702066978482679</v>
       </c>
       <c r="V20" t="n">
         <v>0.01393498231739929</v>
@@ -2291,26 +2291,26 @@
         <v>0.009529090269163609</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.01110892969235719</v>
+        <v>-0.01106773561070942</v>
       </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>-0.008929581573183262</v>
+        <v>-0.008988846695553868</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01090327070813083</v>
+        <v>0.0109663050786522</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01090327070813083</v>
+        <v>0.0109663050786522</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01090327070813083</v>
+        <v>0.0109663050786522</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.01090327070813083</v>
+        <v>0.0109663050786522</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.01090327070813083</v>
+        <v>0.0109663050786522</v>
       </c>
     </row>
     <row r="21">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.008520406612816262</v>
+        <v>-0.008520415156816605</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
@@ -2333,47 +2333,47 @@
         <v>-0.01715999435039977</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01403713140948525</v>
+        <v>0.01400866443234658</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.01729806347592254</v>
+        <v>0.01729767726790709</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.0181368629993212</v>
+        <v>-0.0182288966670931</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.01091042482041699</v>
+        <v>-0.01090073045202922</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.01091042482041699</v>
+        <v>-0.01090073045202922</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.01091042482041699</v>
+        <v>-0.01090073045202922</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01091042482041699</v>
+        <v>-0.01090073045202922</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.01091042482041699</v>
+        <v>-0.01090073045202922</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01761651190466047</v>
+        <v>-0.01761336531253461</v>
       </c>
       <c r="Q21" t="n">
-        <v>-0.009863433514537339</v>
+        <v>-0.00984141380165655</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.009863433514537339</v>
+        <v>-0.00984141380165655</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.009863433514537339</v>
+        <v>-0.00984141380165655</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.009863433514537339</v>
+        <v>-0.00984141380165655</v>
       </c>
       <c r="U21" t="n">
-        <v>0.006665787242631488</v>
+        <v>0.006676334283053371</v>
       </c>
       <c r="V21" t="n">
         <v>0.00978642403945696</v>
@@ -2382,26 +2382,26 @@
         <v>0.002250042426001697</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.004871431682857267</v>
+        <v>-0.004804709088188364</v>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
-        <v>0.0124414024496561</v>
+        <v>0.01260112524004501</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01340005397600216</v>
+        <v>0.01323539035341561</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01340005397600216</v>
+        <v>0.01323539035341561</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01340005397600216</v>
+        <v>0.01323539035341561</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.01340005397600216</v>
+        <v>0.01323539035341561</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01340005397600216</v>
+        <v>0.01323539035341561</v>
       </c>
     </row>
     <row r="22">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.03009606965184278</v>
+        <v>-0.0301122974924919</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
@@ -2424,47 +2424,47 @@
         <v>0.003497282731891308</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00264693399387736</v>
+        <v>-0.00264642452185698</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.005480717787228711</v>
+        <v>-0.005462904218516168</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0001328195574434767</v>
+        <v>2.438083299922406e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.03082160609686424</v>
+        <v>-0.03082382484895299</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.03082160609686424</v>
+        <v>-0.03082382484895299</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.03082160609686424</v>
+        <v>-0.03082382484895299</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.03082160609686424</v>
+        <v>-0.03082382484895299</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.03082160609686424</v>
+        <v>-0.03082382484895299</v>
       </c>
       <c r="P22" t="n">
-        <v>0.002462176226487049</v>
+        <v>0.002463250466530018</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.03082260728090429</v>
+        <v>-0.03082165044886601</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.03082260728090429</v>
+        <v>-0.03082165044886601</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.03082260728090429</v>
+        <v>-0.03082165044886601</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.03082260728090429</v>
+        <v>-0.03082165044886601</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01031141042845642</v>
+        <v>0.01030216716408668</v>
       </c>
       <c r="V22" t="n">
         <v>-0.002066042866641714</v>
@@ -2473,26 +2473,26 @@
         <v>-0.0009004116840164673</v>
       </c>
       <c r="X22" t="n">
-        <v>0.003819032696761307</v>
+        <v>0.003838260441530417</v>
       </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>0.01733767134950685</v>
+        <v>0.01745428284217131</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.001485960059438402</v>
+        <v>0.001358894166355766</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.001485960059438402</v>
+        <v>0.001358894166355766</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.001485960059438402</v>
+        <v>0.001358894166355766</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.001485960059438402</v>
+        <v>0.001358894166355766</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.001485960059438402</v>
+        <v>0.001358894166355766</v>
       </c>
     </row>
     <row r="23">
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.01506454697058188</v>
+        <v>-0.0150511151300446</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
@@ -2515,47 +2515,47 @@
         <v>0.009249475185979007</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.007148104797924191</v>
+        <v>-0.00716297126251885</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.004939791557591661</v>
+        <v>-0.004942863269714531</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01531973520386403</v>
+        <v>0.01513230940418257</v>
       </c>
       <c r="K23" t="n">
-        <v>0.006290231867609274</v>
+        <v>0.006288118619524743</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006290231867609274</v>
+        <v>0.006288118619524743</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006290231867609274</v>
+        <v>0.006288118619524743</v>
       </c>
       <c r="N23" t="n">
-        <v>0.006290231867609274</v>
+        <v>0.006288118619524743</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006290231867609274</v>
+        <v>0.006288118619524743</v>
       </c>
       <c r="P23" t="n">
-        <v>0.009108356716334268</v>
+        <v>0.009110232268409291</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.005397405431896217</v>
+        <v>0.005409059160362366</v>
       </c>
       <c r="R23" t="n">
-        <v>0.005397405431896217</v>
+        <v>0.005409059160362366</v>
       </c>
       <c r="S23" t="n">
-        <v>0.005397405431896217</v>
+        <v>0.005409059160362366</v>
       </c>
       <c r="T23" t="n">
-        <v>0.005397405431896217</v>
+        <v>0.005409059160362366</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.01325355931414237</v>
+        <v>-0.01320636072025443</v>
       </c>
       <c r="V23" t="n">
         <v>-0.006987037143481484</v>
@@ -2564,26 +2564,26 @@
         <v>-0.004115624708624988</v>
       </c>
       <c r="X23" t="n">
-        <v>0.01051195606847824</v>
+        <v>0.01055277287011091</v>
       </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>0.02343055581722223</v>
+        <v>0.02352682682907307</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.0003103623484144939</v>
+        <v>-0.0004431188337247533</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.0003103623484144939</v>
+        <v>-0.0004431188337247533</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.0003103623484144939</v>
+        <v>-0.0004431188337247533</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.0003103623484144939</v>
+        <v>-0.0004431188337247533</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.0003103623484144939</v>
+        <v>-0.0004431188337247533</v>
       </c>
     </row>
     <row r="24">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01063309021732361</v>
+        <v>-0.01062074653682986</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
@@ -2610,47 +2610,47 @@
         <v>-0.007763174902526995</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007800970488038819</v>
+        <v>0.007798358807934351</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0.01530248038809921</v>
+        <v>0.01527221312288852</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.02067878993549953</v>
+        <v>-0.02133402241035357</v>
       </c>
       <c r="K24" t="n">
-        <v>0.005003528360141133</v>
+        <v>0.004997707303908291</v>
       </c>
       <c r="L24" t="n">
-        <v>0.005003528360141133</v>
+        <v>0.004997707303908291</v>
       </c>
       <c r="M24" t="n">
-        <v>0.005003528360141133</v>
+        <v>0.004997707303908291</v>
       </c>
       <c r="N24" t="n">
-        <v>0.005003528360141133</v>
+        <v>0.004997707303908291</v>
       </c>
       <c r="O24" t="n">
-        <v>0.005003528360141133</v>
+        <v>0.004997707303908291</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.007609927888397114</v>
+        <v>-0.007611349936453997</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.006058196498327859</v>
+        <v>0.006063494834539792</v>
       </c>
       <c r="R24" t="n">
-        <v>0.006058196498327859</v>
+        <v>0.006063494834539792</v>
       </c>
       <c r="S24" t="n">
-        <v>0.006058196498327859</v>
+        <v>0.006063494834539792</v>
       </c>
       <c r="T24" t="n">
-        <v>0.006058196498327859</v>
+        <v>0.006063494834539792</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01609941933197677</v>
+        <v>0.01606139680245587</v>
       </c>
       <c r="V24" t="n">
         <v>0.009947720269908809</v>
@@ -2659,26 +2659,26 @@
         <v>0.005642873217714927</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.006433242305329691</v>
+        <v>-0.00668058026722321</v>
       </c>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
-        <v>-0.01261824386472975</v>
+        <v>-0.01286135446645417</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.001099681387987255</v>
+        <v>0.001404875096195003</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.001099681387987255</v>
+        <v>0.001404875096195003</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.001099681387987255</v>
+        <v>0.001404875096195003</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.001099681387987255</v>
+        <v>0.001404875096195003</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.001099681387987255</v>
+        <v>0.001404875096195003</v>
       </c>
     </row>
     <row r="25">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.001260636434425457</v>
+        <v>-0.001255739090229563</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
@@ -2701,47 +2701,47 @@
         <v>-0.02070032924401317</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01567179633887185</v>
+        <v>0.0156583851383354</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.01241558315262332</v>
+        <v>-0.01243196123327845</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.01243461713362035</v>
+        <v>-0.01209745043180191</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.01584510149780406</v>
+        <v>-0.01583717064948682</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.01584510149780406</v>
+        <v>-0.01583717064948682</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.01584510149780406</v>
+        <v>-0.01583717064948682</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.01584510149780406</v>
+        <v>-0.01583717064948682</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.01584510149780406</v>
+        <v>-0.01583717064948682</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02069568591582743</v>
+        <v>-0.02069378089175123</v>
       </c>
       <c r="Q25" t="n">
-        <v>-0.01316956382278255</v>
+        <v>-0.01315803911832156</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.01316956382278255</v>
+        <v>-0.01315803911832156</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.01316956382278255</v>
+        <v>-0.01315803911832156</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.01316956382278255</v>
+        <v>-0.01315803911832156</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.004865742242629689</v>
+        <v>-0.004870422338816894</v>
       </c>
       <c r="V25" t="n">
         <v>0.01351359913254396</v>
@@ -2750,26 +2750,26 @@
         <v>0.02529070833962833</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01960891172835647</v>
+        <v>-0.01956419435056777</v>
       </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
-        <v>-0.0201459850938394</v>
+        <v>-0.0201486176059447</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.01652203390888135</v>
+        <v>0.01631871473274859</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.01652203390888135</v>
+        <v>0.01631871473274859</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.01652203390888135</v>
+        <v>0.01631871473274859</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.01652203390888135</v>
+        <v>0.01631871473274859</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.01652203390888135</v>
+        <v>0.01631871473274859</v>
       </c>
     </row>
     <row r="26">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.03512446681297866</v>
+        <v>0.03514262636570505</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
@@ -2796,47 +2796,47 @@
         <v>-0.01845986051439442</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01004425681777027</v>
+        <v>0.01003110049724402</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.01166485861059434</v>
+        <v>-0.01169889137995565</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.02297919074977915</v>
+        <v>-0.02271429419492263</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.02499380989575239</v>
+        <v>-0.02499342608773704</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.02499380989575239</v>
+        <v>-0.02499342608773704</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.02499380989575239</v>
+        <v>-0.02499342608773704</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.02499380989575239</v>
+        <v>-0.02499342608773704</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.02499380989575239</v>
+        <v>-0.02499342608773704</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01878871572754863</v>
+        <v>-0.01878669655946786</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.02229317119572684</v>
+        <v>-0.02228494639539786</v>
       </c>
       <c r="R26" t="n">
-        <v>-0.02229317119572684</v>
+        <v>-0.02228494639539786</v>
       </c>
       <c r="S26" t="n">
-        <v>-0.02229317119572684</v>
+        <v>-0.02228494639539786</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.02229317119572684</v>
+        <v>-0.02228494639539786</v>
       </c>
       <c r="U26" t="n">
-        <v>4.916006596640263e-05</v>
+        <v>5.495539419821575e-05</v>
       </c>
       <c r="V26" t="n">
         <v>0.01827502537100101</v>
@@ -2845,26 +2845,26 @@
         <v>-0.01479399150375966</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.02680206894408275</v>
+        <v>-0.0267481124299245</v>
       </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
-        <v>-0.02498409738336389</v>
+        <v>-0.02471773183670927</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.0122564200422568</v>
+        <v>0.01209920947596838</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.0122564200422568</v>
+        <v>0.01209920947596838</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.0122564200422568</v>
+        <v>0.01209920947596838</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.0122564200422568</v>
+        <v>0.01209920947596838</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.0122564200422568</v>
+        <v>0.01209920947596838</v>
       </c>
     </row>
     <row r="27">
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.002755012142200485</v>
+        <v>-0.002749843117993724</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
@@ -2887,47 +2887,47 @@
         <v>0.01202815411312616</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.007883927067357082</v>
+        <v>-0.007879390491175619</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.01877126023885041</v>
+        <v>0.01876442302257692</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01019704424191566</v>
+        <v>-0.009647845211407286</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01876008209440328</v>
+        <v>0.01875493351819734</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01876008209440328</v>
+        <v>0.01875493351819734</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01876008209440328</v>
+        <v>0.01875493351819734</v>
       </c>
       <c r="N27" t="n">
-        <v>0.01876008209440328</v>
+        <v>0.01875493351819734</v>
       </c>
       <c r="O27" t="n">
-        <v>0.01876008209440328</v>
+        <v>0.01875493351819734</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01271606902064276</v>
+        <v>0.01271585148463406</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01849946944397878</v>
+        <v>0.01849408557176342</v>
       </c>
       <c r="R27" t="n">
-        <v>0.01849946944397878</v>
+        <v>0.01849408557176342</v>
       </c>
       <c r="S27" t="n">
-        <v>0.01849946944397878</v>
+        <v>0.01849408557176342</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01849946944397878</v>
+        <v>0.01849408557176342</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.002526440357057614</v>
+        <v>-0.002568749958749998</v>
       </c>
       <c r="V27" t="n">
         <v>-0.01073611598144464</v>
@@ -2936,26 +2936,26 @@
         <v>0.01023514476140579</v>
       </c>
       <c r="X27" t="n">
-        <v>0.008660068762402749</v>
+        <v>0.008442029137681164</v>
       </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>0.02753757873350315</v>
+        <v>0.027576550223062</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.01619302039172081</v>
+        <v>-0.01623996228159849</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.01619302039172081</v>
+        <v>-0.01623996228159849</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.01619302039172081</v>
+        <v>-0.01623996228159849</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.01619302039172081</v>
+        <v>-0.01623996228159849</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.01619302039172081</v>
+        <v>-0.01623996228159849</v>
       </c>
     </row>
     <row r="28">
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.008691847931673914</v>
+        <v>-0.008698648283945931</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
@@ -2982,47 +2982,47 @@
         <v>0.02522738164909526</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.009387663159506525</v>
+        <v>-0.009420768184830727</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.01031003330840133</v>
+        <v>0.01030459740418389</v>
       </c>
       <c r="J28" t="n">
-        <v>0.008258665202473132</v>
+        <v>0.007805519551901413</v>
       </c>
       <c r="K28" t="n">
-        <v>0.02814836195793448</v>
+        <v>0.02816639738265589</v>
       </c>
       <c r="L28" t="n">
-        <v>0.02814836195793448</v>
+        <v>0.02816639738265589</v>
       </c>
       <c r="M28" t="n">
-        <v>0.02814836195793448</v>
+        <v>0.02816639738265589</v>
       </c>
       <c r="N28" t="n">
-        <v>0.02814836195793448</v>
+        <v>0.02816639738265589</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02814836195793448</v>
+        <v>0.02816639738265589</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02733644422945777</v>
+        <v>0.02733975862959034</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01737668815106752</v>
+        <v>0.01740682946427318</v>
       </c>
       <c r="R28" t="n">
-        <v>0.01737668815106752</v>
+        <v>0.01740682946427318</v>
       </c>
       <c r="S28" t="n">
-        <v>0.01737668815106752</v>
+        <v>0.01740682946427318</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01737668815106752</v>
+        <v>0.01740682946427318</v>
       </c>
       <c r="U28" t="n">
-        <v>-0.01842268153690726</v>
+        <v>-0.01838036617521464</v>
       </c>
       <c r="V28" t="n">
         <v>-0.06864858668194346</v>
@@ -3031,26 +3031,26 @@
         <v>0.9510138684725546</v>
       </c>
       <c r="X28" t="n">
-        <v>0.02895142800605712</v>
+        <v>0.02933864738154589</v>
       </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
-        <v>0.01858241277529651</v>
+        <v>0.0186904626996185</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.005575194943007797</v>
+        <v>-0.005909344844373794</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.005575194943007797</v>
+        <v>-0.005909344844373794</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.005575194943007797</v>
+        <v>-0.005909344844373794</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.005575194943007797</v>
+        <v>-0.005909344844373794</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.005575194943007797</v>
+        <v>-0.005909344844373794</v>
       </c>
     </row>
     <row r="29">
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.02618722962348918</v>
+        <v>-0.02618430719137229</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
@@ -3077,47 +3077,47 @@
         <v>0.01880236145609445</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01185599212223968</v>
+        <v>-0.01185323874612955</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.01897796984711879</v>
+        <v>-0.01896016347840654</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01244130094189428</v>
+        <v>0.0124724648471715</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0002842451633698065</v>
+        <v>0.0002793141231725649</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0002842451633698065</v>
+        <v>0.0002793141231725649</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0002842451633698065</v>
+        <v>0.0002793141231725649</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0002842451633698065</v>
+        <v>0.0002793141231725649</v>
       </c>
       <c r="O29" t="n">
-        <v>0.0002842451633698065</v>
+        <v>0.0002793141231725649</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01903047061721882</v>
+        <v>0.0190301799292072</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.002580178855207154</v>
+        <v>-0.002586177607447104</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.002580178855207154</v>
+        <v>-0.002586177607447104</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.002580178855207154</v>
+        <v>-0.002586177607447104</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.002580178855207154</v>
+        <v>-0.002586177607447104</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.03894670475786819</v>
+        <v>-0.03893299432531977</v>
       </c>
       <c r="V29" t="n">
         <v>-0.02638072070322882</v>
@@ -3126,26 +3126,26 @@
         <v>0.2890567070822683</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01493637832545513</v>
+        <v>0.01487959326718373</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
-        <v>0.02738022176720887</v>
+        <v>0.02728285136331405</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.002757820718312829</v>
+        <v>0.002668987306759492</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.002757820718312829</v>
+        <v>0.002668987306759492</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.002757820718312829</v>
+        <v>0.002668987306759492</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.002757820718312829</v>
+        <v>0.002668987306759492</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.002757820718312829</v>
+        <v>0.002668987306759492</v>
       </c>
     </row>
     <row r="30">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01965811729832469</v>
+        <v>-0.01966182894647316</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
@@ -3172,47 +3172,47 @@
         <v>0.01507304796292191</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01261347679253907</v>
+        <v>-0.01260939535237581</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.02161388592055543</v>
+        <v>-0.02160099552003982</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01691516147725098</v>
+        <v>0.01725494917117684</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03341289704851588</v>
+        <v>0.03341505733660229</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03341289704851588</v>
+        <v>0.03341505733660229</v>
       </c>
       <c r="M30" t="n">
-        <v>0.03341289704851588</v>
+        <v>0.03341505733660229</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03341289704851588</v>
+        <v>0.03341505733660229</v>
       </c>
       <c r="O30" t="n">
-        <v>0.03341289704851588</v>
+        <v>0.03341505733660229</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01564223534568941</v>
+        <v>0.01564160712166428</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.03456125840645033</v>
+        <v>0.03455828615033144</v>
       </c>
       <c r="R30" t="n">
-        <v>0.03456125840645033</v>
+        <v>0.03455828615033144</v>
       </c>
       <c r="S30" t="n">
-        <v>0.03456125840645033</v>
+        <v>0.03455828615033144</v>
       </c>
       <c r="T30" t="n">
-        <v>0.03456125840645033</v>
+        <v>0.03455828615033144</v>
       </c>
       <c r="U30" t="n">
-        <v>0.00683081652923266</v>
+        <v>0.006805588880223554</v>
       </c>
       <c r="V30" t="n">
         <v>-0.004516398036655921</v>
@@ -3221,26 +3221,26 @@
         <v>0.09809151704366068</v>
       </c>
       <c r="X30" t="n">
-        <v>0.02042478120099125</v>
+        <v>0.02036073595042944</v>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
-        <v>0.01030869449234778</v>
+        <v>0.01018043234321729</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.009685956771438268</v>
+        <v>-0.009578403263136128</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.009685956771438268</v>
+        <v>-0.009578403263136128</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.009685956771438268</v>
+        <v>-0.009578403263136128</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.009685956771438268</v>
+        <v>-0.009578403263136128</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.009685956771438268</v>
+        <v>-0.009578403263136128</v>
       </c>
     </row>
     <row r="31">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.000472133202885328</v>
+        <v>-0.0004820978112839124</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
@@ -3267,47 +3267,47 @@
         <v>0.0004720592828823713</v>
       </c>
       <c r="G31" t="n">
-        <v>0.005655381442215257</v>
+        <v>0.005661879490475179</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.01420360328814413</v>
+        <v>0.01421639096865564</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.04905553492249204</v>
+        <v>-0.04909433150008208</v>
       </c>
       <c r="K31" t="n">
-        <v>0.00999154676766187</v>
+        <v>0.009998641839945673</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00999154676766187</v>
+        <v>0.009998641839945673</v>
       </c>
       <c r="M31" t="n">
-        <v>0.00999154676766187</v>
+        <v>0.009998641839945673</v>
       </c>
       <c r="N31" t="n">
-        <v>0.00999154676766187</v>
+        <v>0.009998641839945673</v>
       </c>
       <c r="O31" t="n">
-        <v>0.00999154676766187</v>
+        <v>0.009998641839945673</v>
       </c>
       <c r="P31" t="n">
-        <v>0.0007575031983001279</v>
+        <v>0.0007571680622867224</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.008398951151958045</v>
+        <v>0.00840099528003981</v>
       </c>
       <c r="R31" t="n">
-        <v>0.008398951151958045</v>
+        <v>0.00840099528003981</v>
       </c>
       <c r="S31" t="n">
-        <v>0.008398951151958045</v>
+        <v>0.00840099528003981</v>
       </c>
       <c r="T31" t="n">
-        <v>0.008398951151958045</v>
+        <v>0.00840099528003981</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.01127007433880297</v>
+        <v>-0.01121307184052287</v>
       </c>
       <c r="V31" t="n">
         <v>-0.004339129325565172</v>
@@ -3316,26 +3316,26 @@
         <v>0.04481532073661283</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.004162965478518618</v>
+        <v>-0.003844457145778285</v>
       </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
-        <v>0.00488698627547945</v>
+        <v>0.004721164316846571</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.008153336486133459</v>
+        <v>0.008289225931569036</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.008153336486133459</v>
+        <v>0.008289225931569036</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.008153336486133459</v>
+        <v>0.008289225931569036</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.008153336486133459</v>
+        <v>0.008289225931569036</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.008153336486133459</v>
+        <v>0.008289225931569036</v>
       </c>
     </row>
     <row r="32">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4568038410561536</v>
+        <v>0.456814478144579</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
@@ -3362,47 +3362,47 @@
         <v>-0.9975769163190765</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9527866853754674</v>
+        <v>0.9527712457908497</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.2987423873736955</v>
+        <v>0.2987406171336247</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.7575798199606513</v>
+        <v>-0.7576258256585369</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.5472119371204774</v>
+        <v>-0.5472075069123002</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.5472119371204774</v>
+        <v>-0.5472075069123002</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.5472119371204774</v>
+        <v>-0.5472075069123002</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.5472119371204774</v>
+        <v>-0.5472075069123002</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.5472119371204774</v>
+        <v>-0.5472075069123002</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9963673623506943</v>
+        <v>-0.9963676743507069</v>
       </c>
       <c r="Q32" t="n">
-        <v>-0.5804300466092017</v>
+        <v>-0.5804121378084853</v>
       </c>
       <c r="R32" t="n">
-        <v>-0.5804300466092017</v>
+        <v>-0.5804121378084853</v>
       </c>
       <c r="S32" t="n">
-        <v>-0.5804300466092017</v>
+        <v>-0.5804121378084853</v>
       </c>
       <c r="T32" t="n">
-        <v>-0.5804300466092017</v>
+        <v>-0.5804121378084853</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.1594166575126663</v>
+        <v>-0.1594105703444228</v>
       </c>
       <c r="V32" t="n">
         <v>0.02573346794133871</v>
@@ -3411,26 +3411,26 @@
         <v>-0.02645860387434415</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.6561215328368613</v>
+        <v>-0.6560579306263171</v>
       </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>-0.5307880210715208</v>
+        <v>-0.5307176176447047</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.8494561277702449</v>
+        <v>0.8494348214333928</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.8494561277702449</v>
+        <v>0.8494348214333928</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.8494561277702449</v>
+        <v>0.8494348214333928</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.8494561277702449</v>
+        <v>0.8494348214333928</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.8494561277702449</v>
+        <v>0.8494348214333928</v>
       </c>
     </row>
     <row r="33">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01892291029291641</v>
+        <v>0.01892044779681791</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
@@ -3457,47 +3457,47 @@
         <v>-0.05812276024491041</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05100811768832471</v>
+        <v>0.0510033298801332</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>0.05610701082028042</v>
+        <v>0.05611063347642533</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.1388720118035305</v>
+        <v>-0.1382038734721475</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.03879638190385527</v>
+        <v>-0.0387937652317506</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.03879638190385527</v>
+        <v>-0.0387937652317506</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.03879638190385527</v>
+        <v>-0.0387937652317506</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.03879638190385527</v>
+        <v>-0.0387937652317506</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.03879638190385527</v>
+        <v>-0.0387937652317506</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.05913958076558323</v>
+        <v>-0.05913715302148611</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.03788385597935423</v>
+        <v>-0.03788056682722266</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.03788385597935423</v>
+        <v>-0.03788056682722266</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.03788385597935423</v>
+        <v>-0.03788056682722266</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.03788385597935423</v>
+        <v>-0.03788056682722266</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.003895682939827317</v>
+        <v>-0.003928985053159401</v>
       </c>
       <c r="V33" t="n">
         <v>0.01995167839806714</v>
@@ -3506,26 +3506,26 @@
         <v>0.01106739481069579</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.08024073181762927</v>
+        <v>-0.08040854827234192</v>
       </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
-        <v>-0.02122001480080059</v>
+        <v>-0.02092369216494768</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.0732690425787617</v>
+        <v>0.07303974080958962</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.0732690425787617</v>
+        <v>0.07303974080958962</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.0732690425787617</v>
+        <v>0.07303974080958962</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.0732690425787617</v>
+        <v>0.07303974080958962</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0732690425787617</v>
+        <v>0.07303974080958962</v>
       </c>
     </row>
     <row r="34">
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.001553703326148133</v>
+        <v>-0.0015614075184563</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
@@ -3552,47 +3552,47 @@
         <v>-0.003659285042371401</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00108048925921957</v>
+        <v>0.001097973835918953</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>0.01035195651007826</v>
+        <v>0.01036406143856246</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.06430344829941251</v>
+        <v>-0.06428976004285153</v>
       </c>
       <c r="K34" t="n">
-        <v>0.04761053940842157</v>
+        <v>0.04761088126443525</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04761053940842157</v>
+        <v>0.04761088126443525</v>
       </c>
       <c r="M34" t="n">
-        <v>0.04761053940842157</v>
+        <v>0.04761088126443525</v>
       </c>
       <c r="N34" t="n">
-        <v>0.04761053940842157</v>
+        <v>0.04761088126443525</v>
       </c>
       <c r="O34" t="n">
-        <v>0.04761053940842157</v>
+        <v>0.04761088126443525</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.001632886625315465</v>
+        <v>-0.001634886113395444</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04781547839261913</v>
+        <v>0.04780058140002325</v>
       </c>
       <c r="R34" t="n">
-        <v>0.04781547839261913</v>
+        <v>0.04780058140002325</v>
       </c>
       <c r="S34" t="n">
-        <v>0.04781547839261913</v>
+        <v>0.04780058140002325</v>
       </c>
       <c r="T34" t="n">
-        <v>0.04781547839261913</v>
+        <v>0.04780058140002325</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.002368383742735349</v>
+        <v>-0.002373621886944875</v>
       </c>
       <c r="V34" t="n">
         <v>0.0005478026139121044</v>
@@ -3601,26 +3601,26 @@
         <v>-0.008905602404224095</v>
       </c>
       <c r="X34" t="n">
-        <v>0.006819154736766189</v>
+        <v>0.006825705873028234</v>
       </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
-        <v>-0.01000323678412947</v>
+        <v>-0.01029480626779225</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.04405457437018297</v>
+        <v>0.04425265405810615</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.04405457437018297</v>
+        <v>0.04425265405810615</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.04405457437018297</v>
+        <v>0.04425265405810615</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.04405457437018297</v>
+        <v>0.04425265405810615</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.04405457437018297</v>
+        <v>0.04425265405810615</v>
       </c>
     </row>
     <row r="35">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.02976176077447043</v>
+        <v>-0.02977696842307874</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
@@ -3647,47 +3647,47 @@
         <v>0.02753409479736379</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.03221141984845679</v>
+        <v>-0.03220088279203531</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>-0.00734972150998886</v>
+        <v>-0.007320352228814088</v>
       </c>
       <c r="J35" t="n">
-        <v>0.03281359948883256</v>
+        <v>0.03279481286406261</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7882344642653785</v>
+        <v>0.7882408023776319</v>
       </c>
       <c r="L35" t="n">
-        <v>0.7882344642653785</v>
+        <v>0.7882408023776319</v>
       </c>
       <c r="M35" t="n">
-        <v>0.7882344642653785</v>
+        <v>0.7882408023776319</v>
       </c>
       <c r="N35" t="n">
-        <v>0.7882344642653785</v>
+        <v>0.7882408023776319</v>
       </c>
       <c r="O35" t="n">
-        <v>0.7882344642653785</v>
+        <v>0.7882408023776319</v>
       </c>
       <c r="P35" t="n">
-        <v>0.05114554198182167</v>
+        <v>0.05114348287773931</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.798683401803336</v>
+        <v>0.798688801227552</v>
       </c>
       <c r="R35" t="n">
-        <v>0.798683401803336</v>
+        <v>0.798688801227552</v>
       </c>
       <c r="S35" t="n">
-        <v>0.798683401803336</v>
+        <v>0.798688801227552</v>
       </c>
       <c r="T35" t="n">
-        <v>0.798683401803336</v>
+        <v>0.798688801227552</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01456349079053963</v>
+        <v>0.0145208600688344</v>
       </c>
       <c r="V35" t="n">
         <v>0.01378995655159826</v>
@@ -3696,26 +3696,26 @@
         <v>-0.005007773864310954</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02160596832023873</v>
+        <v>0.02140084626403385</v>
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>0.02067594927503797</v>
+        <v>0.02063803023352121</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.2822659810186392</v>
+        <v>-0.282227276601091</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.2822659810186392</v>
+        <v>-0.282227276601091</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.2822659810186392</v>
+        <v>-0.282227276601091</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.2822659810186392</v>
+        <v>-0.282227276601091</v>
       </c>
       <c r="AE35" t="n">
-        <v>-0.2822659810186392</v>
+        <v>-0.282227276601091</v>
       </c>
     </row>
     <row r="36">
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.001659626178385047</v>
+        <v>-0.001648294433931777</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
@@ -3742,47 +3742,47 @@
         <v>-0.01472126602885064</v>
       </c>
       <c r="G36" t="n">
-        <v>0.009769324134772963</v>
+        <v>0.009775286023011439</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.002287365883494635</v>
+        <v>0.002282164219286568</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.01089043599833363</v>
+        <v>-0.01098705501029346</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.01081805400072216</v>
+        <v>-0.01082809387312375</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.01081805400072216</v>
+        <v>-0.01082809387312375</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.01081805400072216</v>
+        <v>-0.01082809387312375</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.01081805400072216</v>
+        <v>-0.01082809387312375</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.01081805400072216</v>
+        <v>-0.01082809387312375</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01510961801238472</v>
+        <v>-0.01511138316445532</v>
       </c>
       <c r="Q36" t="n">
-        <v>-0.007435324041412961</v>
+        <v>-0.007448214057928562</v>
       </c>
       <c r="R36" t="n">
-        <v>-0.007435324041412961</v>
+        <v>-0.007448214057928562</v>
       </c>
       <c r="S36" t="n">
-        <v>-0.007435324041412961</v>
+        <v>-0.007448214057928562</v>
       </c>
       <c r="T36" t="n">
-        <v>-0.007435324041412961</v>
+        <v>-0.007448214057928562</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02676228433449137</v>
+        <v>0.02677084859083394</v>
       </c>
       <c r="V36" t="n">
         <v>0.01069336055573442</v>
@@ -3791,26 +3791,26 @@
         <v>0.01287686365107455</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.01742936930517477</v>
+        <v>-0.01748481477939259</v>
       </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
-        <v>-0.01599703100788124</v>
+        <v>-0.01593447942137917</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.01303976989759079</v>
+        <v>0.01313108673324347</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.01303976989759079</v>
+        <v>0.01313108673324347</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.01303976989759079</v>
+        <v>0.01313108673324347</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.01303976989759079</v>
+        <v>0.01313108673324347</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.01303976989759079</v>
+        <v>0.01313108673324347</v>
       </c>
     </row>
     <row r="37">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.003027264409090576</v>
+        <v>0.003036540697461627</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
@@ -3837,47 +3837,47 @@
         <v>-0.001633238945329558</v>
       </c>
       <c r="G37" t="n">
-        <v>0.002073099634923985</v>
+        <v>0.00205085576203423</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.01947150625086025</v>
+        <v>0.01946638042665521</v>
       </c>
       <c r="J37" t="n">
-        <v>0.008540666654030681</v>
+        <v>0.008348160534141011</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1039977679999107</v>
+        <v>0.1040017201280688</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1039977679999107</v>
+        <v>0.1040017201280688</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1039977679999107</v>
+        <v>0.1040017201280688</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1039977679999107</v>
+        <v>0.1040017201280688</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1039977679999107</v>
+        <v>0.1040017201280688</v>
       </c>
       <c r="P37" t="n">
-        <v>0.001981981615279264</v>
+        <v>0.00198530052741202</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1046184454647378</v>
+        <v>0.1046403943296158</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1046184454647378</v>
+        <v>0.1046403943296158</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1046184454647378</v>
+        <v>0.1046403943296158</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1046184454647378</v>
+        <v>0.1046403943296158</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.01149986407599456</v>
+        <v>-0.01150967892438716</v>
       </c>
       <c r="V37" t="n">
         <v>-0.0163076175163047</v>
@@ -3886,26 +3886,26 @@
         <v>-0.002299128667965146</v>
       </c>
       <c r="X37" t="n">
-        <v>0.008202689224107568</v>
+        <v>0.008082206627288264</v>
       </c>
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
-        <v>0.01687903632316145</v>
+        <v>0.0169523850300954</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.1347843095193724</v>
+        <v>0.1347615439824617</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.1347843095193724</v>
+        <v>0.1347615439824617</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.1347843095193724</v>
+        <v>0.1347615439824617</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.1347843095193724</v>
+        <v>0.1347615439824617</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.1347843095193724</v>
+        <v>0.1347615439824617</v>
       </c>
     </row>
     <row r="38">
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.001151951566078062</v>
+        <v>0.001155588526223541</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
@@ -3932,47 +3932,47 @@
         <v>0.01664394133775765</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01380962292038492</v>
+        <v>-0.01379288599171544</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>-5.61257302450292e-05</v>
+        <v>-5.469725018788999e-05</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0231358068361979</v>
+        <v>0.02358741187870649</v>
       </c>
       <c r="K38" t="n">
-        <v>0.01865530442621217</v>
+        <v>0.01864791386591655</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01865530442621217</v>
+        <v>0.01864791386591655</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01865530442621217</v>
+        <v>0.01864791386591655</v>
       </c>
       <c r="N38" t="n">
-        <v>0.01865530442621217</v>
+        <v>0.01864791386591655</v>
       </c>
       <c r="O38" t="n">
-        <v>0.01865530442621217</v>
+        <v>0.01864791386591655</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01701224295248972</v>
+        <v>0.01700993741639749</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01939212451968498</v>
+        <v>0.01937025341481013</v>
       </c>
       <c r="R38" t="n">
-        <v>0.01939212451968498</v>
+        <v>0.01937025341481013</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01939212451968498</v>
+        <v>0.01937025341481013</v>
       </c>
       <c r="T38" t="n">
-        <v>0.01939212451968498</v>
+        <v>0.01937025341481013</v>
       </c>
       <c r="U38" t="n">
-        <v>-0.001027205129088205</v>
+        <v>-0.001019427784777111</v>
       </c>
       <c r="V38" t="n">
         <v>-0.00867801557912062</v>
@@ -3981,26 +3981,26 @@
         <v>0.006436027073441083</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01220072765602911</v>
+        <v>0.01218159331926373</v>
       </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
-        <v>0.01594047279761891</v>
+        <v>0.01581166700046668</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.01772730618109224</v>
+        <v>-0.01773805962152238</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.01772730618109224</v>
+        <v>-0.01773805962152238</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.01772730618109224</v>
+        <v>-0.01773805962152238</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.01772730618109224</v>
+        <v>-0.01773805962152238</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.01772730618109224</v>
+        <v>-0.01773805962152238</v>
       </c>
     </row>
     <row r="39">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.0007370988774839549</v>
+        <v>0.0007333892453355697</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
@@ -4027,47 +4027,47 @@
         <v>-0.0005090221643608865</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004366962798678512</v>
+        <v>0.004334237453369498</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>0.005160058478402339</v>
+        <v>0.005148649165945966</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.001387965992884398</v>
+        <v>-0.001333582278655536</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.002512404292496172</v>
+        <v>-0.002490099843603993</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.002512404292496172</v>
+        <v>-0.002490099843603993</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.002512404292496172</v>
+        <v>-0.002490099843603993</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.002512404292496172</v>
+        <v>-0.002490099843603993</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.002512404292496172</v>
+        <v>-0.002490099843603993</v>
       </c>
       <c r="P39" t="n">
-        <v>9.738288389531534e-05</v>
+        <v>0.0001023844840953793</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.008555158518206339</v>
+        <v>-0.008520879796835192</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.008555158518206339</v>
+        <v>-0.008520879796835192</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.008555158518206339</v>
+        <v>-0.008520879796835192</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.008555158518206339</v>
+        <v>-0.008520879796835192</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.0009881632715265307</v>
+        <v>-0.0009340951093638042</v>
       </c>
       <c r="V39" t="n">
         <v>-0.02661931364077254</v>
@@ -4076,26 +4076,26 @@
         <v>0.01110758540430341</v>
       </c>
       <c r="X39" t="n">
-        <v>0.007452434794097392</v>
+        <v>0.007814467992578717</v>
       </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
-        <v>0.01859534858381394</v>
+        <v>0.01889291067571643</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.009840073833602952</v>
+        <v>0.009348158389926335</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.009840073833602952</v>
+        <v>0.009348158389926335</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.009840073833602952</v>
+        <v>0.009348158389926335</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.009840073833602952</v>
+        <v>0.009348158389926335</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.009840073833602952</v>
+        <v>0.009348158389926335</v>
       </c>
     </row>
   </sheetData>
